--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC522"/>
+  <dimension ref="A1:AC520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140985</v>
+        <v>6140182</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K198">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N198">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6140182</v>
+        <v>6141040</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45063.875</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
         <v>1.8</v>
       </c>
-      <c r="S199">
-        <v>2</v>
-      </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6141040</v>
+        <v>6140241</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,73 +18274,73 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L200">
         <v>3.3</v>
       </c>
       <c r="M200">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N200">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2.2</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>-0</v>
+      </c>
+      <c r="AB200">
         <v>0.95</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>1</v>
-      </c>
-      <c r="AA200">
-        <v>-1</v>
-      </c>
-      <c r="AB200">
-        <v>0.8</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140241</v>
+        <v>6140985</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,73 +18363,73 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K201">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N201">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R201">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -37664,7 +37664,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37676,76 +37676,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F418" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G418" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418">
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K418">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L418">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M418">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N418">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O418">
         <v>3.2</v>
       </c>
       <c r="P418">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q418">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R418">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S418">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V418">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W418">
         <v>-1</v>
       </c>
       <c r="X418">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z418">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA418">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB418">
         <v>-1</v>
       </c>
       <c r="AC418">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37753,7 +37753,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37765,76 +37765,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F419" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G419" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419">
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K419">
+        <v>1.95</v>
+      </c>
+      <c r="L419">
         <v>3.2</v>
       </c>
-      <c r="L419">
-        <v>3.1</v>
-      </c>
       <c r="M419">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N419">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O419">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P419">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q419">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R419">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S419">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T419">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U419">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V419">
         <v>1.975</v>
       </c>
       <c r="W419">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X419">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA419">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB419">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC419">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7404218</v>
+        <v>7404212</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,49 +37854,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F420" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K420">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L420">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M420">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N420">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O420">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P420">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q420">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R420">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S420">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T420">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U420">
         <v>2.025</v>
@@ -37905,19 +37905,19 @@
         <v>1.825</v>
       </c>
       <c r="W420">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X420">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB420">
         <v>-1</v>
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37943,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421">
         <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K421">
+        <v>3.2</v>
+      </c>
+      <c r="L421">
+        <v>3.1</v>
+      </c>
+      <c r="M421">
+        <v>2.2</v>
+      </c>
+      <c r="N421">
+        <v>3.6</v>
+      </c>
+      <c r="O421">
+        <v>3</v>
+      </c>
+      <c r="P421">
+        <v>2.25</v>
+      </c>
+      <c r="Q421">
+        <v>0.25</v>
+      </c>
+      <c r="R421">
         <v>1.95</v>
       </c>
-      <c r="L421">
-        <v>3.2</v>
-      </c>
-      <c r="M421">
-        <v>3.75</v>
-      </c>
-      <c r="N421">
-        <v>1.95</v>
-      </c>
-      <c r="O421">
-        <v>3.2</v>
-      </c>
-      <c r="P421">
-        <v>4.75</v>
-      </c>
-      <c r="Q421">
-        <v>-0.5</v>
-      </c>
-      <c r="R421">
-        <v>1.925</v>
-      </c>
       <c r="S421">
+        <v>1.9</v>
+      </c>
+      <c r="T421">
+        <v>2.25</v>
+      </c>
+      <c r="U421">
         <v>1.875</v>
-      </c>
-      <c r="T421">
-        <v>2</v>
-      </c>
-      <c r="U421">
-        <v>1.825</v>
       </c>
       <c r="V421">
         <v>1.975</v>
       </c>
       <c r="W421">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB421">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,76 +38032,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G422" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K422">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L422">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M422">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N422">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O422">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P422">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q422">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R422">
         <v>1.9</v>
       </c>
       <c r="S422">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T422">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U422">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V422">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA422">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
         <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,73 +38121,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G423" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H423">
         <v>2</v>
       </c>
       <c r="I423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K423">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L423">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M423">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N423">
+        <v>2.1</v>
+      </c>
+      <c r="O423">
+        <v>3.1</v>
+      </c>
+      <c r="P423">
+        <v>3.8</v>
+      </c>
+      <c r="Q423">
+        <v>-0.25</v>
+      </c>
+      <c r="R423">
         <v>1.75</v>
       </c>
-      <c r="O423">
-        <v>3.6</v>
-      </c>
-      <c r="P423">
-        <v>4.75</v>
-      </c>
-      <c r="Q423">
-        <v>-0.75</v>
-      </c>
-      <c r="R423">
-        <v>2</v>
-      </c>
       <c r="S423">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T423">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U423">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V423">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA423">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC423">
         <v>-1</v>
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,55 +38210,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G424" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J424" t="s">
         <v>55</v>
       </c>
       <c r="K424">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L424">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M424">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O424">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P424">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q424">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R424">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S424">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U424">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V424">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W424">
         <v>-1</v>
@@ -38267,19 +38267,19 @@
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC424">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7404215</v>
+        <v>7404213</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,55 +38299,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F425" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G425" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J425" t="s">
         <v>55</v>
       </c>
       <c r="K425">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L425">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M425">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N425">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O425">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P425">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q425">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R425">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S425">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U425">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V425">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W425">
         <v>-1</v>
@@ -38356,19 +38356,19 @@
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>6.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB425">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38376,7 +38376,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38388,55 +38388,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F426" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G426" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J426" t="s">
         <v>55</v>
       </c>
       <c r="K426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L426">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M426">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N426">
+        <v>1.75</v>
+      </c>
+      <c r="O426">
         <v>3.6</v>
       </c>
-      <c r="O426">
-        <v>3.4</v>
-      </c>
       <c r="P426">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q426">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R426">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S426">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T426">
         <v>2.5</v>
       </c>
       <c r="U426">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V426">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W426">
         <v>-1</v>
@@ -38445,16 +38445,16 @@
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB426">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC426">
         <v>-1</v>
@@ -38465,7 +38465,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38477,49 +38477,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F427" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G427" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J427" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K427">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L427">
         <v>3.1</v>
       </c>
       <c r="M427">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N427">
+        <v>3.6</v>
+      </c>
+      <c r="O427">
+        <v>3.4</v>
+      </c>
+      <c r="P427">
         <v>2.1</v>
       </c>
-      <c r="O427">
-        <v>3.1</v>
-      </c>
-      <c r="P427">
-        <v>3.8</v>
-      </c>
       <c r="Q427">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R427">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S427">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T427">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U427">
         <v>1.85</v>
@@ -38528,19 +38528,19 @@
         <v>1.95</v>
       </c>
       <c r="W427">
+        <v>-1</v>
+      </c>
+      <c r="X427">
+        <v>-1</v>
+      </c>
+      <c r="Y427">
         <v>1.1</v>
       </c>
-      <c r="X427">
-        <v>-1</v>
-      </c>
-      <c r="Y427">
-        <v>-1</v>
-      </c>
       <c r="Z427">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA427">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB427">
         <v>0.8500000000000001</v>
@@ -40512,7 +40512,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40524,58 +40524,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F450" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G450" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J450" t="s">
         <v>54</v>
       </c>
       <c r="K450">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L450">
         <v>3.3</v>
       </c>
       <c r="M450">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N450">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O450">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P450">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q450">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R450">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S450">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T450">
         <v>2.5</v>
       </c>
       <c r="U450">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V450">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W450">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X450">
         <v>-1</v>
@@ -40584,13 +40584,13 @@
         <v>-1</v>
       </c>
       <c r="Z450">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA450">
         <v>-1</v>
       </c>
       <c r="AB450">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC450">
         <v>-1</v>
@@ -40601,7 +40601,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40613,58 +40613,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F451" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G451" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H451">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I451">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J451" t="s">
         <v>54</v>
       </c>
       <c r="K451">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L451">
         <v>3.3</v>
       </c>
       <c r="M451">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N451">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O451">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P451">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q451">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R451">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S451">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T451">
         <v>2.5</v>
       </c>
       <c r="U451">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V451">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W451">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X451">
         <v>-1</v>
@@ -40673,13 +40673,13 @@
         <v>-1</v>
       </c>
       <c r="Z451">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA451">
         <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC451">
         <v>-1</v>
@@ -46030,7 +46030,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7631339</v>
+        <v>7630515</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46039,49 +46039,49 @@
         <v>28</v>
       </c>
       <c r="E512" s="2">
-        <v>45338.84027777778</v>
+        <v>45339.83680555555</v>
       </c>
       <c r="F512" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G512" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K512">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L512">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M512">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N512">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O512">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P512">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q512">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R512">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S512">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T512">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U512">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V512">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W512">
         <v>0</v>
@@ -46104,7 +46104,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7631385</v>
+        <v>7631382</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46113,49 +46113,49 @@
         <v>28</v>
       </c>
       <c r="E513" s="2">
-        <v>45338.93055555555</v>
+        <v>45339.92708333334</v>
       </c>
       <c r="F513" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G513" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K513">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L513">
         <v>3</v>
       </c>
       <c r="M513">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N513">
+        <v>2.25</v>
+      </c>
+      <c r="O513">
         <v>3.2</v>
       </c>
-      <c r="O513">
-        <v>3.1</v>
-      </c>
       <c r="P513">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q513">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S513">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T513">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U513">
+        <v>2.1</v>
+      </c>
+      <c r="V513">
         <v>1.775</v>
-      </c>
-      <c r="V513">
-        <v>2.1</v>
       </c>
       <c r="W513">
         <v>0</v>
@@ -46178,7 +46178,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7630515</v>
+        <v>7630514</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46187,49 +46187,49 @@
         <v>28</v>
       </c>
       <c r="E514" s="2">
-        <v>45339.83680555555</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F514" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G514" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K514">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L514">
         <v>3.1</v>
       </c>
       <c r="M514">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N514">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O514">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P514">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q514">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R514">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S514">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T514">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U514">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V514">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W514">
         <v>0</v>
@@ -46252,7 +46252,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7631382</v>
+        <v>7631384</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46261,49 +46261,49 @@
         <v>28</v>
       </c>
       <c r="E515" s="2">
-        <v>45339.92708333334</v>
+        <v>45340.75</v>
       </c>
       <c r="F515" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G515" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K515">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L515">
         <v>3</v>
       </c>
       <c r="M515">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N515">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O515">
         <v>3.2</v>
       </c>
       <c r="P515">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q515">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R515">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S515">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T515">
         <v>2.25</v>
       </c>
       <c r="U515">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V515">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W515">
         <v>0</v>
@@ -46326,7 +46326,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7630514</v>
+        <v>7631381</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46335,49 +46335,49 @@
         <v>28</v>
       </c>
       <c r="E516" s="2">
-        <v>45340.66666666666</v>
+        <v>45340.84027777778</v>
       </c>
       <c r="F516" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G516" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K516">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L516">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M516">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N516">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O516">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P516">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q516">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R516">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S516">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T516">
         <v>2</v>
       </c>
       <c r="U516">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V516">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W516">
         <v>0</v>
@@ -46400,7 +46400,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7631384</v>
+        <v>7631383</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46409,49 +46409,49 @@
         <v>28</v>
       </c>
       <c r="E517" s="2">
-        <v>45340.75</v>
+        <v>45340.93055555555</v>
       </c>
       <c r="F517" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G517" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K517">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L517">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M517">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N517">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O517">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P517">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q517">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R517">
+        <v>1.9</v>
+      </c>
+      <c r="S517">
         <v>1.95</v>
-      </c>
-      <c r="S517">
-        <v>1.9</v>
       </c>
       <c r="T517">
         <v>2.25</v>
       </c>
       <c r="U517">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V517">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W517">
         <v>0</v>
@@ -46474,7 +46474,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7631381</v>
+        <v>7839034</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46483,49 +46483,49 @@
         <v>28</v>
       </c>
       <c r="E518" s="2">
-        <v>45340.84027777778</v>
+        <v>45341.75</v>
       </c>
       <c r="F518" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G518" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K518">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L518">
         <v>3</v>
       </c>
       <c r="M518">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N518">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O518">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P518">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q518">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S518">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T518">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U518">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V518">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W518">
         <v>0</v>
@@ -46548,7 +46548,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7631383</v>
+        <v>7844784</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46557,49 +46557,49 @@
         <v>28</v>
       </c>
       <c r="E519" s="2">
-        <v>45340.93055555555</v>
+        <v>45341.75</v>
       </c>
       <c r="F519" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G519" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K519">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L519">
         <v>3.3</v>
       </c>
       <c r="M519">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N519">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O519">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P519">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q519">
         <v>-0.5</v>
       </c>
       <c r="R519">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S519">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T519">
         <v>2.25</v>
       </c>
       <c r="U519">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V519">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W519">
         <v>0</v>
@@ -46622,7 +46622,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7839034</v>
+        <v>7631386</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46631,49 +46631,49 @@
         <v>28</v>
       </c>
       <c r="E520" s="2">
-        <v>45341.75</v>
+        <v>45341.93055555555</v>
       </c>
       <c r="F520" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G520" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K520">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L520">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M520">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N520">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O520">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P520">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q520">
         <v>-0.5</v>
       </c>
       <c r="R520">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S520">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T520">
         <v>2.25</v>
       </c>
       <c r="U520">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V520">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W520">
         <v>0</v>
@@ -46688,154 +46688,6 @@
         <v>0</v>
       </c>
       <c r="AA520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:27">
-      <c r="A521" s="1">
-        <v>519</v>
-      </c>
-      <c r="B521">
-        <v>7844784</v>
-      </c>
-      <c r="C521" t="s">
-        <v>28</v>
-      </c>
-      <c r="D521" t="s">
-        <v>28</v>
-      </c>
-      <c r="E521" s="2">
-        <v>45341.75</v>
-      </c>
-      <c r="F521" t="s">
-        <v>32</v>
-      </c>
-      <c r="G521" t="s">
-        <v>52</v>
-      </c>
-      <c r="K521">
-        <v>2</v>
-      </c>
-      <c r="L521">
-        <v>3.3</v>
-      </c>
-      <c r="M521">
-        <v>4</v>
-      </c>
-      <c r="N521">
-        <v>2</v>
-      </c>
-      <c r="O521">
-        <v>3.3</v>
-      </c>
-      <c r="P521">
-        <v>4</v>
-      </c>
-      <c r="Q521">
-        <v>-0.5</v>
-      </c>
-      <c r="R521">
-        <v>2.025</v>
-      </c>
-      <c r="S521">
-        <v>1.825</v>
-      </c>
-      <c r="T521">
-        <v>2.25</v>
-      </c>
-      <c r="U521">
-        <v>1.925</v>
-      </c>
-      <c r="V521">
-        <v>1.925</v>
-      </c>
-      <c r="W521">
-        <v>0</v>
-      </c>
-      <c r="X521">
-        <v>0</v>
-      </c>
-      <c r="Y521">
-        <v>0</v>
-      </c>
-      <c r="Z521">
-        <v>0</v>
-      </c>
-      <c r="AA521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:27">
-      <c r="A522" s="1">
-        <v>520</v>
-      </c>
-      <c r="B522">
-        <v>7631386</v>
-      </c>
-      <c r="C522" t="s">
-        <v>28</v>
-      </c>
-      <c r="D522" t="s">
-        <v>28</v>
-      </c>
-      <c r="E522" s="2">
-        <v>45341.93055555555</v>
-      </c>
-      <c r="F522" t="s">
-        <v>29</v>
-      </c>
-      <c r="G522" t="s">
-        <v>43</v>
-      </c>
-      <c r="K522">
-        <v>1.909</v>
-      </c>
-      <c r="L522">
-        <v>3.2</v>
-      </c>
-      <c r="M522">
-        <v>3.75</v>
-      </c>
-      <c r="N522">
-        <v>1.95</v>
-      </c>
-      <c r="O522">
-        <v>3.4</v>
-      </c>
-      <c r="P522">
-        <v>4</v>
-      </c>
-      <c r="Q522">
-        <v>-0.5</v>
-      </c>
-      <c r="R522">
-        <v>1.95</v>
-      </c>
-      <c r="S522">
-        <v>1.9</v>
-      </c>
-      <c r="T522">
-        <v>2.25</v>
-      </c>
-      <c r="U522">
-        <v>2.05</v>
-      </c>
-      <c r="V522">
-        <v>1.8</v>
-      </c>
-      <c r="W522">
-        <v>0</v>
-      </c>
-      <c r="X522">
-        <v>0</v>
-      </c>
-      <c r="Y522">
-        <v>0</v>
-      </c>
-      <c r="Z522">
-        <v>0</v>
-      </c>
-      <c r="AA522">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC520"/>
+  <dimension ref="A1:AC518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140182</v>
+        <v>6140985</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K198">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P198">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.8</v>
-      </c>
-      <c r="S198">
-        <v>2</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X198">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6141040</v>
+        <v>6140182</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45063.875</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
+        <v>3.8</v>
+      </c>
+      <c r="M199">
+        <v>5.25</v>
+      </c>
+      <c r="N199">
+        <v>2.2</v>
+      </c>
+      <c r="O199">
         <v>3.3</v>
       </c>
-      <c r="M199">
-        <v>2.875</v>
-      </c>
-      <c r="N199">
-        <v>1.95</v>
-      </c>
-      <c r="O199">
-        <v>3.6</v>
-      </c>
       <c r="P199">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.8</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2.3</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>-0.5</v>
       </c>
-      <c r="R199">
-        <v>2</v>
-      </c>
-      <c r="S199">
-        <v>1.8</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
-      <c r="W199">
-        <v>0.95</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>-1</v>
-      </c>
-      <c r="Z199">
-        <v>1</v>
-      </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6140241</v>
+        <v>6141040</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,73 +18274,73 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H200">
         <v>2</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K200">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
         <v>3.3</v>
       </c>
       <c r="M200">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N200">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X200">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140985</v>
+        <v>6140241</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,73 +18363,73 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N201">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -37664,7 +37664,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7404216</v>
+        <v>7404217</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37676,76 +37676,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F418" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G418" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418">
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K418">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L418">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M418">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N418">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O418">
         <v>3.2</v>
       </c>
       <c r="P418">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R418">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S418">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T418">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U418">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V418">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA418">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC418">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37753,7 +37753,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37765,76 +37765,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F419" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G419" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419">
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K419">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L419">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M419">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N419">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O419">
         <v>3.2</v>
       </c>
       <c r="P419">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q419">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R419">
+        <v>1.9</v>
+      </c>
+      <c r="S419">
+        <v>1.9</v>
+      </c>
+      <c r="T419">
+        <v>2.5</v>
+      </c>
+      <c r="U419">
         <v>1.925</v>
       </c>
-      <c r="S419">
-        <v>1.875</v>
-      </c>
-      <c r="T419">
-        <v>2</v>
-      </c>
-      <c r="U419">
-        <v>1.825</v>
-      </c>
       <c r="V419">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W419">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X419">
         <v>-1</v>
       </c>
       <c r="Y419">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z419">
+        <v>-1</v>
+      </c>
+      <c r="AA419">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB419">
+        <v>-1</v>
+      </c>
+      <c r="AC419">
         <v>0.925</v>
-      </c>
-      <c r="AA419">
-        <v>-1</v>
-      </c>
-      <c r="AB419">
-        <v>0.825</v>
-      </c>
-      <c r="AC419">
-        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7404212</v>
+        <v>7404218</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,49 +37854,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G420" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J420" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K420">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L420">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M420">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N420">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O420">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P420">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q420">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R420">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S420">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T420">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U420">
         <v>2.025</v>
@@ -37905,19 +37905,19 @@
         <v>1.825</v>
       </c>
       <c r="W420">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X420">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA420">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB420">
         <v>-1</v>
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,10 +37943,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H421">
         <v>1</v>
@@ -37958,61 +37958,61 @@
         <v>53</v>
       </c>
       <c r="K421">
+        <v>2.6</v>
+      </c>
+      <c r="L421">
+        <v>2.875</v>
+      </c>
+      <c r="M421">
+        <v>2.8</v>
+      </c>
+      <c r="N421">
+        <v>2.8</v>
+      </c>
+      <c r="O421">
         <v>3.2</v>
       </c>
-      <c r="L421">
-        <v>3.1</v>
-      </c>
-      <c r="M421">
+      <c r="P421">
+        <v>2.625</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>1.975</v>
+      </c>
+      <c r="S421">
+        <v>1.875</v>
+      </c>
+      <c r="T421">
+        <v>2.5</v>
+      </c>
+      <c r="U421">
+        <v>2.025</v>
+      </c>
+      <c r="V421">
+        <v>1.825</v>
+      </c>
+      <c r="W421">
+        <v>-1</v>
+      </c>
+      <c r="X421">
         <v>2.2</v>
       </c>
-      <c r="N421">
-        <v>3.6</v>
-      </c>
-      <c r="O421">
-        <v>3</v>
-      </c>
-      <c r="P421">
-        <v>2.25</v>
-      </c>
-      <c r="Q421">
-        <v>0.25</v>
-      </c>
-      <c r="R421">
-        <v>1.95</v>
-      </c>
-      <c r="S421">
-        <v>1.9</v>
-      </c>
-      <c r="T421">
-        <v>2.25</v>
-      </c>
-      <c r="U421">
-        <v>1.875</v>
-      </c>
-      <c r="V421">
-        <v>1.975</v>
-      </c>
-      <c r="W421">
-        <v>-1</v>
-      </c>
-      <c r="X421">
-        <v>2</v>
-      </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA421">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB421">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC421">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,76 +38032,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G422" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K422">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L422">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M422">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N422">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O422">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P422">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q422">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R422">
+        <v>1.95</v>
+      </c>
+      <c r="S422">
         <v>1.9</v>
       </c>
-      <c r="S422">
-        <v>1.95</v>
-      </c>
       <c r="T422">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U422">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V422">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W422">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC422">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,49 +38121,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G423" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J423" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K423">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L423">
         <v>3.1</v>
       </c>
       <c r="M423">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N423">
+        <v>3.6</v>
+      </c>
+      <c r="O423">
+        <v>3.4</v>
+      </c>
+      <c r="P423">
         <v>2.1</v>
       </c>
-      <c r="O423">
-        <v>3.1</v>
-      </c>
-      <c r="P423">
-        <v>3.8</v>
-      </c>
       <c r="Q423">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R423">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S423">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T423">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U423">
         <v>1.85</v>
@@ -38172,19 +38172,19 @@
         <v>1.95</v>
       </c>
       <c r="W423">
+        <v>-1</v>
+      </c>
+      <c r="X423">
+        <v>-1</v>
+      </c>
+      <c r="Y423">
         <v>1.1</v>
       </c>
-      <c r="X423">
-        <v>-1</v>
-      </c>
-      <c r="Y423">
-        <v>-1</v>
-      </c>
       <c r="Z423">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB423">
         <v>0.8500000000000001</v>
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G424" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K424">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L424">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M424">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N424">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O424">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P424">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q424">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S424">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U424">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA424">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC424">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38465,7 +38465,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38477,55 +38477,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F427" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G427" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J427" t="s">
         <v>55</v>
       </c>
       <c r="K427">
+        <v>1.444</v>
+      </c>
+      <c r="L427">
+        <v>4.5</v>
+      </c>
+      <c r="M427">
+        <v>6</v>
+      </c>
+      <c r="N427">
+        <v>1.363</v>
+      </c>
+      <c r="O427">
+        <v>5</v>
+      </c>
+      <c r="P427">
+        <v>7.5</v>
+      </c>
+      <c r="Q427">
+        <v>-1.25</v>
+      </c>
+      <c r="R427">
+        <v>1.775</v>
+      </c>
+      <c r="S427">
+        <v>2.025</v>
+      </c>
+      <c r="T427">
         <v>3</v>
       </c>
-      <c r="L427">
-        <v>3.1</v>
-      </c>
-      <c r="M427">
-        <v>2.3</v>
-      </c>
-      <c r="N427">
-        <v>3.6</v>
-      </c>
-      <c r="O427">
-        <v>3.4</v>
-      </c>
-      <c r="P427">
-        <v>2.1</v>
-      </c>
-      <c r="Q427">
-        <v>0.25</v>
-      </c>
-      <c r="R427">
-        <v>2.025</v>
-      </c>
-      <c r="S427">
-        <v>1.775</v>
-      </c>
-      <c r="T427">
-        <v>2.5</v>
-      </c>
       <c r="U427">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -38534,19 +38534,19 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB427">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC427">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -40512,7 +40512,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40524,58 +40524,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F450" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G450" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H450">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I450">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J450" t="s">
         <v>54</v>
       </c>
       <c r="K450">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L450">
         <v>3.3</v>
       </c>
       <c r="M450">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N450">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O450">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P450">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q450">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R450">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S450">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T450">
         <v>2.5</v>
       </c>
       <c r="U450">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V450">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W450">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X450">
         <v>-1</v>
@@ -40584,13 +40584,13 @@
         <v>-1</v>
       </c>
       <c r="Z450">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA450">
         <v>-1</v>
       </c>
       <c r="AB450">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC450">
         <v>-1</v>
@@ -40601,7 +40601,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40613,58 +40613,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F451" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G451" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J451" t="s">
         <v>54</v>
       </c>
       <c r="K451">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L451">
         <v>3.3</v>
       </c>
       <c r="M451">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N451">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O451">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P451">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q451">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R451">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S451">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T451">
         <v>2.5</v>
       </c>
       <c r="U451">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V451">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W451">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X451">
         <v>-1</v>
@@ -40673,13 +40673,13 @@
         <v>-1</v>
       </c>
       <c r="Z451">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA451">
         <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC451">
         <v>-1</v>
@@ -46030,7 +46030,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7630515</v>
+        <v>7630514</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46039,49 +46039,49 @@
         <v>28</v>
       </c>
       <c r="E512" s="2">
-        <v>45339.83680555555</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F512" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G512" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K512">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L512">
         <v>3.1</v>
       </c>
       <c r="M512">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N512">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O512">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P512">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q512">
         <v>-0.5</v>
       </c>
       <c r="R512">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S512">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T512">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U512">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V512">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W512">
         <v>0</v>
@@ -46104,7 +46104,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7631382</v>
+        <v>7631384</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46113,49 +46113,49 @@
         <v>28</v>
       </c>
       <c r="E513" s="2">
-        <v>45339.92708333334</v>
+        <v>45340.75</v>
       </c>
       <c r="F513" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G513" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K513">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L513">
         <v>3</v>
       </c>
       <c r="M513">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N513">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O513">
         <v>3.2</v>
       </c>
       <c r="P513">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q513">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R513">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S513">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T513">
         <v>2.25</v>
       </c>
       <c r="U513">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V513">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W513">
         <v>0</v>
@@ -46178,7 +46178,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7630514</v>
+        <v>7631381</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46187,49 +46187,49 @@
         <v>28</v>
       </c>
       <c r="E514" s="2">
-        <v>45340.66666666666</v>
+        <v>45340.84027777778</v>
       </c>
       <c r="F514" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G514" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K514">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L514">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M514">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N514">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O514">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P514">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q514">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R514">
+        <v>1.775</v>
+      </c>
+      <c r="S514">
+        <v>2.1</v>
+      </c>
+      <c r="T514">
+        <v>2</v>
+      </c>
+      <c r="U514">
         <v>1.825</v>
       </c>
-      <c r="S514">
+      <c r="V514">
         <v>2.025</v>
-      </c>
-      <c r="T514">
-        <v>2</v>
-      </c>
-      <c r="U514">
-        <v>1.875</v>
-      </c>
-      <c r="V514">
-        <v>1.975</v>
       </c>
       <c r="W514">
         <v>0</v>
@@ -46252,7 +46252,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7631384</v>
+        <v>7631383</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46261,49 +46261,49 @@
         <v>28</v>
       </c>
       <c r="E515" s="2">
-        <v>45340.75</v>
+        <v>45340.93055555555</v>
       </c>
       <c r="F515" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G515" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K515">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L515">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M515">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N515">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O515">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P515">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q515">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R515">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S515">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T515">
         <v>2.25</v>
       </c>
       <c r="U515">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V515">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W515">
         <v>0</v>
@@ -46326,7 +46326,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7631381</v>
+        <v>7839034</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46335,49 +46335,49 @@
         <v>28</v>
       </c>
       <c r="E516" s="2">
-        <v>45340.84027777778</v>
+        <v>45341.75</v>
       </c>
       <c r="F516" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G516" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K516">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L516">
         <v>3</v>
       </c>
       <c r="M516">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N516">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O516">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P516">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q516">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R516">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S516">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T516">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U516">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V516">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W516">
         <v>0</v>
@@ -46400,7 +46400,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7631383</v>
+        <v>7844784</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46409,28 +46409,28 @@
         <v>28</v>
       </c>
       <c r="E517" s="2">
-        <v>45340.93055555555</v>
+        <v>45341.75</v>
       </c>
       <c r="F517" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G517" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K517">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L517">
         <v>3.3</v>
       </c>
       <c r="M517">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N517">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O517">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P517">
         <v>4</v>
@@ -46439,19 +46439,19 @@
         <v>-0.5</v>
       </c>
       <c r="R517">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S517">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T517">
         <v>2.25</v>
       </c>
       <c r="U517">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V517">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W517">
         <v>0</v>
@@ -46474,7 +46474,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7839034</v>
+        <v>7631386</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46483,49 +46483,49 @@
         <v>28</v>
       </c>
       <c r="E518" s="2">
-        <v>45341.75</v>
+        <v>45341.93055555555</v>
       </c>
       <c r="F518" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G518" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K518">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L518">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M518">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N518">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O518">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P518">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q518">
         <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S518">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T518">
         <v>2.25</v>
       </c>
       <c r="U518">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V518">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W518">
         <v>0</v>
@@ -46540,154 +46540,6 @@
         <v>0</v>
       </c>
       <c r="AA518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:27">
-      <c r="A519" s="1">
-        <v>517</v>
-      </c>
-      <c r="B519">
-        <v>7844784</v>
-      </c>
-      <c r="C519" t="s">
-        <v>28</v>
-      </c>
-      <c r="D519" t="s">
-        <v>28</v>
-      </c>
-      <c r="E519" s="2">
-        <v>45341.75</v>
-      </c>
-      <c r="F519" t="s">
-        <v>32</v>
-      </c>
-      <c r="G519" t="s">
-        <v>52</v>
-      </c>
-      <c r="K519">
-        <v>2</v>
-      </c>
-      <c r="L519">
-        <v>3.3</v>
-      </c>
-      <c r="M519">
-        <v>4</v>
-      </c>
-      <c r="N519">
-        <v>2</v>
-      </c>
-      <c r="O519">
-        <v>3.3</v>
-      </c>
-      <c r="P519">
-        <v>4</v>
-      </c>
-      <c r="Q519">
-        <v>-0.5</v>
-      </c>
-      <c r="R519">
-        <v>2.025</v>
-      </c>
-      <c r="S519">
-        <v>1.825</v>
-      </c>
-      <c r="T519">
-        <v>2.25</v>
-      </c>
-      <c r="U519">
-        <v>1.925</v>
-      </c>
-      <c r="V519">
-        <v>1.925</v>
-      </c>
-      <c r="W519">
-        <v>0</v>
-      </c>
-      <c r="X519">
-        <v>0</v>
-      </c>
-      <c r="Y519">
-        <v>0</v>
-      </c>
-      <c r="Z519">
-        <v>0</v>
-      </c>
-      <c r="AA519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:27">
-      <c r="A520" s="1">
-        <v>518</v>
-      </c>
-      <c r="B520">
-        <v>7631386</v>
-      </c>
-      <c r="C520" t="s">
-        <v>28</v>
-      </c>
-      <c r="D520" t="s">
-        <v>28</v>
-      </c>
-      <c r="E520" s="2">
-        <v>45341.93055555555</v>
-      </c>
-      <c r="F520" t="s">
-        <v>29</v>
-      </c>
-      <c r="G520" t="s">
-        <v>43</v>
-      </c>
-      <c r="K520">
-        <v>1.909</v>
-      </c>
-      <c r="L520">
-        <v>3.2</v>
-      </c>
-      <c r="M520">
-        <v>3.75</v>
-      </c>
-      <c r="N520">
-        <v>1.95</v>
-      </c>
-      <c r="O520">
-        <v>3.4</v>
-      </c>
-      <c r="P520">
-        <v>4</v>
-      </c>
-      <c r="Q520">
-        <v>-0.5</v>
-      </c>
-      <c r="R520">
-        <v>1.95</v>
-      </c>
-      <c r="S520">
-        <v>1.9</v>
-      </c>
-      <c r="T520">
-        <v>2.25</v>
-      </c>
-      <c r="U520">
-        <v>2.05</v>
-      </c>
-      <c r="V520">
-        <v>1.8</v>
-      </c>
-      <c r="W520">
-        <v>0</v>
-      </c>
-      <c r="X520">
-        <v>0</v>
-      </c>
-      <c r="Y520">
-        <v>0</v>
-      </c>
-      <c r="Z520">
-        <v>0</v>
-      </c>
-      <c r="AA520">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC518"/>
+  <dimension ref="A1:AC520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17550,7 +17550,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6141039</v>
+        <v>6140986</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,76 +17562,76 @@
         <v>45063.875</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K192">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L192">
         <v>3.2</v>
       </c>
       <c r="M192">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N192">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X192">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6141038</v>
+        <v>6140988</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,76 +17651,76 @@
         <v>45063.875</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K193">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O193">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>11</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB193">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6140988</v>
+        <v>6141038</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,76 +17829,76 @@
         <v>45063.875</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N195">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P195">
-        <v>2.05</v>
+        <v>11</v>
       </c>
       <c r="Q195">
+        <v>-1.5</v>
+      </c>
+      <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.8</v>
+      </c>
+      <c r="W195">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>-1</v>
+      </c>
+      <c r="AA195">
+        <v>0.925</v>
+      </c>
+      <c r="AB195">
         <v>0.5</v>
       </c>
-      <c r="R195">
-        <v>1.8</v>
-      </c>
-      <c r="S195">
-        <v>2.05</v>
-      </c>
-      <c r="T195">
-        <v>2.25</v>
-      </c>
-      <c r="U195">
-        <v>1.9</v>
-      </c>
-      <c r="V195">
-        <v>1.95</v>
-      </c>
-      <c r="W195">
-        <v>-1</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>1.05</v>
-      </c>
-      <c r="Z195">
-        <v>-1</v>
-      </c>
-      <c r="AA195">
-        <v>1.05</v>
-      </c>
-      <c r="AB195">
+      <c r="AC195">
         <v>-0.5</v>
-      </c>
-      <c r="AC195">
-        <v>0.475</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6140987</v>
+        <v>6141039</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,76 +17918,76 @@
         <v>45063.875</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L196">
+        <v>3.2</v>
+      </c>
+      <c r="M196">
+        <v>3.5</v>
+      </c>
+      <c r="N196">
+        <v>1.85</v>
+      </c>
+      <c r="O196">
         <v>3.4</v>
       </c>
-      <c r="M196">
-        <v>4.333</v>
-      </c>
-      <c r="N196">
-        <v>1.4</v>
-      </c>
-      <c r="O196">
-        <v>4.5</v>
-      </c>
       <c r="P196">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.825</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6140986</v>
+        <v>6141040</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,13 +18007,13 @@
         <v>45063.875</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -18022,34 +18022,34 @@
         <v>54</v>
       </c>
       <c r="K197">
+        <v>2.5</v>
+      </c>
+      <c r="L197">
+        <v>3.3</v>
+      </c>
+      <c r="M197">
         <v>2.875</v>
       </c>
-      <c r="L197">
-        <v>3.2</v>
-      </c>
-      <c r="M197">
-        <v>2.6</v>
-      </c>
       <c r="N197">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
         <v>1.8</v>
       </c>
-      <c r="S197">
-        <v>2</v>
-      </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
         <v>1.8</v>
@@ -18058,7 +18058,7 @@
         <v>2</v>
       </c>
       <c r="W197">
-        <v>2.1</v>
+        <v>0.95</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18067,7 +18067,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140985</v>
+        <v>6140241</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,73 +18096,73 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K198">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6140182</v>
+        <v>6140987</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,61 +18185,61 @@
         <v>45063.875</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X199">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18248,13 +18248,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6141040</v>
+        <v>6140182</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,76 +18274,76 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L200">
+        <v>3.8</v>
+      </c>
+      <c r="M200">
+        <v>5.25</v>
+      </c>
+      <c r="N200">
+        <v>2.2</v>
+      </c>
+      <c r="O200">
         <v>3.3</v>
       </c>
-      <c r="M200">
-        <v>2.875</v>
-      </c>
-      <c r="N200">
-        <v>1.95</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
       <c r="P200">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.8</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.9</v>
+      </c>
+      <c r="V200">
+        <v>1.9</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2.3</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
         <v>-0.5</v>
       </c>
-      <c r="R200">
-        <v>2</v>
-      </c>
-      <c r="S200">
-        <v>1.8</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.8</v>
-      </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
-      <c r="W200">
-        <v>0.95</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>-1</v>
-      </c>
-      <c r="Z200">
-        <v>1</v>
-      </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140241</v>
+        <v>6140985</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,73 +18363,73 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K201">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N201">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R201">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -37664,7 +37664,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7404217</v>
+        <v>7404218</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37676,58 +37676,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F418" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G418" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H418">
         <v>2</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
         <v>54</v>
       </c>
       <c r="K418">
+        <v>1.363</v>
+      </c>
+      <c r="L418">
+        <v>4.5</v>
+      </c>
+      <c r="M418">
+        <v>7</v>
+      </c>
+      <c r="N418">
+        <v>1.3</v>
+      </c>
+      <c r="O418">
+        <v>5</v>
+      </c>
+      <c r="P418">
+        <v>12</v>
+      </c>
+      <c r="Q418">
+        <v>-1.5</v>
+      </c>
+      <c r="R418">
+        <v>1.9</v>
+      </c>
+      <c r="S418">
         <v>1.95</v>
       </c>
-      <c r="L418">
-        <v>3.2</v>
-      </c>
-      <c r="M418">
-        <v>3.75</v>
-      </c>
-      <c r="N418">
-        <v>1.95</v>
-      </c>
-      <c r="O418">
-        <v>3.2</v>
-      </c>
-      <c r="P418">
-        <v>4.75</v>
-      </c>
-      <c r="Q418">
-        <v>-0.5</v>
-      </c>
-      <c r="R418">
-        <v>1.925</v>
-      </c>
-      <c r="S418">
-        <v>1.875</v>
-      </c>
       <c r="T418">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U418">
+        <v>2.025</v>
+      </c>
+      <c r="V418">
         <v>1.825</v>
       </c>
-      <c r="V418">
-        <v>1.975</v>
-      </c>
       <c r="W418">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="X418">
         <v>-1</v>
@@ -37736,16 +37736,16 @@
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA418">
         <v>-1</v>
       </c>
       <c r="AB418">
+        <v>-1</v>
+      </c>
+      <c r="AC418">
         <v>0.825</v>
-      </c>
-      <c r="AC418">
-        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,58 +37854,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F420" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G420" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H420">
         <v>2</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="s">
         <v>54</v>
       </c>
       <c r="K420">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L420">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M420">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N420">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O420">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P420">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q420">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R420">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S420">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T420">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U420">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V420">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W420">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -37914,16 +37914,16 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA420">
         <v>-1</v>
       </c>
       <c r="AB420">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC420">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,10 +37943,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H421">
         <v>1</v>
@@ -37958,61 +37958,61 @@
         <v>53</v>
       </c>
       <c r="K421">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L421">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M421">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N421">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O421">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P421">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R421">
+        <v>1.95</v>
+      </c>
+      <c r="S421">
+        <v>1.9</v>
+      </c>
+      <c r="T421">
+        <v>2.25</v>
+      </c>
+      <c r="U421">
+        <v>1.875</v>
+      </c>
+      <c r="V421">
         <v>1.975</v>
       </c>
-      <c r="S421">
-        <v>1.875</v>
-      </c>
-      <c r="T421">
-        <v>2.5</v>
-      </c>
-      <c r="U421">
-        <v>2.025</v>
-      </c>
-      <c r="V421">
-        <v>1.825</v>
-      </c>
       <c r="W421">
         <v>-1</v>
       </c>
       <c r="X421">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,10 +38032,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G422" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H422">
         <v>1</v>
@@ -38047,61 +38047,61 @@
         <v>53</v>
       </c>
       <c r="K422">
+        <v>2.6</v>
+      </c>
+      <c r="L422">
+        <v>2.875</v>
+      </c>
+      <c r="M422">
+        <v>2.8</v>
+      </c>
+      <c r="N422">
+        <v>2.8</v>
+      </c>
+      <c r="O422">
         <v>3.2</v>
       </c>
-      <c r="L422">
-        <v>3.1</v>
-      </c>
-      <c r="M422">
+      <c r="P422">
+        <v>2.625</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>1.975</v>
+      </c>
+      <c r="S422">
+        <v>1.875</v>
+      </c>
+      <c r="T422">
+        <v>2.5</v>
+      </c>
+      <c r="U422">
+        <v>2.025</v>
+      </c>
+      <c r="V422">
+        <v>1.825</v>
+      </c>
+      <c r="W422">
+        <v>-1</v>
+      </c>
+      <c r="X422">
         <v>2.2</v>
       </c>
-      <c r="N422">
-        <v>3.6</v>
-      </c>
-      <c r="O422">
-        <v>3</v>
-      </c>
-      <c r="P422">
-        <v>2.25</v>
-      </c>
-      <c r="Q422">
-        <v>0.25</v>
-      </c>
-      <c r="R422">
-        <v>1.95</v>
-      </c>
-      <c r="S422">
-        <v>1.9</v>
-      </c>
-      <c r="T422">
-        <v>2.25</v>
-      </c>
-      <c r="U422">
-        <v>1.875</v>
-      </c>
-      <c r="V422">
-        <v>1.975</v>
-      </c>
-      <c r="W422">
-        <v>-1</v>
-      </c>
-      <c r="X422">
-        <v>2</v>
-      </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,49 +38121,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G423" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K423">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L423">
         <v>3.1</v>
       </c>
       <c r="M423">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N423">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O423">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P423">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R423">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S423">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T423">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U423">
         <v>1.85</v>
@@ -38172,19 +38172,19 @@
         <v>1.95</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA423">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
         <v>0.8500000000000001</v>
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,73 +38210,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H424">
         <v>2</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J424" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K424">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L424">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M424">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N424">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O424">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R424">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S424">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T424">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V424">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W424">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB424">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC424">
         <v>-1</v>
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,55 +38299,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F425" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G425" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H425">
         <v>0</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J425" t="s">
         <v>55</v>
       </c>
       <c r="K425">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L425">
         <v>3.1</v>
       </c>
       <c r="M425">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N425">
         <v>3.6</v>
       </c>
       <c r="O425">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P425">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q425">
         <v>0.25</v>
       </c>
       <c r="R425">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S425">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T425">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V425">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W425">
         <v>-1</v>
@@ -38356,19 +38356,19 @@
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC425">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38376,7 +38376,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38388,55 +38388,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F426" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G426" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J426" t="s">
         <v>55</v>
       </c>
       <c r="K426">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L426">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M426">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N426">
+        <v>3.6</v>
+      </c>
+      <c r="O426">
+        <v>3.2</v>
+      </c>
+      <c r="P426">
+        <v>2.15</v>
+      </c>
+      <c r="Q426">
+        <v>0.25</v>
+      </c>
+      <c r="R426">
+        <v>1.975</v>
+      </c>
+      <c r="S426">
+        <v>1.825</v>
+      </c>
+      <c r="T426">
+        <v>2</v>
+      </c>
+      <c r="U426">
         <v>1.75</v>
       </c>
-      <c r="O426">
-        <v>3.6</v>
-      </c>
-      <c r="P426">
-        <v>4.75</v>
-      </c>
-      <c r="Q426">
-        <v>-0.75</v>
-      </c>
-      <c r="R426">
-        <v>2</v>
-      </c>
-      <c r="S426">
-        <v>1.8</v>
-      </c>
-      <c r="T426">
-        <v>2.5</v>
-      </c>
-      <c r="U426">
-        <v>2</v>
-      </c>
       <c r="V426">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W426">
         <v>-1</v>
@@ -38445,19 +38445,19 @@
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB426">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC426">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -40334,7 +40334,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40346,76 +40346,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F448" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G448" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H448">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448">
         <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K448">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L448">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M448">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N448">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O448">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P448">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q448">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R448">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S448">
         <v>1.975</v>
       </c>
       <c r="T448">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U448">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V448">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W448">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z448">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB448">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC448">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40423,7 +40423,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40435,76 +40435,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F449" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G449" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I449">
         <v>1</v>
       </c>
       <c r="J449" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K449">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L449">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M449">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N449">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O449">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P449">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q449">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R449">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S449">
         <v>1.975</v>
       </c>
       <c r="T449">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U449">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V449">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W449">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA449">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB449">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC449">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -46030,7 +46030,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7630514</v>
+        <v>7631339</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46039,72 +46039,87 @@
         <v>28</v>
       </c>
       <c r="E512" s="2">
-        <v>45340.66666666666</v>
+        <v>45338.84027777778</v>
       </c>
       <c r="F512" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G512" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>1</v>
+      </c>
+      <c r="J512" t="s">
+        <v>55</v>
       </c>
       <c r="K512">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L512">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M512">
         <v>4.5</v>
       </c>
       <c r="N512">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O512">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P512">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q512">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R512">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S512">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T512">
         <v>2</v>
       </c>
       <c r="U512">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V512">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W512">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X512">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y512">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z512">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB512">
+        <v>-1</v>
+      </c>
+      <c r="AC512">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="513" spans="1:29">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7631384</v>
+        <v>7631385</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46113,72 +46128,87 @@
         <v>28</v>
       </c>
       <c r="E513" s="2">
-        <v>45340.75</v>
+        <v>45338.93055555555</v>
       </c>
       <c r="F513" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G513" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="H513">
+        <v>3</v>
+      </c>
+      <c r="I513">
+        <v>2</v>
+      </c>
+      <c r="J513" t="s">
+        <v>54</v>
       </c>
       <c r="K513">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L513">
         <v>3</v>
       </c>
       <c r="M513">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N513">
         <v>3.4</v>
       </c>
       <c r="O513">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P513">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q513">
         <v>0.25</v>
       </c>
       <c r="R513">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S513">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T513">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U513">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V513">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W513">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X513">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y513">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z513">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB513">
+        <v>0.8</v>
+      </c>
+      <c r="AC513">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:29">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7631381</v>
+        <v>7630515</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46187,72 +46217,87 @@
         <v>28</v>
       </c>
       <c r="E514" s="2">
-        <v>45340.84027777778</v>
+        <v>45339.83680555555</v>
       </c>
       <c r="F514" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G514" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H514">
+        <v>2</v>
+      </c>
+      <c r="I514">
+        <v>2</v>
+      </c>
+      <c r="J514" t="s">
+        <v>53</v>
       </c>
       <c r="K514">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L514">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M514">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N514">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O514">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P514">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q514">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R514">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S514">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T514">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U514">
+        <v>1.975</v>
+      </c>
+      <c r="V514">
         <v>1.825</v>
       </c>
-      <c r="V514">
-        <v>2.025</v>
-      </c>
       <c r="W514">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X514">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y514">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z514">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB514">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC514">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:29">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7631383</v>
+        <v>7631382</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46261,72 +46306,87 @@
         <v>28</v>
       </c>
       <c r="E515" s="2">
-        <v>45340.93055555555</v>
+        <v>45339.92708333334</v>
       </c>
       <c r="F515" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G515" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="H515">
+        <v>1</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515" t="s">
+        <v>54</v>
       </c>
       <c r="K515">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L515">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M515">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N515">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O515">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P515">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q515">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R515">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S515">
+        <v>1.925</v>
+      </c>
+      <c r="T515">
+        <v>2</v>
+      </c>
+      <c r="U515">
         <v>1.85</v>
       </c>
-      <c r="T515">
-        <v>2.25</v>
-      </c>
-      <c r="U515">
-        <v>1.825</v>
-      </c>
       <c r="V515">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W515">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X515">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y515">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z515">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB515">
+        <v>-1</v>
+      </c>
+      <c r="AC515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:29">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7839034</v>
+        <v>7630514</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46335,72 +46395,87 @@
         <v>28</v>
       </c>
       <c r="E516" s="2">
-        <v>45341.75</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F516" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G516" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H516">
+        <v>1</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516" t="s">
+        <v>54</v>
       </c>
       <c r="K516">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L516">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M516">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N516">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O516">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P516">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q516">
+        <v>-0.75</v>
+      </c>
+      <c r="R516">
+        <v>1.925</v>
+      </c>
+      <c r="S516">
+        <v>1.875</v>
+      </c>
+      <c r="T516">
+        <v>2</v>
+      </c>
+      <c r="U516">
+        <v>1.975</v>
+      </c>
+      <c r="V516">
+        <v>1.825</v>
+      </c>
+      <c r="W516">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X516">
+        <v>-1</v>
+      </c>
+      <c r="Y516">
+        <v>-1</v>
+      </c>
+      <c r="Z516">
+        <v>0.4625</v>
+      </c>
+      <c r="AA516">
         <v>-0.5</v>
       </c>
-      <c r="R516">
-        <v>2.025</v>
-      </c>
-      <c r="S516">
-        <v>1.825</v>
-      </c>
-      <c r="T516">
-        <v>2.25</v>
-      </c>
-      <c r="U516">
-        <v>1.925</v>
-      </c>
-      <c r="V516">
-        <v>1.925</v>
-      </c>
-      <c r="W516">
-        <v>0</v>
-      </c>
-      <c r="X516">
-        <v>0</v>
-      </c>
-      <c r="Y516">
-        <v>0</v>
-      </c>
-      <c r="Z516">
-        <v>0</v>
-      </c>
-      <c r="AA516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:27">
+      <c r="AB516">
+        <v>-1</v>
+      </c>
+      <c r="AC516">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="517" spans="1:29">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7844784</v>
+        <v>7631384</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46409,72 +46484,87 @@
         <v>28</v>
       </c>
       <c r="E517" s="2">
-        <v>45341.75</v>
+        <v>45340.75</v>
       </c>
       <c r="F517" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G517" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="H517">
+        <v>1</v>
+      </c>
+      <c r="I517">
+        <v>1</v>
+      </c>
+      <c r="J517" t="s">
+        <v>53</v>
       </c>
       <c r="K517">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L517">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M517">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N517">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O517">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P517">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q517">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R517">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S517">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T517">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U517">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V517">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W517">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X517">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y517">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z517">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB517">
+        <v>-1</v>
+      </c>
+      <c r="AC517">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:29">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7631386</v>
+        <v>7839034</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46483,63 +46573,211 @@
         <v>28</v>
       </c>
       <c r="E518" s="2">
-        <v>45341.93055555555</v>
+        <v>45341.75</v>
       </c>
       <c r="F518" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G518" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K518">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L518">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M518">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N518">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O518">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P518">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q518">
         <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S518">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T518">
         <v>2.25</v>
       </c>
       <c r="U518">
+        <v>1.925</v>
+      </c>
+      <c r="V518">
+        <v>1.925</v>
+      </c>
+      <c r="W518">
+        <v>0</v>
+      </c>
+      <c r="X518">
+        <v>0</v>
+      </c>
+      <c r="Y518">
+        <v>0</v>
+      </c>
+      <c r="Z518">
+        <v>0</v>
+      </c>
+      <c r="AA518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:29">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>7844784</v>
+      </c>
+      <c r="C519" t="s">
+        <v>28</v>
+      </c>
+      <c r="D519" t="s">
+        <v>28</v>
+      </c>
+      <c r="E519" s="2">
+        <v>45341.75</v>
+      </c>
+      <c r="F519" t="s">
+        <v>32</v>
+      </c>
+      <c r="G519" t="s">
+        <v>52</v>
+      </c>
+      <c r="K519">
+        <v>2</v>
+      </c>
+      <c r="L519">
+        <v>3.3</v>
+      </c>
+      <c r="M519">
+        <v>4</v>
+      </c>
+      <c r="N519">
+        <v>1.95</v>
+      </c>
+      <c r="O519">
+        <v>3.4</v>
+      </c>
+      <c r="P519">
+        <v>4.2</v>
+      </c>
+      <c r="Q519">
+        <v>-0.5</v>
+      </c>
+      <c r="R519">
+        <v>1.925</v>
+      </c>
+      <c r="S519">
+        <v>1.925</v>
+      </c>
+      <c r="T519">
+        <v>2.25</v>
+      </c>
+      <c r="U519">
+        <v>1.95</v>
+      </c>
+      <c r="V519">
+        <v>1.9</v>
+      </c>
+      <c r="W519">
+        <v>0</v>
+      </c>
+      <c r="X519">
+        <v>0</v>
+      </c>
+      <c r="Y519">
+        <v>0</v>
+      </c>
+      <c r="Z519">
+        <v>0</v>
+      </c>
+      <c r="AA519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:29">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>7631386</v>
+      </c>
+      <c r="C520" t="s">
+        <v>28</v>
+      </c>
+      <c r="D520" t="s">
+        <v>28</v>
+      </c>
+      <c r="E520" s="2">
+        <v>45341.93055555555</v>
+      </c>
+      <c r="F520" t="s">
+        <v>29</v>
+      </c>
+      <c r="G520" t="s">
+        <v>43</v>
+      </c>
+      <c r="K520">
+        <v>1.909</v>
+      </c>
+      <c r="L520">
+        <v>3.2</v>
+      </c>
+      <c r="M520">
+        <v>3.75</v>
+      </c>
+      <c r="N520">
+        <v>2</v>
+      </c>
+      <c r="O520">
+        <v>3.4</v>
+      </c>
+      <c r="P520">
+        <v>3.8</v>
+      </c>
+      <c r="Q520">
+        <v>-0.5</v>
+      </c>
+      <c r="R520">
         <v>2.05</v>
       </c>
-      <c r="V518">
+      <c r="S520">
         <v>1.8</v>
       </c>
-      <c r="W518">
-        <v>0</v>
-      </c>
-      <c r="X518">
-        <v>0</v>
-      </c>
-      <c r="Y518">
-        <v>0</v>
-      </c>
-      <c r="Z518">
-        <v>0</v>
-      </c>
-      <c r="AA518">
+      <c r="T520">
+        <v>2</v>
+      </c>
+      <c r="U520">
+        <v>1.8</v>
+      </c>
+      <c r="V520">
+        <v>2.05</v>
+      </c>
+      <c r="W520">
+        <v>0</v>
+      </c>
+      <c r="X520">
+        <v>0</v>
+      </c>
+      <c r="Y520">
+        <v>0</v>
+      </c>
+      <c r="Z520">
+        <v>0</v>
+      </c>
+      <c r="AA520">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -17550,7 +17550,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6141038</v>
+        <v>6140986</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,13 +17562,13 @@
         <v>45063.875</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -17577,43 +17577,43 @@
         <v>54</v>
       </c>
       <c r="K192">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="N192">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="O192">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P192">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q192">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17622,16 +17622,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6140241</v>
+        <v>6141040</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,73 +17651,73 @@
         <v>45063.875</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K193">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L193">
         <v>3.3</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N193">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X193">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17728,7 +17728,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6140985</v>
+        <v>6141039</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,76 +17740,76 @@
         <v>45063.875</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K194">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M194">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N194">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O194">
+        <v>3.4</v>
+      </c>
+      <c r="P194">
         <v>4.2</v>
       </c>
-      <c r="P194">
-        <v>6</v>
-      </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
         <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6141040</v>
+        <v>6140989</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,58 +17829,58 @@
         <v>45063.875</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>54</v>
       </c>
       <c r="K195">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N195">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,13 +17889,13 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6140986</v>
+        <v>6140987</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,13 +17918,13 @@
         <v>45063.875</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -17933,43 +17933,43 @@
         <v>54</v>
       </c>
       <c r="K196">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N196">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17978,13 +17978,13 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6140987</v>
+        <v>6141038</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,10 +18007,10 @@
         <v>45063.875</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18022,43 +18022,43 @@
         <v>54</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N197">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P197">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q197">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18067,16 +18067,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.925</v>
+      </c>
+      <c r="AB197">
+        <v>0.5</v>
+      </c>
+      <c r="AC197">
         <v>-0.5</v>
-      </c>
-      <c r="AA197">
-        <v>0.4125</v>
-      </c>
-      <c r="AB197">
-        <v>0.825</v>
-      </c>
-      <c r="AC197">
-        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140989</v>
+        <v>6140988</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>55</v>
+      </c>
+      <c r="K198">
         <v>4</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198" t="s">
-        <v>54</v>
-      </c>
-      <c r="K198">
-        <v>1.444</v>
-      </c>
       <c r="L198">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N198">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O198">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q198">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
         <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB198">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6141039</v>
+        <v>6140241</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,76 +18274,76 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L200">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
         <v>3.5</v>
       </c>
       <c r="N200">
+        <v>2.55</v>
+      </c>
+      <c r="O200">
+        <v>3.2</v>
+      </c>
+      <c r="P200">
+        <v>2.8</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
         <v>1.85</v>
       </c>
-      <c r="O200">
-        <v>3.4</v>
-      </c>
-      <c r="P200">
-        <v>4.2</v>
-      </c>
-      <c r="Q200">
-        <v>-0.5</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.25</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140988</v>
+        <v>6140985</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,76 +18363,76 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K201">
+        <v>1.615</v>
+      </c>
+      <c r="L201">
         <v>4</v>
       </c>
-      <c r="L201">
-        <v>3.4</v>
-      </c>
       <c r="M201">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="N201">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
         <v>1.8</v>
-      </c>
-      <c r="S201">
-        <v>2.05</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA201">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,58 +20232,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>54</v>
       </c>
       <c r="K222">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20292,13 +20292,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,58 +20321,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F223" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>54</v>
       </c>
       <c r="K223">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>4.2</v>
+      </c>
+      <c r="N223">
+        <v>2.1</v>
+      </c>
+      <c r="O223">
+        <v>3.3</v>
+      </c>
+      <c r="P223">
         <v>3.75</v>
       </c>
-      <c r="M223">
-        <v>5.5</v>
-      </c>
-      <c r="N223">
-        <v>1.7</v>
-      </c>
-      <c r="O223">
-        <v>3.8</v>
-      </c>
-      <c r="P223">
-        <v>5.25</v>
-      </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20381,13 +20381,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,76 +20410,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
+        <v>1.9</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
         <v>1.85</v>
       </c>
-      <c r="T224">
-        <v>2.25</v>
-      </c>
-      <c r="U224">
-        <v>1.85</v>
-      </c>
-      <c r="V224">
-        <v>2</v>
-      </c>
       <c r="W224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,76 +20499,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X225">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
+        <v>0.5</v>
+      </c>
+      <c r="AA225">
         <v>-0.5</v>
       </c>
-      <c r="AA225">
-        <v>0.45</v>
-      </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,76 +37854,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F420" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G420" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420">
         <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K420">
+        <v>3.2</v>
+      </c>
+      <c r="L420">
+        <v>3.1</v>
+      </c>
+      <c r="M420">
+        <v>2.2</v>
+      </c>
+      <c r="N420">
+        <v>3.6</v>
+      </c>
+      <c r="O420">
+        <v>3</v>
+      </c>
+      <c r="P420">
+        <v>2.25</v>
+      </c>
+      <c r="Q420">
+        <v>0.25</v>
+      </c>
+      <c r="R420">
         <v>1.95</v>
       </c>
-      <c r="L420">
-        <v>3.2</v>
-      </c>
-      <c r="M420">
-        <v>3.75</v>
-      </c>
-      <c r="N420">
-        <v>1.95</v>
-      </c>
-      <c r="O420">
-        <v>3.2</v>
-      </c>
-      <c r="P420">
-        <v>4.75</v>
-      </c>
-      <c r="Q420">
-        <v>-0.5</v>
-      </c>
-      <c r="R420">
-        <v>1.925</v>
-      </c>
       <c r="S420">
+        <v>1.9</v>
+      </c>
+      <c r="T420">
+        <v>2.25</v>
+      </c>
+      <c r="U420">
         <v>1.875</v>
-      </c>
-      <c r="T420">
-        <v>2</v>
-      </c>
-      <c r="U420">
-        <v>1.825</v>
       </c>
       <c r="V420">
         <v>1.975</v>
       </c>
       <c r="W420">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X420">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC420">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,76 +38032,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G422" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422">
         <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K422">
+        <v>1.95</v>
+      </c>
+      <c r="L422">
         <v>3.2</v>
       </c>
-      <c r="L422">
-        <v>3.1</v>
-      </c>
       <c r="M422">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N422">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O422">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P422">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q422">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R422">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S422">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T422">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U422">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
         <v>1.975</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X422">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA422">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC422">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,55 +38121,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G423" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J423" t="s">
         <v>55</v>
       </c>
       <c r="K423">
+        <v>2</v>
+      </c>
+      <c r="L423">
         <v>3.25</v>
       </c>
-      <c r="L423">
-        <v>3.1</v>
-      </c>
       <c r="M423">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N423">
+        <v>1.75</v>
+      </c>
+      <c r="O423">
         <v>3.6</v>
       </c>
-      <c r="O423">
-        <v>3.2</v>
-      </c>
       <c r="P423">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R423">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S423">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T423">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U423">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V423">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W423">
         <v>-1</v>
@@ -38178,19 +38178,19 @@
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z423">
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC423">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,49 +38210,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G424" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J424" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K424">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L424">
         <v>3.1</v>
       </c>
       <c r="M424">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N424">
+        <v>3.6</v>
+      </c>
+      <c r="O424">
+        <v>3.4</v>
+      </c>
+      <c r="P424">
         <v>2.1</v>
       </c>
-      <c r="O424">
-        <v>3.1</v>
-      </c>
-      <c r="P424">
-        <v>3.8</v>
-      </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R424">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S424">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T424">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
         <v>1.85</v>
@@ -38261,19 +38261,19 @@
         <v>1.95</v>
       </c>
       <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>-1</v>
+      </c>
+      <c r="Y424">
         <v>1.1</v>
       </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
       <c r="Z424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB424">
         <v>0.8500000000000001</v>
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,55 +38299,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F425" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I425">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J425" t="s">
         <v>55</v>
       </c>
       <c r="K425">
+        <v>1.444</v>
+      </c>
+      <c r="L425">
+        <v>4.5</v>
+      </c>
+      <c r="M425">
+        <v>6</v>
+      </c>
+      <c r="N425">
+        <v>1.363</v>
+      </c>
+      <c r="O425">
+        <v>5</v>
+      </c>
+      <c r="P425">
+        <v>7.5</v>
+      </c>
+      <c r="Q425">
+        <v>-1.25</v>
+      </c>
+      <c r="R425">
+        <v>1.775</v>
+      </c>
+      <c r="S425">
+        <v>2.025</v>
+      </c>
+      <c r="T425">
         <v>3</v>
       </c>
-      <c r="L425">
-        <v>3.1</v>
-      </c>
-      <c r="M425">
-        <v>2.3</v>
-      </c>
-      <c r="N425">
-        <v>3.6</v>
-      </c>
-      <c r="O425">
-        <v>3.4</v>
-      </c>
-      <c r="P425">
-        <v>2.1</v>
-      </c>
-      <c r="Q425">
-        <v>0.25</v>
-      </c>
-      <c r="R425">
-        <v>2.025</v>
-      </c>
-      <c r="S425">
-        <v>1.775</v>
-      </c>
-      <c r="T425">
-        <v>2.5</v>
-      </c>
       <c r="U425">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V425">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W425">
         <v>-1</v>
@@ -38356,19 +38356,19 @@
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB425">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38376,7 +38376,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38388,76 +38388,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F426" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G426" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K426">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L426">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M426">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N426">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O426">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P426">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q426">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R426">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S426">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U426">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V426">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W426">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X426">
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z426">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA426">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB426">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC426">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38465,7 +38465,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38477,55 +38477,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F427" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G427" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J427" t="s">
         <v>55</v>
       </c>
       <c r="K427">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L427">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M427">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N427">
+        <v>3.6</v>
+      </c>
+      <c r="O427">
+        <v>3.2</v>
+      </c>
+      <c r="P427">
+        <v>2.15</v>
+      </c>
+      <c r="Q427">
+        <v>0.25</v>
+      </c>
+      <c r="R427">
+        <v>1.975</v>
+      </c>
+      <c r="S427">
+        <v>1.825</v>
+      </c>
+      <c r="T427">
+        <v>2</v>
+      </c>
+      <c r="U427">
         <v>1.75</v>
       </c>
-      <c r="O427">
-        <v>3.6</v>
-      </c>
-      <c r="P427">
-        <v>4.75</v>
-      </c>
-      <c r="Q427">
-        <v>-0.75</v>
-      </c>
-      <c r="R427">
-        <v>2</v>
-      </c>
-      <c r="S427">
-        <v>1.8</v>
-      </c>
-      <c r="T427">
-        <v>2.5</v>
-      </c>
-      <c r="U427">
-        <v>2</v>
-      </c>
       <c r="V427">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -38534,19 +38534,19 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB427">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC427">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -46953,25 +46953,25 @@
         <v>3.2</v>
       </c>
       <c r="P522">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q522">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R522">
+        <v>2.05</v>
+      </c>
+      <c r="S522">
         <v>1.8</v>
       </c>
-      <c r="S522">
-        <v>2.05</v>
-      </c>
       <c r="T522">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U522">
+        <v>1.875</v>
+      </c>
+      <c r="V522">
         <v>1.975</v>
-      </c>
-      <c r="V522">
-        <v>1.875</v>
       </c>
       <c r="W522">
         <v>0</v>
@@ -47021,10 +47021,10 @@
         <v>5.75</v>
       </c>
       <c r="N523">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O523">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P523">
         <v>5.75</v>
@@ -47033,19 +47033,19 @@
         <v>-0.75</v>
       </c>
       <c r="R523">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S523">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T523">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U523">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V523">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W523">
         <v>0</v>
@@ -47095,31 +47095,31 @@
         <v>4.75</v>
       </c>
       <c r="N524">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O524">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P524">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q524">
         <v>-0.75</v>
       </c>
       <c r="R524">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S524">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T524">
         <v>2</v>
       </c>
       <c r="U524">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V524">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W524">
         <v>0</v>
@@ -47169,13 +47169,13 @@
         <v>3.1</v>
       </c>
       <c r="N525">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O525">
         <v>3.1</v>
       </c>
       <c r="P525">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q525">
         <v>-0.25</v>
@@ -47243,10 +47243,10 @@
         <v>4.2</v>
       </c>
       <c r="N526">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O526">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P526">
         <v>4.2</v>
@@ -47255,10 +47255,10 @@
         <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S526">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T526">
         <v>2.25</v>
@@ -47317,13 +47317,13 @@
         <v>5.25</v>
       </c>
       <c r="N527">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O527">
         <v>3.75</v>
       </c>
       <c r="P527">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q527">
         <v>-0.75</v>
@@ -47391,22 +47391,22 @@
         <v>3.1</v>
       </c>
       <c r="N528">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O528">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P528">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q528">
         <v>-0.25</v>
       </c>
       <c r="R528">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S528">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T528">
         <v>2</v>
@@ -47486,10 +47486,10 @@
         <v>2.25</v>
       </c>
       <c r="U529">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V529">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W529">
         <v>0</v>
@@ -47551,10 +47551,10 @@
         <v>0.5</v>
       </c>
       <c r="R530">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S530">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T530">
         <v>2</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -17550,7 +17550,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6140986</v>
+        <v>6140989</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,58 +17562,58 @@
         <v>45063.875</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>54</v>
       </c>
       <c r="K192">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M192">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N192">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P192">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17622,13 +17622,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6141040</v>
+        <v>6140987</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,10 +17651,10 @@
         <v>45063.875</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17666,43 +17666,43 @@
         <v>54</v>
       </c>
       <c r="K193">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N193">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P193">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17711,13 +17711,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17728,7 +17728,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6141039</v>
+        <v>6140986</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,76 +17740,76 @@
         <v>45063.875</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K194">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L194">
         <v>3.2</v>
       </c>
       <c r="M194">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N194">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O194">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P194">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T194">
         <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X194">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6140989</v>
+        <v>6140985</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,13 +17829,13 @@
         <v>45063.875</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17844,43 +17844,43 @@
         <v>54</v>
       </c>
       <c r="K195">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L195">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N195">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O195">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,13 +17889,13 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6140987</v>
+        <v>6140182</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,61 +17918,61 @@
         <v>45063.875</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L196">
+        <v>3.8</v>
+      </c>
+      <c r="M196">
+        <v>5.25</v>
+      </c>
+      <c r="N196">
+        <v>2.2</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
         <v>3.4</v>
       </c>
-      <c r="M196">
-        <v>4.333</v>
-      </c>
-      <c r="N196">
-        <v>1.4</v>
-      </c>
-      <c r="O196">
-        <v>4.5</v>
-      </c>
-      <c r="P196">
-        <v>8.5</v>
-      </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17981,13 +17981,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6141038</v>
+        <v>6140241</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,76 +18007,76 @@
         <v>45063.875</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L197">
+        <v>3.3</v>
+      </c>
+      <c r="M197">
         <v>3.5</v>
       </c>
-      <c r="M197">
-        <v>5.25</v>
-      </c>
       <c r="N197">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="O197">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q197">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB197">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140988</v>
+        <v>6141040</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K198">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
+        <v>2.875</v>
+      </c>
+      <c r="N198">
         <v>1.95</v>
       </c>
-      <c r="N198">
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
         <v>3.75</v>
       </c>
-      <c r="O198">
-        <v>3.4</v>
-      </c>
-      <c r="P198">
-        <v>2.05</v>
-      </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.8</v>
       </c>
-      <c r="S198">
-        <v>2.05</v>
-      </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6140182</v>
+        <v>6140988</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,46 +18185,46 @@
         <v>45063.875</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R199">
         <v>1.8</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T199">
         <v>2.25</v>
@@ -18233,28 +18233,28 @@
         <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z199">
+        <v>-1</v>
+      </c>
+      <c r="AA199">
+        <v>1.05</v>
+      </c>
+      <c r="AB199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.5</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6140241</v>
+        <v>6141039</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,76 +18274,76 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
         <v>3.5</v>
       </c>
       <c r="N200">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140985</v>
+        <v>6141038</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,58 +18363,58 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>54</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N201">
-        <v>1.55</v>
+        <v>1.285</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
+        <v>1.925</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
         <v>1.8</v>
       </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.825</v>
-      </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
       <c r="W201">
-        <v>0.55</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18423,16 +18423,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,58 +20232,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F222" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>54</v>
       </c>
       <c r="K222">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L222">
+        <v>3.5</v>
+      </c>
+      <c r="M222">
+        <v>4.2</v>
+      </c>
+      <c r="N222">
+        <v>2.1</v>
+      </c>
+      <c r="O222">
+        <v>3.3</v>
+      </c>
+      <c r="P222">
         <v>3.75</v>
       </c>
-      <c r="M222">
-        <v>5.5</v>
-      </c>
-      <c r="N222">
-        <v>1.7</v>
-      </c>
-      <c r="O222">
-        <v>3.8</v>
-      </c>
-      <c r="P222">
-        <v>5.25</v>
-      </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20292,13 +20292,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,58 +20321,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>54</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20381,13 +20381,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,76 +20410,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K224">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L224">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N224">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X224">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
+        <v>0.5</v>
+      </c>
+      <c r="AA224">
         <v>-0.5</v>
       </c>
-      <c r="AA224">
-        <v>0.45</v>
-      </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,76 +20499,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K225">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N225">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
+        <v>1.9</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.95</v>
+      </c>
+      <c r="V225">
         <v>1.85</v>
       </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
-      <c r="V225">
-        <v>2</v>
-      </c>
       <c r="W225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC225">
-        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -37753,7 +37753,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7404212</v>
+        <v>7404218</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37765,49 +37765,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G419" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J419" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K419">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L419">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M419">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N419">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O419">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P419">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q419">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R419">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S419">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T419">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U419">
         <v>2.025</v>
@@ -37816,19 +37816,19 @@
         <v>1.825</v>
       </c>
       <c r="W419">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X419">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA419">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB419">
         <v>-1</v>
@@ -37842,7 +37842,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,76 +37854,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F420" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G420" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420">
         <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K420">
+        <v>1.95</v>
+      </c>
+      <c r="L420">
         <v>3.2</v>
       </c>
-      <c r="L420">
-        <v>3.1</v>
-      </c>
       <c r="M420">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N420">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O420">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P420">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q420">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R420">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S420">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T420">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U420">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V420">
         <v>1.975</v>
       </c>
       <c r="W420">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X420">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA420">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB420">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC420">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37943,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K421">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L421">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M421">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N421">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O421">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P421">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q421">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R421">
+        <v>1.95</v>
+      </c>
+      <c r="S421">
         <v>1.9</v>
       </c>
-      <c r="S421">
-        <v>1.95</v>
-      </c>
       <c r="T421">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U421">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V421">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W421">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38020,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,76 +38032,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G422" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422">
         <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K422">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L422">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M422">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N422">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O422">
         <v>3.2</v>
       </c>
       <c r="P422">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q422">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S422">
         <v>1.875</v>
       </c>
       <c r="T422">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U422">
+        <v>2.025</v>
+      </c>
+      <c r="V422">
         <v>1.825</v>
       </c>
-      <c r="V422">
-        <v>1.975</v>
-      </c>
       <c r="W422">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
+        <v>-1</v>
+      </c>
+      <c r="AC422">
         <v>0.825</v>
-      </c>
-      <c r="AC422">
-        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,55 +38121,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G423" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J423" t="s">
         <v>55</v>
       </c>
       <c r="K423">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L423">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M423">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N423">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O423">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P423">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q423">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R423">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S423">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T423">
         <v>2.5</v>
       </c>
       <c r="U423">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V423">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
         <v>-1</v>
@@ -38178,16 +38178,16 @@
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z423">
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB423">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC423">
         <v>-1</v>
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,55 +38210,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G424" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J424" t="s">
         <v>55</v>
       </c>
       <c r="K424">
+        <v>1.444</v>
+      </c>
+      <c r="L424">
+        <v>4.5</v>
+      </c>
+      <c r="M424">
+        <v>6</v>
+      </c>
+      <c r="N424">
+        <v>1.363</v>
+      </c>
+      <c r="O424">
+        <v>5</v>
+      </c>
+      <c r="P424">
+        <v>7.5</v>
+      </c>
+      <c r="Q424">
+        <v>-1.25</v>
+      </c>
+      <c r="R424">
+        <v>1.775</v>
+      </c>
+      <c r="S424">
+        <v>2.025</v>
+      </c>
+      <c r="T424">
         <v>3</v>
       </c>
-      <c r="L424">
-        <v>3.1</v>
-      </c>
-      <c r="M424">
-        <v>2.3</v>
-      </c>
-      <c r="N424">
-        <v>3.6</v>
-      </c>
-      <c r="O424">
-        <v>3.4</v>
-      </c>
-      <c r="P424">
-        <v>2.1</v>
-      </c>
-      <c r="Q424">
-        <v>0.25</v>
-      </c>
-      <c r="R424">
-        <v>2.025</v>
-      </c>
-      <c r="S424">
-        <v>1.775</v>
-      </c>
-      <c r="T424">
-        <v>2.5</v>
-      </c>
       <c r="U424">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V424">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W424">
         <v>-1</v>
@@ -38267,19 +38267,19 @@
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB424">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,76 +38299,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F425" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G425" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K425">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L425">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M425">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N425">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O425">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P425">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q425">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R425">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S425">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U425">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V425">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA425">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC425">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38376,7 +38376,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38388,73 +38388,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F426" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G426" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H426">
         <v>2</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J426" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K426">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L426">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M426">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N426">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O426">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P426">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q426">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R426">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S426">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T426">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U426">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V426">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W426">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X426">
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z426">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA426">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB426">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC426">
         <v>-1</v>
@@ -46937,6 +46937,15 @@
       <c r="G522" t="s">
         <v>39</v>
       </c>
+      <c r="H522">
+        <v>3</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522" t="s">
+        <v>54</v>
+      </c>
       <c r="K522">
         <v>2.1</v>
       </c>
@@ -46953,40 +46962,46 @@
         <v>3.2</v>
       </c>
       <c r="P522">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q522">
         <v>-0.5</v>
       </c>
       <c r="R522">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S522">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T522">
         <v>2</v>
       </c>
       <c r="U522">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V522">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W522">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X522">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y522">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA522">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB522">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC522">
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -47011,6 +47026,15 @@
       <c r="G523" t="s">
         <v>29</v>
       </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523" t="s">
+        <v>53</v>
+      </c>
       <c r="K523">
         <v>1.571</v>
       </c>
@@ -47021,7 +47045,7 @@
         <v>5.75</v>
       </c>
       <c r="N523">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O523">
         <v>3.75</v>
@@ -47033,7 +47057,7 @@
         <v>-0.75</v>
       </c>
       <c r="R523">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S523">
         <v>2.05</v>
@@ -47042,25 +47066,31 @@
         <v>2.25</v>
       </c>
       <c r="U523">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V523">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W523">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X523">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y523">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z523">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA523">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB523">
+        <v>-1</v>
+      </c>
+      <c r="AC523">
+        <v>1.025</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47085,6 +47115,15 @@
       <c r="G524" t="s">
         <v>47</v>
       </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>1</v>
+      </c>
+      <c r="J524" t="s">
+        <v>55</v>
+      </c>
       <c r="K524">
         <v>1.8</v>
       </c>
@@ -47095,13 +47134,13 @@
         <v>4.75</v>
       </c>
       <c r="N524">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O524">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P524">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q524">
         <v>-0.75</v>
@@ -47110,31 +47149,37 @@
         <v>1.875</v>
       </c>
       <c r="S524">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T524">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U524">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V524">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W524">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X524">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y524">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z524">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA524">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB524">
+        <v>-1</v>
+      </c>
+      <c r="AC524">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="525" spans="1:29">
@@ -47151,7 +47196,7 @@
         <v>28</v>
       </c>
       <c r="E525" s="2">
-        <v>45344.92361111111</v>
+        <v>45344.93055555555</v>
       </c>
       <c r="F525" t="s">
         <v>40</v>
@@ -47159,6 +47204,15 @@
       <c r="G525" t="s">
         <v>38</v>
       </c>
+      <c r="H525">
+        <v>1</v>
+      </c>
+      <c r="I525">
+        <v>2</v>
+      </c>
+      <c r="J525" t="s">
+        <v>55</v>
+      </c>
       <c r="K525">
         <v>2.25</v>
       </c>
@@ -47169,46 +47223,52 @@
         <v>3.1</v>
       </c>
       <c r="N525">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O525">
         <v>3.1</v>
       </c>
       <c r="P525">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q525">
         <v>-0.25</v>
       </c>
       <c r="R525">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S525">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T525">
         <v>2</v>
       </c>
       <c r="U525">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V525">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y525">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA525">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB525">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC525">
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47255,10 +47315,10 @@
         <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S526">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T526">
         <v>2.25</v>
@@ -47317,31 +47377,31 @@
         <v>5.25</v>
       </c>
       <c r="N527">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O527">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P527">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q527">
         <v>-0.75</v>
       </c>
       <c r="R527">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S527">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T527">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U527">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V527">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W527">
         <v>0</v>
@@ -47391,22 +47451,22 @@
         <v>3.1</v>
       </c>
       <c r="N528">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O528">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P528">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q528">
         <v>-0.25</v>
       </c>
       <c r="R528">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S528">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T528">
         <v>2</v>
@@ -47465,13 +47525,13 @@
         <v>2.375</v>
       </c>
       <c r="N529">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O529">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P529">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q529">
         <v>0.25</v>
@@ -47539,10 +47599,10 @@
         <v>1.95</v>
       </c>
       <c r="N530">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O530">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P530">
         <v>1.95</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC530"/>
+  <dimension ref="A1:AC528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6140987</v>
+        <v>6141039</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,76 +17651,76 @@
         <v>45063.875</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L193">
+        <v>3.2</v>
+      </c>
+      <c r="M193">
+        <v>3.5</v>
+      </c>
+      <c r="N193">
+        <v>1.85</v>
+      </c>
+      <c r="O193">
         <v>3.4</v>
       </c>
-      <c r="M193">
-        <v>4.333</v>
-      </c>
-      <c r="N193">
-        <v>1.4</v>
-      </c>
-      <c r="O193">
-        <v>4.5</v>
-      </c>
       <c r="P193">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
+        <v>1.925</v>
+      </c>
+      <c r="S193">
+        <v>1.925</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
         <v>1.975</v>
       </c>
-      <c r="S193">
-        <v>1.825</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>1.825</v>
-      </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17728,7 +17728,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6140986</v>
+        <v>6141038</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,13 +17740,13 @@
         <v>45063.875</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -17755,43 +17755,43 @@
         <v>54</v>
       </c>
       <c r="K194">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L194">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M194">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N194">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="O194">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P194">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
+        <v>1.875</v>
+      </c>
+      <c r="S194">
+        <v>1.925</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
         <v>1.8</v>
       </c>
-      <c r="S194">
-        <v>2</v>
-      </c>
-      <c r="T194">
-        <v>2.25</v>
-      </c>
-      <c r="U194">
-        <v>1.8</v>
-      </c>
-      <c r="V194">
-        <v>2</v>
-      </c>
       <c r="W194">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17800,16 +17800,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6140985</v>
+        <v>6140988</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,76 +17829,76 @@
         <v>45063.875</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K195">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="N195">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O195">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6140182</v>
+        <v>6141040</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,76 +17918,76 @@
         <v>45063.875</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L196">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
         <v>1.8</v>
       </c>
-      <c r="S196">
-        <v>2</v>
-      </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA196">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6140241</v>
+        <v>6140986</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,73 +18007,73 @@
         <v>45063.875</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K197">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N197">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X197">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6141040</v>
+        <v>6140985</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,40 +18096,40 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>54</v>
       </c>
       <c r="K198">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P198">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R198">
         <v>2</v>
@@ -18138,16 +18138,16 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18162,7 +18162,7 @@
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6140988</v>
+        <v>6140987</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45063.875</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K199">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
         <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6141039</v>
+        <v>6140241</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,76 +18274,76 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L200">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
         <v>3.5</v>
       </c>
       <c r="N200">
+        <v>2.55</v>
+      </c>
+      <c r="O200">
+        <v>3.2</v>
+      </c>
+      <c r="P200">
+        <v>2.8</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
         <v>1.85</v>
       </c>
-      <c r="O200">
-        <v>3.4</v>
-      </c>
-      <c r="P200">
-        <v>4.2</v>
-      </c>
-      <c r="Q200">
-        <v>-0.5</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.25</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6141038</v>
+        <v>6140182</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,76 +18363,76 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M201">
         <v>5.25</v>
       </c>
       <c r="N201">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O201">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,58 +20232,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>54</v>
       </c>
       <c r="K222">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20292,13 +20292,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,58 +20321,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F223" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>54</v>
       </c>
       <c r="K223">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>4.2</v>
+      </c>
+      <c r="N223">
+        <v>2.1</v>
+      </c>
+      <c r="O223">
+        <v>3.3</v>
+      </c>
+      <c r="P223">
         <v>3.75</v>
       </c>
-      <c r="M223">
-        <v>5.5</v>
-      </c>
-      <c r="N223">
-        <v>1.7</v>
-      </c>
-      <c r="O223">
-        <v>3.8</v>
-      </c>
-      <c r="P223">
-        <v>5.25</v>
-      </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20381,13 +20381,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -37664,7 +37664,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37676,76 +37676,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F418" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G418" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418">
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K418">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L418">
         <v>3.1</v>
       </c>
       <c r="M418">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N418">
+        <v>3.6</v>
+      </c>
+      <c r="O418">
+        <v>3</v>
+      </c>
+      <c r="P418">
         <v>2.25</v>
       </c>
-      <c r="O418">
-        <v>3.2</v>
-      </c>
-      <c r="P418">
-        <v>3.3</v>
-      </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R418">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S418">
         <v>1.9</v>
       </c>
       <c r="T418">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U418">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V418">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W418">
         <v>-1</v>
       </c>
       <c r="X418">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y418">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA418">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC418">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37753,7 +37753,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7404218</v>
+        <v>7404216</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37765,76 +37765,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F419" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G419" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K419">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L419">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M419">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N419">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O419">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P419">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="Q419">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R419">
         <v>1.9</v>
       </c>
       <c r="S419">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T419">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U419">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V419">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W419">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X419">
         <v>-1</v>
       </c>
       <c r="Y419">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z419">
+        <v>-1</v>
+      </c>
+      <c r="AA419">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA419">
-        <v>-1</v>
-      </c>
       <c r="AB419">
         <v>-1</v>
       </c>
       <c r="AC419">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37931,7 +37931,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37943,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J421" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K421">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L421">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M421">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N421">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O421">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P421">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q421">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R421">
+        <v>1.9</v>
+      </c>
+      <c r="S421">
         <v>1.95</v>
       </c>
-      <c r="S421">
-        <v>1.9</v>
-      </c>
       <c r="T421">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U421">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V421">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X421">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA421">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC421">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,55 +38121,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G423" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H423">
         <v>0</v>
       </c>
       <c r="I423">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
         <v>55</v>
       </c>
       <c r="K423">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L423">
         <v>3.1</v>
       </c>
       <c r="M423">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N423">
         <v>3.6</v>
       </c>
       <c r="O423">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P423">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q423">
         <v>0.25</v>
       </c>
       <c r="R423">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S423">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T423">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U423">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W423">
         <v>-1</v>
@@ -38178,19 +38178,19 @@
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z423">
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB423">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G424" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K424">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L424">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M424">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N424">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O424">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P424">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q424">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S424">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U424">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA424">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC424">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,49 +38299,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F425" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G425" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J425" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K425">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L425">
         <v>3.1</v>
       </c>
       <c r="M425">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N425">
+        <v>3.6</v>
+      </c>
+      <c r="O425">
+        <v>3.4</v>
+      </c>
+      <c r="P425">
         <v>2.1</v>
       </c>
-      <c r="O425">
-        <v>3.1</v>
-      </c>
-      <c r="P425">
-        <v>3.8</v>
-      </c>
       <c r="Q425">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R425">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S425">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T425">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
         <v>1.85</v>
@@ -38350,19 +38350,19 @@
         <v>1.95</v>
       </c>
       <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
         <v>1.1</v>
       </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
       <c r="Z425">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA425">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB425">
         <v>0.8500000000000001</v>
@@ -38465,7 +38465,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38477,55 +38477,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F427" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G427" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J427" t="s">
         <v>55</v>
       </c>
       <c r="K427">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L427">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M427">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N427">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O427">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P427">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q427">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R427">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S427">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U427">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -38534,19 +38534,19 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB427">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC427">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -40334,7 +40334,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40346,76 +40346,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F448" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G448" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I448">
         <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K448">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L448">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M448">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N448">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O448">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P448">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q448">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R448">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S448">
         <v>1.975</v>
       </c>
       <c r="T448">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U448">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V448">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA448">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC448">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40423,7 +40423,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40435,76 +40435,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F449" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G449" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H449">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449">
         <v>1</v>
       </c>
       <c r="J449" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K449">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L449">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M449">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N449">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O449">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P449">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q449">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R449">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S449">
         <v>1.975</v>
       </c>
       <c r="T449">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U449">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V449">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W449">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z449">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB449">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC449">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -47293,6 +47293,15 @@
       <c r="G526" t="s">
         <v>32</v>
       </c>
+      <c r="H526">
+        <v>1</v>
+      </c>
+      <c r="I526">
+        <v>1</v>
+      </c>
+      <c r="J526" t="s">
+        <v>53</v>
+      </c>
       <c r="K526">
         <v>1.8</v>
       </c>
@@ -47303,46 +47312,52 @@
         <v>4.2</v>
       </c>
       <c r="N526">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O526">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P526">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q526">
         <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S526">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T526">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U526">
+        <v>1.8</v>
+      </c>
+      <c r="V526">
         <v>2.05</v>
       </c>
-      <c r="V526">
-        <v>1.8</v>
-      </c>
       <c r="W526">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X526">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y526">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z526">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA526">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB526">
+        <v>0</v>
+      </c>
+      <c r="AC526">
+        <v>-0</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47350,7 +47365,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>7631341</v>
+        <v>7862772</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47359,40 +47374,40 @@
         <v>28</v>
       </c>
       <c r="E527" s="2">
-        <v>45345.84027777778</v>
+        <v>45346.84027777778</v>
       </c>
       <c r="F527" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G527" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K527">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L527">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M527">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="N527">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O527">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P527">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q527">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R527">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S527">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T527">
         <v>2.25</v>
@@ -47424,7 +47439,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>7631390</v>
+        <v>7630516</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47433,49 +47448,49 @@
         <v>28</v>
       </c>
       <c r="E528" s="2">
-        <v>45345.93055555555</v>
+        <v>45346.93055555555</v>
       </c>
       <c r="F528" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G528" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K528">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L528">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M528">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N528">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="O528">
         <v>3.25</v>
       </c>
       <c r="P528">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q528">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R528">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S528">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T528">
         <v>2</v>
       </c>
       <c r="U528">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V528">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W528">
         <v>0</v>
@@ -47490,154 +47505,6 @@
         <v>0</v>
       </c>
       <c r="AA528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:27">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529">
-        <v>7862772</v>
-      </c>
-      <c r="C529" t="s">
-        <v>28</v>
-      </c>
-      <c r="D529" t="s">
-        <v>28</v>
-      </c>
-      <c r="E529" s="2">
-        <v>45346.84027777778</v>
-      </c>
-      <c r="F529" t="s">
-        <v>52</v>
-      </c>
-      <c r="G529" t="s">
-        <v>42</v>
-      </c>
-      <c r="K529">
-        <v>2.8</v>
-      </c>
-      <c r="L529">
-        <v>3.25</v>
-      </c>
-      <c r="M529">
-        <v>2.375</v>
-      </c>
-      <c r="N529">
-        <v>3.2</v>
-      </c>
-      <c r="O529">
-        <v>3.3</v>
-      </c>
-      <c r="P529">
-        <v>2.3</v>
-      </c>
-      <c r="Q529">
-        <v>0.25</v>
-      </c>
-      <c r="R529">
-        <v>1.8</v>
-      </c>
-      <c r="S529">
-        <v>2.05</v>
-      </c>
-      <c r="T529">
-        <v>2.25</v>
-      </c>
-      <c r="U529">
-        <v>1.85</v>
-      </c>
-      <c r="V529">
-        <v>2</v>
-      </c>
-      <c r="W529">
-        <v>0</v>
-      </c>
-      <c r="X529">
-        <v>0</v>
-      </c>
-      <c r="Y529">
-        <v>0</v>
-      </c>
-      <c r="Z529">
-        <v>0</v>
-      </c>
-      <c r="AA529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:27">
-      <c r="A530" s="1">
-        <v>528</v>
-      </c>
-      <c r="B530">
-        <v>7630516</v>
-      </c>
-      <c r="C530" t="s">
-        <v>28</v>
-      </c>
-      <c r="D530" t="s">
-        <v>28</v>
-      </c>
-      <c r="E530" s="2">
-        <v>45346.93055555555</v>
-      </c>
-      <c r="F530" t="s">
-        <v>49</v>
-      </c>
-      <c r="G530" t="s">
-        <v>48</v>
-      </c>
-      <c r="K530">
-        <v>4</v>
-      </c>
-      <c r="L530">
-        <v>3</v>
-      </c>
-      <c r="M530">
-        <v>1.95</v>
-      </c>
-      <c r="N530">
-        <v>4.333</v>
-      </c>
-      <c r="O530">
-        <v>3.2</v>
-      </c>
-      <c r="P530">
-        <v>1.95</v>
-      </c>
-      <c r="Q530">
-        <v>0.5</v>
-      </c>
-      <c r="R530">
-        <v>1.85</v>
-      </c>
-      <c r="S530">
-        <v>2</v>
-      </c>
-      <c r="T530">
-        <v>2</v>
-      </c>
-      <c r="U530">
-        <v>2.025</v>
-      </c>
-      <c r="V530">
-        <v>1.825</v>
-      </c>
-      <c r="W530">
-        <v>0</v>
-      </c>
-      <c r="X530">
-        <v>0</v>
-      </c>
-      <c r="Y530">
-        <v>0</v>
-      </c>
-      <c r="Z530">
-        <v>0</v>
-      </c>
-      <c r="AA530">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC528"/>
+  <dimension ref="A1:AC529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17728,7 +17728,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6141038</v>
+        <v>6141040</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,10 +17740,10 @@
         <v>45063.875</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17755,43 +17755,43 @@
         <v>54</v>
       </c>
       <c r="K194">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N194">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O194">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17800,16 +17800,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6140988</v>
+        <v>6141038</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,76 +17829,76 @@
         <v>45063.875</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N195">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P195">
-        <v>2.05</v>
+        <v>11</v>
       </c>
       <c r="Q195">
+        <v>-1.5</v>
+      </c>
+      <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.8</v>
+      </c>
+      <c r="W195">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>-1</v>
+      </c>
+      <c r="AA195">
+        <v>0.925</v>
+      </c>
+      <c r="AB195">
         <v>0.5</v>
       </c>
-      <c r="R195">
-        <v>1.8</v>
-      </c>
-      <c r="S195">
-        <v>2.05</v>
-      </c>
-      <c r="T195">
-        <v>2.25</v>
-      </c>
-      <c r="U195">
-        <v>1.9</v>
-      </c>
-      <c r="V195">
-        <v>1.95</v>
-      </c>
-      <c r="W195">
-        <v>-1</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>1.05</v>
-      </c>
-      <c r="Z195">
-        <v>-1</v>
-      </c>
-      <c r="AA195">
-        <v>1.05</v>
-      </c>
-      <c r="AB195">
+      <c r="AC195">
         <v>-0.5</v>
-      </c>
-      <c r="AC195">
-        <v>0.475</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6141040</v>
+        <v>6140988</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,76 +17918,76 @@
         <v>45063.875</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K196">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N196">
+        <v>3.75</v>
+      </c>
+      <c r="O196">
+        <v>3.4</v>
+      </c>
+      <c r="P196">
+        <v>2.05</v>
+      </c>
+      <c r="Q196">
+        <v>0.5</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2.05</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.9</v>
+      </c>
+      <c r="V196">
         <v>1.95</v>
       </c>
-      <c r="O196">
-        <v>3.6</v>
-      </c>
-      <c r="P196">
-        <v>3.75</v>
-      </c>
-      <c r="Q196">
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>1.05</v>
+      </c>
+      <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>1.05</v>
+      </c>
+      <c r="AB196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>2</v>
-      </c>
-      <c r="S196">
-        <v>1.8</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
-      <c r="W196">
-        <v>0.95</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
-        <v>1</v>
-      </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>0.8</v>
-      </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6140986</v>
+        <v>6140182</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,40 +18007,40 @@
         <v>45063.875</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L197">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M197">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N197">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
         <v>1.8</v>
@@ -18052,31 +18052,31 @@
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140985</v>
+        <v>6140241</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,73 +18096,73 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K198">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6140241</v>
+        <v>6140985</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,73 +18274,73 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K200">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N200">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P200">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X200">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140182</v>
+        <v>6140986</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,40 +18363,40 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K201">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L201">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="N201">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
         <v>1.8</v>
@@ -18408,31 +18408,31 @@
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X201">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,58 +20232,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F222" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>54</v>
       </c>
       <c r="K222">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L222">
+        <v>3.5</v>
+      </c>
+      <c r="M222">
+        <v>4.2</v>
+      </c>
+      <c r="N222">
+        <v>2.1</v>
+      </c>
+      <c r="O222">
+        <v>3.3</v>
+      </c>
+      <c r="P222">
         <v>3.75</v>
       </c>
-      <c r="M222">
-        <v>5.5</v>
-      </c>
-      <c r="N222">
-        <v>1.7</v>
-      </c>
-      <c r="O222">
-        <v>3.8</v>
-      </c>
-      <c r="P222">
-        <v>5.25</v>
-      </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20292,13 +20292,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,58 +20321,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>54</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20381,13 +20381,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,76 +20410,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
+        <v>1.9</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
         <v>1.85</v>
       </c>
-      <c r="T224">
-        <v>2.25</v>
-      </c>
-      <c r="U224">
-        <v>1.85</v>
-      </c>
-      <c r="V224">
-        <v>2</v>
-      </c>
       <c r="W224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,76 +20499,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X225">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
+        <v>0.5</v>
+      </c>
+      <c r="AA225">
         <v>-0.5</v>
       </c>
-      <c r="AA225">
-        <v>0.45</v>
-      </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,76 +38121,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G423" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423">
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K423">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L423">
         <v>3.1</v>
       </c>
       <c r="M423">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N423">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O423">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P423">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R423">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S423">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T423">
         <v>2</v>
       </c>
       <c r="U423">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V423">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA423">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC423">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G424" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424">
         <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K424">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L424">
         <v>3.1</v>
       </c>
       <c r="M424">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N424">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O424">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P424">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R424">
+        <v>1.975</v>
+      </c>
+      <c r="S424">
+        <v>1.825</v>
+      </c>
+      <c r="T424">
+        <v>2</v>
+      </c>
+      <c r="U424">
         <v>1.75</v>
       </c>
-      <c r="S424">
+      <c r="V424">
         <v>2.05</v>
       </c>
-      <c r="T424">
-        <v>2</v>
-      </c>
-      <c r="U424">
-        <v>1.85</v>
-      </c>
-      <c r="V424">
-        <v>1.95</v>
-      </c>
       <c r="W424">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB424">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -40512,7 +40512,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40524,58 +40524,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F450" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G450" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H450">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I450">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J450" t="s">
         <v>54</v>
       </c>
       <c r="K450">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L450">
         <v>3.3</v>
       </c>
       <c r="M450">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N450">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O450">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P450">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q450">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R450">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S450">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T450">
         <v>2.5</v>
       </c>
       <c r="U450">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V450">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W450">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X450">
         <v>-1</v>
@@ -40584,13 +40584,13 @@
         <v>-1</v>
       </c>
       <c r="Z450">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA450">
         <v>-1</v>
       </c>
       <c r="AB450">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC450">
         <v>-1</v>
@@ -40601,7 +40601,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40613,58 +40613,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F451" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G451" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J451" t="s">
         <v>54</v>
       </c>
       <c r="K451">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L451">
         <v>3.3</v>
       </c>
       <c r="M451">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N451">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O451">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P451">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q451">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R451">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S451">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T451">
         <v>2.5</v>
       </c>
       <c r="U451">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V451">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W451">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X451">
         <v>-1</v>
@@ -40673,13 +40673,13 @@
         <v>-1</v>
       </c>
       <c r="Z451">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA451">
         <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC451">
         <v>-1</v>
@@ -47392,31 +47392,31 @@
         <v>2.375</v>
       </c>
       <c r="N527">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O527">
         <v>3.3</v>
       </c>
       <c r="P527">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q527">
         <v>0</v>
       </c>
       <c r="R527">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S527">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T527">
         <v>2.25</v>
       </c>
       <c r="U527">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V527">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W527">
         <v>0</v>
@@ -47478,20 +47478,20 @@
         <v>0.5</v>
       </c>
       <c r="R528">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S528">
+        <v>1.875</v>
+      </c>
+      <c r="T528">
+        <v>2</v>
+      </c>
+      <c r="U528">
+        <v>2</v>
+      </c>
+      <c r="V528">
         <v>1.85</v>
       </c>
-      <c r="T528">
-        <v>2</v>
-      </c>
-      <c r="U528">
-        <v>1.975</v>
-      </c>
-      <c r="V528">
-        <v>1.875</v>
-      </c>
       <c r="W528">
         <v>0</v>
       </c>
@@ -47505,6 +47505,80 @@
         <v>0</v>
       </c>
       <c r="AA528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:27">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>7631396</v>
+      </c>
+      <c r="C529" t="s">
+        <v>28</v>
+      </c>
+      <c r="D529" t="s">
+        <v>28</v>
+      </c>
+      <c r="E529" s="2">
+        <v>45347.77083333334</v>
+      </c>
+      <c r="F529" t="s">
+        <v>35</v>
+      </c>
+      <c r="G529" t="s">
+        <v>41</v>
+      </c>
+      <c r="K529">
+        <v>3.75</v>
+      </c>
+      <c r="L529">
+        <v>3.1</v>
+      </c>
+      <c r="M529">
+        <v>2.1</v>
+      </c>
+      <c r="N529">
+        <v>3.8</v>
+      </c>
+      <c r="O529">
+        <v>3.1</v>
+      </c>
+      <c r="P529">
+        <v>2.1</v>
+      </c>
+      <c r="Q529">
+        <v>0.25</v>
+      </c>
+      <c r="R529">
+        <v>2.05</v>
+      </c>
+      <c r="S529">
+        <v>1.8</v>
+      </c>
+      <c r="T529">
+        <v>2</v>
+      </c>
+      <c r="U529">
+        <v>1.775</v>
+      </c>
+      <c r="V529">
+        <v>2.1</v>
+      </c>
+      <c r="W529">
+        <v>0</v>
+      </c>
+      <c r="X529">
+        <v>0</v>
+      </c>
+      <c r="Y529">
+        <v>0</v>
+      </c>
+      <c r="Z529">
+        <v>0</v>
+      </c>
+      <c r="AA529">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Alianza FC Valledupar</t>
-  </si>
-  <si>
-    <t>Alianza</t>
   </si>
   <si>
     <t>D</t>
@@ -543,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC529"/>
+  <dimension ref="A1:AC530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2">
         <v>1.95</v>
@@ -753,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -842,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>2.5</v>
@@ -931,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -1020,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6">
         <v>1.95</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
         <v>1.727</v>
@@ -1198,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
         <v>2.55</v>
@@ -1287,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <v>2.7</v>
@@ -1376,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
         <v>1.8</v>
@@ -1554,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>3.1</v>
@@ -1643,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>1.909</v>
@@ -1732,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>2.625</v>
@@ -1821,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>2.2</v>
@@ -1910,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>1.571</v>
@@ -1999,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2088,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>1.95</v>
@@ -2177,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2266,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2355,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>2.625</v>
@@ -2444,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>3.4</v>
@@ -2533,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
         <v>2.15</v>
@@ -2622,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>1.95</v>
@@ -2711,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25">
         <v>1.533</v>
@@ -2800,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26">
         <v>1.615</v>
@@ -2889,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
         <v>2.375</v>
@@ -2978,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>2.9</v>
@@ -3067,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>2.2</v>
@@ -3156,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3245,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>2.15</v>
@@ -3334,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>1.571</v>
@@ -3423,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.95</v>
@@ -3512,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3601,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
         <v>3.25</v>
@@ -3690,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
         <v>2.15</v>
@@ -3779,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3868,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>1.5</v>
@@ -3957,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>2.8</v>
@@ -4046,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>2.3</v>
@@ -4135,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4224,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42">
         <v>3.1</v>
@@ -4313,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
         <v>2.55</v>
@@ -4402,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
         <v>1.75</v>
@@ -4491,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45">
         <v>1.666</v>
@@ -4580,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46">
         <v>2.4</v>
@@ -4669,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47">
         <v>1.444</v>
@@ -4758,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K48">
         <v>1.45</v>
@@ -4847,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4936,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
         <v>1.75</v>
@@ -5025,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
         <v>2.8</v>
@@ -5114,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K52">
         <v>1.4</v>
@@ -5203,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5292,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5381,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5470,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5559,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5648,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58">
         <v>2.45</v>
@@ -5737,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5826,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60">
         <v>1.65</v>
@@ -5915,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K61">
         <v>2.75</v>
@@ -6004,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6093,7 +6090,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6182,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6271,7 +6268,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K65">
         <v>1.6</v>
@@ -6360,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6449,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6538,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6627,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K69">
         <v>1.833</v>
@@ -6716,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -6805,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -6894,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
         <v>2.4</v>
@@ -6983,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K73">
         <v>1.8</v>
@@ -7072,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K74">
         <v>2.45</v>
@@ -7161,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K75">
         <v>2.75</v>
@@ -7250,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7339,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77">
         <v>1.75</v>
@@ -7428,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7517,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7606,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7695,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -7784,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K82">
         <v>1.7</v>
@@ -7873,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83">
         <v>2.45</v>
@@ -7962,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>2.8</v>
@@ -8051,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K85">
         <v>1.95</v>
@@ -8140,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K86">
         <v>1.7</v>
@@ -8229,7 +8226,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8318,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K88">
         <v>2.2</v>
@@ -8407,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K89">
         <v>1.615</v>
@@ -8496,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8585,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K91">
         <v>2.3</v>
@@ -8674,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
         <v>1.7</v>
@@ -8763,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K93">
         <v>1.615</v>
@@ -8852,7 +8849,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8941,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K95">
         <v>2.8</v>
@@ -9030,7 +9027,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
         <v>2.875</v>
@@ -9119,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9208,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K98">
         <v>1.833</v>
@@ -9297,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9386,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9475,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K101">
         <v>1.8</v>
@@ -9564,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K102">
         <v>2.375</v>
@@ -9653,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K103">
         <v>2.625</v>
@@ -9742,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
         <v>2.75</v>
@@ -9831,7 +9828,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
         <v>2.9</v>
@@ -9920,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -10009,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K107">
         <v>3.2</v>
@@ -10098,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K108">
         <v>2.625</v>
@@ -10187,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K109">
         <v>1.533</v>
@@ -10276,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K110">
         <v>1.6</v>
@@ -10365,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K111">
         <v>1.8</v>
@@ -10454,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10543,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -10632,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K114">
         <v>1.85</v>
@@ -10721,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10810,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K116">
         <v>3</v>
@@ -10899,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10988,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K118">
         <v>1.8</v>
@@ -11077,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11166,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K120">
         <v>3.3</v>
@@ -11255,7 +11252,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K121">
         <v>1.85</v>
@@ -11344,7 +11341,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122">
         <v>2.55</v>
@@ -11433,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K123">
         <v>2.05</v>
@@ -11522,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K124">
         <v>2.875</v>
@@ -11611,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K125">
         <v>1.85</v>
@@ -11700,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126">
         <v>1.7</v>
@@ -11789,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11878,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K128">
         <v>1.6</v>
@@ -11967,7 +11964,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12056,7 +12053,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130">
         <v>2.625</v>
@@ -12145,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12234,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12323,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K133">
         <v>2.5</v>
@@ -12412,7 +12409,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K134">
         <v>2.15</v>
@@ -12501,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>2.3</v>
@@ -12590,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>2.7</v>
@@ -12679,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137">
         <v>2.625</v>
@@ -12768,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
         <v>2.2</v>
@@ -12857,7 +12854,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>2.2</v>
@@ -12946,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
         <v>1.571</v>
@@ -13035,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
         <v>1.75</v>
@@ -13124,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K142">
         <v>2.9</v>
@@ -13213,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -13302,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K144">
         <v>2.9</v>
@@ -13391,7 +13388,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13480,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K146">
         <v>2.4</v>
@@ -13569,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13658,7 +13655,7 @@
         <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148">
         <v>2.9</v>
@@ -13747,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K149">
         <v>2.1</v>
@@ -13836,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K150">
         <v>1.666</v>
@@ -13925,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K151">
         <v>2</v>
@@ -14014,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K152">
         <v>1.4</v>
@@ -14103,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K153">
         <v>1.833</v>
@@ -14192,7 +14189,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K154">
         <v>2.4</v>
@@ -14281,7 +14278,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K155">
         <v>1.75</v>
@@ -14370,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K156">
         <v>2.05</v>
@@ -14459,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K157">
         <v>2.05</v>
@@ -14548,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K158">
         <v>2.7</v>
@@ -14637,7 +14634,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14726,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K160">
         <v>2</v>
@@ -14815,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K161">
         <v>3</v>
@@ -14904,7 +14901,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K162">
         <v>1.615</v>
@@ -14993,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K163">
         <v>1.666</v>
@@ -15082,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -15171,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15260,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K166">
         <v>1.615</v>
@@ -15349,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15438,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K168">
         <v>1.95</v>
@@ -15527,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15616,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K170">
         <v>1.8</v>
@@ -15705,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15794,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K172">
         <v>2.5</v>
@@ -15883,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K173">
         <v>1.5</v>
@@ -15972,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K174">
         <v>1.8</v>
@@ -16061,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
         <v>1.95</v>
@@ -16150,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16239,7 +16236,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K177">
         <v>3.6</v>
@@ -16328,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K178">
         <v>2.45</v>
@@ -16417,7 +16414,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K179">
         <v>1.55</v>
@@ -16506,7 +16503,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K180">
         <v>1.85</v>
@@ -16595,7 +16592,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181">
         <v>2.6</v>
@@ -16684,7 +16681,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K182">
         <v>2.9</v>
@@ -16773,7 +16770,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K183">
         <v>2.625</v>
@@ -16862,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K184">
         <v>1.8</v>
@@ -16951,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K185">
         <v>2.625</v>
@@ -17040,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K186">
         <v>3.75</v>
@@ -17129,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K187">
         <v>1.666</v>
@@ -17218,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K188">
         <v>1.8</v>
@@ -17307,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K189">
         <v>1.666</v>
@@ -17396,7 +17393,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K190">
         <v>3.2</v>
@@ -17485,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K191">
         <v>1.571</v>
@@ -17550,7 +17547,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6140989</v>
+        <v>6140985</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,58 +17559,58 @@
         <v>45063.875</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>53</v>
+      </c>
+      <c r="K192">
+        <v>1.615</v>
+      </c>
+      <c r="L192">
         <v>4</v>
       </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192" t="s">
-        <v>54</v>
-      </c>
-      <c r="K192">
-        <v>1.444</v>
-      </c>
-      <c r="L192">
-        <v>4.75</v>
-      </c>
       <c r="M192">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N192">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O192">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P192">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q192">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17622,13 +17619,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17639,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6141039</v>
+        <v>6141038</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,61 +17648,61 @@
         <v>45063.875</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>53</v>
       </c>
       <c r="K193">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N193">
-        <v>1.85</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P193">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
         <v>1.925</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X193">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
@@ -17717,10 +17714,10 @@
         <v>0.925</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17728,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6141040</v>
+        <v>6140987</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,10 +17737,10 @@
         <v>45063.875</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17752,46 +17749,46 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K194">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N194">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P194">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W194">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17800,13 +17797,13 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB194">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17817,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6141038</v>
+        <v>6140988</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,76 +17826,76 @@
         <v>45063.875</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>54</v>
       </c>
       <c r="K195">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N195">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O195">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>11</v>
+        <v>2.05</v>
       </c>
       <c r="Q195">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB195">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6140988</v>
+        <v>6140986</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,76 +17915,76 @@
         <v>45063.875</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="N196">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O196">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="Q196">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
         <v>1.8</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18019,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K197">
         <v>1.666</v>
@@ -18084,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6140241</v>
+        <v>6141039</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18093,76 @@
         <v>45063.875</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
         <v>3.5</v>
       </c>
       <c r="N198">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6140987</v>
+        <v>6141040</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,10 +18182,10 @@
         <v>45063.875</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18197,46 +18194,46 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N199">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18245,13 +18242,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18262,7 +18259,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6140985</v>
+        <v>6140241</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,73 +18271,73 @@
         <v>45063.875</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N200">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18351,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6140986</v>
+        <v>6140989</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,58 +18360,58 @@
         <v>45063.875</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L201">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M201">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N201">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O201">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P201">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18423,13 +18420,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18464,7 +18461,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K202">
         <v>2.45</v>
@@ -18553,7 +18550,7 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K203">
         <v>2.25</v>
@@ -18642,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K204">
         <v>2.6</v>
@@ -18731,7 +18728,7 @@
         <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K205">
         <v>2.8</v>
@@ -18820,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K206">
         <v>1.571</v>
@@ -18909,7 +18906,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18998,7 +18995,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K208">
         <v>1.4</v>
@@ -19087,7 +19084,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
         <v>2</v>
@@ -19176,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K210">
         <v>2.3</v>
@@ -19265,7 +19262,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211">
         <v>1.95</v>
@@ -19354,7 +19351,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K212">
         <v>1.7</v>
@@ -19443,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K213">
         <v>1.833</v>
@@ -19532,7 +19529,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
         <v>1.75</v>
@@ -19621,7 +19618,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K215">
         <v>2</v>
@@ -19710,7 +19707,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216">
         <v>2.4</v>
@@ -19799,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K217">
         <v>2.15</v>
@@ -19888,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -19977,7 +19974,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K219">
         <v>2.55</v>
@@ -20066,7 +20063,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
         <v>2.1</v>
@@ -20155,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
         <v>2.625</v>
@@ -20220,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,58 +20229,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20292,13 +20289,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20309,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,58 +20318,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F223" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>4.2</v>
+      </c>
+      <c r="N223">
+        <v>2.1</v>
+      </c>
+      <c r="O223">
+        <v>3.3</v>
+      </c>
+      <c r="P223">
         <v>3.75</v>
       </c>
-      <c r="M223">
-        <v>5.5</v>
-      </c>
-      <c r="N223">
-        <v>1.7</v>
-      </c>
-      <c r="O223">
-        <v>3.8</v>
-      </c>
-      <c r="P223">
-        <v>5.25</v>
-      </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20381,13 +20378,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20422,7 +20419,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K224">
         <v>2.15</v>
@@ -20511,7 +20508,7 @@
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K225">
         <v>1.666</v>
@@ -20600,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K226">
         <v>2.1</v>
@@ -20689,7 +20686,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K227">
         <v>1.85</v>
@@ -20778,7 +20775,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K228">
         <v>2.2</v>
@@ -20867,7 +20864,7 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K229">
         <v>2</v>
@@ -20956,7 +20953,7 @@
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K230">
         <v>2.05</v>
@@ -21045,7 +21042,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K231">
         <v>1.95</v>
@@ -21134,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K232">
         <v>2.4</v>
@@ -21223,7 +21220,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K233">
         <v>1.909</v>
@@ -21312,7 +21309,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K234">
         <v>2.5</v>
@@ -21401,7 +21398,7 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K235">
         <v>2.2</v>
@@ -21490,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K236">
         <v>1.615</v>
@@ -21579,7 +21576,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K237">
         <v>1.909</v>
@@ -21668,7 +21665,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K238">
         <v>1.8</v>
@@ -21757,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K239">
         <v>2.05</v>
@@ -21846,7 +21843,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K240">
         <v>1.615</v>
@@ -21935,7 +21932,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K241">
         <v>2.05</v>
@@ -22024,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K242">
         <v>2.1</v>
@@ -22113,7 +22110,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K243">
         <v>2.3</v>
@@ -22202,7 +22199,7 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K244">
         <v>2</v>
@@ -22291,7 +22288,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K245">
         <v>2.8</v>
@@ -22380,7 +22377,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K246">
         <v>1.5</v>
@@ -22469,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K247">
         <v>2.1</v>
@@ -22558,7 +22555,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K248">
         <v>1.85</v>
@@ -22647,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K249">
         <v>2.375</v>
@@ -22736,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K250">
         <v>2.1</v>
@@ -22825,7 +22822,7 @@
         <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
         <v>2.1</v>
@@ -22914,7 +22911,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K252">
         <v>1.75</v>
@@ -23003,7 +23000,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K253">
         <v>1.909</v>
@@ -23092,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K254">
         <v>2.4</v>
@@ -23181,7 +23178,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
         <v>1.8</v>
@@ -23270,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K256">
         <v>3.2</v>
@@ -23359,7 +23356,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K257">
         <v>1.95</v>
@@ -23448,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K258">
         <v>1.5</v>
@@ -23537,7 +23534,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K259">
         <v>2.25</v>
@@ -23626,7 +23623,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K260">
         <v>2.1</v>
@@ -23715,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K261">
         <v>2.1</v>
@@ -23804,7 +23801,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K262">
         <v>1.95</v>
@@ -23893,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K263">
         <v>2</v>
@@ -23982,7 +23979,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K264">
         <v>1.75</v>
@@ -24071,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K265">
         <v>1.75</v>
@@ -24160,7 +24157,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K266">
         <v>1.6</v>
@@ -24249,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K267">
         <v>1.85</v>
@@ -24338,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K268">
         <v>1.7</v>
@@ -24427,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K269">
         <v>1.85</v>
@@ -24516,7 +24513,7 @@
         <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K270">
         <v>1.833</v>
@@ -24605,7 +24602,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K271">
         <v>3</v>
@@ -24694,7 +24691,7 @@
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K272">
         <v>1.666</v>
@@ -24783,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K273">
         <v>1.615</v>
@@ -24872,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K274">
         <v>1.85</v>
@@ -24961,7 +24958,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K275">
         <v>3.2</v>
@@ -25050,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K276">
         <v>2.3</v>
@@ -25139,7 +25136,7 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K277">
         <v>2</v>
@@ -25228,7 +25225,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K278">
         <v>1.8</v>
@@ -25317,7 +25314,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K279">
         <v>3.1</v>
@@ -25406,7 +25403,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
         <v>2.4</v>
@@ -25495,7 +25492,7 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K281">
         <v>1.75</v>
@@ -25584,7 +25581,7 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K282">
         <v>1.909</v>
@@ -25673,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K283">
         <v>2.25</v>
@@ -25762,7 +25759,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K284">
         <v>1.533</v>
@@ -25851,7 +25848,7 @@
         <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K285">
         <v>2.25</v>
@@ -25940,7 +25937,7 @@
         <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K286">
         <v>1.85</v>
@@ -26029,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K287">
         <v>1.7</v>
@@ -26118,7 +26115,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K288">
         <v>2.6</v>
@@ -26207,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K289">
         <v>1.909</v>
@@ -26296,7 +26293,7 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K290">
         <v>2.1</v>
@@ -26385,7 +26382,7 @@
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K291">
         <v>2.875</v>
@@ -26474,7 +26471,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K292">
         <v>2.8</v>
@@ -26563,7 +26560,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K293">
         <v>2.25</v>
@@ -26652,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K294">
         <v>2.1</v>
@@ -26741,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K295">
         <v>2.2</v>
@@ -26830,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K296">
         <v>2.2</v>
@@ -26919,7 +26916,7 @@
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K297">
         <v>1.6</v>
@@ -27008,7 +27005,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K298">
         <v>2.3</v>
@@ -27097,7 +27094,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K299">
         <v>2.2</v>
@@ -27186,7 +27183,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K300">
         <v>2.9</v>
@@ -27275,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K301">
         <v>2.25</v>
@@ -27364,7 +27361,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K302">
         <v>1.65</v>
@@ -27453,7 +27450,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K303">
         <v>1.7</v>
@@ -27542,7 +27539,7 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K304">
         <v>2.9</v>
@@ -27631,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K305">
         <v>2</v>
@@ -27720,7 +27717,7 @@
         <v>3</v>
       </c>
       <c r="J306" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K306">
         <v>2.3</v>
@@ -27809,7 +27806,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K307">
         <v>1.666</v>
@@ -27898,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K308">
         <v>2.4</v>
@@ -27987,7 +27984,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K309">
         <v>1.95</v>
@@ -28076,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K310">
         <v>2.6</v>
@@ -28165,7 +28162,7 @@
         <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K311">
         <v>1.666</v>
@@ -28254,7 +28251,7 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K312">
         <v>1.833</v>
@@ -28343,7 +28340,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K313">
         <v>3.5</v>
@@ -28432,7 +28429,7 @@
         <v>3</v>
       </c>
       <c r="J314" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K314">
         <v>1.8</v>
@@ -28521,7 +28518,7 @@
         <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K315">
         <v>2.2</v>
@@ -28610,7 +28607,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K316">
         <v>1.55</v>
@@ -28699,7 +28696,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K317">
         <v>1.8</v>
@@ -28788,7 +28785,7 @@
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K318">
         <v>1.571</v>
@@ -28877,7 +28874,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K319">
         <v>2.375</v>
@@ -28966,7 +28963,7 @@
         <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K320">
         <v>2.2</v>
@@ -29055,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K321">
         <v>1.75</v>
@@ -29144,7 +29141,7 @@
         <v>4</v>
       </c>
       <c r="J322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K322">
         <v>1.95</v>
@@ -29233,7 +29230,7 @@
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K323">
         <v>3.4</v>
@@ -29322,7 +29319,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K324">
         <v>3.25</v>
@@ -29411,7 +29408,7 @@
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K325">
         <v>2</v>
@@ -29500,7 +29497,7 @@
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K326">
         <v>2.1</v>
@@ -29589,7 +29586,7 @@
         <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K327">
         <v>2.3</v>
@@ -29678,7 +29675,7 @@
         <v>1</v>
       </c>
       <c r="J328" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K328">
         <v>3</v>
@@ -29767,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K329">
         <v>1.615</v>
@@ -29856,7 +29853,7 @@
         <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K330">
         <v>2.2</v>
@@ -29945,7 +29942,7 @@
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K331">
         <v>1.55</v>
@@ -30034,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K332">
         <v>1.615</v>
@@ -30123,7 +30120,7 @@
         <v>5</v>
       </c>
       <c r="J333" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K333">
         <v>2.7</v>
@@ -30212,7 +30209,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K334">
         <v>1.571</v>
@@ -30301,7 +30298,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K335">
         <v>1.533</v>
@@ -30390,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K336">
         <v>1.5</v>
@@ -30479,7 +30476,7 @@
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K337">
         <v>1.615</v>
@@ -30568,7 +30565,7 @@
         <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K338">
         <v>2.2</v>
@@ -30657,7 +30654,7 @@
         <v>1</v>
       </c>
       <c r="J339" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K339">
         <v>2.875</v>
@@ -30746,7 +30743,7 @@
         <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K340">
         <v>2.5</v>
@@ -30835,7 +30832,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K341">
         <v>2</v>
@@ -30924,7 +30921,7 @@
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K342">
         <v>2.55</v>
@@ -31013,7 +31010,7 @@
         <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K343">
         <v>2.375</v>
@@ -31102,7 +31099,7 @@
         <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K344">
         <v>2</v>
@@ -31191,7 +31188,7 @@
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K345">
         <v>1.95</v>
@@ -31280,7 +31277,7 @@
         <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K346">
         <v>2.55</v>
@@ -31369,7 +31366,7 @@
         <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K347">
         <v>2.1</v>
@@ -31458,7 +31455,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K348">
         <v>1.95</v>
@@ -31547,7 +31544,7 @@
         <v>2</v>
       </c>
       <c r="J349" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K349">
         <v>1.7</v>
@@ -31636,7 +31633,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K350">
         <v>1.533</v>
@@ -31725,7 +31722,7 @@
         <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K351">
         <v>2</v>
@@ -31814,7 +31811,7 @@
         <v>1</v>
       </c>
       <c r="J352" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K352">
         <v>1.571</v>
@@ -31903,7 +31900,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K353">
         <v>2.55</v>
@@ -31992,7 +31989,7 @@
         <v>1</v>
       </c>
       <c r="J354" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K354">
         <v>1.833</v>
@@ -32081,7 +32078,7 @@
         <v>2</v>
       </c>
       <c r="J355" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K355">
         <v>2.25</v>
@@ -32170,7 +32167,7 @@
         <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K356">
         <v>2.7</v>
@@ -32259,7 +32256,7 @@
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K357">
         <v>2.05</v>
@@ -32348,7 +32345,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K358">
         <v>1.833</v>
@@ -32437,7 +32434,7 @@
         <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K359">
         <v>1.85</v>
@@ -32526,7 +32523,7 @@
         <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K360">
         <v>3.5</v>
@@ -32615,7 +32612,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K361">
         <v>1.571</v>
@@ -32704,7 +32701,7 @@
         <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K362">
         <v>2.55</v>
@@ -32793,7 +32790,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K363">
         <v>1.533</v>
@@ -32882,7 +32879,7 @@
         <v>4</v>
       </c>
       <c r="J364" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K364">
         <v>2.3</v>
@@ -32971,7 +32968,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K365">
         <v>1.8</v>
@@ -33060,7 +33057,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K366">
         <v>3.4</v>
@@ -33149,7 +33146,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K367">
         <v>1.65</v>
@@ -33238,7 +33235,7 @@
         <v>1</v>
       </c>
       <c r="J368" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K368">
         <v>2.7</v>
@@ -33327,7 +33324,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K369">
         <v>1.4</v>
@@ -33416,7 +33413,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K370">
         <v>1.75</v>
@@ -33505,7 +33502,7 @@
         <v>4</v>
       </c>
       <c r="J371" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K371">
         <v>2.6</v>
@@ -33594,7 +33591,7 @@
         <v>2</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K372">
         <v>2.4</v>
@@ -33683,7 +33680,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K373">
         <v>2</v>
@@ -33772,7 +33769,7 @@
         <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K374">
         <v>2.15</v>
@@ -33861,7 +33858,7 @@
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K375">
         <v>3.5</v>
@@ -33950,7 +33947,7 @@
         <v>2</v>
       </c>
       <c r="J376" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K376">
         <v>1.7</v>
@@ -34039,7 +34036,7 @@
         <v>3</v>
       </c>
       <c r="J377" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K377">
         <v>2.75</v>
@@ -34128,7 +34125,7 @@
         <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K378">
         <v>3.1</v>
@@ -34217,7 +34214,7 @@
         <v>5</v>
       </c>
       <c r="J379" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K379">
         <v>2</v>
@@ -34306,7 +34303,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K380">
         <v>1.95</v>
@@ -34395,7 +34392,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K381">
         <v>1.5</v>
@@ -34484,7 +34481,7 @@
         <v>1</v>
       </c>
       <c r="J382" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K382">
         <v>2.5</v>
@@ -34573,7 +34570,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K383">
         <v>2.1</v>
@@ -34662,7 +34659,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K384">
         <v>2.35</v>
@@ -34751,7 +34748,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K385">
         <v>2.55</v>
@@ -34840,7 +34837,7 @@
         <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K386">
         <v>1.727</v>
@@ -34929,7 +34926,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K387">
         <v>1.571</v>
@@ -35018,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K388">
         <v>2.25</v>
@@ -35107,7 +35104,7 @@
         <v>2</v>
       </c>
       <c r="J389" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K389">
         <v>2.15</v>
@@ -35196,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K390">
         <v>1.85</v>
@@ -35285,7 +35282,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K391">
         <v>1.7</v>
@@ -35374,7 +35371,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K392">
         <v>2.875</v>
@@ -35463,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K393">
         <v>2.05</v>
@@ -35552,7 +35549,7 @@
         <v>3</v>
       </c>
       <c r="J394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K394">
         <v>1.85</v>
@@ -35641,7 +35638,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K395">
         <v>1.95</v>
@@ -35730,7 +35727,7 @@
         <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K396">
         <v>1.444</v>
@@ -35819,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K397">
         <v>2.9</v>
@@ -35908,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K398">
         <v>2.15</v>
@@ -35997,7 +35994,7 @@
         <v>1</v>
       </c>
       <c r="J399" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K399">
         <v>2.25</v>
@@ -36086,7 +36083,7 @@
         <v>3</v>
       </c>
       <c r="J400" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K400">
         <v>2.5</v>
@@ -36175,7 +36172,7 @@
         <v>2</v>
       </c>
       <c r="J401" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K401">
         <v>2.5</v>
@@ -36264,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K402">
         <v>1.8</v>
@@ -36353,7 +36350,7 @@
         <v>3</v>
       </c>
       <c r="J403" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K403">
         <v>2.75</v>
@@ -36442,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K404">
         <v>1.6</v>
@@ -36531,7 +36528,7 @@
         <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K405">
         <v>3.2</v>
@@ -36620,7 +36617,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K406">
         <v>1.363</v>
@@ -36709,7 +36706,7 @@
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K407">
         <v>1.45</v>
@@ -36798,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K408">
         <v>1.533</v>
@@ -36887,7 +36884,7 @@
         <v>3</v>
       </c>
       <c r="J409" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K409">
         <v>2.55</v>
@@ -36976,7 +36973,7 @@
         <v>2</v>
       </c>
       <c r="J410" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K410">
         <v>2.7</v>
@@ -37065,7 +37062,7 @@
         <v>1</v>
       </c>
       <c r="J411" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K411">
         <v>1.5</v>
@@ -37154,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K412">
         <v>2.6</v>
@@ -37243,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="J413" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K413">
         <v>2.9</v>
@@ -37332,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K414">
         <v>1.615</v>
@@ -37421,7 +37418,7 @@
         <v>2</v>
       </c>
       <c r="J415" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K415">
         <v>2.875</v>
@@ -37510,7 +37507,7 @@
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K416">
         <v>1.533</v>
@@ -37599,7 +37596,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K417">
         <v>1.909</v>
@@ -37664,7 +37661,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37676,76 +37673,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F418" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G418" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
         <v>53</v>
       </c>
       <c r="K418">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L418">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M418">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N418">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O418">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P418">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R418">
+        <v>1.9</v>
+      </c>
+      <c r="S418">
         <v>1.95</v>
       </c>
-      <c r="S418">
-        <v>1.9</v>
-      </c>
       <c r="T418">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U418">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V418">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X418">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA418">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC418">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37753,7 +37750,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37765,76 +37762,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F419" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I419">
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K419">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L419">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M419">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N419">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O419">
         <v>3.2</v>
       </c>
       <c r="P419">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q419">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R419">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S419">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T419">
         <v>2.5</v>
       </c>
       <c r="U419">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V419">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y419">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z419">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA419">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB419">
         <v>-1</v>
       </c>
       <c r="AC419">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37842,7 +37839,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37854,76 +37851,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F420" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G420" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420">
         <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K420">
+        <v>3.2</v>
+      </c>
+      <c r="L420">
+        <v>3.1</v>
+      </c>
+      <c r="M420">
+        <v>2.2</v>
+      </c>
+      <c r="N420">
+        <v>3.6</v>
+      </c>
+      <c r="O420">
+        <v>3</v>
+      </c>
+      <c r="P420">
+        <v>2.25</v>
+      </c>
+      <c r="Q420">
+        <v>0.25</v>
+      </c>
+      <c r="R420">
         <v>1.95</v>
       </c>
-      <c r="L420">
-        <v>3.2</v>
-      </c>
-      <c r="M420">
-        <v>3.75</v>
-      </c>
-      <c r="N420">
-        <v>1.95</v>
-      </c>
-      <c r="O420">
-        <v>3.2</v>
-      </c>
-      <c r="P420">
-        <v>4.75</v>
-      </c>
-      <c r="Q420">
-        <v>-0.5</v>
-      </c>
-      <c r="R420">
-        <v>1.925</v>
-      </c>
       <c r="S420">
+        <v>1.9</v>
+      </c>
+      <c r="T420">
+        <v>2.25</v>
+      </c>
+      <c r="U420">
         <v>1.875</v>
-      </c>
-      <c r="T420">
-        <v>2</v>
-      </c>
-      <c r="U420">
-        <v>1.825</v>
       </c>
       <c r="V420">
         <v>1.975</v>
       </c>
       <c r="W420">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X420">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC420">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37931,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7404218</v>
+        <v>7404216</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37943,76 +37940,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G421" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
         <v>54</v>
       </c>
       <c r="K421">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L421">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M421">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N421">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O421">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P421">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="Q421">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R421">
         <v>1.9</v>
       </c>
       <c r="S421">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T421">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U421">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V421">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W421">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z421">
+        <v>-1</v>
+      </c>
+      <c r="AA421">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA421">
-        <v>-1</v>
-      </c>
       <c r="AB421">
         <v>-1</v>
       </c>
       <c r="AC421">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38020,7 +38017,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7404212</v>
+        <v>7404217</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38032,13 +38029,13 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G422" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -38047,61 +38044,61 @@
         <v>53</v>
       </c>
       <c r="K422">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L422">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M422">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N422">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O422">
         <v>3.2</v>
       </c>
       <c r="P422">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q422">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R422">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S422">
         <v>1.875</v>
       </c>
       <c r="T422">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U422">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X422">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA422">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC422">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38109,7 +38106,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,13 +38118,13 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F423" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G423" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423">
         <v>1</v>
@@ -38136,61 +38133,61 @@
         <v>54</v>
       </c>
       <c r="K423">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L423">
         <v>3.1</v>
       </c>
       <c r="M423">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N423">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O423">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P423">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q423">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R423">
+        <v>1.975</v>
+      </c>
+      <c r="S423">
+        <v>1.825</v>
+      </c>
+      <c r="T423">
+        <v>2</v>
+      </c>
+      <c r="U423">
         <v>1.75</v>
       </c>
-      <c r="S423">
+      <c r="V423">
         <v>2.05</v>
       </c>
-      <c r="T423">
-        <v>2</v>
-      </c>
-      <c r="U423">
-        <v>1.85</v>
-      </c>
-      <c r="V423">
-        <v>1.95</v>
-      </c>
       <c r="W423">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z423">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB423">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38195,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38207,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F424" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G424" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424">
         <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K424">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L424">
         <v>3.1</v>
       </c>
       <c r="M424">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O424">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P424">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q424">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S424">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T424">
         <v>2</v>
       </c>
       <c r="U424">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA424">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC424">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38287,7 +38284,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,55 +38296,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F425" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G425" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J425" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L425">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M425">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N425">
+        <v>1.75</v>
+      </c>
+      <c r="O425">
         <v>3.6</v>
       </c>
-      <c r="O425">
-        <v>3.4</v>
-      </c>
       <c r="P425">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q425">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R425">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S425">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T425">
         <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V425">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W425">
         <v>-1</v>
@@ -38356,16 +38353,16 @@
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB425">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC425">
         <v>-1</v>
@@ -38376,7 +38373,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38388,55 +38385,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F426" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G426" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426">
+        <v>2</v>
+      </c>
+      <c r="J426" t="s">
+        <v>54</v>
+      </c>
+      <c r="K426">
+        <v>1.444</v>
+      </c>
+      <c r="L426">
+        <v>4.5</v>
+      </c>
+      <c r="M426">
+        <v>6</v>
+      </c>
+      <c r="N426">
+        <v>1.363</v>
+      </c>
+      <c r="O426">
+        <v>5</v>
+      </c>
+      <c r="P426">
+        <v>7.5</v>
+      </c>
+      <c r="Q426">
+        <v>-1.25</v>
+      </c>
+      <c r="R426">
+        <v>1.775</v>
+      </c>
+      <c r="S426">
+        <v>2.025</v>
+      </c>
+      <c r="T426">
         <v>3</v>
       </c>
-      <c r="J426" t="s">
-        <v>55</v>
-      </c>
-      <c r="K426">
-        <v>2</v>
-      </c>
-      <c r="L426">
-        <v>3.25</v>
-      </c>
-      <c r="M426">
-        <v>3.5</v>
-      </c>
-      <c r="N426">
-        <v>1.75</v>
-      </c>
-      <c r="O426">
-        <v>3.6</v>
-      </c>
-      <c r="P426">
-        <v>4.75</v>
-      </c>
-      <c r="Q426">
-        <v>-0.75</v>
-      </c>
-      <c r="R426">
-        <v>2</v>
-      </c>
-      <c r="S426">
-        <v>1.8</v>
-      </c>
-      <c r="T426">
-        <v>2.5</v>
-      </c>
       <c r="U426">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V426">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W426">
         <v>-1</v>
@@ -38445,19 +38442,19 @@
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC426">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38465,7 +38462,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38477,55 +38474,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F427" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G427" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J427" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K427">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L427">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M427">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N427">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O427">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P427">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q427">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R427">
+        <v>2.025</v>
+      </c>
+      <c r="S427">
         <v>1.775</v>
       </c>
-      <c r="S427">
-        <v>2.025</v>
-      </c>
       <c r="T427">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U427">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V427">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -38534,19 +38531,19 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB427">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC427">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38578,7 +38575,7 @@
         <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K428">
         <v>2.05</v>
@@ -38667,7 +38664,7 @@
         <v>2</v>
       </c>
       <c r="J429" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K429">
         <v>1.95</v>
@@ -38756,7 +38753,7 @@
         <v>1</v>
       </c>
       <c r="J430" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K430">
         <v>2.4</v>
@@ -38845,7 +38842,7 @@
         <v>1</v>
       </c>
       <c r="J431" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K431">
         <v>2.05</v>
@@ -38934,7 +38931,7 @@
         <v>4</v>
       </c>
       <c r="J432" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K432">
         <v>1.95</v>
@@ -39023,7 +39020,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K433">
         <v>1.7</v>
@@ -39112,7 +39109,7 @@
         <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K434">
         <v>2.05</v>
@@ -39201,7 +39198,7 @@
         <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K435">
         <v>2.1</v>
@@ -39290,7 +39287,7 @@
         <v>2</v>
       </c>
       <c r="J436" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K436">
         <v>1.666</v>
@@ -39379,7 +39376,7 @@
         <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K437">
         <v>1.85</v>
@@ -39468,7 +39465,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K438">
         <v>1.95</v>
@@ -39557,7 +39554,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K439">
         <v>2.2</v>
@@ -39646,7 +39643,7 @@
         <v>1</v>
       </c>
       <c r="J440" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K440">
         <v>2.3</v>
@@ -39735,7 +39732,7 @@
         <v>2</v>
       </c>
       <c r="J441" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K441">
         <v>2.5</v>
@@ -39824,7 +39821,7 @@
         <v>1</v>
       </c>
       <c r="J442" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K442">
         <v>1.666</v>
@@ -39913,7 +39910,7 @@
         <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K443">
         <v>1.909</v>
@@ -40002,7 +39999,7 @@
         <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K444">
         <v>2</v>
@@ -40091,7 +40088,7 @@
         <v>2</v>
       </c>
       <c r="J445" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K445">
         <v>2.6</v>
@@ -40180,7 +40177,7 @@
         <v>5</v>
       </c>
       <c r="J446" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K446">
         <v>2.2</v>
@@ -40269,7 +40266,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K447">
         <v>2.25</v>
@@ -40358,7 +40355,7 @@
         <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K448">
         <v>1.666</v>
@@ -40447,7 +40444,7 @@
         <v>1</v>
       </c>
       <c r="J449" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K449">
         <v>1.85</v>
@@ -40512,7 +40509,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40524,58 +40521,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F450" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G450" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J450" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K450">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L450">
         <v>3.3</v>
       </c>
       <c r="M450">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N450">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O450">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P450">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q450">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R450">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S450">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T450">
         <v>2.5</v>
       </c>
       <c r="U450">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V450">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W450">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X450">
         <v>-1</v>
@@ -40584,13 +40581,13 @@
         <v>-1</v>
       </c>
       <c r="Z450">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA450">
         <v>-1</v>
       </c>
       <c r="AB450">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC450">
         <v>-1</v>
@@ -40601,7 +40598,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40613,58 +40610,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F451" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G451" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H451">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I451">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J451" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K451">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L451">
         <v>3.3</v>
       </c>
       <c r="M451">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N451">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O451">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P451">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q451">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R451">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S451">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T451">
         <v>2.5</v>
       </c>
       <c r="U451">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V451">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W451">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X451">
         <v>-1</v>
@@ -40673,13 +40670,13 @@
         <v>-1</v>
       </c>
       <c r="Z451">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA451">
         <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC451">
         <v>-1</v>
@@ -40714,7 +40711,7 @@
         <v>2</v>
       </c>
       <c r="J452" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K452">
         <v>1.909</v>
@@ -40803,7 +40800,7 @@
         <v>6</v>
       </c>
       <c r="J453" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K453">
         <v>1.909</v>
@@ -40892,7 +40889,7 @@
         <v>1</v>
       </c>
       <c r="J454" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K454">
         <v>2.1</v>
@@ -40981,7 +40978,7 @@
         <v>2</v>
       </c>
       <c r="J455" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K455">
         <v>2.3</v>
@@ -41070,7 +41067,7 @@
         <v>1</v>
       </c>
       <c r="J456" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K456">
         <v>2.05</v>
@@ -41159,7 +41156,7 @@
         <v>2</v>
       </c>
       <c r="J457" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K457">
         <v>1.7</v>
@@ -41248,7 +41245,7 @@
         <v>1</v>
       </c>
       <c r="J458" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K458">
         <v>1.909</v>
@@ -41337,7 +41334,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K459">
         <v>1.95</v>
@@ -41426,7 +41423,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K460">
         <v>1.65</v>
@@ -41515,7 +41512,7 @@
         <v>1</v>
       </c>
       <c r="J461" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K461">
         <v>1.7</v>
@@ -41604,7 +41601,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K462">
         <v>1.8</v>
@@ -41693,7 +41690,7 @@
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K463">
         <v>2.15</v>
@@ -41782,7 +41779,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K464">
         <v>1.75</v>
@@ -41871,7 +41868,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K465">
         <v>1.666</v>
@@ -41960,7 +41957,7 @@
         <v>4</v>
       </c>
       <c r="J466" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K466">
         <v>2.5</v>
@@ -42049,7 +42046,7 @@
         <v>3</v>
       </c>
       <c r="J467" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K467">
         <v>2.15</v>
@@ -42138,7 +42135,7 @@
         <v>1</v>
       </c>
       <c r="J468" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K468">
         <v>1.55</v>
@@ -42227,7 +42224,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K469">
         <v>2.5</v>
@@ -42316,7 +42313,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K470">
         <v>1.727</v>
@@ -42405,7 +42402,7 @@
         <v>2</v>
       </c>
       <c r="J471" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K471">
         <v>2.625</v>
@@ -42494,7 +42491,7 @@
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K472">
         <v>2.05</v>
@@ -42583,7 +42580,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K473">
         <v>2.875</v>
@@ -42672,7 +42669,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K474">
         <v>3</v>
@@ -42761,7 +42758,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K475">
         <v>1.909</v>
@@ -42850,7 +42847,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K476">
         <v>2.875</v>
@@ -42939,7 +42936,7 @@
         <v>1</v>
       </c>
       <c r="J477" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K477">
         <v>2</v>
@@ -43028,7 +43025,7 @@
         <v>1</v>
       </c>
       <c r="J478" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K478">
         <v>2.45</v>
@@ -43117,7 +43114,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K479">
         <v>2.4</v>
@@ -43206,7 +43203,7 @@
         <v>1</v>
       </c>
       <c r="J480" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K480">
         <v>1.7</v>
@@ -43295,7 +43292,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K481">
         <v>2.05</v>
@@ -43384,7 +43381,7 @@
         <v>1</v>
       </c>
       <c r="J482" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K482">
         <v>2.35</v>
@@ -43473,7 +43470,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K483">
         <v>2.4</v>
@@ -43562,7 +43559,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K484">
         <v>1.533</v>
@@ -43651,7 +43648,7 @@
         <v>1</v>
       </c>
       <c r="J485" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K485">
         <v>1.909</v>
@@ -43740,7 +43737,7 @@
         <v>3</v>
       </c>
       <c r="J486" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K486">
         <v>2</v>
@@ -43829,7 +43826,7 @@
         <v>2</v>
       </c>
       <c r="J487" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K487">
         <v>2.1</v>
@@ -43918,7 +43915,7 @@
         <v>1</v>
       </c>
       <c r="J488" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K488">
         <v>1.909</v>
@@ -44007,7 +44004,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K489">
         <v>1.909</v>
@@ -44096,7 +44093,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K490">
         <v>2.375</v>
@@ -44185,7 +44182,7 @@
         <v>1</v>
       </c>
       <c r="J491" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K491">
         <v>1.6</v>
@@ -44274,7 +44271,7 @@
         <v>2</v>
       </c>
       <c r="J492" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K492">
         <v>2.2</v>
@@ -44363,7 +44360,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K493">
         <v>1.666</v>
@@ -44452,7 +44449,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K494">
         <v>2</v>
@@ -44541,7 +44538,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K495">
         <v>1.533</v>
@@ -44630,7 +44627,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K496">
         <v>3.4</v>
@@ -44719,7 +44716,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K497">
         <v>3.4</v>
@@ -44808,7 +44805,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K498">
         <v>1.727</v>
@@ -44897,7 +44894,7 @@
         <v>1</v>
       </c>
       <c r="J499" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K499">
         <v>2.625</v>
@@ -44986,7 +44983,7 @@
         <v>1</v>
       </c>
       <c r="J500" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K500">
         <v>2.375</v>
@@ -45075,7 +45072,7 @@
         <v>1</v>
       </c>
       <c r="J501" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K501">
         <v>2</v>
@@ -45164,7 +45161,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K502">
         <v>2.875</v>
@@ -45253,7 +45250,7 @@
         <v>1</v>
       </c>
       <c r="J503" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K503">
         <v>2.25</v>
@@ -45342,7 +45339,7 @@
         <v>2</v>
       </c>
       <c r="J504" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K504">
         <v>2.15</v>
@@ -45431,7 +45428,7 @@
         <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K505">
         <v>1.615</v>
@@ -45520,7 +45517,7 @@
         <v>1</v>
       </c>
       <c r="J506" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K506">
         <v>1.7</v>
@@ -45609,7 +45606,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K507">
         <v>1.8</v>
@@ -45698,7 +45695,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K508">
         <v>1.8</v>
@@ -45787,7 +45784,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K509">
         <v>3.1</v>
@@ -45876,7 +45873,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K510">
         <v>1.8</v>
@@ -45965,7 +45962,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K511">
         <v>1.8</v>
@@ -46054,7 +46051,7 @@
         <v>1</v>
       </c>
       <c r="J512" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K512">
         <v>1.727</v>
@@ -46143,7 +46140,7 @@
         <v>2</v>
       </c>
       <c r="J513" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K513">
         <v>2.3</v>
@@ -46232,7 +46229,7 @@
         <v>2</v>
       </c>
       <c r="J514" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K514">
         <v>1.833</v>
@@ -46321,7 +46318,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K515">
         <v>2.2</v>
@@ -46410,7 +46407,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K516">
         <v>1.8</v>
@@ -46499,7 +46496,7 @@
         <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K517">
         <v>3.1</v>
@@ -46588,7 +46585,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K518">
         <v>2.2</v>
@@ -46677,7 +46674,7 @@
         <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K519">
         <v>1.8</v>
@@ -46766,7 +46763,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K520">
         <v>2</v>
@@ -46855,7 +46852,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K521">
         <v>1.909</v>
@@ -46944,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K522">
         <v>2.1</v>
@@ -47033,7 +47030,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K523">
         <v>1.571</v>
@@ -47122,7 +47119,7 @@
         <v>1</v>
       </c>
       <c r="J524" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K524">
         <v>1.8</v>
@@ -47211,7 +47208,7 @@
         <v>2</v>
       </c>
       <c r="J525" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K525">
         <v>2.25</v>
@@ -47300,7 +47297,7 @@
         <v>1</v>
       </c>
       <c r="J526" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K526">
         <v>1.8</v>
@@ -47365,7 +47362,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>7862772</v>
+        <v>7631341</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47374,64 +47371,79 @@
         <v>28</v>
       </c>
       <c r="E527" s="2">
-        <v>45346.84027777778</v>
+        <v>45345.84027777778</v>
       </c>
       <c r="F527" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G527" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527" t="s">
+        <v>53</v>
       </c>
       <c r="K527">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="L527">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M527">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="N527">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O527">
         <v>3.3</v>
       </c>
       <c r="P527">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q527">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R527">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S527">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T527">
         <v>2.25</v>
       </c>
       <c r="U527">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V527">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W527">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X527">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y527">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z527">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA527">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB527">
+        <v>-0.5</v>
+      </c>
+      <c r="AC527">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47439,7 +47451,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>7630516</v>
+        <v>7631390</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47448,64 +47460,79 @@
         <v>28</v>
       </c>
       <c r="E528" s="2">
-        <v>45346.93055555555</v>
+        <v>45345.93055555555</v>
       </c>
       <c r="F528" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G528" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+      <c r="I528">
+        <v>1</v>
+      </c>
+      <c r="J528" t="s">
+        <v>54</v>
       </c>
       <c r="K528">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L528">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M528">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N528">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O528">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P528">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="Q528">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R528">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S528">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T528">
         <v>2</v>
       </c>
       <c r="U528">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V528">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W528">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X528">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y528">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z528">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA528">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB528">
+        <v>-1</v>
+      </c>
+      <c r="AC528">
+        <v>1.025</v>
       </c>
     </row>
     <row r="529" spans="1:27">
@@ -47513,72 +47540,146 @@
         <v>527</v>
       </c>
       <c r="B529">
+        <v>7630516</v>
+      </c>
+      <c r="C529" t="s">
+        <v>28</v>
+      </c>
+      <c r="D529" t="s">
+        <v>28</v>
+      </c>
+      <c r="E529" s="2">
+        <v>45346.93055555555</v>
+      </c>
+      <c r="F529" t="s">
+        <v>49</v>
+      </c>
+      <c r="G529" t="s">
+        <v>48</v>
+      </c>
+      <c r="K529">
+        <v>4</v>
+      </c>
+      <c r="L529">
+        <v>3</v>
+      </c>
+      <c r="M529">
+        <v>1.95</v>
+      </c>
+      <c r="N529">
+        <v>4.75</v>
+      </c>
+      <c r="O529">
+        <v>3.25</v>
+      </c>
+      <c r="P529">
+        <v>1.85</v>
+      </c>
+      <c r="Q529">
+        <v>0.5</v>
+      </c>
+      <c r="R529">
+        <v>1.95</v>
+      </c>
+      <c r="S529">
+        <v>1.9</v>
+      </c>
+      <c r="T529">
+        <v>2</v>
+      </c>
+      <c r="U529">
+        <v>2.05</v>
+      </c>
+      <c r="V529">
+        <v>1.8</v>
+      </c>
+      <c r="W529">
+        <v>0</v>
+      </c>
+      <c r="X529">
+        <v>0</v>
+      </c>
+      <c r="Y529">
+        <v>0</v>
+      </c>
+      <c r="Z529">
+        <v>0</v>
+      </c>
+      <c r="AA529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:27">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
         <v>7631396</v>
       </c>
-      <c r="C529" t="s">
-        <v>28</v>
-      </c>
-      <c r="D529" t="s">
-        <v>28</v>
-      </c>
-      <c r="E529" s="2">
+      <c r="C530" t="s">
+        <v>28</v>
+      </c>
+      <c r="D530" t="s">
+        <v>28</v>
+      </c>
+      <c r="E530" s="2">
         <v>45347.77083333334</v>
       </c>
-      <c r="F529" t="s">
+      <c r="F530" t="s">
         <v>35</v>
       </c>
-      <c r="G529" t="s">
+      <c r="G530" t="s">
         <v>41</v>
       </c>
-      <c r="K529">
+      <c r="K530">
         <v>3.75</v>
       </c>
-      <c r="L529">
+      <c r="L530">
         <v>3.1</v>
       </c>
-      <c r="M529">
+      <c r="M530">
         <v>2.1</v>
       </c>
-      <c r="N529">
+      <c r="N530">
         <v>3.8</v>
       </c>
-      <c r="O529">
+      <c r="O530">
         <v>3.1</v>
       </c>
-      <c r="P529">
+      <c r="P530">
         <v>2.1</v>
       </c>
-      <c r="Q529">
+      <c r="Q530">
         <v>0.25</v>
       </c>
-      <c r="R529">
+      <c r="R530">
+        <v>2.025</v>
+      </c>
+      <c r="S530">
+        <v>1.825</v>
+      </c>
+      <c r="T530">
+        <v>2</v>
+      </c>
+      <c r="U530">
+        <v>1.8</v>
+      </c>
+      <c r="V530">
         <v>2.05</v>
       </c>
-      <c r="S529">
-        <v>1.8</v>
-      </c>
-      <c r="T529">
-        <v>2</v>
-      </c>
-      <c r="U529">
-        <v>1.775</v>
-      </c>
-      <c r="V529">
-        <v>2.1</v>
-      </c>
-      <c r="W529">
-        <v>0</v>
-      </c>
-      <c r="X529">
-        <v>0</v>
-      </c>
-      <c r="Y529">
-        <v>0</v>
-      </c>
-      <c r="Z529">
-        <v>0</v>
-      </c>
-      <c r="AA529">
+      <c r="W530">
+        <v>0</v>
+      </c>
+      <c r="X530">
+        <v>0</v>
+      </c>
+      <c r="Y530">
+        <v>0</v>
+      </c>
+      <c r="Z530">
+        <v>0</v>
+      </c>
+      <c r="AA530">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -47540,7 +47540,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>7630516</v>
+        <v>7631396</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47549,49 +47549,49 @@
         <v>28</v>
       </c>
       <c r="E529" s="2">
-        <v>45346.93055555555</v>
+        <v>45347.77083333334</v>
       </c>
       <c r="F529" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G529" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K529">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L529">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M529">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N529">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O529">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P529">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q529">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R529">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S529">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T529">
         <v>2</v>
       </c>
       <c r="U529">
+        <v>1.8</v>
+      </c>
+      <c r="V529">
         <v>2.05</v>
-      </c>
-      <c r="V529">
-        <v>1.8</v>
       </c>
       <c r="W529">
         <v>0</v>
@@ -47614,7 +47614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>7631396</v>
+        <v>7631343</v>
       </c>
       <c r="C530" t="s">
         <v>28</v>
@@ -47623,49 +47623,49 @@
         <v>28</v>
       </c>
       <c r="E530" s="2">
-        <v>45347.77083333334</v>
+        <v>45348.84027777778</v>
       </c>
       <c r="F530" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G530" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K530">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L530">
         <v>3.1</v>
       </c>
       <c r="M530">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N530">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="O530">
         <v>3.1</v>
       </c>
       <c r="P530">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q530">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R530">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S530">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T530">
         <v>2</v>
       </c>
       <c r="U530">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V530">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W530">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC327"/>
+  <dimension ref="A1:AC328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L208">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N208">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P208">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q208">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
         <v>1.9</v>
       </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404217</v>
+        <v>7404218</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>54</v>
       </c>
       <c r="K209">
+        <v>1.363</v>
+      </c>
+      <c r="L209">
+        <v>4.5</v>
+      </c>
+      <c r="M209">
+        <v>7</v>
+      </c>
+      <c r="N209">
+        <v>1.3</v>
+      </c>
+      <c r="O209">
+        <v>5</v>
+      </c>
+      <c r="P209">
+        <v>12</v>
+      </c>
+      <c r="Q209">
+        <v>-1.5</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
         <v>1.95</v>
       </c>
-      <c r="L209">
-        <v>3.2</v>
-      </c>
-      <c r="M209">
-        <v>3.75</v>
-      </c>
-      <c r="N209">
-        <v>1.95</v>
-      </c>
-      <c r="O209">
-        <v>3.2</v>
-      </c>
-      <c r="P209">
-        <v>4.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
+        <v>2.025</v>
+      </c>
+      <c r="V209">
         <v>1.825</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.825</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K210">
+        <v>1.95</v>
+      </c>
+      <c r="L210">
         <v>3.2</v>
       </c>
-      <c r="L210">
-        <v>3.1</v>
-      </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
         <v>3.6</v>
       </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
       <c r="P213">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,16 +19488,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>3.2</v>
+      </c>
+      <c r="P215">
+        <v>2.15</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
+        <v>1.825</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
         <v>1.75</v>
       </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>4.75</v>
-      </c>
-      <c r="Q215">
-        <v>-0.75</v>
-      </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
-      <c r="S215">
-        <v>1.8</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>2</v>
-      </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
         <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217">
         <v>1</v>
       </c>
-      <c r="I217">
-        <v>2</v>
-      </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O217">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -29120,7 +29120,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7631343</v>
+        <v>7631394</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29129,64 +29129,79 @@
         <v>28</v>
       </c>
       <c r="E322" s="2">
-        <v>45348.84027777778</v>
+        <v>45347.85416666666</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G322" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322" t="s">
+        <v>54</v>
       </c>
       <c r="K322">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L322">
+        <v>3</v>
+      </c>
+      <c r="M322">
         <v>3.1</v>
       </c>
-      <c r="M322">
-        <v>2.75</v>
-      </c>
       <c r="N322">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O322">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P322">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R322">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S322">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V322">
         <v>2</v>
       </c>
       <c r="W322">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA322">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB322">
+        <v>0</v>
+      </c>
+      <c r="AC322">
+        <v>-0</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29194,7 +29209,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7631398</v>
+        <v>7631395</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29203,64 +29218,79 @@
         <v>28</v>
       </c>
       <c r="E323" s="2">
-        <v>45348.93055555555</v>
+        <v>45347.9375</v>
       </c>
       <c r="F323" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="H323">
+        <v>3</v>
+      </c>
+      <c r="I323">
+        <v>3</v>
+      </c>
+      <c r="J323" t="s">
+        <v>53</v>
       </c>
       <c r="K323">
+        <v>2.25</v>
+      </c>
+      <c r="L323">
+        <v>3.1</v>
+      </c>
+      <c r="M323">
+        <v>3.1</v>
+      </c>
+      <c r="N323">
         <v>2.375</v>
       </c>
-      <c r="L323">
-        <v>3</v>
-      </c>
-      <c r="M323">
-        <v>3</v>
-      </c>
-      <c r="N323">
-        <v>2.7</v>
-      </c>
       <c r="O323">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P323">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S323">
+        <v>1.775</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
+        <v>1.75</v>
+      </c>
+      <c r="V323">
         <v>2.05</v>
       </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
-      <c r="U323">
-        <v>1.825</v>
-      </c>
-      <c r="V323">
-        <v>2.025</v>
-      </c>
       <c r="W323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA323">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB323">
+        <v>0.75</v>
+      </c>
+      <c r="AC323">
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29268,7 +29298,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7630519</v>
+        <v>7631398</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29277,49 +29307,49 @@
         <v>28</v>
       </c>
       <c r="E324" s="2">
-        <v>45349.75</v>
+        <v>45348.93055555555</v>
       </c>
       <c r="F324" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G324" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K324">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L324">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M324">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N324">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O324">
         <v>3.1</v>
       </c>
       <c r="P324">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q324">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R324">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S324">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
         <v>2</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V324">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29342,7 +29372,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7631342</v>
+        <v>7630519</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29351,49 +29381,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45349.92708333334</v>
+        <v>45349.75</v>
       </c>
       <c r="F325" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G325" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K325">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M325">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N325">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P325">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q325">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S325">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T325">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U325">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V325">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29416,7 +29446,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7880624</v>
+        <v>7631342</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29425,49 +29455,49 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45350.71875</v>
+        <v>45349.92708333334</v>
       </c>
       <c r="F326" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G326" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K326">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L326">
         <v>3.4</v>
       </c>
       <c r="M326">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N326">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O326">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R326">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S326">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T326">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U326">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29490,7 +29520,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7631397</v>
+        <v>7880624</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29499,63 +29529,137 @@
         <v>28</v>
       </c>
       <c r="E327" s="2">
-        <v>45351.9375</v>
+        <v>45350.71875</v>
       </c>
       <c r="F327" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G327" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="K327">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L327">
+        <v>3.4</v>
+      </c>
+      <c r="M327">
         <v>3.5</v>
       </c>
-      <c r="M327">
-        <v>4.5</v>
-      </c>
       <c r="N327">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O327">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P327">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q327">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R327">
+        <v>2.025</v>
+      </c>
+      <c r="S327">
         <v>1.825</v>
-      </c>
-      <c r="S327">
-        <v>2.025</v>
       </c>
       <c r="T327">
         <v>2.25</v>
       </c>
       <c r="U327">
+        <v>1.875</v>
+      </c>
+      <c r="V327">
+        <v>1.975</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>7631397</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45351.90625</v>
+      </c>
+      <c r="F328" t="s">
+        <v>31</v>
+      </c>
+      <c r="G328" t="s">
+        <v>29</v>
+      </c>
+      <c r="K328">
+        <v>1.8</v>
+      </c>
+      <c r="L328">
+        <v>3.5</v>
+      </c>
+      <c r="M328">
+        <v>4.5</v>
+      </c>
+      <c r="N328">
+        <v>1.75</v>
+      </c>
+      <c r="O328">
+        <v>3.5</v>
+      </c>
+      <c r="P328">
+        <v>4.75</v>
+      </c>
+      <c r="Q328">
+        <v>-0.75</v>
+      </c>
+      <c r="R328">
+        <v>2</v>
+      </c>
+      <c r="S328">
+        <v>1.85</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>1.925</v>
       </c>
-      <c r="V327">
+      <c r="V328">
         <v>1.925</v>
       </c>
-      <c r="W327">
-        <v>0</v>
-      </c>
-      <c r="X327">
-        <v>0</v>
-      </c>
-      <c r="Y327">
-        <v>0</v>
-      </c>
-      <c r="Z327">
-        <v>0</v>
-      </c>
-      <c r="AA327">
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC328"/>
+  <dimension ref="A1:AC339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M210">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
         <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
+        <v>2.025</v>
+      </c>
+      <c r="V210">
         <v>1.825</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.825</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
         <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
+        <v>2.025</v>
+      </c>
+      <c r="S214">
         <v>1.775</v>
       </c>
-      <c r="S214">
-        <v>2.025</v>
-      </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,19 +19577,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
         <v>3.25</v>
       </c>
-      <c r="L215">
-        <v>3.1</v>
-      </c>
       <c r="M215">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
+        <v>1.75</v>
+      </c>
+      <c r="O215">
         <v>3.6</v>
       </c>
-      <c r="O215">
-        <v>3.2</v>
-      </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC215">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,49 +19698,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U216">
         <v>1.85</v>
@@ -19749,19 +19749,19 @@
         <v>1.95</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
         <v>0.8500000000000001</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.825</v>
+      </c>
+      <c r="T217">
+        <v>2</v>
+      </c>
+      <c r="U217">
         <v>1.75</v>
       </c>
-      <c r="S217">
+      <c r="V217">
         <v>2.05</v>
       </c>
-      <c r="T217">
-        <v>2</v>
-      </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
       <c r="W217">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -29298,7 +29298,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7631398</v>
+        <v>7631343</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29307,64 +29307,79 @@
         <v>28</v>
       </c>
       <c r="E324" s="2">
-        <v>45348.93055555555</v>
+        <v>45348.84027777778</v>
       </c>
       <c r="F324" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G324" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>2</v>
+      </c>
+      <c r="J324" t="s">
+        <v>55</v>
       </c>
       <c r="K324">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L324">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M324">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N324">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O324">
         <v>3.1</v>
       </c>
       <c r="P324">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q324">
         <v>0.25</v>
       </c>
       <c r="R324">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S324">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T324">
         <v>2</v>
       </c>
       <c r="U324">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB324">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC324">
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29372,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7630519</v>
+        <v>7631398</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29381,64 +29396,79 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45349.75</v>
+        <v>45348.93055555555</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G325" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>2</v>
+      </c>
+      <c r="J325" t="s">
+        <v>55</v>
       </c>
       <c r="K325">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L325">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M325">
+        <v>3</v>
+      </c>
+      <c r="N325">
         <v>3.5</v>
       </c>
-      <c r="N325">
-        <v>2.05</v>
-      </c>
       <c r="O325">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P325">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
         <v>2</v>
       </c>
       <c r="U325">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB325">
+        <v>0.8</v>
+      </c>
+      <c r="AC325">
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29446,7 +29476,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7631342</v>
+        <v>7630519</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29455,64 +29485,79 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45349.92708333334</v>
+        <v>45349.75</v>
       </c>
       <c r="F326" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G326" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326" t="s">
+        <v>54</v>
       </c>
       <c r="K326">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L326">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M326">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N326">
+        <v>2.1</v>
+      </c>
+      <c r="O326">
+        <v>3.2</v>
+      </c>
+      <c r="P326">
+        <v>4</v>
+      </c>
+      <c r="Q326">
+        <v>-0.25</v>
+      </c>
+      <c r="R326">
         <v>1.75</v>
       </c>
-      <c r="O326">
-        <v>3.4</v>
-      </c>
-      <c r="P326">
-        <v>5.5</v>
-      </c>
-      <c r="Q326">
-        <v>-0.75</v>
-      </c>
-      <c r="R326">
-        <v>2</v>
-      </c>
       <c r="S326">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T326">
         <v>2</v>
       </c>
       <c r="U326">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V326">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W326">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA326">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB326">
+        <v>-1</v>
+      </c>
+      <c r="AC326">
+        <v>1.05</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29520,7 +29565,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7880624</v>
+        <v>7631342</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29529,64 +29574,79 @@
         <v>28</v>
       </c>
       <c r="E327" s="2">
-        <v>45350.71875</v>
+        <v>45349.92708333334</v>
       </c>
       <c r="F327" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G327" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>2</v>
+      </c>
+      <c r="J327" t="s">
+        <v>55</v>
       </c>
       <c r="K327">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L327">
         <v>3.4</v>
       </c>
       <c r="M327">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N327">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O327">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P327">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q327">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R327">
+        <v>1.775</v>
+      </c>
+      <c r="S327">
         <v>2.025</v>
       </c>
-      <c r="S327">
-        <v>1.825</v>
-      </c>
       <c r="T327">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U327">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V327">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Z327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB327">
+        <v>0</v>
+      </c>
+      <c r="AC327">
+        <v>-0</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29594,7 +29654,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7631397</v>
+        <v>7880624</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29603,63 +29663,892 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45351.90625</v>
+        <v>45350.71875</v>
       </c>
       <c r="F328" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328" t="s">
+        <v>55</v>
       </c>
       <c r="K328">
+        <v>2.05</v>
+      </c>
+      <c r="L328">
+        <v>3.4</v>
+      </c>
+      <c r="M328">
+        <v>3.5</v>
+      </c>
+      <c r="N328">
         <v>1.8</v>
       </c>
-      <c r="L328">
-        <v>3.5</v>
-      </c>
-      <c r="M328">
-        <v>4.5</v>
-      </c>
-      <c r="N328">
-        <v>1.75</v>
-      </c>
       <c r="O328">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P328">
         <v>4.75</v>
       </c>
       <c r="Q328">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R328">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S328">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T328">
         <v>2.25</v>
       </c>
       <c r="U328">
+        <v>1.975</v>
+      </c>
+      <c r="V328">
+        <v>1.825</v>
+      </c>
+      <c r="W328">
+        <v>-1</v>
+      </c>
+      <c r="X328">
+        <v>-1</v>
+      </c>
+      <c r="Y328">
+        <v>3.75</v>
+      </c>
+      <c r="Z328">
+        <v>-1</v>
+      </c>
+      <c r="AA328">
+        <v>1</v>
+      </c>
+      <c r="AB328">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC328">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7631397</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45351.90625</v>
+      </c>
+      <c r="F329" t="s">
+        <v>31</v>
+      </c>
+      <c r="G329" t="s">
+        <v>29</v>
+      </c>
+      <c r="K329">
+        <v>1.8</v>
+      </c>
+      <c r="L329">
+        <v>3.5</v>
+      </c>
+      <c r="M329">
+        <v>4.5</v>
+      </c>
+      <c r="N329">
+        <v>1.727</v>
+      </c>
+      <c r="O329">
+        <v>3.5</v>
+      </c>
+      <c r="P329">
+        <v>5.5</v>
+      </c>
+      <c r="Q329">
+        <v>-0.75</v>
+      </c>
+      <c r="R329">
         <v>1.925</v>
       </c>
-      <c r="V328">
+      <c r="S329">
         <v>1.925</v>
       </c>
-      <c r="W328">
-        <v>0</v>
-      </c>
-      <c r="X328">
-        <v>0</v>
-      </c>
-      <c r="Y328">
-        <v>0</v>
-      </c>
-      <c r="Z328">
-        <v>0</v>
-      </c>
-      <c r="AA328">
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
+        <v>1.95</v>
+      </c>
+      <c r="V329">
+        <v>1.9</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7631400</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45352.75</v>
+      </c>
+      <c r="F330" t="s">
+        <v>37</v>
+      </c>
+      <c r="G330" t="s">
+        <v>46</v>
+      </c>
+      <c r="K330">
+        <v>2.1</v>
+      </c>
+      <c r="L330">
+        <v>3.2</v>
+      </c>
+      <c r="M330">
+        <v>3.5</v>
+      </c>
+      <c r="N330">
+        <v>2.05</v>
+      </c>
+      <c r="O330">
+        <v>3.3</v>
+      </c>
+      <c r="P330">
+        <v>3.8</v>
+      </c>
+      <c r="Q330">
+        <v>-0.5</v>
+      </c>
+      <c r="R330">
+        <v>2.025</v>
+      </c>
+      <c r="S330">
+        <v>1.825</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
+        <v>1.8</v>
+      </c>
+      <c r="V330">
+        <v>2.05</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7631345</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45352.84027777778</v>
+      </c>
+      <c r="F331" t="s">
+        <v>35</v>
+      </c>
+      <c r="G331" t="s">
+        <v>43</v>
+      </c>
+      <c r="K331">
+        <v>3</v>
+      </c>
+      <c r="L331">
+        <v>3</v>
+      </c>
+      <c r="M331">
+        <v>2.5</v>
+      </c>
+      <c r="N331">
+        <v>3.3</v>
+      </c>
+      <c r="O331">
+        <v>3</v>
+      </c>
+      <c r="P331">
+        <v>2.4</v>
+      </c>
+      <c r="Q331">
+        <v>0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.8</v>
+      </c>
+      <c r="S331">
+        <v>2.05</v>
+      </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
+      <c r="U331">
+        <v>1.85</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7631399</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45352.93055555555</v>
+      </c>
+      <c r="F332" t="s">
+        <v>48</v>
+      </c>
+      <c r="G332" t="s">
+        <v>40</v>
+      </c>
+      <c r="K332">
+        <v>1.8</v>
+      </c>
+      <c r="L332">
+        <v>3.5</v>
+      </c>
+      <c r="M332">
+        <v>4.333</v>
+      </c>
+      <c r="N332">
+        <v>1.95</v>
+      </c>
+      <c r="O332">
+        <v>3.4</v>
+      </c>
+      <c r="P332">
+        <v>4.2</v>
+      </c>
+      <c r="Q332">
+        <v>-0.5</v>
+      </c>
+      <c r="R332">
+        <v>2</v>
+      </c>
+      <c r="S332">
+        <v>1.85</v>
+      </c>
+      <c r="T332">
+        <v>2.25</v>
+      </c>
+      <c r="U332">
+        <v>1.975</v>
+      </c>
+      <c r="V332">
+        <v>1.875</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>7631347</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F333" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" t="s">
+        <v>44</v>
+      </c>
+      <c r="K333">
+        <v>1.727</v>
+      </c>
+      <c r="L333">
+        <v>3.4</v>
+      </c>
+      <c r="M333">
+        <v>5</v>
+      </c>
+      <c r="N333">
+        <v>1.833</v>
+      </c>
+      <c r="O333">
+        <v>3.25</v>
+      </c>
+      <c r="P333">
+        <v>5</v>
+      </c>
+      <c r="Q333">
+        <v>-0.5</v>
+      </c>
+      <c r="R333">
+        <v>1.825</v>
+      </c>
+      <c r="S333">
+        <v>2.025</v>
+      </c>
+      <c r="T333">
+        <v>2</v>
+      </c>
+      <c r="U333">
+        <v>2</v>
+      </c>
+      <c r="V333">
+        <v>1.85</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7631402</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45353.84027777778</v>
+      </c>
+      <c r="F334" t="s">
+        <v>41</v>
+      </c>
+      <c r="G334" t="s">
+        <v>36</v>
+      </c>
+      <c r="K334">
+        <v>2.3</v>
+      </c>
+      <c r="L334">
+        <v>3.2</v>
+      </c>
+      <c r="M334">
+        <v>3.1</v>
+      </c>
+      <c r="N334">
+        <v>2.4</v>
+      </c>
+      <c r="O334">
+        <v>3.2</v>
+      </c>
+      <c r="P334">
+        <v>3.1</v>
+      </c>
+      <c r="Q334">
+        <v>-0.25</v>
+      </c>
+      <c r="R334">
+        <v>2.05</v>
+      </c>
+      <c r="S334">
+        <v>1.8</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>1.85</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>7631401</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45353.93055555555</v>
+      </c>
+      <c r="F335" t="s">
+        <v>39</v>
+      </c>
+      <c r="G335" t="s">
+        <v>30</v>
+      </c>
+      <c r="K335">
+        <v>2</v>
+      </c>
+      <c r="L335">
+        <v>3.4</v>
+      </c>
+      <c r="M335">
+        <v>3.75</v>
+      </c>
+      <c r="N335">
+        <v>1.95</v>
+      </c>
+      <c r="O335">
+        <v>3.4</v>
+      </c>
+      <c r="P335">
+        <v>4.2</v>
+      </c>
+      <c r="Q335">
+        <v>-0.5</v>
+      </c>
+      <c r="R335">
+        <v>1.95</v>
+      </c>
+      <c r="S335">
+        <v>1.9</v>
+      </c>
+      <c r="T335">
+        <v>2.25</v>
+      </c>
+      <c r="U335">
+        <v>2</v>
+      </c>
+      <c r="V335">
+        <v>1.85</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>7630520</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F336" t="s">
+        <v>45</v>
+      </c>
+      <c r="G336" t="s">
+        <v>49</v>
+      </c>
+      <c r="K336">
+        <v>1.909</v>
+      </c>
+      <c r="L336">
+        <v>3.3</v>
+      </c>
+      <c r="M336">
+        <v>4.333</v>
+      </c>
+      <c r="N336">
+        <v>1.833</v>
+      </c>
+      <c r="O336">
+        <v>3.4</v>
+      </c>
+      <c r="P336">
+        <v>4.75</v>
+      </c>
+      <c r="Q336">
+        <v>-0.5</v>
+      </c>
+      <c r="R336">
+        <v>1.875</v>
+      </c>
+      <c r="S336">
+        <v>1.975</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>1.975</v>
+      </c>
+      <c r="V336">
+        <v>1.875</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7631346</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45354.84027777778</v>
+      </c>
+      <c r="F337" t="s">
+        <v>31</v>
+      </c>
+      <c r="G337" t="s">
+        <v>33</v>
+      </c>
+      <c r="K337">
+        <v>2.3</v>
+      </c>
+      <c r="L337">
+        <v>3.1</v>
+      </c>
+      <c r="M337">
+        <v>3.1</v>
+      </c>
+      <c r="N337">
+        <v>2.25</v>
+      </c>
+      <c r="O337">
+        <v>3.25</v>
+      </c>
+      <c r="P337">
+        <v>3.4</v>
+      </c>
+      <c r="Q337">
+        <v>-0.25</v>
+      </c>
+      <c r="R337">
+        <v>1.925</v>
+      </c>
+      <c r="S337">
+        <v>1.925</v>
+      </c>
+      <c r="T337">
+        <v>2.25</v>
+      </c>
+      <c r="U337">
+        <v>2</v>
+      </c>
+      <c r="V337">
+        <v>1.85</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>7736850</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45354.93055555555</v>
+      </c>
+      <c r="F338" t="s">
+        <v>52</v>
+      </c>
+      <c r="G338" t="s">
+        <v>42</v>
+      </c>
+      <c r="K338">
+        <v>3.4</v>
+      </c>
+      <c r="L338">
+        <v>3.2</v>
+      </c>
+      <c r="M338">
+        <v>2.1</v>
+      </c>
+      <c r="N338">
+        <v>3.75</v>
+      </c>
+      <c r="O338">
+        <v>3.25</v>
+      </c>
+      <c r="P338">
+        <v>2.1</v>
+      </c>
+      <c r="Q338">
+        <v>0.25</v>
+      </c>
+      <c r="R338">
+        <v>2.1</v>
+      </c>
+      <c r="S338">
+        <v>1.775</v>
+      </c>
+      <c r="T338">
+        <v>2.25</v>
+      </c>
+      <c r="U338">
+        <v>1.95</v>
+      </c>
+      <c r="V338">
+        <v>1.9</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>7630521</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45355.92361111111</v>
+      </c>
+      <c r="F339" t="s">
+        <v>29</v>
+      </c>
+      <c r="G339" t="s">
+        <v>50</v>
+      </c>
+      <c r="K339">
+        <v>2.1</v>
+      </c>
+      <c r="L339">
+        <v>3.1</v>
+      </c>
+      <c r="M339">
+        <v>3.5</v>
+      </c>
+      <c r="N339">
+        <v>2.1</v>
+      </c>
+      <c r="O339">
+        <v>3.1</v>
+      </c>
+      <c r="P339">
+        <v>4</v>
+      </c>
+      <c r="Q339">
+        <v>-0.25</v>
+      </c>
+      <c r="R339">
+        <v>1.8</v>
+      </c>
+      <c r="S339">
+        <v>2.05</v>
+      </c>
+      <c r="T339">
+        <v>2</v>
+      </c>
+      <c r="U339">
+        <v>1.875</v>
+      </c>
+      <c r="V339">
+        <v>1.975</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K208">
+        <v>1.95</v>
+      </c>
+      <c r="L208">
         <v>3.2</v>
       </c>
-      <c r="L208">
-        <v>3.1</v>
-      </c>
       <c r="M208">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N208">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
         <v>1.975</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X208">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404218</v>
+        <v>7404212</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,49 +19075,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L209">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
         <v>2.025</v>
@@ -19126,19 +19126,19 @@
         <v>1.825</v>
       </c>
       <c r="W209">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
         <v>-1</v>
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,10 +19164,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19179,61 +19179,61 @@
         <v>53</v>
       </c>
       <c r="K210">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L210">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N210">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.875</v>
+      </c>
+      <c r="V210">
         <v>1.975</v>
       </c>
-      <c r="S210">
-        <v>1.875</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>2.025</v>
-      </c>
-      <c r="V210">
-        <v>1.825</v>
-      </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R211">
         <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N212">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.925</v>
       </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.925</v>
-      </c>
-      <c r="AA212">
-        <v>-1</v>
-      </c>
-      <c r="AB212">
-        <v>0.825</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,49 +19520,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U214">
         <v>1.85</v>
@@ -19571,19 +19571,19 @@
         <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>0.8500000000000001</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N216">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2</v>
+      </c>
+      <c r="U216">
         <v>1.75</v>
       </c>
-      <c r="S216">
+      <c r="V216">
         <v>2.05</v>
       </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
-      <c r="U216">
-        <v>1.85</v>
-      </c>
-      <c r="V216">
-        <v>1.95</v>
-      </c>
       <c r="W216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
         <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -29760,6 +29760,15 @@
       <c r="G329" t="s">
         <v>29</v>
       </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329" t="s">
+        <v>54</v>
+      </c>
       <c r="K329">
         <v>1.8</v>
       </c>
@@ -29770,10 +29779,10 @@
         <v>4.5</v>
       </c>
       <c r="N329">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O329">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P329">
         <v>5.5</v>
@@ -29782,34 +29791,40 @@
         <v>-0.75</v>
       </c>
       <c r="R329">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S329">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T329">
         <v>2.25</v>
       </c>
       <c r="U329">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA329">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB329">
+        <v>-1</v>
+      </c>
+      <c r="AC329">
+        <v>0.8</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29834,6 +29849,15 @@
       <c r="G330" t="s">
         <v>46</v>
       </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330" t="s">
+        <v>53</v>
+      </c>
       <c r="K330">
         <v>2.1</v>
       </c>
@@ -29847,43 +29871,49 @@
         <v>2.05</v>
       </c>
       <c r="O330">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P330">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q330">
+        <v>-0.25</v>
+      </c>
+      <c r="R330">
+        <v>1.775</v>
+      </c>
+      <c r="S330">
+        <v>2.025</v>
+      </c>
+      <c r="T330">
+        <v>2.25</v>
+      </c>
+      <c r="U330">
+        <v>2</v>
+      </c>
+      <c r="V330">
+        <v>1.8</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
+        <v>2.4</v>
+      </c>
+      <c r="Y330">
+        <v>-1</v>
+      </c>
+      <c r="Z330">
         <v>-0.5</v>
       </c>
-      <c r="R330">
-        <v>2.025</v>
-      </c>
-      <c r="S330">
-        <v>1.825</v>
-      </c>
-      <c r="T330">
-        <v>2</v>
-      </c>
-      <c r="U330">
-        <v>1.8</v>
-      </c>
-      <c r="V330">
-        <v>2.05</v>
-      </c>
-      <c r="W330">
-        <v>0</v>
-      </c>
-      <c r="X330">
-        <v>0</v>
-      </c>
-      <c r="Y330">
-        <v>0</v>
-      </c>
-      <c r="Z330">
-        <v>0</v>
-      </c>
       <c r="AA330">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB330">
+        <v>1</v>
+      </c>
+      <c r="AC330">
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29908,6 +29938,15 @@
       <c r="G331" t="s">
         <v>43</v>
       </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331" t="s">
+        <v>53</v>
+      </c>
       <c r="K331">
         <v>3</v>
       </c>
@@ -29918,46 +29957,52 @@
         <v>2.5</v>
       </c>
       <c r="N331">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="O331">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S331">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V331">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W331">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X331">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y331">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA331">
-        <v>0</v>
+        <v>0.475</v>
+      </c>
+      <c r="AB331">
+        <v>-0.5</v>
+      </c>
+      <c r="AC331">
+        <v>0.3875</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -29982,6 +30027,15 @@
       <c r="G332" t="s">
         <v>40</v>
       </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332" t="s">
+        <v>55</v>
+      </c>
       <c r="K332">
         <v>1.8</v>
       </c>
@@ -29992,46 +30046,52 @@
         <v>4.333</v>
       </c>
       <c r="N332">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O332">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q332">
         <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S332">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB332">
+        <v>-1</v>
+      </c>
+      <c r="AC332">
+        <v>0.8</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30066,31 +30126,31 @@
         <v>5</v>
       </c>
       <c r="N333">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O333">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P333">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q333">
         <v>-0.5</v>
       </c>
       <c r="R333">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T333">
         <v>2</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30140,31 +30200,31 @@
         <v>3.1</v>
       </c>
       <c r="N334">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O334">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P334">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T334">
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30235,10 +30295,10 @@
         <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V335">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30288,13 +30348,13 @@
         <v>4.333</v>
       </c>
       <c r="N336">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O336">
         <v>3.4</v>
       </c>
       <c r="P336">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q336">
         <v>-0.5</v>
@@ -30362,31 +30422,31 @@
         <v>3.1</v>
       </c>
       <c r="N337">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O337">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P337">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q337">
         <v>-0.25</v>
       </c>
       <c r="R337">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S337">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T337">
         <v>2.25</v>
       </c>
       <c r="U337">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V337">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W337">
         <v>0</v>
@@ -30436,31 +30496,31 @@
         <v>2.1</v>
       </c>
       <c r="N338">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O338">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P338">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q338">
         <v>0.25</v>
       </c>
       <c r="R338">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S338">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T338">
         <v>2.25</v>
       </c>
       <c r="U338">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V338">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W338">
         <v>0</v>
@@ -30510,31 +30570,31 @@
         <v>3.5</v>
       </c>
       <c r="N339">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O339">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P339">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q339">
         <v>-0.25</v>
       </c>
       <c r="R339">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S339">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T339">
         <v>2</v>
       </c>
       <c r="U339">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V339">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W339">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC339"/>
+  <dimension ref="A1:AC336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
         <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
         <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -30099,7 +30099,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7631347</v>
+        <v>7630520</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30108,40 +30108,40 @@
         <v>28</v>
       </c>
       <c r="E333" s="2">
-        <v>45353.75</v>
+        <v>45354.75</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G333" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K333">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L333">
+        <v>3.3</v>
+      </c>
+      <c r="M333">
+        <v>4.333</v>
+      </c>
+      <c r="N333">
+        <v>1.85</v>
+      </c>
+      <c r="O333">
         <v>3.4</v>
       </c>
-      <c r="M333">
-        <v>5</v>
-      </c>
-      <c r="N333">
-        <v>2</v>
-      </c>
-      <c r="O333">
-        <v>3.2</v>
-      </c>
       <c r="P333">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q333">
         <v>-0.5</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T333">
         <v>2</v>
@@ -30173,7 +30173,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7631402</v>
+        <v>7631346</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30182,34 +30182,34 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45353.84027777778</v>
+        <v>45354.84027777778</v>
       </c>
       <c r="F334" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G334" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K334">
         <v>2.3</v>
       </c>
       <c r="L334">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M334">
         <v>3.1</v>
       </c>
       <c r="N334">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O334">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
         <v>1.85</v>
@@ -30221,10 +30221,10 @@
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V334">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30247,7 +30247,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7631401</v>
+        <v>7736850</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30256,49 +30256,49 @@
         <v>28</v>
       </c>
       <c r="E335" s="2">
-        <v>45353.93055555555</v>
+        <v>45354.93055555555</v>
       </c>
       <c r="F335" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G335" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K335">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L335">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N335">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O335">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P335">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q335">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R335">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S335">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T335">
         <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30321,7 +30321,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7630520</v>
+        <v>7630521</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30330,49 +30330,49 @@
         <v>28</v>
       </c>
       <c r="E336" s="2">
-        <v>45354.75</v>
+        <v>45355.92361111111</v>
       </c>
       <c r="F336" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G336" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K336">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L336">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M336">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N336">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O336">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P336">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q336">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R336">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T336">
         <v>2</v>
       </c>
       <c r="U336">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V336">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W336">
         <v>0</v>
@@ -30387,228 +30387,6 @@
         <v>0</v>
       </c>
       <c r="AA336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337">
-        <v>7631346</v>
-      </c>
-      <c r="C337" t="s">
-        <v>28</v>
-      </c>
-      <c r="D337" t="s">
-        <v>28</v>
-      </c>
-      <c r="E337" s="2">
-        <v>45354.84027777778</v>
-      </c>
-      <c r="F337" t="s">
-        <v>31</v>
-      </c>
-      <c r="G337" t="s">
-        <v>33</v>
-      </c>
-      <c r="K337">
-        <v>2.3</v>
-      </c>
-      <c r="L337">
-        <v>3.1</v>
-      </c>
-      <c r="M337">
-        <v>3.1</v>
-      </c>
-      <c r="N337">
-        <v>2.15</v>
-      </c>
-      <c r="O337">
-        <v>3.3</v>
-      </c>
-      <c r="P337">
-        <v>3.6</v>
-      </c>
-      <c r="Q337">
-        <v>-0.25</v>
-      </c>
-      <c r="R337">
-        <v>1.825</v>
-      </c>
-      <c r="S337">
-        <v>2.025</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
-      <c r="U337">
-        <v>2.05</v>
-      </c>
-      <c r="V337">
-        <v>1.8</v>
-      </c>
-      <c r="W337">
-        <v>0</v>
-      </c>
-      <c r="X337">
-        <v>0</v>
-      </c>
-      <c r="Y337">
-        <v>0</v>
-      </c>
-      <c r="Z337">
-        <v>0</v>
-      </c>
-      <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338">
-        <v>7736850</v>
-      </c>
-      <c r="C338" t="s">
-        <v>28</v>
-      </c>
-      <c r="D338" t="s">
-        <v>28</v>
-      </c>
-      <c r="E338" s="2">
-        <v>45354.93055555555</v>
-      </c>
-      <c r="F338" t="s">
-        <v>52</v>
-      </c>
-      <c r="G338" t="s">
-        <v>42</v>
-      </c>
-      <c r="K338">
-        <v>3.4</v>
-      </c>
-      <c r="L338">
-        <v>3.2</v>
-      </c>
-      <c r="M338">
-        <v>2.1</v>
-      </c>
-      <c r="N338">
-        <v>3.6</v>
-      </c>
-      <c r="O338">
-        <v>3.2</v>
-      </c>
-      <c r="P338">
-        <v>2.2</v>
-      </c>
-      <c r="Q338">
-        <v>0.25</v>
-      </c>
-      <c r="R338">
-        <v>1.975</v>
-      </c>
-      <c r="S338">
-        <v>1.875</v>
-      </c>
-      <c r="T338">
-        <v>2.25</v>
-      </c>
-      <c r="U338">
-        <v>2</v>
-      </c>
-      <c r="V338">
-        <v>1.85</v>
-      </c>
-      <c r="W338">
-        <v>0</v>
-      </c>
-      <c r="X338">
-        <v>0</v>
-      </c>
-      <c r="Y338">
-        <v>0</v>
-      </c>
-      <c r="Z338">
-        <v>0</v>
-      </c>
-      <c r="AA338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339">
-        <v>7630521</v>
-      </c>
-      <c r="C339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D339" t="s">
-        <v>28</v>
-      </c>
-      <c r="E339" s="2">
-        <v>45355.92361111111</v>
-      </c>
-      <c r="F339" t="s">
-        <v>29</v>
-      </c>
-      <c r="G339" t="s">
-        <v>50</v>
-      </c>
-      <c r="K339">
-        <v>2.1</v>
-      </c>
-      <c r="L339">
-        <v>3.1</v>
-      </c>
-      <c r="M339">
-        <v>3.5</v>
-      </c>
-      <c r="N339">
-        <v>2.25</v>
-      </c>
-      <c r="O339">
-        <v>3</v>
-      </c>
-      <c r="P339">
-        <v>3.75</v>
-      </c>
-      <c r="Q339">
-        <v>-0.25</v>
-      </c>
-      <c r="R339">
-        <v>1.925</v>
-      </c>
-      <c r="S339">
-        <v>1.925</v>
-      </c>
-      <c r="T339">
-        <v>2</v>
-      </c>
-      <c r="U339">
-        <v>1.925</v>
-      </c>
-      <c r="V339">
-        <v>1.925</v>
-      </c>
-      <c r="W339">
-        <v>0</v>
-      </c>
-      <c r="X339">
-        <v>0</v>
-      </c>
-      <c r="Y339">
-        <v>0</v>
-      </c>
-      <c r="Z339">
-        <v>0</v>
-      </c>
-      <c r="AA339">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC336"/>
+  <dimension ref="A1:AC349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L210">
         <v>3.1</v>
       </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
         <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
         <v>1.9</v>
       </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M212">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N212">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R212">
         <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
+        <v>3.6</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>2.15</v>
+      </c>
+      <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.825</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>4.75</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,73 +19520,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214" t="s">
+        <v>55</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3.25</v>
+      </c>
+      <c r="M214">
+        <v>3.5</v>
+      </c>
+      <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>4.75</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>2</v>
+      </c>
+      <c r="V214">
+        <v>1.8</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>3.75</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.8</v>
+      </c>
+      <c r="AB214">
         <v>1</v>
-      </c>
-      <c r="J214" t="s">
-        <v>54</v>
-      </c>
-      <c r="K214">
-        <v>2.4</v>
-      </c>
-      <c r="L214">
-        <v>3.1</v>
-      </c>
-      <c r="M214">
-        <v>2.875</v>
-      </c>
-      <c r="N214">
-        <v>2.1</v>
-      </c>
-      <c r="O214">
-        <v>3.1</v>
-      </c>
-      <c r="P214">
-        <v>3.8</v>
-      </c>
-      <c r="Q214">
-        <v>-0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.75</v>
-      </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
-      <c r="W214">
-        <v>1.1</v>
-      </c>
-      <c r="X214">
-        <v>-1</v>
-      </c>
-      <c r="Y214">
-        <v>-1</v>
-      </c>
-      <c r="Z214">
-        <v>0.75</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
         <v>1.775</v>
       </c>
-      <c r="S215">
-        <v>2.025</v>
-      </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
+        <v>1.444</v>
+      </c>
+      <c r="L216">
+        <v>4.5</v>
+      </c>
+      <c r="M216">
+        <v>6</v>
+      </c>
+      <c r="N216">
+        <v>1.363</v>
+      </c>
+      <c r="O216">
+        <v>5</v>
+      </c>
+      <c r="P216">
+        <v>7.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1.25</v>
+      </c>
+      <c r="R216">
+        <v>1.775</v>
+      </c>
+      <c r="S216">
+        <v>2.025</v>
+      </c>
+      <c r="T216">
         <v>3</v>
       </c>
-      <c r="L216">
-        <v>3.1</v>
-      </c>
-      <c r="M216">
-        <v>2.3</v>
-      </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
-      <c r="O216">
-        <v>3.4</v>
-      </c>
-      <c r="P216">
-        <v>2.1</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>2.025</v>
-      </c>
-      <c r="S216">
-        <v>1.775</v>
-      </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -30099,7 +30099,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630520</v>
+        <v>7631347</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30108,64 +30108,79 @@
         <v>28</v>
       </c>
       <c r="E333" s="2">
-        <v>45354.75</v>
+        <v>45353.75</v>
       </c>
       <c r="F333" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G333" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>55</v>
       </c>
       <c r="K333">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L333">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N333">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P333">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q333">
         <v>-0.5</v>
       </c>
       <c r="R333">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S333">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T333">
         <v>2</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V333">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB333">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC333">
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30173,7 +30188,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7631346</v>
+        <v>7631402</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30182,64 +30197,79 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45354.84027777778</v>
+        <v>45353.84027777778</v>
       </c>
       <c r="F334" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G334" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H334">
+        <v>2</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334" t="s">
+        <v>54</v>
       </c>
       <c r="K334">
         <v>2.3</v>
       </c>
       <c r="L334">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
         <v>3.1</v>
       </c>
       <c r="N334">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O334">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P334">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R334">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S334">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T334">
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA334">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB334">
+        <v>-0.5</v>
+      </c>
+      <c r="AC334">
+        <v>0.3875</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30247,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7736850</v>
+        <v>7631401</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30256,64 +30286,79 @@
         <v>28</v>
       </c>
       <c r="E335" s="2">
-        <v>45354.93055555555</v>
+        <v>45353.93055555555</v>
       </c>
       <c r="F335" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G335" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335" t="s">
+        <v>53</v>
       </c>
       <c r="K335">
+        <v>2</v>
+      </c>
+      <c r="L335">
         <v>3.4</v>
       </c>
-      <c r="L335">
-        <v>3.2</v>
-      </c>
       <c r="M335">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N335">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O335">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P335">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q335">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
         <v>1.825</v>
       </c>
       <c r="S335">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T335">
         <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V335">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X335">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB335">
+        <v>-1</v>
+      </c>
+      <c r="AC335">
+        <v>0.825</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30321,72 +30366,1094 @@
         <v>334</v>
       </c>
       <c r="B336">
+        <v>7630520</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F336" t="s">
+        <v>45</v>
+      </c>
+      <c r="G336" t="s">
+        <v>49</v>
+      </c>
+      <c r="H336">
+        <v>3</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
+        <v>54</v>
+      </c>
+      <c r="K336">
+        <v>1.909</v>
+      </c>
+      <c r="L336">
+        <v>3.3</v>
+      </c>
+      <c r="M336">
+        <v>4.333</v>
+      </c>
+      <c r="N336">
+        <v>1.8</v>
+      </c>
+      <c r="O336">
+        <v>3.5</v>
+      </c>
+      <c r="P336">
+        <v>4.75</v>
+      </c>
+      <c r="Q336">
+        <v>-0.5</v>
+      </c>
+      <c r="R336">
+        <v>1.775</v>
+      </c>
+      <c r="S336">
+        <v>2.025</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>1.95</v>
+      </c>
+      <c r="V336">
+        <v>1.85</v>
+      </c>
+      <c r="W336">
+        <v>0.8</v>
+      </c>
+      <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
+        <v>0.95</v>
+      </c>
+      <c r="AC336">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7631346</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45354.84027777778</v>
+      </c>
+      <c r="F337" t="s">
+        <v>31</v>
+      </c>
+      <c r="G337" t="s">
+        <v>33</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>54</v>
+      </c>
+      <c r="K337">
+        <v>2.3</v>
+      </c>
+      <c r="L337">
+        <v>3.1</v>
+      </c>
+      <c r="M337">
+        <v>3.1</v>
+      </c>
+      <c r="N337">
+        <v>2.7</v>
+      </c>
+      <c r="O337">
+        <v>3.1</v>
+      </c>
+      <c r="P337">
+        <v>2.8</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>1.925</v>
+      </c>
+      <c r="S337">
+        <v>1.925</v>
+      </c>
+      <c r="T337">
+        <v>2</v>
+      </c>
+      <c r="U337">
+        <v>1.875</v>
+      </c>
+      <c r="V337">
+        <v>1.975</v>
+      </c>
+      <c r="W337">
+        <v>1.7</v>
+      </c>
+      <c r="X337">
+        <v>-1</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
+        <v>0.925</v>
+      </c>
+      <c r="AA337">
+        <v>-1</v>
+      </c>
+      <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>7736850</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45354.93055555555</v>
+      </c>
+      <c r="F338" t="s">
+        <v>52</v>
+      </c>
+      <c r="G338" t="s">
+        <v>42</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338" t="s">
+        <v>55</v>
+      </c>
+      <c r="K338">
+        <v>3.4</v>
+      </c>
+      <c r="L338">
+        <v>3.2</v>
+      </c>
+      <c r="M338">
+        <v>2.1</v>
+      </c>
+      <c r="N338">
+        <v>2.9</v>
+      </c>
+      <c r="O338">
+        <v>3</v>
+      </c>
+      <c r="P338">
+        <v>2.625</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>2.025</v>
+      </c>
+      <c r="S338">
+        <v>1.775</v>
+      </c>
+      <c r="T338">
+        <v>2</v>
+      </c>
+      <c r="U338">
+        <v>1.9</v>
+      </c>
+      <c r="V338">
+        <v>1.9</v>
+      </c>
+      <c r="W338">
+        <v>-1</v>
+      </c>
+      <c r="X338">
+        <v>-1</v>
+      </c>
+      <c r="Y338">
+        <v>1.625</v>
+      </c>
+      <c r="Z338">
+        <v>-1</v>
+      </c>
+      <c r="AA338">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB338">
+        <v>-1</v>
+      </c>
+      <c r="AC338">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
         <v>7630521</v>
       </c>
-      <c r="C336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D336" t="s">
-        <v>28</v>
-      </c>
-      <c r="E336" s="2">
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
         <v>45355.92361111111</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F339" t="s">
         <v>29</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G339" t="s">
         <v>50</v>
       </c>
-      <c r="K336">
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339" t="s">
+        <v>54</v>
+      </c>
+      <c r="K339">
         <v>2.1</v>
       </c>
-      <c r="L336">
+      <c r="L339">
         <v>3.1</v>
       </c>
-      <c r="M336">
+      <c r="M339">
         <v>3.5</v>
       </c>
-      <c r="N336">
+      <c r="N339">
+        <v>2.7</v>
+      </c>
+      <c r="O339">
+        <v>3</v>
+      </c>
+      <c r="P339">
+        <v>2.875</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>1.825</v>
+      </c>
+      <c r="S339">
+        <v>2.025</v>
+      </c>
+      <c r="T339">
+        <v>2</v>
+      </c>
+      <c r="U339">
+        <v>2</v>
+      </c>
+      <c r="V339">
+        <v>1.85</v>
+      </c>
+      <c r="W339">
+        <v>1.7</v>
+      </c>
+      <c r="X339">
+        <v>-1</v>
+      </c>
+      <c r="Y339">
+        <v>-1</v>
+      </c>
+      <c r="Z339">
+        <v>0.825</v>
+      </c>
+      <c r="AA339">
+        <v>-1</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+      <c r="AC339">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>7658927</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45359.84027777778</v>
+      </c>
+      <c r="F340" t="s">
+        <v>33</v>
+      </c>
+      <c r="G340" t="s">
+        <v>39</v>
+      </c>
+      <c r="K340">
+        <v>2.375</v>
+      </c>
+      <c r="L340">
+        <v>3.2</v>
+      </c>
+      <c r="M340">
+        <v>3</v>
+      </c>
+      <c r="N340">
+        <v>2.3</v>
+      </c>
+      <c r="O340">
+        <v>3.2</v>
+      </c>
+      <c r="P340">
+        <v>3.2</v>
+      </c>
+      <c r="Q340">
+        <v>-0.25</v>
+      </c>
+      <c r="R340">
+        <v>2</v>
+      </c>
+      <c r="S340">
+        <v>1.85</v>
+      </c>
+      <c r="T340">
         <v>2.25</v>
       </c>
-      <c r="O336">
+      <c r="U340">
+        <v>2.025</v>
+      </c>
+      <c r="V340">
+        <v>1.825</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>7658893</v>
+      </c>
+      <c r="C341" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45359.93055555555</v>
+      </c>
+      <c r="F341" t="s">
+        <v>44</v>
+      </c>
+      <c r="G341" t="s">
+        <v>48</v>
+      </c>
+      <c r="K341">
+        <v>1.727</v>
+      </c>
+      <c r="L341">
+        <v>3.4</v>
+      </c>
+      <c r="M341">
+        <v>5</v>
+      </c>
+      <c r="N341">
+        <v>1.7</v>
+      </c>
+      <c r="O341">
+        <v>3.4</v>
+      </c>
+      <c r="P341">
+        <v>5.25</v>
+      </c>
+      <c r="Q341">
+        <v>-0.75</v>
+      </c>
+      <c r="R341">
+        <v>1.95</v>
+      </c>
+      <c r="S341">
+        <v>1.9</v>
+      </c>
+      <c r="T341">
+        <v>2.25</v>
+      </c>
+      <c r="U341">
+        <v>1.875</v>
+      </c>
+      <c r="V341">
+        <v>1.975</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>7658933</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F342" t="s">
+        <v>29</v>
+      </c>
+      <c r="G342" t="s">
+        <v>35</v>
+      </c>
+      <c r="K342">
+        <v>2</v>
+      </c>
+      <c r="L342">
+        <v>3.1</v>
+      </c>
+      <c r="M342">
+        <v>4</v>
+      </c>
+      <c r="N342">
+        <v>2.05</v>
+      </c>
+      <c r="O342">
         <v>3</v>
       </c>
-      <c r="P336">
+      <c r="P342">
+        <v>4</v>
+      </c>
+      <c r="Q342">
+        <v>-0.5</v>
+      </c>
+      <c r="R342">
+        <v>2.1</v>
+      </c>
+      <c r="S342">
+        <v>1.775</v>
+      </c>
+      <c r="T342">
+        <v>2</v>
+      </c>
+      <c r="U342">
+        <v>2.025</v>
+      </c>
+      <c r="V342">
+        <v>1.825</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>7658928</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45360.75694444445</v>
+      </c>
+      <c r="F343" t="s">
+        <v>42</v>
+      </c>
+      <c r="G343" t="s">
+        <v>50</v>
+      </c>
+      <c r="K343">
+        <v>1.615</v>
+      </c>
+      <c r="L343">
         <v>3.75</v>
       </c>
-      <c r="Q336">
-        <v>-0.25</v>
-      </c>
-      <c r="R336">
-        <v>1.925</v>
-      </c>
-      <c r="S336">
-        <v>1.925</v>
-      </c>
-      <c r="T336">
-        <v>2</v>
-      </c>
-      <c r="U336">
-        <v>1.925</v>
-      </c>
-      <c r="V336">
-        <v>1.925</v>
-      </c>
-      <c r="W336">
-        <v>0</v>
-      </c>
-      <c r="X336">
-        <v>0</v>
-      </c>
-      <c r="Y336">
-        <v>0</v>
-      </c>
-      <c r="Z336">
-        <v>0</v>
-      </c>
-      <c r="AA336">
+      <c r="M343">
+        <v>5.5</v>
+      </c>
+      <c r="N343">
+        <v>1.8</v>
+      </c>
+      <c r="O343">
+        <v>3.5</v>
+      </c>
+      <c r="P343">
+        <v>4.5</v>
+      </c>
+      <c r="Q343">
+        <v>-0.75</v>
+      </c>
+      <c r="R343">
+        <v>2.05</v>
+      </c>
+      <c r="S343">
+        <v>1.8</v>
+      </c>
+      <c r="T343">
+        <v>2.25</v>
+      </c>
+      <c r="U343">
+        <v>2</v>
+      </c>
+      <c r="V343">
+        <v>1.85</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>7736849</v>
+      </c>
+      <c r="C344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45360.84722222222</v>
+      </c>
+      <c r="F344" t="s">
+        <v>36</v>
+      </c>
+      <c r="G344" t="s">
+        <v>52</v>
+      </c>
+      <c r="K344">
+        <v>1.4</v>
+      </c>
+      <c r="L344">
+        <v>4.333</v>
+      </c>
+      <c r="M344">
+        <v>8</v>
+      </c>
+      <c r="N344">
+        <v>1.5</v>
+      </c>
+      <c r="O344">
+        <v>4.2</v>
+      </c>
+      <c r="P344">
+        <v>6.5</v>
+      </c>
+      <c r="Q344">
+        <v>-1</v>
+      </c>
+      <c r="R344">
+        <v>1.8</v>
+      </c>
+      <c r="S344">
+        <v>2.05</v>
+      </c>
+      <c r="T344">
+        <v>2.5</v>
+      </c>
+      <c r="U344">
+        <v>2</v>
+      </c>
+      <c r="V344">
+        <v>1.85</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>7658930</v>
+      </c>
+      <c r="C345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45360.9375</v>
+      </c>
+      <c r="F345" t="s">
+        <v>43</v>
+      </c>
+      <c r="G345" t="s">
+        <v>31</v>
+      </c>
+      <c r="K345">
+        <v>2.2</v>
+      </c>
+      <c r="L345">
+        <v>3.1</v>
+      </c>
+      <c r="M345">
+        <v>3.5</v>
+      </c>
+      <c r="N345">
+        <v>1.909</v>
+      </c>
+      <c r="O345">
+        <v>3.4</v>
+      </c>
+      <c r="P345">
+        <v>4.333</v>
+      </c>
+      <c r="Q345">
+        <v>-0.5</v>
+      </c>
+      <c r="R345">
+        <v>1.9</v>
+      </c>
+      <c r="S345">
+        <v>1.95</v>
+      </c>
+      <c r="T345">
+        <v>2.25</v>
+      </c>
+      <c r="U345">
+        <v>1.9</v>
+      </c>
+      <c r="V345">
+        <v>1.95</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>7658892</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F346" t="s">
+        <v>40</v>
+      </c>
+      <c r="G346" t="s">
+        <v>37</v>
+      </c>
+      <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.4</v>
+      </c>
+      <c r="M346">
+        <v>5</v>
+      </c>
+      <c r="N346">
+        <v>1.65</v>
+      </c>
+      <c r="O346">
+        <v>3.5</v>
+      </c>
+      <c r="P346">
+        <v>5.5</v>
+      </c>
+      <c r="Q346">
+        <v>-0.75</v>
+      </c>
+      <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
+        <v>2.25</v>
+      </c>
+      <c r="U346">
+        <v>1.95</v>
+      </c>
+      <c r="V346">
+        <v>1.9</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>7658932</v>
+      </c>
+      <c r="C347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45361.75694444445</v>
+      </c>
+      <c r="F347" t="s">
+        <v>30</v>
+      </c>
+      <c r="G347" t="s">
+        <v>45</v>
+      </c>
+      <c r="K347">
+        <v>1.8</v>
+      </c>
+      <c r="L347">
+        <v>3.3</v>
+      </c>
+      <c r="M347">
+        <v>4.75</v>
+      </c>
+      <c r="N347">
+        <v>1.8</v>
+      </c>
+      <c r="O347">
+        <v>3.25</v>
+      </c>
+      <c r="P347">
+        <v>5</v>
+      </c>
+      <c r="Q347">
+        <v>-0.5</v>
+      </c>
+      <c r="R347">
+        <v>1.8</v>
+      </c>
+      <c r="S347">
+        <v>2.05</v>
+      </c>
+      <c r="T347">
+        <v>2.25</v>
+      </c>
+      <c r="U347">
+        <v>2.025</v>
+      </c>
+      <c r="V347">
+        <v>1.825</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>7658931</v>
+      </c>
+      <c r="C348" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45361.84722222222</v>
+      </c>
+      <c r="F348" t="s">
+        <v>46</v>
+      </c>
+      <c r="G348" t="s">
+        <v>32</v>
+      </c>
+      <c r="K348">
+        <v>3.5</v>
+      </c>
+      <c r="L348">
+        <v>2.875</v>
+      </c>
+      <c r="M348">
+        <v>2.3</v>
+      </c>
+      <c r="N348">
+        <v>3.8</v>
+      </c>
+      <c r="O348">
+        <v>2.9</v>
+      </c>
+      <c r="P348">
+        <v>2.2</v>
+      </c>
+      <c r="Q348">
+        <v>0.25</v>
+      </c>
+      <c r="R348">
+        <v>2.025</v>
+      </c>
+      <c r="S348">
+        <v>1.825</v>
+      </c>
+      <c r="T348">
+        <v>1.75</v>
+      </c>
+      <c r="U348">
+        <v>1.775</v>
+      </c>
+      <c r="V348">
+        <v>2.1</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>7658929</v>
+      </c>
+      <c r="C349" t="s">
+        <v>28</v>
+      </c>
+      <c r="D349" t="s">
+        <v>28</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45361.9375</v>
+      </c>
+      <c r="F349" t="s">
+        <v>49</v>
+      </c>
+      <c r="G349" t="s">
+        <v>41</v>
+      </c>
+      <c r="K349">
+        <v>3.75</v>
+      </c>
+      <c r="L349">
+        <v>3</v>
+      </c>
+      <c r="M349">
+        <v>2.105</v>
+      </c>
+      <c r="N349">
+        <v>2.9</v>
+      </c>
+      <c r="O349">
+        <v>2.9</v>
+      </c>
+      <c r="P349">
+        <v>2.55</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>2</v>
+      </c>
+      <c r="S349">
+        <v>1.85</v>
+      </c>
+      <c r="T349">
+        <v>2</v>
+      </c>
+      <c r="U349">
+        <v>2.025</v>
+      </c>
+      <c r="V349">
+        <v>1.825</v>
+      </c>
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <v>0</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
+        <v>1.9</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
         <v>1.925</v>
       </c>
-      <c r="S208">
-        <v>1.875</v>
-      </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
       <c r="V208">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.925</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>0.825</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,10 +19075,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19090,61 +19090,61 @@
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N209">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P209">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
         <v>1.975</v>
       </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
-      <c r="U209">
-        <v>2.025</v>
-      </c>
-      <c r="V209">
-        <v>1.825</v>
-      </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
         <v>1.95</v>
       </c>
-      <c r="S211">
-        <v>1.9</v>
-      </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,58 +19342,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H212">
         <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>54</v>
       </c>
       <c r="K212">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19402,16 +19402,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
+        <v>1.75</v>
+      </c>
+      <c r="O215">
         <v>3.6</v>
       </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,16 +19666,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
         <v>1</v>
       </c>
-      <c r="I216">
-        <v>2</v>
-      </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.825</v>
+      </c>
+      <c r="T217">
+        <v>2</v>
+      </c>
+      <c r="U217">
         <v>1.75</v>
       </c>
-      <c r="S217">
+      <c r="V217">
         <v>2.05</v>
       </c>
-      <c r="T217">
-        <v>2</v>
-      </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
       <c r="W217">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -30739,6 +30739,15 @@
       <c r="G340" t="s">
         <v>39</v>
       </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340" t="s">
+        <v>55</v>
+      </c>
       <c r="K340">
         <v>2.375</v>
       </c>
@@ -30749,46 +30758,52 @@
         <v>3</v>
       </c>
       <c r="N340">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O340">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P340">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q340">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T340">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U340">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V340">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB340">
+        <v>0</v>
+      </c>
+      <c r="AC340">
+        <v>-0</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30813,6 +30828,15 @@
       <c r="G341" t="s">
         <v>48</v>
       </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>54</v>
+      </c>
       <c r="K341">
         <v>1.727</v>
       </c>
@@ -30823,22 +30847,22 @@
         <v>5</v>
       </c>
       <c r="N341">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O341">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P341">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q341">
         <v>-0.75</v>
       </c>
       <c r="R341">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S341">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T341">
         <v>2.25</v>
@@ -30850,19 +30874,25 @@
         <v>1.975</v>
       </c>
       <c r="W341">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA341">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB341">
+        <v>-0.5</v>
+      </c>
+      <c r="AC341">
+        <v>0.4875</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30897,7 +30927,7 @@
         <v>4</v>
       </c>
       <c r="N342">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O342">
         <v>3</v>
@@ -30906,22 +30936,22 @@
         <v>4</v>
       </c>
       <c r="Q342">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R342">
+        <v>1.85</v>
+      </c>
+      <c r="S342">
+        <v>2</v>
+      </c>
+      <c r="T342">
+        <v>1.75</v>
+      </c>
+      <c r="U342">
+        <v>1.775</v>
+      </c>
+      <c r="V342">
         <v>2.1</v>
-      </c>
-      <c r="S342">
-        <v>1.775</v>
-      </c>
-      <c r="T342">
-        <v>2</v>
-      </c>
-      <c r="U342">
-        <v>2.025</v>
-      </c>
-      <c r="V342">
-        <v>1.825</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30971,31 +31001,31 @@
         <v>5.5</v>
       </c>
       <c r="N343">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O343">
         <v>3.5</v>
       </c>
       <c r="P343">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q343">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T343">
         <v>2.25</v>
       </c>
       <c r="U343">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V343">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -31045,31 +31075,31 @@
         <v>8</v>
       </c>
       <c r="N344">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O344">
         <v>4.2</v>
       </c>
       <c r="P344">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q344">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T344">
         <v>2.5</v>
       </c>
       <c r="U344">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V344">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W344">
         <v>0</v>
@@ -31131,19 +31161,19 @@
         <v>-0.5</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S345">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T345">
         <v>2.25</v>
       </c>
       <c r="U345">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V345">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W345">
         <v>0</v>
@@ -31196,19 +31226,19 @@
         <v>1.65</v>
       </c>
       <c r="O346">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P346">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q346">
         <v>-0.75</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T346">
         <v>2.25</v>
@@ -31270,19 +31300,19 @@
         <v>1.8</v>
       </c>
       <c r="O347">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P347">
         <v>5</v>
       </c>
       <c r="Q347">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
+        <v>2.05</v>
+      </c>
+      <c r="S347">
         <v>1.8</v>
-      </c>
-      <c r="S347">
-        <v>2.05</v>
       </c>
       <c r="T347">
         <v>2.25</v>
@@ -31341,22 +31371,22 @@
         <v>2.3</v>
       </c>
       <c r="N348">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O348">
         <v>2.9</v>
       </c>
       <c r="P348">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q348">
         <v>0.25</v>
       </c>
       <c r="R348">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S348">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T348">
         <v>1.75</v>
@@ -31415,22 +31445,22 @@
         <v>2.105</v>
       </c>
       <c r="N349">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O349">
         <v>2.9</v>
       </c>
       <c r="P349">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q349">
         <v>0</v>
       </c>
       <c r="R349">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S349">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T349">
         <v>2</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC349"/>
+  <dimension ref="A1:AC351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K208">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L208">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O208">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P208">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R208">
         <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L209">
         <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
         <v>1.9</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z209">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
         <v>1.9</v>
       </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N216">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2</v>
+      </c>
+      <c r="U216">
         <v>1.75</v>
       </c>
-      <c r="S216">
+      <c r="V216">
         <v>2.05</v>
       </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
-      <c r="U216">
-        <v>1.85</v>
-      </c>
-      <c r="V216">
-        <v>1.95</v>
-      </c>
       <c r="W216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -30917,6 +30917,15 @@
       <c r="G342" t="s">
         <v>35</v>
       </c>
+      <c r="H342">
+        <v>2</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342" t="s">
+        <v>54</v>
+      </c>
       <c r="K342">
         <v>2</v>
       </c>
@@ -30927,46 +30936,52 @@
         <v>4</v>
       </c>
       <c r="N342">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O342">
         <v>3</v>
       </c>
       <c r="P342">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q342">
         <v>-0.25</v>
       </c>
       <c r="R342">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S342">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T342">
         <v>1.75</v>
       </c>
       <c r="U342">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V342">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W342">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA342">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB342">
+        <v>0.825</v>
+      </c>
+      <c r="AC342">
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30991,6 +31006,15 @@
       <c r="G343" t="s">
         <v>50</v>
       </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343" t="s">
+        <v>54</v>
+      </c>
       <c r="K343">
         <v>1.615</v>
       </c>
@@ -31001,25 +31025,25 @@
         <v>5.5</v>
       </c>
       <c r="N343">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O343">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P343">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q343">
         <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T343">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U343">
         <v>2.025</v>
@@ -31028,19 +31052,25 @@
         <v>1.825</v>
       </c>
       <c r="W343">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA343">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB343">
+        <v>0</v>
+      </c>
+      <c r="AC343">
+        <v>-0</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31065,6 +31095,15 @@
       <c r="G344" t="s">
         <v>52</v>
       </c>
+      <c r="H344">
+        <v>2</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344" t="s">
+        <v>54</v>
+      </c>
       <c r="K344">
         <v>1.4</v>
       </c>
@@ -31075,46 +31114,52 @@
         <v>8</v>
       </c>
       <c r="N344">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="O344">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P344">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q344">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R344">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S344">
+        <v>1.8</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
         <v>1.775</v>
       </c>
-      <c r="T344">
-        <v>2.5</v>
-      </c>
-      <c r="U344">
-        <v>1.975</v>
-      </c>
       <c r="V344">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W344">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA344">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB344">
+        <v>-0.5</v>
+      </c>
+      <c r="AC344">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31139,6 +31184,15 @@
       <c r="G345" t="s">
         <v>31</v>
       </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345" t="s">
+        <v>53</v>
+      </c>
       <c r="K345">
         <v>2.2</v>
       </c>
@@ -31152,43 +31206,49 @@
         <v>1.909</v>
       </c>
       <c r="O345">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q345">
         <v>-0.5</v>
       </c>
       <c r="R345">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T345">
         <v>2.25</v>
       </c>
       <c r="U345">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V345">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB345">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC345">
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31213,6 +31273,15 @@
       <c r="G346" t="s">
         <v>37</v>
       </c>
+      <c r="H346">
+        <v>2</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346" t="s">
+        <v>54</v>
+      </c>
       <c r="K346">
         <v>1.727</v>
       </c>
@@ -31223,46 +31292,52 @@
         <v>5</v>
       </c>
       <c r="N346">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O346">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P346">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q346">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R346">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S346">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T346">
         <v>2.25</v>
       </c>
       <c r="U346">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V346">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W346">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X346">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA346">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB346">
+        <v>0.875</v>
+      </c>
+      <c r="AC346">
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31287,6 +31362,15 @@
       <c r="G347" t="s">
         <v>45</v>
       </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347" t="s">
+        <v>53</v>
+      </c>
       <c r="K347">
         <v>1.8</v>
       </c>
@@ -31297,22 +31381,22 @@
         <v>4.75</v>
       </c>
       <c r="N347">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O347">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q347">
         <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T347">
         <v>2.25</v>
@@ -31321,22 +31405,28 @@
         <v>2.025</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB347">
+        <v>-1</v>
+      </c>
+      <c r="AC347">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31361,6 +31451,15 @@
       <c r="G348" t="s">
         <v>32</v>
       </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348" t="s">
+        <v>54</v>
+      </c>
       <c r="K348">
         <v>3.5</v>
       </c>
@@ -31371,46 +31470,52 @@
         <v>2.3</v>
       </c>
       <c r="N348">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O348">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P348">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q348">
         <v>0.25</v>
       </c>
       <c r="R348">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T348">
         <v>1.75</v>
       </c>
       <c r="U348">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V348">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W348">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X348">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA348">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB348">
+        <v>0.8</v>
+      </c>
+      <c r="AC348">
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31435,6 +31540,15 @@
       <c r="G349" t="s">
         <v>41</v>
       </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>2</v>
+      </c>
+      <c r="J349" t="s">
+        <v>55</v>
+      </c>
       <c r="K349">
         <v>3.75</v>
       </c>
@@ -31445,45 +31559,199 @@
         <v>2.105</v>
       </c>
       <c r="N349">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O349">
         <v>2.9</v>
       </c>
       <c r="P349">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q349">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R349">
+        <v>2.075</v>
+      </c>
+      <c r="S349">
+        <v>1.725</v>
+      </c>
+      <c r="T349">
+        <v>2</v>
+      </c>
+      <c r="U349">
+        <v>1.875</v>
+      </c>
+      <c r="V349">
+        <v>1.925</v>
+      </c>
+      <c r="W349">
+        <v>-1</v>
+      </c>
+      <c r="X349">
+        <v>-1</v>
+      </c>
+      <c r="Y349">
+        <v>2.2</v>
+      </c>
+      <c r="Z349">
+        <v>-1</v>
+      </c>
+      <c r="AA349">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB349">
+        <v>0</v>
+      </c>
+      <c r="AC349">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>7736848</v>
+      </c>
+      <c r="C350" t="s">
+        <v>28</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45366.83333333334</v>
+      </c>
+      <c r="F350" t="s">
+        <v>52</v>
+      </c>
+      <c r="G350" t="s">
+        <v>29</v>
+      </c>
+      <c r="K350">
+        <v>2</v>
+      </c>
+      <c r="L350">
+        <v>3.4</v>
+      </c>
+      <c r="M350">
+        <v>3.75</v>
+      </c>
+      <c r="N350">
+        <v>2</v>
+      </c>
+      <c r="O350">
+        <v>3.4</v>
+      </c>
+      <c r="P350">
+        <v>3.75</v>
+      </c>
+      <c r="Q350">
+        <v>-0.5</v>
+      </c>
+      <c r="R350">
+        <v>2.025</v>
+      </c>
+      <c r="S350">
+        <v>1.825</v>
+      </c>
+      <c r="T350">
+        <v>2.25</v>
+      </c>
+      <c r="U350">
+        <v>2.1</v>
+      </c>
+      <c r="V350">
+        <v>1.775</v>
+      </c>
+      <c r="W350">
+        <v>0</v>
+      </c>
+      <c r="X350">
+        <v>0</v>
+      </c>
+      <c r="Y350">
+        <v>0</v>
+      </c>
+      <c r="Z350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>7658938</v>
+      </c>
+      <c r="C351" t="s">
+        <v>28</v>
+      </c>
+      <c r="D351" t="s">
+        <v>28</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45366.92361111111</v>
+      </c>
+      <c r="F351" t="s">
+        <v>39</v>
+      </c>
+      <c r="G351" t="s">
+        <v>46</v>
+      </c>
+      <c r="K351">
+        <v>1.5</v>
+      </c>
+      <c r="L351">
+        <v>4.2</v>
+      </c>
+      <c r="M351">
+        <v>6</v>
+      </c>
+      <c r="N351">
+        <v>1.45</v>
+      </c>
+      <c r="O351">
+        <v>4.2</v>
+      </c>
+      <c r="P351">
+        <v>6.5</v>
+      </c>
+      <c r="Q351">
+        <v>-1</v>
+      </c>
+      <c r="R351">
+        <v>1.8</v>
+      </c>
+      <c r="S351">
         <v>2.05</v>
       </c>
-      <c r="S349">
-        <v>1.8</v>
-      </c>
-      <c r="T349">
-        <v>2</v>
-      </c>
-      <c r="U349">
-        <v>2.025</v>
-      </c>
-      <c r="V349">
-        <v>1.825</v>
-      </c>
-      <c r="W349">
-        <v>0</v>
-      </c>
-      <c r="X349">
-        <v>0</v>
-      </c>
-      <c r="Y349">
-        <v>0</v>
-      </c>
-      <c r="Z349">
-        <v>0</v>
-      </c>
-      <c r="AA349">
+      <c r="T351">
+        <v>2.5</v>
+      </c>
+      <c r="U351">
+        <v>1.85</v>
+      </c>
+      <c r="V351">
+        <v>2</v>
+      </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <v>0</v>
+      </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
+      <c r="AA351">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC351"/>
+  <dimension ref="A1:AC357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
         <v>54</v>
       </c>
       <c r="K208">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N208">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404212</v>
+        <v>7404218</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,49 +19164,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K210">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L210">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N210">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P210">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
         <v>2.025</v>
@@ -19215,19 +19215,19 @@
         <v>1.825</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X210">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K211">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L211">
         <v>3.1</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
         <v>1.9</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K212">
+        <v>3.2</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.2</v>
+      </c>
+      <c r="N212">
+        <v>3.6</v>
+      </c>
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212">
+        <v>2.25</v>
+      </c>
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
         <v>1.95</v>
       </c>
-      <c r="L212">
-        <v>3.2</v>
-      </c>
-      <c r="M212">
-        <v>3.75</v>
-      </c>
-      <c r="N212">
-        <v>1.95</v>
-      </c>
-      <c r="O212">
-        <v>3.2</v>
-      </c>
-      <c r="P212">
-        <v>4.75</v>
-      </c>
-      <c r="Q212">
-        <v>-0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.925</v>
-      </c>
       <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
         <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
       </c>
       <c r="V212">
         <v>1.975</v>
       </c>
       <c r="W212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
+        <v>3.6</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>2.15</v>
+      </c>
+      <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.825</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>4.75</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,49 +19520,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U214">
         <v>1.85</v>
@@ -19571,19 +19571,19 @@
         <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>0.8500000000000001</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
         <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N217">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O217">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P217">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -31629,6 +31629,15 @@
       <c r="G350" t="s">
         <v>29</v>
       </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" t="s">
+        <v>53</v>
+      </c>
       <c r="K350">
         <v>2</v>
       </c>
@@ -31639,46 +31648,52 @@
         <v>3.75</v>
       </c>
       <c r="N350">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O350">
         <v>3.4</v>
       </c>
       <c r="P350">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q350">
         <v>-0.5</v>
       </c>
       <c r="R350">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S350">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U350">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V350">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X350">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB350">
+        <v>0</v>
+      </c>
+      <c r="AC350">
+        <v>-0</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31703,6 +31718,15 @@
       <c r="G351" t="s">
         <v>46</v>
       </c>
+      <c r="H351">
+        <v>3</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351" t="s">
+        <v>54</v>
+      </c>
       <c r="K351">
         <v>1.5</v>
       </c>
@@ -31713,45 +31737,525 @@
         <v>6</v>
       </c>
       <c r="N351">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O351">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P351">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q351">
         <v>-1</v>
       </c>
       <c r="R351">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S351">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
+        <v>2.025</v>
+      </c>
+      <c r="V351">
+        <v>1.825</v>
+      </c>
+      <c r="W351">
+        <v>0.5</v>
+      </c>
+      <c r="X351">
+        <v>-1</v>
+      </c>
+      <c r="Y351">
+        <v>-1</v>
+      </c>
+      <c r="Z351">
+        <v>0.825</v>
+      </c>
+      <c r="AA351">
+        <v>-1</v>
+      </c>
+      <c r="AB351">
+        <v>1.025</v>
+      </c>
+      <c r="AC351">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>7658940</v>
+      </c>
+      <c r="C352" t="s">
+        <v>28</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="F352" t="s">
+        <v>42</v>
+      </c>
+      <c r="G352" t="s">
+        <v>43</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352" t="s">
+        <v>53</v>
+      </c>
+      <c r="K352">
+        <v>2</v>
+      </c>
+      <c r="L352">
+        <v>3.1</v>
+      </c>
+      <c r="M352">
+        <v>3.8</v>
+      </c>
+      <c r="N352">
+        <v>2.15</v>
+      </c>
+      <c r="O352">
+        <v>3.1</v>
+      </c>
+      <c r="P352">
+        <v>3.8</v>
+      </c>
+      <c r="Q352">
+        <v>-0.25</v>
+      </c>
+      <c r="R352">
+        <v>1.8</v>
+      </c>
+      <c r="S352">
+        <v>2</v>
+      </c>
+      <c r="T352">
+        <v>2</v>
+      </c>
+      <c r="U352">
         <v>1.85</v>
       </c>
-      <c r="V351">
-        <v>2</v>
-      </c>
-      <c r="W351">
-        <v>0</v>
-      </c>
-      <c r="X351">
-        <v>0</v>
-      </c>
-      <c r="Y351">
-        <v>0</v>
-      </c>
-      <c r="Z351">
-        <v>0</v>
-      </c>
-      <c r="AA351">
+      <c r="V352">
+        <v>1.95</v>
+      </c>
+      <c r="W352">
+        <v>-1</v>
+      </c>
+      <c r="X352">
+        <v>2.1</v>
+      </c>
+      <c r="Y352">
+        <v>-1</v>
+      </c>
+      <c r="Z352">
+        <v>-0.5</v>
+      </c>
+      <c r="AA352">
+        <v>0.5</v>
+      </c>
+      <c r="AB352">
+        <v>0</v>
+      </c>
+      <c r="AC352">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>7658894</v>
+      </c>
+      <c r="C353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45367.75694444445</v>
+      </c>
+      <c r="F353" t="s">
+        <v>45</v>
+      </c>
+      <c r="G353" t="s">
+        <v>44</v>
+      </c>
+      <c r="H353">
+        <v>4</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353" t="s">
+        <v>54</v>
+      </c>
+      <c r="K353">
+        <v>2.5</v>
+      </c>
+      <c r="L353">
+        <v>3.2</v>
+      </c>
+      <c r="M353">
+        <v>2.8</v>
+      </c>
+      <c r="N353">
+        <v>2.25</v>
+      </c>
+      <c r="O353">
+        <v>3</v>
+      </c>
+      <c r="P353">
+        <v>3.6</v>
+      </c>
+      <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>1.9</v>
+      </c>
+      <c r="S353">
+        <v>1.95</v>
+      </c>
+      <c r="T353">
+        <v>1.75</v>
+      </c>
+      <c r="U353">
+        <v>1.775</v>
+      </c>
+      <c r="V353">
+        <v>2.1</v>
+      </c>
+      <c r="W353">
+        <v>1.25</v>
+      </c>
+      <c r="X353">
+        <v>-1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA353">
+        <v>-1</v>
+      </c>
+      <c r="AB353">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC353">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>7658936</v>
+      </c>
+      <c r="C354" t="s">
+        <v>28</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="F354" t="s">
+        <v>37</v>
+      </c>
+      <c r="G354" t="s">
+        <v>32</v>
+      </c>
+      <c r="K354">
+        <v>3.8</v>
+      </c>
+      <c r="L354">
+        <v>3.4</v>
+      </c>
+      <c r="M354">
+        <v>1.909</v>
+      </c>
+      <c r="N354">
+        <v>4.75</v>
+      </c>
+      <c r="O354">
+        <v>3.3</v>
+      </c>
+      <c r="P354">
+        <v>1.85</v>
+      </c>
+      <c r="Q354">
+        <v>0.5</v>
+      </c>
+      <c r="R354">
+        <v>1.925</v>
+      </c>
+      <c r="S354">
+        <v>1.925</v>
+      </c>
+      <c r="T354">
+        <v>2.25</v>
+      </c>
+      <c r="U354">
+        <v>2</v>
+      </c>
+      <c r="V354">
+        <v>1.85</v>
+      </c>
+      <c r="W354">
+        <v>0</v>
+      </c>
+      <c r="X354">
+        <v>0</v>
+      </c>
+      <c r="Y354">
+        <v>0</v>
+      </c>
+      <c r="Z354">
+        <v>0</v>
+      </c>
+      <c r="AA354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>7658935</v>
+      </c>
+      <c r="C355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45368.75694444445</v>
+      </c>
+      <c r="F355" t="s">
+        <v>48</v>
+      </c>
+      <c r="G355" t="s">
+        <v>49</v>
+      </c>
+      <c r="K355">
+        <v>1.666</v>
+      </c>
+      <c r="L355">
+        <v>3.5</v>
+      </c>
+      <c r="M355">
+        <v>5.5</v>
+      </c>
+      <c r="N355">
+        <v>1.6</v>
+      </c>
+      <c r="O355">
+        <v>3.8</v>
+      </c>
+      <c r="P355">
+        <v>6</v>
+      </c>
+      <c r="Q355">
+        <v>-0.75</v>
+      </c>
+      <c r="R355">
+        <v>1.8</v>
+      </c>
+      <c r="S355">
+        <v>2.05</v>
+      </c>
+      <c r="T355">
+        <v>2.25</v>
+      </c>
+      <c r="U355">
+        <v>1.975</v>
+      </c>
+      <c r="V355">
+        <v>1.875</v>
+      </c>
+      <c r="W355">
+        <v>0</v>
+      </c>
+      <c r="X355">
+        <v>0</v>
+      </c>
+      <c r="Y355">
+        <v>0</v>
+      </c>
+      <c r="Z355">
+        <v>0</v>
+      </c>
+      <c r="AA355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>7658937</v>
+      </c>
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45368.84722222222</v>
+      </c>
+      <c r="F356" t="s">
+        <v>50</v>
+      </c>
+      <c r="G356" t="s">
+        <v>36</v>
+      </c>
+      <c r="K356">
+        <v>2.8</v>
+      </c>
+      <c r="L356">
+        <v>3.1</v>
+      </c>
+      <c r="M356">
+        <v>2.45</v>
+      </c>
+      <c r="N356">
+        <v>2.8</v>
+      </c>
+      <c r="O356">
+        <v>3.25</v>
+      </c>
+      <c r="P356">
+        <v>2.55</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>2.025</v>
+      </c>
+      <c r="S356">
+        <v>1.825</v>
+      </c>
+      <c r="T356">
+        <v>2.25</v>
+      </c>
+      <c r="U356">
+        <v>1.95</v>
+      </c>
+      <c r="V356">
+        <v>1.9</v>
+      </c>
+      <c r="W356">
+        <v>0</v>
+      </c>
+      <c r="X356">
+        <v>0</v>
+      </c>
+      <c r="Y356">
+        <v>0</v>
+      </c>
+      <c r="Z356">
+        <v>0</v>
+      </c>
+      <c r="AA356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>7658939</v>
+      </c>
+      <c r="C357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45368.9375</v>
+      </c>
+      <c r="F357" t="s">
+        <v>41</v>
+      </c>
+      <c r="G357" t="s">
+        <v>33</v>
+      </c>
+      <c r="K357">
+        <v>2.1</v>
+      </c>
+      <c r="L357">
+        <v>3.25</v>
+      </c>
+      <c r="M357">
+        <v>3.5</v>
+      </c>
+      <c r="N357">
+        <v>2.25</v>
+      </c>
+      <c r="O357">
+        <v>3.1</v>
+      </c>
+      <c r="P357">
+        <v>3.5</v>
+      </c>
+      <c r="Q357">
+        <v>-0.25</v>
+      </c>
+      <c r="R357">
+        <v>1.925</v>
+      </c>
+      <c r="S357">
+        <v>1.925</v>
+      </c>
+      <c r="T357">
+        <v>2</v>
+      </c>
+      <c r="U357">
+        <v>1.925</v>
+      </c>
+      <c r="V357">
+        <v>1.925</v>
+      </c>
+      <c r="W357">
+        <v>0</v>
+      </c>
+      <c r="X357">
+        <v>0</v>
+      </c>
+      <c r="Y357">
+        <v>0</v>
+      </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404218</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>54</v>
       </c>
       <c r="K208">
+        <v>1.363</v>
+      </c>
+      <c r="L208">
+        <v>4.5</v>
+      </c>
+      <c r="M208">
+        <v>7</v>
+      </c>
+      <c r="N208">
+        <v>1.3</v>
+      </c>
+      <c r="O208">
+        <v>5</v>
+      </c>
+      <c r="P208">
+        <v>12</v>
+      </c>
+      <c r="Q208">
+        <v>-1.5</v>
+      </c>
+      <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
         <v>1.95</v>
       </c>
-      <c r="L208">
-        <v>3.2</v>
-      </c>
-      <c r="M208">
-        <v>3.75</v>
-      </c>
-      <c r="N208">
-        <v>1.95</v>
-      </c>
-      <c r="O208">
-        <v>3.2</v>
-      </c>
-      <c r="P208">
-        <v>4.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.5</v>
-      </c>
-      <c r="R208">
-        <v>1.925</v>
-      </c>
-      <c r="S208">
-        <v>1.875</v>
-      </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
+        <v>2.025</v>
+      </c>
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.825</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N209">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>54</v>
       </c>
       <c r="K210">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L210">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
         <v>3.1</v>
       </c>
       <c r="M211">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
+        <v>3.6</v>
+      </c>
+      <c r="O211">
+        <v>3</v>
+      </c>
+      <c r="P211">
         <v>2.25</v>
       </c>
-      <c r="O211">
-        <v>3.2</v>
-      </c>
-      <c r="P211">
-        <v>3.3</v>
-      </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
         <v>1.9</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,61 +19357,61 @@
         <v>53</v>
       </c>
       <c r="K212">
+        <v>2.6</v>
+      </c>
+      <c r="L212">
+        <v>2.875</v>
+      </c>
+      <c r="M212">
+        <v>2.8</v>
+      </c>
+      <c r="N212">
+        <v>2.8</v>
+      </c>
+      <c r="O212">
         <v>3.2</v>
       </c>
-      <c r="L212">
-        <v>3.1</v>
-      </c>
-      <c r="M212">
+      <c r="P212">
+        <v>2.625</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.875</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>2.2</v>
       </c>
-      <c r="N212">
-        <v>3.6</v>
-      </c>
-      <c r="O212">
-        <v>3</v>
-      </c>
-      <c r="P212">
-        <v>2.25</v>
-      </c>
-      <c r="Q212">
-        <v>0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.95</v>
-      </c>
-      <c r="S212">
-        <v>1.9</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.875</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
         <v>3.25</v>
       </c>
-      <c r="L213">
-        <v>3.1</v>
-      </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
         <v>3.6</v>
       </c>
-      <c r="O213">
-        <v>3.2</v>
-      </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
         <v>1.75</v>
       </c>
-      <c r="S214">
+      <c r="V214">
         <v>2.05</v>
       </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
       <c r="W214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,73 +19609,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H215">
         <v>2</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N215">
+        <v>2.1</v>
+      </c>
+      <c r="O215">
+        <v>3.1</v>
+      </c>
+      <c r="P215">
+        <v>3.8</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
         <v>1.75</v>
       </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>4.75</v>
-      </c>
-      <c r="Q215">
-        <v>-0.75</v>
-      </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
+        <v>1.444</v>
+      </c>
+      <c r="L216">
+        <v>4.5</v>
+      </c>
+      <c r="M216">
+        <v>6</v>
+      </c>
+      <c r="N216">
+        <v>1.363</v>
+      </c>
+      <c r="O216">
+        <v>5</v>
+      </c>
+      <c r="P216">
+        <v>7.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1.25</v>
+      </c>
+      <c r="R216">
+        <v>1.775</v>
+      </c>
+      <c r="S216">
+        <v>2.025</v>
+      </c>
+      <c r="T216">
         <v>3</v>
       </c>
-      <c r="L216">
-        <v>3.1</v>
-      </c>
-      <c r="M216">
-        <v>2.3</v>
-      </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
-      <c r="O216">
-        <v>3.4</v>
-      </c>
-      <c r="P216">
-        <v>2.1</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>2.025</v>
-      </c>
-      <c r="S216">
-        <v>1.775</v>
-      </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
+        <v>2.025</v>
+      </c>
+      <c r="S217">
         <v>1.775</v>
       </c>
-      <c r="S217">
-        <v>2.025</v>
-      </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -31968,7 +31968,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7658936</v>
+        <v>7658934</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,64 +31977,79 @@
         <v>28</v>
       </c>
       <c r="E354" s="2">
-        <v>45368.66666666666</v>
+        <v>45367.84722222222</v>
       </c>
       <c r="F354" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G354" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H354">
+        <v>2</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>54</v>
       </c>
       <c r="K354">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L354">
+        <v>3.1</v>
+      </c>
+      <c r="M354">
+        <v>2.75</v>
+      </c>
+      <c r="N354">
         <v>3.4</v>
       </c>
-      <c r="M354">
-        <v>1.909</v>
-      </c>
-      <c r="N354">
-        <v>4.75</v>
-      </c>
       <c r="O354">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P354">
+        <v>2.25</v>
+      </c>
+      <c r="Q354">
+        <v>0.25</v>
+      </c>
+      <c r="R354">
         <v>1.85</v>
       </c>
-      <c r="Q354">
-        <v>0.5</v>
-      </c>
-      <c r="R354">
-        <v>1.925</v>
-      </c>
       <c r="S354">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U354">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V354">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W354">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA354">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>0.825</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32042,7 +32057,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7658935</v>
+        <v>7658895</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32051,64 +32066,79 @@
         <v>28</v>
       </c>
       <c r="E355" s="2">
-        <v>45368.75694444445</v>
+        <v>45367.9375</v>
       </c>
       <c r="F355" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G355" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>2</v>
+      </c>
+      <c r="J355" t="s">
+        <v>55</v>
       </c>
       <c r="K355">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L355">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M355">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N355">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O355">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P355">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q355">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
         <v>1.8</v>
       </c>
       <c r="S355">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T355">
         <v>2.25</v>
       </c>
       <c r="U355">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V355">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB355">
+        <v>1</v>
+      </c>
+      <c r="AC355">
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32116,7 +32146,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7658937</v>
+        <v>7658936</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32125,64 +32155,79 @@
         <v>28</v>
       </c>
       <c r="E356" s="2">
-        <v>45368.84722222222</v>
+        <v>45368.66666666666</v>
       </c>
       <c r="F356" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G356" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>53</v>
       </c>
       <c r="K356">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L356">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M356">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N356">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O356">
         <v>3.25</v>
       </c>
       <c r="P356">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q356">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R356">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S356">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
         <v>2.25</v>
       </c>
       <c r="U356">
+        <v>1.85</v>
+      </c>
+      <c r="V356">
         <v>1.95</v>
       </c>
-      <c r="V356">
-        <v>1.9</v>
-      </c>
       <c r="W356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA356">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB356">
+        <v>-0.5</v>
+      </c>
+      <c r="AC356">
+        <v>0.475</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32190,72 +32235,1673 @@
         <v>355</v>
       </c>
       <c r="B357">
+        <v>7658935</v>
+      </c>
+      <c r="C357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45368.75694444445</v>
+      </c>
+      <c r="F357" t="s">
+        <v>48</v>
+      </c>
+      <c r="G357" t="s">
+        <v>49</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357" t="s">
+        <v>55</v>
+      </c>
+      <c r="K357">
+        <v>1.666</v>
+      </c>
+      <c r="L357">
+        <v>3.5</v>
+      </c>
+      <c r="M357">
+        <v>5.5</v>
+      </c>
+      <c r="N357">
+        <v>1.6</v>
+      </c>
+      <c r="O357">
+        <v>4</v>
+      </c>
+      <c r="P357">
+        <v>5.75</v>
+      </c>
+      <c r="Q357">
+        <v>-1</v>
+      </c>
+      <c r="R357">
+        <v>2.05</v>
+      </c>
+      <c r="S357">
+        <v>1.8</v>
+      </c>
+      <c r="T357">
+        <v>2.25</v>
+      </c>
+      <c r="U357">
+        <v>1.875</v>
+      </c>
+      <c r="V357">
+        <v>1.975</v>
+      </c>
+      <c r="W357">
+        <v>-1</v>
+      </c>
+      <c r="X357">
+        <v>-1</v>
+      </c>
+      <c r="Y357">
+        <v>4.75</v>
+      </c>
+      <c r="Z357">
+        <v>-1</v>
+      </c>
+      <c r="AA357">
+        <v>0.8</v>
+      </c>
+      <c r="AB357">
+        <v>-1</v>
+      </c>
+      <c r="AC357">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>7658937</v>
+      </c>
+      <c r="C358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45368.84722222222</v>
+      </c>
+      <c r="F358" t="s">
+        <v>50</v>
+      </c>
+      <c r="G358" t="s">
+        <v>36</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358" t="s">
+        <v>53</v>
+      </c>
+      <c r="K358">
+        <v>2.8</v>
+      </c>
+      <c r="L358">
+        <v>3.1</v>
+      </c>
+      <c r="M358">
+        <v>2.45</v>
+      </c>
+      <c r="N358">
+        <v>2.55</v>
+      </c>
+      <c r="O358">
+        <v>3.25</v>
+      </c>
+      <c r="P358">
+        <v>2.8</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>1.8</v>
+      </c>
+      <c r="S358">
+        <v>2</v>
+      </c>
+      <c r="T358">
+        <v>2.25</v>
+      </c>
+      <c r="U358">
+        <v>1.95</v>
+      </c>
+      <c r="V358">
+        <v>1.85</v>
+      </c>
+      <c r="W358">
+        <v>-1</v>
+      </c>
+      <c r="X358">
+        <v>2.25</v>
+      </c>
+      <c r="Y358">
+        <v>-1</v>
+      </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
+      <c r="AA358">
+        <v>-0</v>
+      </c>
+      <c r="AB358">
+        <v>-1</v>
+      </c>
+      <c r="AC358">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
         <v>7658939</v>
       </c>
-      <c r="C357" t="s">
-        <v>28</v>
-      </c>
-      <c r="D357" t="s">
-        <v>28</v>
-      </c>
-      <c r="E357" s="2">
+      <c r="C359" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359" s="2">
         <v>45368.9375</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F359" t="s">
         <v>41</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G359" t="s">
         <v>33</v>
       </c>
-      <c r="K357">
+      <c r="H359">
+        <v>2</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359" t="s">
+        <v>54</v>
+      </c>
+      <c r="K359">
         <v>2.1</v>
       </c>
-      <c r="L357">
+      <c r="L359">
         <v>3.25</v>
       </c>
-      <c r="M357">
+      <c r="M359">
         <v>3.5</v>
       </c>
-      <c r="N357">
+      <c r="N359">
+        <v>2.1</v>
+      </c>
+      <c r="O359">
+        <v>3.1</v>
+      </c>
+      <c r="P359">
+        <v>4</v>
+      </c>
+      <c r="Q359">
+        <v>-0.25</v>
+      </c>
+      <c r="R359">
+        <v>1.775</v>
+      </c>
+      <c r="S359">
+        <v>2.025</v>
+      </c>
+      <c r="T359">
+        <v>2</v>
+      </c>
+      <c r="U359">
+        <v>1.925</v>
+      </c>
+      <c r="V359">
+        <v>1.875</v>
+      </c>
+      <c r="W359">
+        <v>1.1</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
+        <v>-1</v>
+      </c>
+      <c r="Z359">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA359">
+        <v>-1</v>
+      </c>
+      <c r="AB359">
+        <v>0.925</v>
+      </c>
+      <c r="AC359">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>7658941</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45373.84027777778</v>
+      </c>
+      <c r="F360" t="s">
+        <v>49</v>
+      </c>
+      <c r="G360" t="s">
+        <v>39</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360" t="s">
+        <v>54</v>
+      </c>
+      <c r="K360">
+        <v>4</v>
+      </c>
+      <c r="L360">
+        <v>3.25</v>
+      </c>
+      <c r="M360">
+        <v>1.909</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360">
+        <v>2.8</v>
+      </c>
+      <c r="P360">
+        <v>2.8</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>2</v>
+      </c>
+      <c r="S360">
+        <v>1.8</v>
+      </c>
+      <c r="T360">
+        <v>2</v>
+      </c>
+      <c r="U360">
+        <v>2</v>
+      </c>
+      <c r="V360">
+        <v>1.8</v>
+      </c>
+      <c r="W360">
+        <v>2</v>
+      </c>
+      <c r="X360">
+        <v>-1</v>
+      </c>
+      <c r="Y360">
+        <v>-1</v>
+      </c>
+      <c r="Z360">
+        <v>1</v>
+      </c>
+      <c r="AA360">
+        <v>-1</v>
+      </c>
+      <c r="AB360">
+        <v>-1</v>
+      </c>
+      <c r="AC360">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>7658898</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45373.93055555555</v>
+      </c>
+      <c r="F361" t="s">
+        <v>44</v>
+      </c>
+      <c r="G361" t="s">
+        <v>31</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>2</v>
+      </c>
+      <c r="J361" t="s">
+        <v>55</v>
+      </c>
+      <c r="K361">
+        <v>1.909</v>
+      </c>
+      <c r="L361">
+        <v>3.4</v>
+      </c>
+      <c r="M361">
+        <v>4</v>
+      </c>
+      <c r="N361">
+        <v>1.85</v>
+      </c>
+      <c r="O361">
+        <v>3.3</v>
+      </c>
+      <c r="P361">
+        <v>4.5</v>
+      </c>
+      <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>1.825</v>
+      </c>
+      <c r="S361">
+        <v>1.975</v>
+      </c>
+      <c r="T361">
         <v>2.25</v>
       </c>
-      <c r="O357">
+      <c r="U361">
+        <v>1.975</v>
+      </c>
+      <c r="V361">
+        <v>1.825</v>
+      </c>
+      <c r="W361">
+        <v>-1</v>
+      </c>
+      <c r="X361">
+        <v>-1</v>
+      </c>
+      <c r="Y361">
+        <v>3.5</v>
+      </c>
+      <c r="Z361">
+        <v>-1</v>
+      </c>
+      <c r="AA361">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB361">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC361">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>7658942</v>
+      </c>
+      <c r="C362" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45374.66666666666</v>
+      </c>
+      <c r="F362" t="s">
+        <v>32</v>
+      </c>
+      <c r="G362" t="s">
+        <v>48</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362" t="s">
+        <v>53</v>
+      </c>
+      <c r="K362">
+        <v>1.571</v>
+      </c>
+      <c r="L362">
+        <v>4</v>
+      </c>
+      <c r="M362">
+        <v>5.75</v>
+      </c>
+      <c r="N362">
+        <v>1.5</v>
+      </c>
+      <c r="O362">
+        <v>4.2</v>
+      </c>
+      <c r="P362">
+        <v>6.5</v>
+      </c>
+      <c r="Q362">
+        <v>-1</v>
+      </c>
+      <c r="R362">
+        <v>1.85</v>
+      </c>
+      <c r="S362">
+        <v>1.95</v>
+      </c>
+      <c r="T362">
+        <v>2.5</v>
+      </c>
+      <c r="U362">
+        <v>1.925</v>
+      </c>
+      <c r="V362">
+        <v>1.875</v>
+      </c>
+      <c r="W362">
+        <v>-1</v>
+      </c>
+      <c r="X362">
+        <v>3.2</v>
+      </c>
+      <c r="Y362">
+        <v>-1</v>
+      </c>
+      <c r="Z362">
+        <v>-1</v>
+      </c>
+      <c r="AA362">
+        <v>0.95</v>
+      </c>
+      <c r="AB362">
+        <v>-1</v>
+      </c>
+      <c r="AC362">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>7658948</v>
+      </c>
+      <c r="C363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45374.75694444445</v>
+      </c>
+      <c r="F363" t="s">
+        <v>43</v>
+      </c>
+      <c r="G363" t="s">
+        <v>41</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363" t="s">
+        <v>54</v>
+      </c>
+      <c r="K363">
+        <v>1.833</v>
+      </c>
+      <c r="L363">
+        <v>3.4</v>
+      </c>
+      <c r="M363">
+        <v>4.5</v>
+      </c>
+      <c r="N363">
+        <v>1.95</v>
+      </c>
+      <c r="O363">
         <v>3.1</v>
       </c>
-      <c r="P357">
+      <c r="P363">
+        <v>4.5</v>
+      </c>
+      <c r="Q363">
+        <v>-0.5</v>
+      </c>
+      <c r="R363">
+        <v>1.95</v>
+      </c>
+      <c r="S363">
+        <v>1.85</v>
+      </c>
+      <c r="T363">
+        <v>2.25</v>
+      </c>
+      <c r="U363">
+        <v>2</v>
+      </c>
+      <c r="V363">
+        <v>1.8</v>
+      </c>
+      <c r="W363">
+        <v>0.95</v>
+      </c>
+      <c r="X363">
+        <v>-1</v>
+      </c>
+      <c r="Y363">
+        <v>-1</v>
+      </c>
+      <c r="Z363">
+        <v>0.95</v>
+      </c>
+      <c r="AA363">
+        <v>-1</v>
+      </c>
+      <c r="AB363">
+        <v>1</v>
+      </c>
+      <c r="AC363">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>7658943</v>
+      </c>
+      <c r="C364" t="s">
+        <v>28</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45374.84722222222</v>
+      </c>
+      <c r="F364" t="s">
+        <v>46</v>
+      </c>
+      <c r="G364" t="s">
+        <v>50</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364" t="s">
+        <v>55</v>
+      </c>
+      <c r="K364">
+        <v>2.35</v>
+      </c>
+      <c r="L364">
+        <v>3</v>
+      </c>
+      <c r="M364">
+        <v>3.3</v>
+      </c>
+      <c r="N364">
+        <v>2.15</v>
+      </c>
+      <c r="O364">
+        <v>3</v>
+      </c>
+      <c r="P364">
+        <v>3.75</v>
+      </c>
+      <c r="Q364">
+        <v>-0.25</v>
+      </c>
+      <c r="R364">
+        <v>1.8</v>
+      </c>
+      <c r="S364">
+        <v>2</v>
+      </c>
+      <c r="T364">
+        <v>2</v>
+      </c>
+      <c r="U364">
+        <v>1.975</v>
+      </c>
+      <c r="V364">
+        <v>1.825</v>
+      </c>
+      <c r="W364">
+        <v>-1</v>
+      </c>
+      <c r="X364">
+        <v>-1</v>
+      </c>
+      <c r="Y364">
+        <v>2.75</v>
+      </c>
+      <c r="Z364">
+        <v>-1</v>
+      </c>
+      <c r="AA364">
+        <v>1</v>
+      </c>
+      <c r="AB364">
+        <v>-1</v>
+      </c>
+      <c r="AC364">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>7658946</v>
+      </c>
+      <c r="C365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45374.9375</v>
+      </c>
+      <c r="F365" t="s">
+        <v>36</v>
+      </c>
+      <c r="G365" t="s">
+        <v>35</v>
+      </c>
+      <c r="H365">
+        <v>3</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365" t="s">
+        <v>54</v>
+      </c>
+      <c r="K365">
+        <v>1.6</v>
+      </c>
+      <c r="L365">
+        <v>4</v>
+      </c>
+      <c r="M365">
+        <v>5.25</v>
+      </c>
+      <c r="N365">
+        <v>1.45</v>
+      </c>
+      <c r="O365">
+        <v>4.2</v>
+      </c>
+      <c r="P365">
+        <v>8</v>
+      </c>
+      <c r="Q365">
+        <v>-1.25</v>
+      </c>
+      <c r="R365">
+        <v>1.975</v>
+      </c>
+      <c r="S365">
+        <v>1.825</v>
+      </c>
+      <c r="T365">
+        <v>2.5</v>
+      </c>
+      <c r="U365">
+        <v>1.975</v>
+      </c>
+      <c r="V365">
+        <v>1.825</v>
+      </c>
+      <c r="W365">
+        <v>0.45</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
+        <v>-0.5</v>
+      </c>
+      <c r="AA365">
+        <v>0.4125</v>
+      </c>
+      <c r="AB365">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC365">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>7658944</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45375.75</v>
+      </c>
+      <c r="F366" t="s">
+        <v>45</v>
+      </c>
+      <c r="G366" t="s">
+        <v>37</v>
+      </c>
+      <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366" t="s">
+        <v>54</v>
+      </c>
+      <c r="K366">
+        <v>1.7</v>
+      </c>
+      <c r="L366">
         <v>3.5</v>
       </c>
-      <c r="Q357">
+      <c r="M366">
+        <v>5.25</v>
+      </c>
+      <c r="N366">
+        <v>1.6</v>
+      </c>
+      <c r="O366">
+        <v>3.75</v>
+      </c>
+      <c r="P366">
+        <v>6</v>
+      </c>
+      <c r="Q366">
+        <v>-0.75</v>
+      </c>
+      <c r="R366">
+        <v>1.775</v>
+      </c>
+      <c r="S366">
+        <v>2.025</v>
+      </c>
+      <c r="T366">
+        <v>2.5</v>
+      </c>
+      <c r="U366">
+        <v>2</v>
+      </c>
+      <c r="V366">
+        <v>1.8</v>
+      </c>
+      <c r="W366">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X366">
+        <v>-1</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA366">
+        <v>-1</v>
+      </c>
+      <c r="AB366">
+        <v>1</v>
+      </c>
+      <c r="AC366">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>7658945</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45375.84027777778</v>
+      </c>
+      <c r="F367" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" t="s">
+        <v>29</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367" t="s">
+        <v>54</v>
+      </c>
+      <c r="K367">
+        <v>1.615</v>
+      </c>
+      <c r="L367">
+        <v>3.75</v>
+      </c>
+      <c r="M367">
+        <v>5.5</v>
+      </c>
+      <c r="N367">
+        <v>1.8</v>
+      </c>
+      <c r="O367">
+        <v>3.4</v>
+      </c>
+      <c r="P367">
+        <v>5.25</v>
+      </c>
+      <c r="Q367">
+        <v>-0.75</v>
+      </c>
+      <c r="R367">
+        <v>2</v>
+      </c>
+      <c r="S367">
+        <v>1.8</v>
+      </c>
+      <c r="T367">
+        <v>2</v>
+      </c>
+      <c r="U367">
+        <v>1.875</v>
+      </c>
+      <c r="V367">
+        <v>1.925</v>
+      </c>
+      <c r="W367">
+        <v>0.8</v>
+      </c>
+      <c r="X367">
+        <v>-1</v>
+      </c>
+      <c r="Y367">
+        <v>-1</v>
+      </c>
+      <c r="Z367">
+        <v>0.5</v>
+      </c>
+      <c r="AA367">
+        <v>-0.5</v>
+      </c>
+      <c r="AB367">
+        <v>-1</v>
+      </c>
+      <c r="AC367">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>7658947</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45375.93055555555</v>
+      </c>
+      <c r="F368" t="s">
+        <v>33</v>
+      </c>
+      <c r="G368" t="s">
+        <v>42</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368" t="s">
+        <v>53</v>
+      </c>
+      <c r="K368">
+        <v>2.2</v>
+      </c>
+      <c r="L368">
+        <v>3.2</v>
+      </c>
+      <c r="M368">
+        <v>3.25</v>
+      </c>
+      <c r="N368">
+        <v>2.875</v>
+      </c>
+      <c r="O368">
+        <v>3</v>
+      </c>
+      <c r="P368">
+        <v>2.75</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>1.95</v>
+      </c>
+      <c r="S368">
+        <v>1.85</v>
+      </c>
+      <c r="T368">
+        <v>2</v>
+      </c>
+      <c r="U368">
+        <v>2</v>
+      </c>
+      <c r="V368">
+        <v>1.8</v>
+      </c>
+      <c r="W368">
+        <v>-1</v>
+      </c>
+      <c r="X368">
+        <v>2</v>
+      </c>
+      <c r="Y368">
+        <v>-1</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
+        <v>-0</v>
+      </c>
+      <c r="AB368">
+        <v>0</v>
+      </c>
+      <c r="AC368">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>7736847</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45376.75</v>
+      </c>
+      <c r="F369" t="s">
+        <v>40</v>
+      </c>
+      <c r="G369" t="s">
+        <v>52</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369" t="s">
+        <v>54</v>
+      </c>
+      <c r="K369">
+        <v>1.727</v>
+      </c>
+      <c r="L369">
+        <v>3.6</v>
+      </c>
+      <c r="M369">
+        <v>4.75</v>
+      </c>
+      <c r="N369">
+        <v>1.571</v>
+      </c>
+      <c r="O369">
+        <v>4.2</v>
+      </c>
+      <c r="P369">
+        <v>5.5</v>
+      </c>
+      <c r="Q369">
+        <v>-1</v>
+      </c>
+      <c r="R369">
+        <v>2.025</v>
+      </c>
+      <c r="S369">
+        <v>1.825</v>
+      </c>
+      <c r="T369">
+        <v>2.25</v>
+      </c>
+      <c r="U369">
+        <v>1.9</v>
+      </c>
+      <c r="V369">
+        <v>1.95</v>
+      </c>
+      <c r="W369">
+        <v>0.571</v>
+      </c>
+      <c r="X369">
+        <v>-1</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AA369">
+        <v>-0</v>
+      </c>
+      <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>7851541</v>
+      </c>
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45378.84027777778</v>
+      </c>
+      <c r="F370" t="s">
+        <v>30</v>
+      </c>
+      <c r="G370" t="s">
+        <v>46</v>
+      </c>
+      <c r="K370">
+        <v>1.533</v>
+      </c>
+      <c r="L370">
+        <v>4</v>
+      </c>
+      <c r="M370">
+        <v>6.5</v>
+      </c>
+      <c r="N370">
+        <v>1.5</v>
+      </c>
+      <c r="O370">
+        <v>3.8</v>
+      </c>
+      <c r="P370">
+        <v>8</v>
+      </c>
+      <c r="Q370">
+        <v>-1</v>
+      </c>
+      <c r="R370">
+        <v>1.825</v>
+      </c>
+      <c r="S370">
+        <v>2.025</v>
+      </c>
+      <c r="T370">
+        <v>2.25</v>
+      </c>
+      <c r="U370">
+        <v>1.925</v>
+      </c>
+      <c r="V370">
+        <v>1.925</v>
+      </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>7658956</v>
+      </c>
+      <c r="C371" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45378.93055555555</v>
+      </c>
+      <c r="F371" t="s">
+        <v>32</v>
+      </c>
+      <c r="G371" t="s">
+        <v>42</v>
+      </c>
+      <c r="K371">
+        <v>2.05</v>
+      </c>
+      <c r="L371">
+        <v>3.2</v>
+      </c>
+      <c r="M371">
+        <v>4</v>
+      </c>
+      <c r="N371">
+        <v>2.4</v>
+      </c>
+      <c r="O371">
+        <v>3</v>
+      </c>
+      <c r="P371">
+        <v>3.25</v>
+      </c>
+      <c r="Q371">
         <v>-0.25</v>
       </c>
-      <c r="R357">
-        <v>1.925</v>
-      </c>
-      <c r="S357">
-        <v>1.925</v>
-      </c>
-      <c r="T357">
-        <v>2</v>
-      </c>
-      <c r="U357">
-        <v>1.925</v>
-      </c>
-      <c r="V357">
-        <v>1.925</v>
-      </c>
-      <c r="W357">
-        <v>0</v>
-      </c>
-      <c r="X357">
-        <v>0</v>
-      </c>
-      <c r="Y357">
-        <v>0</v>
-      </c>
-      <c r="Z357">
-        <v>0</v>
-      </c>
-      <c r="AA357">
+      <c r="R371">
+        <v>2.025</v>
+      </c>
+      <c r="S371">
+        <v>1.825</v>
+      </c>
+      <c r="T371">
+        <v>2</v>
+      </c>
+      <c r="U371">
+        <v>1.9</v>
+      </c>
+      <c r="V371">
+        <v>1.95</v>
+      </c>
+      <c r="W371">
+        <v>0</v>
+      </c>
+      <c r="X371">
+        <v>0</v>
+      </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
+      <c r="Z371">
+        <v>0</v>
+      </c>
+      <c r="AA371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>7736846</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45380.79166666666</v>
+      </c>
+      <c r="F372" t="s">
+        <v>52</v>
+      </c>
+      <c r="G372" t="s">
+        <v>43</v>
+      </c>
+      <c r="K372">
+        <v>2.75</v>
+      </c>
+      <c r="L372">
+        <v>3.3</v>
+      </c>
+      <c r="M372">
+        <v>2.5</v>
+      </c>
+      <c r="N372">
+        <v>2.875</v>
+      </c>
+      <c r="O372">
+        <v>3.4</v>
+      </c>
+      <c r="P372">
+        <v>2.375</v>
+      </c>
+      <c r="Q372">
+        <v>0.25</v>
+      </c>
+      <c r="R372">
+        <v>1.75</v>
+      </c>
+      <c r="S372">
+        <v>2.125</v>
+      </c>
+      <c r="T372">
+        <v>2.25</v>
+      </c>
+      <c r="U372">
+        <v>2</v>
+      </c>
+      <c r="V372">
+        <v>1.85</v>
+      </c>
+      <c r="W372">
+        <v>0</v>
+      </c>
+      <c r="X372">
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>7658900</v>
+      </c>
+      <c r="C373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45380.89583333334</v>
+      </c>
+      <c r="F373" t="s">
+        <v>39</v>
+      </c>
+      <c r="G373" t="s">
+        <v>44</v>
+      </c>
+      <c r="K373">
+        <v>1.833</v>
+      </c>
+      <c r="L373">
+        <v>3.5</v>
+      </c>
+      <c r="M373">
+        <v>4.333</v>
+      </c>
+      <c r="N373">
+        <v>1.833</v>
+      </c>
+      <c r="O373">
+        <v>3.5</v>
+      </c>
+      <c r="P373">
+        <v>4.333</v>
+      </c>
+      <c r="Q373">
+        <v>-0.5</v>
+      </c>
+      <c r="R373">
+        <v>1.825</v>
+      </c>
+      <c r="S373">
+        <v>2.025</v>
+      </c>
+      <c r="T373">
+        <v>2.25</v>
+      </c>
+      <c r="U373">
+        <v>1.975</v>
+      </c>
+      <c r="V373">
+        <v>1.875</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>0</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>7658952</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45381.9375</v>
+      </c>
+      <c r="F374" t="s">
+        <v>50</v>
+      </c>
+      <c r="G374" t="s">
+        <v>32</v>
+      </c>
+      <c r="K374">
+        <v>2.6</v>
+      </c>
+      <c r="L374">
+        <v>3.25</v>
+      </c>
+      <c r="M374">
+        <v>2.75</v>
+      </c>
+      <c r="N374">
+        <v>2.2</v>
+      </c>
+      <c r="O374">
+        <v>3.3</v>
+      </c>
+      <c r="P374">
+        <v>3.3</v>
+      </c>
+      <c r="Q374">
+        <v>-0.25</v>
+      </c>
+      <c r="R374">
+        <v>1.9</v>
+      </c>
+      <c r="S374">
+        <v>1.95</v>
+      </c>
+      <c r="T374">
+        <v>2.25</v>
+      </c>
+      <c r="U374">
+        <v>2</v>
+      </c>
+      <c r="V374">
+        <v>1.85</v>
+      </c>
+      <c r="W374">
+        <v>0</v>
+      </c>
+      <c r="X374">
+        <v>0</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>7658951</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45382.75694444445</v>
+      </c>
+      <c r="F375" t="s">
+        <v>41</v>
+      </c>
+      <c r="G375" t="s">
+        <v>45</v>
+      </c>
+      <c r="K375">
+        <v>1.833</v>
+      </c>
+      <c r="L375">
+        <v>3.25</v>
+      </c>
+      <c r="M375">
+        <v>4.5</v>
+      </c>
+      <c r="N375">
+        <v>1.833</v>
+      </c>
+      <c r="O375">
+        <v>3.25</v>
+      </c>
+      <c r="P375">
+        <v>4.5</v>
+      </c>
+      <c r="Q375">
+        <v>-0.5</v>
+      </c>
+      <c r="R375">
+        <v>1.85</v>
+      </c>
+      <c r="S375">
+        <v>2</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>2.05</v>
+      </c>
+      <c r="V375">
+        <v>1.8</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>0</v>
+      </c>
+      <c r="AA375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>7658954</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45382.9375</v>
+      </c>
+      <c r="F376" t="s">
+        <v>48</v>
+      </c>
+      <c r="G376" t="s">
+        <v>33</v>
+      </c>
+      <c r="K376">
+        <v>2.1</v>
+      </c>
+      <c r="L376">
+        <v>3.25</v>
+      </c>
+      <c r="M376">
+        <v>3.5</v>
+      </c>
+      <c r="N376">
+        <v>2.1</v>
+      </c>
+      <c r="O376">
+        <v>3.25</v>
+      </c>
+      <c r="P376">
+        <v>3.4</v>
+      </c>
+      <c r="Q376">
+        <v>-0.25</v>
+      </c>
+      <c r="R376">
+        <v>1.85</v>
+      </c>
+      <c r="S376">
+        <v>2</v>
+      </c>
+      <c r="T376">
+        <v>2.25</v>
+      </c>
+      <c r="U376">
+        <v>2.1</v>
+      </c>
+      <c r="V376">
+        <v>1.775</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404218</v>
+        <v>7404216</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L208">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
         <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404218</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>54</v>
       </c>
       <c r="K210">
+        <v>1.363</v>
+      </c>
+      <c r="L210">
+        <v>4.5</v>
+      </c>
+      <c r="M210">
+        <v>7</v>
+      </c>
+      <c r="N210">
+        <v>1.3</v>
+      </c>
+      <c r="O210">
+        <v>5</v>
+      </c>
+      <c r="P210">
+        <v>12</v>
+      </c>
+      <c r="Q210">
+        <v>-1.5</v>
+      </c>
+      <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="L210">
-        <v>3.2</v>
-      </c>
-      <c r="M210">
-        <v>3.75</v>
-      </c>
-      <c r="N210">
-        <v>1.95</v>
-      </c>
-      <c r="O210">
-        <v>3.2</v>
-      </c>
-      <c r="P210">
-        <v>4.75</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
-      <c r="S210">
-        <v>1.875</v>
-      </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
+        <v>2.025</v>
+      </c>
+      <c r="V210">
         <v>1.825</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.825</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,10 +19253,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19268,61 +19268,61 @@
         <v>53</v>
       </c>
       <c r="K211">
+        <v>2.6</v>
+      </c>
+      <c r="L211">
+        <v>2.875</v>
+      </c>
+      <c r="M211">
+        <v>2.8</v>
+      </c>
+      <c r="N211">
+        <v>2.8</v>
+      </c>
+      <c r="O211">
         <v>3.2</v>
       </c>
-      <c r="L211">
-        <v>3.1</v>
-      </c>
-      <c r="M211">
+      <c r="P211">
+        <v>2.625</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.875</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
         <v>2.2</v>
       </c>
-      <c r="N211">
-        <v>3.6</v>
-      </c>
-      <c r="O211">
-        <v>3</v>
-      </c>
-      <c r="P211">
-        <v>2.25</v>
-      </c>
-      <c r="Q211">
-        <v>0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.95</v>
-      </c>
-      <c r="S211">
-        <v>1.9</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.875</v>
-      </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>2</v>
-      </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,61 +19357,61 @@
         <v>53</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.875</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,49 +19609,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
         <v>2.1</v>
       </c>
-      <c r="O215">
-        <v>3.1</v>
-      </c>
-      <c r="P215">
-        <v>3.8</v>
-      </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
         <v>1.85</v>
@@ -19660,19 +19660,19 @@
         <v>1.95</v>
       </c>
       <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
         <v>1.1</v>
       </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
       <c r="Z215">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
         <v>0.8500000000000001</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
         <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7851541</v>
+        <v>7851540</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33401,64 +33401,79 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45378.84027777778</v>
+        <v>45378.75</v>
       </c>
       <c r="F370" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G370" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370" t="s">
+        <v>54</v>
       </c>
       <c r="K370">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M370">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N370">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O370">
+        <v>3.2</v>
+      </c>
+      <c r="P370">
         <v>3.8</v>
       </c>
-      <c r="P370">
-        <v>8</v>
-      </c>
       <c r="Q370">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R370">
+        <v>1.75</v>
+      </c>
+      <c r="S370">
+        <v>2.05</v>
+      </c>
+      <c r="T370">
+        <v>2</v>
+      </c>
+      <c r="U370">
+        <v>1.975</v>
+      </c>
+      <c r="V370">
         <v>1.825</v>
       </c>
-      <c r="S370">
-        <v>2.025</v>
-      </c>
-      <c r="T370">
-        <v>2.25</v>
-      </c>
-      <c r="U370">
-        <v>1.925</v>
-      </c>
-      <c r="V370">
-        <v>1.925</v>
-      </c>
       <c r="W370">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA370">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB370">
+        <v>-1</v>
+      </c>
+      <c r="AC370">
+        <v>0.825</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33466,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7658956</v>
+        <v>7851541</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33475,64 +33490,79 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45378.93055555555</v>
+        <v>45378.84027777778</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G371" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371" t="s">
+        <v>54</v>
       </c>
       <c r="K371">
+        <v>1.533</v>
+      </c>
+      <c r="L371">
+        <v>4</v>
+      </c>
+      <c r="M371">
+        <v>6.5</v>
+      </c>
+      <c r="N371">
+        <v>1.45</v>
+      </c>
+      <c r="O371">
+        <v>4</v>
+      </c>
+      <c r="P371">
+        <v>9</v>
+      </c>
+      <c r="Q371">
+        <v>-1</v>
+      </c>
+      <c r="R371">
+        <v>1.75</v>
+      </c>
+      <c r="S371">
         <v>2.05</v>
       </c>
-      <c r="L371">
-        <v>3.2</v>
-      </c>
-      <c r="M371">
-        <v>4</v>
-      </c>
-      <c r="N371">
-        <v>2.4</v>
-      </c>
-      <c r="O371">
-        <v>3</v>
-      </c>
-      <c r="P371">
-        <v>3.25</v>
-      </c>
-      <c r="Q371">
-        <v>-0.25</v>
-      </c>
-      <c r="R371">
-        <v>2.025</v>
-      </c>
-      <c r="S371">
-        <v>1.825</v>
-      </c>
       <c r="T371">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
         <v>1.9</v>
       </c>
       <c r="V371">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W371">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA371">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB371">
+        <v>-0.5</v>
+      </c>
+      <c r="AC371">
+        <v>0.45</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33540,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7736846</v>
+        <v>7658956</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33549,64 +33579,79 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45380.79166666666</v>
+        <v>45378.93055555555</v>
       </c>
       <c r="F372" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G372" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H372">
+        <v>3</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372" t="s">
+        <v>54</v>
       </c>
       <c r="K372">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M372">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N372">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O372">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P372">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q372">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
+        <v>2.05</v>
+      </c>
+      <c r="S372">
         <v>1.75</v>
       </c>
-      <c r="S372">
-        <v>2.125</v>
-      </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U372">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W372">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA372">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB372">
+        <v>0.925</v>
+      </c>
+      <c r="AC372">
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33614,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7658900</v>
+        <v>7736846</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33623,49 +33668,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45380.89583333334</v>
+        <v>45380.79166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G373" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K373">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M373">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N373">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="O373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P373">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="Q373">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S373">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V373">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33688,7 +33733,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7658952</v>
+        <v>7658900</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33697,49 +33742,49 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45381.9375</v>
+        <v>45380.89583333334</v>
       </c>
       <c r="F374" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G374" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K374">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L374">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N374">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O374">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P374">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S374">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T374">
         <v>2.25</v>
       </c>
       <c r="U374">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V374">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33762,7 +33807,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7658951</v>
+        <v>7658953</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33771,49 +33816,49 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45382.75694444445</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F375" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G375" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K375">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L375">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M375">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N375">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O375">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P375">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q375">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R375">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S375">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T375">
         <v>2.25</v>
       </c>
       <c r="U375">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V375">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W375">
         <v>0</v>
@@ -33836,7 +33881,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7658954</v>
+        <v>7658901</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33845,63 +33890,507 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45382.9375</v>
+        <v>45381.75694444445</v>
       </c>
       <c r="F376" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G376" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K376">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L376">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M376">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O376">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P376">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q376">
         <v>-0.25</v>
       </c>
       <c r="R376">
+        <v>2.1</v>
+      </c>
+      <c r="S376">
+        <v>1.775</v>
+      </c>
+      <c r="T376">
+        <v>2</v>
+      </c>
+      <c r="U376">
+        <v>2.05</v>
+      </c>
+      <c r="V376">
+        <v>1.8</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>7658955</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45381.84722222222</v>
+      </c>
+      <c r="F377" t="s">
+        <v>35</v>
+      </c>
+      <c r="G377" t="s">
+        <v>46</v>
+      </c>
+      <c r="K377">
+        <v>1.909</v>
+      </c>
+      <c r="L377">
+        <v>3.4</v>
+      </c>
+      <c r="M377">
+        <v>4</v>
+      </c>
+      <c r="N377">
         <v>1.85</v>
       </c>
-      <c r="S376">
-        <v>2</v>
-      </c>
-      <c r="T376">
+      <c r="O377">
+        <v>3.5</v>
+      </c>
+      <c r="P377">
+        <v>4.5</v>
+      </c>
+      <c r="Q377">
+        <v>-0.5</v>
+      </c>
+      <c r="R377">
+        <v>1.825</v>
+      </c>
+      <c r="S377">
+        <v>2.025</v>
+      </c>
+      <c r="T377">
+        <v>2</v>
+      </c>
+      <c r="U377">
+        <v>1.825</v>
+      </c>
+      <c r="V377">
+        <v>2.025</v>
+      </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>7658952</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45381.9375</v>
+      </c>
+      <c r="F378" t="s">
+        <v>50</v>
+      </c>
+      <c r="G378" t="s">
+        <v>32</v>
+      </c>
+      <c r="K378">
+        <v>2.6</v>
+      </c>
+      <c r="L378">
+        <v>3.25</v>
+      </c>
+      <c r="M378">
+        <v>2.75</v>
+      </c>
+      <c r="N378">
+        <v>2.375</v>
+      </c>
+      <c r="O378">
+        <v>3.2</v>
+      </c>
+      <c r="P378">
+        <v>3.1</v>
+      </c>
+      <c r="Q378">
+        <v>-0.25</v>
+      </c>
+      <c r="R378">
+        <v>2</v>
+      </c>
+      <c r="S378">
+        <v>1.85</v>
+      </c>
+      <c r="T378">
+        <v>2</v>
+      </c>
+      <c r="U378">
+        <v>1.85</v>
+      </c>
+      <c r="V378">
+        <v>2</v>
+      </c>
+      <c r="W378">
+        <v>0</v>
+      </c>
+      <c r="X378">
+        <v>0</v>
+      </c>
+      <c r="Y378">
+        <v>0</v>
+      </c>
+      <c r="Z378">
+        <v>0</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>7658950</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="F379" t="s">
+        <v>42</v>
+      </c>
+      <c r="G379" t="s">
+        <v>49</v>
+      </c>
+      <c r="K379">
+        <v>1.5</v>
+      </c>
+      <c r="L379">
+        <v>4</v>
+      </c>
+      <c r="M379">
+        <v>6.5</v>
+      </c>
+      <c r="N379">
+        <v>1.5</v>
+      </c>
+      <c r="O379">
+        <v>4.2</v>
+      </c>
+      <c r="P379">
+        <v>7</v>
+      </c>
+      <c r="Q379">
+        <v>-1</v>
+      </c>
+      <c r="R379">
+        <v>1.9</v>
+      </c>
+      <c r="S379">
+        <v>1.95</v>
+      </c>
+      <c r="T379">
         <v>2.25</v>
       </c>
-      <c r="U376">
+      <c r="U379">
+        <v>2</v>
+      </c>
+      <c r="V379">
+        <v>1.85</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>7658951</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45382.75694444445</v>
+      </c>
+      <c r="F380" t="s">
+        <v>41</v>
+      </c>
+      <c r="G380" t="s">
+        <v>45</v>
+      </c>
+      <c r="K380">
+        <v>1.833</v>
+      </c>
+      <c r="L380">
+        <v>3.25</v>
+      </c>
+      <c r="M380">
+        <v>4.5</v>
+      </c>
+      <c r="N380">
+        <v>1.85</v>
+      </c>
+      <c r="O380">
+        <v>3.25</v>
+      </c>
+      <c r="P380">
+        <v>4.5</v>
+      </c>
+      <c r="Q380">
+        <v>-0.5</v>
+      </c>
+      <c r="R380">
+        <v>1.9</v>
+      </c>
+      <c r="S380">
+        <v>1.95</v>
+      </c>
+      <c r="T380">
+        <v>2</v>
+      </c>
+      <c r="U380">
+        <v>1.775</v>
+      </c>
+      <c r="V380">
         <v>2.1</v>
       </c>
-      <c r="V376">
-        <v>1.775</v>
-      </c>
-      <c r="W376">
-        <v>0</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>0</v>
-      </c>
-      <c r="Z376">
-        <v>0</v>
-      </c>
-      <c r="AA376">
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380">
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>0</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>7658949</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45382.84722222222</v>
+      </c>
+      <c r="F381" t="s">
+        <v>31</v>
+      </c>
+      <c r="G381" t="s">
+        <v>36</v>
+      </c>
+      <c r="K381">
+        <v>2.4</v>
+      </c>
+      <c r="L381">
+        <v>3.25</v>
+      </c>
+      <c r="M381">
+        <v>2.9</v>
+      </c>
+      <c r="N381">
+        <v>2.45</v>
+      </c>
+      <c r="O381">
+        <v>3.25</v>
+      </c>
+      <c r="P381">
+        <v>2.8</v>
+      </c>
+      <c r="Q381">
+        <v>0</v>
+      </c>
+      <c r="R381">
+        <v>1.8</v>
+      </c>
+      <c r="S381">
+        <v>2.05</v>
+      </c>
+      <c r="T381">
+        <v>2.25</v>
+      </c>
+      <c r="U381">
+        <v>1.925</v>
+      </c>
+      <c r="V381">
+        <v>1.925</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>7658954</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45382.9375</v>
+      </c>
+      <c r="F382" t="s">
+        <v>48</v>
+      </c>
+      <c r="G382" t="s">
+        <v>33</v>
+      </c>
+      <c r="K382">
+        <v>2.1</v>
+      </c>
+      <c r="L382">
+        <v>3.25</v>
+      </c>
+      <c r="M382">
+        <v>3.5</v>
+      </c>
+      <c r="N382">
+        <v>2.1</v>
+      </c>
+      <c r="O382">
+        <v>3.25</v>
+      </c>
+      <c r="P382">
+        <v>3.5</v>
+      </c>
+      <c r="Q382">
+        <v>-0.25</v>
+      </c>
+      <c r="R382">
+        <v>1.85</v>
+      </c>
+      <c r="S382">
+        <v>2</v>
+      </c>
+      <c r="T382">
+        <v>2</v>
+      </c>
+      <c r="U382">
+        <v>1.8</v>
+      </c>
+      <c r="V382">
+        <v>2.05</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L208">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
+        <v>3.2</v>
+      </c>
+      <c r="L209">
+        <v>3.1</v>
+      </c>
+      <c r="M209">
+        <v>2.2</v>
+      </c>
+      <c r="N209">
+        <v>3.6</v>
+      </c>
+      <c r="O209">
+        <v>3</v>
+      </c>
+      <c r="P209">
+        <v>2.25</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
         <v>1.95</v>
       </c>
-      <c r="L209">
-        <v>3.2</v>
-      </c>
-      <c r="M209">
-        <v>3.75</v>
-      </c>
-      <c r="N209">
-        <v>1.95</v>
-      </c>
-      <c r="O209">
-        <v>3.2</v>
-      </c>
-      <c r="P209">
-        <v>4.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404212</v>
+        <v>7404217</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
         <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K212">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L212">
         <v>3.1</v>
       </c>
       <c r="M212">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N212">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
         <v>1.9</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z212">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -33686,22 +33686,22 @@
         <v>2.5</v>
       </c>
       <c r="N373">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O373">
         <v>3.4</v>
       </c>
       <c r="P373">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R373">
+        <v>2.1</v>
+      </c>
+      <c r="S373">
         <v>1.775</v>
-      </c>
-      <c r="S373">
-        <v>2.1</v>
       </c>
       <c r="T373">
         <v>2.25</v>
@@ -33772,10 +33772,10 @@
         <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S374">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T374">
         <v>2.25</v>
@@ -34142,10 +34142,10 @@
         <v>-1</v>
       </c>
       <c r="R379">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S379">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T379">
         <v>2.25</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC382"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K209">
+        <v>1.95</v>
+      </c>
+      <c r="L209">
         <v>3.2</v>
       </c>
-      <c r="L209">
-        <v>3.1</v>
-      </c>
       <c r="M209">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N211">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
         <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
         <v>0.825</v>
-      </c>
-      <c r="AC211">
-        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
         <v>3.1</v>
       </c>
       <c r="M212">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
+        <v>3.6</v>
+      </c>
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212">
         <v>2.25</v>
       </c>
-      <c r="O212">
-        <v>3.2</v>
-      </c>
-      <c r="P212">
-        <v>3.3</v>
-      </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
         <v>1.9</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA212">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7736846</v>
+        <v>7658955</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33668,49 +33668,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45380.79166666666</v>
+        <v>45381.84722222222</v>
       </c>
       <c r="F373" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G373" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K373">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L373">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N373">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="O373">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P373">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q373">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R373">
+        <v>1.775</v>
+      </c>
+      <c r="S373">
         <v>2.1</v>
-      </c>
-      <c r="S373">
-        <v>1.775</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V373">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7658900</v>
+        <v>7658952</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33742,49 +33742,49 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45380.89583333334</v>
+        <v>45381.9375</v>
       </c>
       <c r="F374" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G374" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K374">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M374">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N374">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O374">
+        <v>3.3</v>
+      </c>
+      <c r="P374">
         <v>3.75</v>
       </c>
-      <c r="P374">
-        <v>5.5</v>
-      </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
+        <v>1.775</v>
+      </c>
+      <c r="S374">
+        <v>2.1</v>
+      </c>
+      <c r="T374">
+        <v>2</v>
+      </c>
+      <c r="U374">
         <v>1.85</v>
       </c>
-      <c r="S374">
-        <v>2</v>
-      </c>
-      <c r="T374">
-        <v>2.25</v>
-      </c>
-      <c r="U374">
-        <v>1.875</v>
-      </c>
       <c r="V374">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33807,7 +33807,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7658953</v>
+        <v>7658950</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33816,40 +33816,40 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="F375" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G375" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K375">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L375">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M375">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N375">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O375">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P375">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q375">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R375">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S375">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T375">
         <v>2.25</v>
@@ -33881,7 +33881,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7658901</v>
+        <v>7658951</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33890,49 +33890,49 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45381.75694444445</v>
+        <v>45382.75694444445</v>
       </c>
       <c r="F376" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G376" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K376">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L376">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M376">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N376">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O376">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P376">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R376">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S376">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T376">
         <v>2</v>
       </c>
       <c r="U376">
+        <v>1.8</v>
+      </c>
+      <c r="V376">
         <v>2.05</v>
-      </c>
-      <c r="V376">
-        <v>1.8</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33955,7 +33955,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7658955</v>
+        <v>7658949</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -33964,49 +33964,49 @@
         <v>28</v>
       </c>
       <c r="E377" s="2">
-        <v>45381.84722222222</v>
+        <v>45382.84722222222</v>
       </c>
       <c r="F377" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G377" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K377">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L377">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M377">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N377">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P377">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q377">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S377">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T377">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U377">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V377">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34029,7 +34029,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7658952</v>
+        <v>7658954</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34038,49 +34038,49 @@
         <v>28</v>
       </c>
       <c r="E378" s="2">
-        <v>45381.9375</v>
+        <v>45382.9375</v>
       </c>
       <c r="F378" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G378" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K378">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L378">
         <v>3.25</v>
       </c>
       <c r="M378">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N378">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P378">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q378">
         <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S378">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T378">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V378">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34095,302 +34095,6 @@
         <v>0</v>
       </c>
       <c r="AA378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>7658950</v>
-      </c>
-      <c r="C379" t="s">
-        <v>28</v>
-      </c>
-      <c r="D379" t="s">
-        <v>28</v>
-      </c>
-      <c r="E379" s="2">
-        <v>45382.66666666666</v>
-      </c>
-      <c r="F379" t="s">
-        <v>42</v>
-      </c>
-      <c r="G379" t="s">
-        <v>49</v>
-      </c>
-      <c r="K379">
-        <v>1.5</v>
-      </c>
-      <c r="L379">
-        <v>4</v>
-      </c>
-      <c r="M379">
-        <v>6.5</v>
-      </c>
-      <c r="N379">
-        <v>1.5</v>
-      </c>
-      <c r="O379">
-        <v>4.2</v>
-      </c>
-      <c r="P379">
-        <v>7</v>
-      </c>
-      <c r="Q379">
-        <v>-1</v>
-      </c>
-      <c r="R379">
-        <v>1.925</v>
-      </c>
-      <c r="S379">
-        <v>1.925</v>
-      </c>
-      <c r="T379">
-        <v>2.25</v>
-      </c>
-      <c r="U379">
-        <v>2</v>
-      </c>
-      <c r="V379">
-        <v>1.85</v>
-      </c>
-      <c r="W379">
-        <v>0</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>0</v>
-      </c>
-      <c r="Z379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:29">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380">
-        <v>7658951</v>
-      </c>
-      <c r="C380" t="s">
-        <v>28</v>
-      </c>
-      <c r="D380" t="s">
-        <v>28</v>
-      </c>
-      <c r="E380" s="2">
-        <v>45382.75694444445</v>
-      </c>
-      <c r="F380" t="s">
-        <v>41</v>
-      </c>
-      <c r="G380" t="s">
-        <v>45</v>
-      </c>
-      <c r="K380">
-        <v>1.833</v>
-      </c>
-      <c r="L380">
-        <v>3.25</v>
-      </c>
-      <c r="M380">
-        <v>4.5</v>
-      </c>
-      <c r="N380">
-        <v>1.85</v>
-      </c>
-      <c r="O380">
-        <v>3.25</v>
-      </c>
-      <c r="P380">
-        <v>4.5</v>
-      </c>
-      <c r="Q380">
-        <v>-0.5</v>
-      </c>
-      <c r="R380">
-        <v>1.9</v>
-      </c>
-      <c r="S380">
-        <v>1.95</v>
-      </c>
-      <c r="T380">
-        <v>2</v>
-      </c>
-      <c r="U380">
-        <v>1.775</v>
-      </c>
-      <c r="V380">
-        <v>2.1</v>
-      </c>
-      <c r="W380">
-        <v>0</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>0</v>
-      </c>
-      <c r="Z380">
-        <v>0</v>
-      </c>
-      <c r="AA380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:29">
-      <c r="A381" s="1">
-        <v>379</v>
-      </c>
-      <c r="B381">
-        <v>7658949</v>
-      </c>
-      <c r="C381" t="s">
-        <v>28</v>
-      </c>
-      <c r="D381" t="s">
-        <v>28</v>
-      </c>
-      <c r="E381" s="2">
-        <v>45382.84722222222</v>
-      </c>
-      <c r="F381" t="s">
-        <v>31</v>
-      </c>
-      <c r="G381" t="s">
-        <v>36</v>
-      </c>
-      <c r="K381">
-        <v>2.4</v>
-      </c>
-      <c r="L381">
-        <v>3.25</v>
-      </c>
-      <c r="M381">
-        <v>2.9</v>
-      </c>
-      <c r="N381">
-        <v>2.45</v>
-      </c>
-      <c r="O381">
-        <v>3.25</v>
-      </c>
-      <c r="P381">
-        <v>2.8</v>
-      </c>
-      <c r="Q381">
-        <v>0</v>
-      </c>
-      <c r="R381">
-        <v>1.8</v>
-      </c>
-      <c r="S381">
-        <v>2.05</v>
-      </c>
-      <c r="T381">
-        <v>2.25</v>
-      </c>
-      <c r="U381">
-        <v>1.925</v>
-      </c>
-      <c r="V381">
-        <v>1.925</v>
-      </c>
-      <c r="W381">
-        <v>0</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>0</v>
-      </c>
-      <c r="Z381">
-        <v>0</v>
-      </c>
-      <c r="AA381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:29">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="B382">
-        <v>7658954</v>
-      </c>
-      <c r="C382" t="s">
-        <v>28</v>
-      </c>
-      <c r="D382" t="s">
-        <v>28</v>
-      </c>
-      <c r="E382" s="2">
-        <v>45382.9375</v>
-      </c>
-      <c r="F382" t="s">
-        <v>48</v>
-      </c>
-      <c r="G382" t="s">
-        <v>33</v>
-      </c>
-      <c r="K382">
-        <v>2.1</v>
-      </c>
-      <c r="L382">
-        <v>3.25</v>
-      </c>
-      <c r="M382">
-        <v>3.5</v>
-      </c>
-      <c r="N382">
-        <v>2.1</v>
-      </c>
-      <c r="O382">
-        <v>3.25</v>
-      </c>
-      <c r="P382">
-        <v>3.5</v>
-      </c>
-      <c r="Q382">
-        <v>-0.25</v>
-      </c>
-      <c r="R382">
-        <v>1.85</v>
-      </c>
-      <c r="S382">
-        <v>2</v>
-      </c>
-      <c r="T382">
-        <v>2</v>
-      </c>
-      <c r="U382">
-        <v>1.8</v>
-      </c>
-      <c r="V382">
-        <v>2.05</v>
-      </c>
-      <c r="W382">
-        <v>0</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>0</v>
-      </c>
-      <c r="Z382">
-        <v>0</v>
-      </c>
-      <c r="AA382">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC378"/>
+  <dimension ref="A1:AC377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
         <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
+        <v>2.025</v>
+      </c>
+      <c r="V209">
         <v>1.825</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.825</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,10 +19253,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19268,61 +19268,61 @@
         <v>53</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
         <v>1.975</v>
       </c>
-      <c r="S211">
-        <v>1.875</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>2.025</v>
-      </c>
-      <c r="V211">
-        <v>1.825</v>
-      </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
         <v>3.2</v>
       </c>
-      <c r="L212">
-        <v>3.1</v>
-      </c>
       <c r="M212">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
         <v>1.975</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X212">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC212">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,16 +19488,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
         <v>1.75</v>
       </c>
-      <c r="S214">
+      <c r="V214">
         <v>2.05</v>
       </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
       <c r="W214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,49 +19609,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
         <v>1.85</v>
@@ -19660,19 +19660,19 @@
         <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>0.8500000000000001</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
         <v>3.25</v>
       </c>
-      <c r="L217">
-        <v>3.1</v>
-      </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N217">
+        <v>1.75</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="O217">
-        <v>3.2</v>
-      </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7658955</v>
+        <v>7736846</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33668,64 +33668,79 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45381.84722222222</v>
+        <v>45380.79166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G373" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+      <c r="J373" t="s">
+        <v>55</v>
       </c>
       <c r="K373">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L373">
+        <v>3.3</v>
+      </c>
+      <c r="M373">
+        <v>2.5</v>
+      </c>
+      <c r="N373">
+        <v>2.7</v>
+      </c>
+      <c r="O373">
         <v>3.4</v>
       </c>
-      <c r="M373">
-        <v>4</v>
-      </c>
-      <c r="N373">
-        <v>1.6</v>
-      </c>
-      <c r="O373">
-        <v>4</v>
-      </c>
       <c r="P373">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q373">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R373">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S373">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Z373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB373">
+        <v>-0.5</v>
+      </c>
+      <c r="AC373">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33733,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7658952</v>
+        <v>7658900</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33742,64 +33757,79 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45381.9375</v>
+        <v>45380.89583333334</v>
       </c>
       <c r="F374" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G374" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374" t="s">
+        <v>54</v>
       </c>
       <c r="K374">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L374">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N374">
+        <v>1.615</v>
+      </c>
+      <c r="O374">
+        <v>3.75</v>
+      </c>
+      <c r="P374">
+        <v>6</v>
+      </c>
+      <c r="Q374">
+        <v>-0.75</v>
+      </c>
+      <c r="R374">
+        <v>1.75</v>
+      </c>
+      <c r="S374">
         <v>2.05</v>
       </c>
-      <c r="O374">
-        <v>3.3</v>
-      </c>
-      <c r="P374">
-        <v>3.75</v>
-      </c>
-      <c r="Q374">
-        <v>-0.25</v>
-      </c>
-      <c r="R374">
-        <v>1.775</v>
-      </c>
-      <c r="S374">
-        <v>2.1</v>
-      </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W374">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA374">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB374">
+        <v>-1</v>
+      </c>
+      <c r="AC374">
+        <v>0.925</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33807,7 +33837,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7658950</v>
+        <v>7658953</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33816,64 +33846,79 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45382.66666666666</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F375" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G375" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375" t="s">
+        <v>55</v>
       </c>
       <c r="K375">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L375">
+        <v>3.2</v>
+      </c>
+      <c r="M375">
+        <v>2.3</v>
+      </c>
+      <c r="N375">
         <v>4</v>
       </c>
-      <c r="M375">
-        <v>6.5</v>
-      </c>
-      <c r="N375">
-        <v>1.6</v>
-      </c>
       <c r="O375">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P375">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q375">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R375">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S375">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T375">
         <v>2.25</v>
       </c>
       <c r="U375">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V375">
         <v>1.825</v>
       </c>
       <c r="W375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB375">
+        <v>-1</v>
+      </c>
+      <c r="AC375">
+        <v>0.825</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33881,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7658951</v>
+        <v>7658949</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33890,49 +33935,49 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45382.75694444445</v>
+        <v>45382.84722222222</v>
       </c>
       <c r="F376" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G376" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K376">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L376">
         <v>3.25</v>
       </c>
       <c r="M376">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N376">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O376">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P376">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q376">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S376">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T376">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V376">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33955,7 +34000,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7658949</v>
+        <v>7658954</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -33964,49 +34009,49 @@
         <v>28</v>
       </c>
       <c r="E377" s="2">
-        <v>45382.84722222222</v>
+        <v>45382.9375</v>
       </c>
       <c r="F377" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G377" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K377">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L377">
         <v>3.25</v>
       </c>
       <c r="M377">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N377">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O377">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R377">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S377">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U377">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V377">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34021,80 +34066,6 @@
         <v>0</v>
       </c>
       <c r="AA377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:29">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378">
-        <v>7658954</v>
-      </c>
-      <c r="C378" t="s">
-        <v>28</v>
-      </c>
-      <c r="D378" t="s">
-        <v>28</v>
-      </c>
-      <c r="E378" s="2">
-        <v>45382.9375</v>
-      </c>
-      <c r="F378" t="s">
-        <v>48</v>
-      </c>
-      <c r="G378" t="s">
-        <v>33</v>
-      </c>
-      <c r="K378">
-        <v>2.1</v>
-      </c>
-      <c r="L378">
-        <v>3.25</v>
-      </c>
-      <c r="M378">
-        <v>3.5</v>
-      </c>
-      <c r="N378">
-        <v>2.15</v>
-      </c>
-      <c r="O378">
-        <v>3.25</v>
-      </c>
-      <c r="P378">
-        <v>3.6</v>
-      </c>
-      <c r="Q378">
-        <v>-0.25</v>
-      </c>
-      <c r="R378">
-        <v>1.825</v>
-      </c>
-      <c r="S378">
-        <v>2.025</v>
-      </c>
-      <c r="T378">
-        <v>2.25</v>
-      </c>
-      <c r="U378">
-        <v>2.1</v>
-      </c>
-      <c r="V378">
-        <v>1.775</v>
-      </c>
-      <c r="W378">
-        <v>0</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>0</v>
-      </c>
-      <c r="Z378">
-        <v>0</v>
-      </c>
-      <c r="AA378">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC377"/>
+  <dimension ref="A1:AC391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L208">
         <v>3.1</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N208">
+        <v>3.6</v>
+      </c>
+      <c r="O208">
+        <v>3</v>
+      </c>
+      <c r="P208">
         <v>2.25</v>
       </c>
-      <c r="O208">
-        <v>3.2</v>
-      </c>
-      <c r="P208">
-        <v>3.3</v>
-      </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
         <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N209">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>54</v>
       </c>
       <c r="K210">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L210">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
         <v>1.95</v>
       </c>
-      <c r="S211">
-        <v>1.9</v>
-      </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
         <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
       <c r="W212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.825</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
+        <v>1.444</v>
+      </c>
+      <c r="L213">
+        <v>4.5</v>
+      </c>
+      <c r="M213">
+        <v>6</v>
+      </c>
+      <c r="N213">
+        <v>1.363</v>
+      </c>
+      <c r="O213">
+        <v>5</v>
+      </c>
+      <c r="P213">
+        <v>7.5</v>
+      </c>
+      <c r="Q213">
+        <v>-1.25</v>
+      </c>
+      <c r="R213">
+        <v>1.775</v>
+      </c>
+      <c r="S213">
+        <v>2.025</v>
+      </c>
+      <c r="T213">
         <v>3</v>
       </c>
-      <c r="L213">
-        <v>3.1</v>
-      </c>
-      <c r="M213">
-        <v>2.3</v>
-      </c>
-      <c r="N213">
-        <v>3.6</v>
-      </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>2.1</v>
-      </c>
-      <c r="Q213">
-        <v>0.25</v>
-      </c>
-      <c r="R213">
-        <v>2.025</v>
-      </c>
-      <c r="S213">
-        <v>1.775</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,49 +19609,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
         <v>2.1</v>
       </c>
-      <c r="O215">
-        <v>3.1</v>
-      </c>
-      <c r="P215">
-        <v>3.8</v>
-      </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
         <v>1.85</v>
@@ -19660,19 +19660,19 @@
         <v>1.95</v>
       </c>
       <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
         <v>1.1</v>
       </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
       <c r="Z215">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
         <v>0.8500000000000001</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
         <v>1</v>
       </c>
-      <c r="I216">
-        <v>2</v>
-      </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -33926,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7658949</v>
+        <v>7658901</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33935,64 +33935,79 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45382.84722222222</v>
+        <v>45381.75694444445</v>
       </c>
       <c r="F376" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G376" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376" t="s">
+        <v>53</v>
       </c>
       <c r="K376">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L376">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M376">
+        <v>3</v>
+      </c>
+      <c r="N376">
+        <v>2.5</v>
+      </c>
+      <c r="O376">
         <v>2.9</v>
       </c>
-      <c r="N376">
-        <v>2.375</v>
-      </c>
-      <c r="O376">
-        <v>3.25</v>
-      </c>
       <c r="P376">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q376">
         <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S376">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T376">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U376">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V376">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X376">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA376">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="AB376">
+        <v>-1</v>
+      </c>
+      <c r="AC376">
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34000,7 +34015,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7658954</v>
+        <v>7658955</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34009,63 +34024,1189 @@
         <v>28</v>
       </c>
       <c r="E377" s="2">
-        <v>45382.9375</v>
+        <v>45381.84722222222</v>
       </c>
       <c r="F377" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G377" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377" t="s">
+        <v>54</v>
       </c>
       <c r="K377">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L377">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M377">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N377">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O377">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P377">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q377">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R377">
         <v>2.025</v>
       </c>
       <c r="S377">
+        <v>1.775</v>
+      </c>
+      <c r="T377">
+        <v>2.25</v>
+      </c>
+      <c r="U377">
+        <v>1.85</v>
+      </c>
+      <c r="V377">
+        <v>1.95</v>
+      </c>
+      <c r="W377">
+        <v>0.571</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>-1</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
+        <v>-0</v>
+      </c>
+      <c r="AB377">
+        <v>-1</v>
+      </c>
+      <c r="AC377">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>7658952</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45381.9375</v>
+      </c>
+      <c r="F378" t="s">
+        <v>50</v>
+      </c>
+      <c r="G378" t="s">
+        <v>32</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+      <c r="J378" t="s">
+        <v>55</v>
+      </c>
+      <c r="K378">
+        <v>2.6</v>
+      </c>
+      <c r="L378">
+        <v>3.25</v>
+      </c>
+      <c r="M378">
+        <v>2.75</v>
+      </c>
+      <c r="N378">
+        <v>2.2</v>
+      </c>
+      <c r="O378">
+        <v>3.2</v>
+      </c>
+      <c r="P378">
+        <v>3.4</v>
+      </c>
+      <c r="Q378">
+        <v>-0.25</v>
+      </c>
+      <c r="R378">
+        <v>1.925</v>
+      </c>
+      <c r="S378">
+        <v>1.925</v>
+      </c>
+      <c r="T378">
+        <v>2</v>
+      </c>
+      <c r="U378">
+        <v>1.95</v>
+      </c>
+      <c r="V378">
+        <v>1.9</v>
+      </c>
+      <c r="W378">
+        <v>-1</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>2.4</v>
+      </c>
+      <c r="Z378">
+        <v>-1</v>
+      </c>
+      <c r="AA378">
+        <v>0.925</v>
+      </c>
+      <c r="AB378">
+        <v>0.95</v>
+      </c>
+      <c r="AC378">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>7658950</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="F379" t="s">
+        <v>42</v>
+      </c>
+      <c r="G379" t="s">
+        <v>49</v>
+      </c>
+      <c r="H379">
+        <v>3</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379" t="s">
+        <v>54</v>
+      </c>
+      <c r="K379">
+        <v>1.5</v>
+      </c>
+      <c r="L379">
+        <v>4</v>
+      </c>
+      <c r="M379">
+        <v>6.5</v>
+      </c>
+      <c r="N379">
+        <v>1.6</v>
+      </c>
+      <c r="O379">
+        <v>3.8</v>
+      </c>
+      <c r="P379">
+        <v>6.5</v>
+      </c>
+      <c r="Q379">
+        <v>-1</v>
+      </c>
+      <c r="R379">
+        <v>2.1</v>
+      </c>
+      <c r="S379">
+        <v>1.775</v>
+      </c>
+      <c r="T379">
+        <v>2</v>
+      </c>
+      <c r="U379">
+        <v>1.8</v>
+      </c>
+      <c r="V379">
+        <v>2.05</v>
+      </c>
+      <c r="W379">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X379">
+        <v>-1</v>
+      </c>
+      <c r="Y379">
+        <v>-1</v>
+      </c>
+      <c r="Z379">
+        <v>1.1</v>
+      </c>
+      <c r="AA379">
+        <v>-1</v>
+      </c>
+      <c r="AB379">
+        <v>0.8</v>
+      </c>
+      <c r="AC379">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>7658951</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45382.75694444445</v>
+      </c>
+      <c r="F380" t="s">
+        <v>41</v>
+      </c>
+      <c r="G380" t="s">
+        <v>45</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>2</v>
+      </c>
+      <c r="J380" t="s">
+        <v>55</v>
+      </c>
+      <c r="K380">
+        <v>1.833</v>
+      </c>
+      <c r="L380">
+        <v>3.25</v>
+      </c>
+      <c r="M380">
+        <v>4.5</v>
+      </c>
+      <c r="N380">
+        <v>2.1</v>
+      </c>
+      <c r="O380">
+        <v>3</v>
+      </c>
+      <c r="P380">
+        <v>4</v>
+      </c>
+      <c r="Q380">
+        <v>-0.25</v>
+      </c>
+      <c r="R380">
+        <v>1.8</v>
+      </c>
+      <c r="S380">
+        <v>2.05</v>
+      </c>
+      <c r="T380">
+        <v>2</v>
+      </c>
+      <c r="U380">
+        <v>1.95</v>
+      </c>
+      <c r="V380">
+        <v>1.9</v>
+      </c>
+      <c r="W380">
+        <v>-1</v>
+      </c>
+      <c r="X380">
+        <v>-1</v>
+      </c>
+      <c r="Y380">
+        <v>3</v>
+      </c>
+      <c r="Z380">
+        <v>-1</v>
+      </c>
+      <c r="AA380">
+        <v>1.05</v>
+      </c>
+      <c r="AB380">
+        <v>0.95</v>
+      </c>
+      <c r="AC380">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>7658949</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45382.84722222222</v>
+      </c>
+      <c r="F381" t="s">
+        <v>31</v>
+      </c>
+      <c r="G381" t="s">
+        <v>36</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>4</v>
+      </c>
+      <c r="J381" t="s">
+        <v>55</v>
+      </c>
+      <c r="K381">
+        <v>2.4</v>
+      </c>
+      <c r="L381">
+        <v>3.25</v>
+      </c>
+      <c r="M381">
+        <v>2.9</v>
+      </c>
+      <c r="N381">
+        <v>2.375</v>
+      </c>
+      <c r="O381">
+        <v>3.25</v>
+      </c>
+      <c r="P381">
+        <v>3.1</v>
+      </c>
+      <c r="Q381">
+        <v>-0.25</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
+        <v>1.85</v>
+      </c>
+      <c r="T381">
+        <v>2.25</v>
+      </c>
+      <c r="U381">
+        <v>1.95</v>
+      </c>
+      <c r="V381">
+        <v>1.9</v>
+      </c>
+      <c r="W381">
+        <v>-1</v>
+      </c>
+      <c r="X381">
+        <v>-1</v>
+      </c>
+      <c r="Y381">
+        <v>2.1</v>
+      </c>
+      <c r="Z381">
+        <v>-1</v>
+      </c>
+      <c r="AA381">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB381">
+        <v>0.95</v>
+      </c>
+      <c r="AC381">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>7658954</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45382.9375</v>
+      </c>
+      <c r="F382" t="s">
+        <v>48</v>
+      </c>
+      <c r="G382" t="s">
+        <v>33</v>
+      </c>
+      <c r="H382">
+        <v>2</v>
+      </c>
+      <c r="I382">
+        <v>4</v>
+      </c>
+      <c r="J382" t="s">
+        <v>55</v>
+      </c>
+      <c r="K382">
+        <v>2.1</v>
+      </c>
+      <c r="L382">
+        <v>3.25</v>
+      </c>
+      <c r="M382">
+        <v>3.5</v>
+      </c>
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382">
+        <v>3.2</v>
+      </c>
+      <c r="P382">
+        <v>4.2</v>
+      </c>
+      <c r="Q382">
+        <v>-0.5</v>
+      </c>
+      <c r="R382">
+        <v>2</v>
+      </c>
+      <c r="S382">
+        <v>1.8</v>
+      </c>
+      <c r="T382">
+        <v>2.25</v>
+      </c>
+      <c r="U382">
+        <v>2</v>
+      </c>
+      <c r="V382">
+        <v>1.8</v>
+      </c>
+      <c r="W382">
+        <v>-1</v>
+      </c>
+      <c r="X382">
+        <v>-1</v>
+      </c>
+      <c r="Y382">
+        <v>3.2</v>
+      </c>
+      <c r="Z382">
+        <v>-1</v>
+      </c>
+      <c r="AA382">
+        <v>0.8</v>
+      </c>
+      <c r="AB382">
+        <v>1</v>
+      </c>
+      <c r="AC382">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>7658962</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45387.75</v>
+      </c>
+      <c r="F383" t="s">
+        <v>37</v>
+      </c>
+      <c r="G383" t="s">
+        <v>41</v>
+      </c>
+      <c r="K383">
+        <v>2.7</v>
+      </c>
+      <c r="L383">
+        <v>3</v>
+      </c>
+      <c r="M383">
+        <v>2.8</v>
+      </c>
+      <c r="N383">
+        <v>2.7</v>
+      </c>
+      <c r="O383">
+        <v>3</v>
+      </c>
+      <c r="P383">
+        <v>2.8</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>1.9</v>
+      </c>
+      <c r="S383">
+        <v>1.95</v>
+      </c>
+      <c r="T383">
+        <v>2.25</v>
+      </c>
+      <c r="U383">
+        <v>2</v>
+      </c>
+      <c r="V383">
+        <v>1.85</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>7658959</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45387.84027777778</v>
+      </c>
+      <c r="F384" t="s">
+        <v>30</v>
+      </c>
+      <c r="G384" t="s">
+        <v>50</v>
+      </c>
+      <c r="K384">
+        <v>1.7</v>
+      </c>
+      <c r="L384">
+        <v>3.4</v>
+      </c>
+      <c r="M384">
+        <v>5.25</v>
+      </c>
+      <c r="N384">
+        <v>1.666</v>
+      </c>
+      <c r="O384">
+        <v>3.5</v>
+      </c>
+      <c r="P384">
+        <v>5.5</v>
+      </c>
+      <c r="Q384">
+        <v>-0.75</v>
+      </c>
+      <c r="R384">
+        <v>1.875</v>
+      </c>
+      <c r="S384">
+        <v>1.975</v>
+      </c>
+      <c r="T384">
+        <v>2.25</v>
+      </c>
+      <c r="U384">
+        <v>1.975</v>
+      </c>
+      <c r="V384">
+        <v>1.875</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>7658903</v>
+      </c>
+      <c r="C385" t="s">
+        <v>28</v>
+      </c>
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45387.93055555555</v>
+      </c>
+      <c r="F385" t="s">
+        <v>40</v>
+      </c>
+      <c r="G385" t="s">
+        <v>43</v>
+      </c>
+      <c r="K385">
+        <v>2.4</v>
+      </c>
+      <c r="L385">
+        <v>3</v>
+      </c>
+      <c r="M385">
+        <v>3.2</v>
+      </c>
+      <c r="N385">
+        <v>2.4</v>
+      </c>
+      <c r="O385">
+        <v>3</v>
+      </c>
+      <c r="P385">
+        <v>3.2</v>
+      </c>
+      <c r="Q385">
+        <v>-0.25</v>
+      </c>
+      <c r="R385">
+        <v>2.05</v>
+      </c>
+      <c r="S385">
+        <v>1.8</v>
+      </c>
+      <c r="T385">
+        <v>2</v>
+      </c>
+      <c r="U385">
         <v>1.825</v>
       </c>
-      <c r="T377">
-        <v>2</v>
-      </c>
-      <c r="U377">
+      <c r="V385">
+        <v>2.025</v>
+      </c>
+      <c r="W385">
+        <v>0</v>
+      </c>
+      <c r="X385">
+        <v>0</v>
+      </c>
+      <c r="Y385">
+        <v>0</v>
+      </c>
+      <c r="Z385">
+        <v>0</v>
+      </c>
+      <c r="AA385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>7658961</v>
+      </c>
+      <c r="C386" t="s">
+        <v>28</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45388.75</v>
+      </c>
+      <c r="F386" t="s">
+        <v>33</v>
+      </c>
+      <c r="G386" t="s">
+        <v>29</v>
+      </c>
+      <c r="K386">
+        <v>2.05</v>
+      </c>
+      <c r="L386">
+        <v>3</v>
+      </c>
+      <c r="M386">
+        <v>4</v>
+      </c>
+      <c r="N386">
+        <v>2.05</v>
+      </c>
+      <c r="O386">
+        <v>3</v>
+      </c>
+      <c r="P386">
+        <v>4</v>
+      </c>
+      <c r="Q386">
+        <v>-0.5</v>
+      </c>
+      <c r="R386">
+        <v>2.05</v>
+      </c>
+      <c r="S386">
+        <v>1.8</v>
+      </c>
+      <c r="T386">
+        <v>2</v>
+      </c>
+      <c r="U386">
+        <v>1.95</v>
+      </c>
+      <c r="V386">
+        <v>1.9</v>
+      </c>
+      <c r="W386">
+        <v>0</v>
+      </c>
+      <c r="X386">
+        <v>0</v>
+      </c>
+      <c r="Y386">
+        <v>0</v>
+      </c>
+      <c r="Z386">
+        <v>0</v>
+      </c>
+      <c r="AA386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>7658958</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45388.84027777778</v>
+      </c>
+      <c r="F387" t="s">
+        <v>45</v>
+      </c>
+      <c r="G387" t="s">
+        <v>48</v>
+      </c>
+      <c r="K387">
+        <v>2</v>
+      </c>
+      <c r="L387">
+        <v>3.2</v>
+      </c>
+      <c r="M387">
+        <v>4</v>
+      </c>
+      <c r="N387">
+        <v>2</v>
+      </c>
+      <c r="O387">
+        <v>3.2</v>
+      </c>
+      <c r="P387">
+        <v>4</v>
+      </c>
+      <c r="Q387">
+        <v>-0.5</v>
+      </c>
+      <c r="R387">
+        <v>2.025</v>
+      </c>
+      <c r="S387">
         <v>1.825</v>
       </c>
-      <c r="V377">
+      <c r="T387">
+        <v>2.25</v>
+      </c>
+      <c r="U387">
+        <v>2</v>
+      </c>
+      <c r="V387">
+        <v>1.85</v>
+      </c>
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>7658960</v>
+      </c>
+      <c r="C388" t="s">
+        <v>28</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45388.93055555555</v>
+      </c>
+      <c r="F388" t="s">
+        <v>36</v>
+      </c>
+      <c r="G388" t="s">
+        <v>39</v>
+      </c>
+      <c r="K388">
+        <v>2.05</v>
+      </c>
+      <c r="L388">
+        <v>3.25</v>
+      </c>
+      <c r="M388">
+        <v>3.8</v>
+      </c>
+      <c r="N388">
+        <v>2.05</v>
+      </c>
+      <c r="O388">
+        <v>3.25</v>
+      </c>
+      <c r="P388">
+        <v>3.8</v>
+      </c>
+      <c r="Q388">
+        <v>-0.5</v>
+      </c>
+      <c r="R388">
         <v>2.025</v>
       </c>
-      <c r="W377">
-        <v>0</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>0</v>
-      </c>
-      <c r="Z377">
-        <v>0</v>
-      </c>
-      <c r="AA377">
+      <c r="S388">
+        <v>1.825</v>
+      </c>
+      <c r="T388">
+        <v>2.25</v>
+      </c>
+      <c r="U388">
+        <v>1.85</v>
+      </c>
+      <c r="V388">
+        <v>2</v>
+      </c>
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>0</v>
+      </c>
+      <c r="AA388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>7736845</v>
+      </c>
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F389" t="s">
+        <v>49</v>
+      </c>
+      <c r="G389" t="s">
+        <v>52</v>
+      </c>
+      <c r="K389">
+        <v>2.15</v>
+      </c>
+      <c r="L389">
+        <v>3</v>
+      </c>
+      <c r="M389">
+        <v>3.8</v>
+      </c>
+      <c r="N389">
+        <v>2</v>
+      </c>
+      <c r="O389">
+        <v>3</v>
+      </c>
+      <c r="P389">
+        <v>4.2</v>
+      </c>
+      <c r="Q389">
+        <v>-0.5</v>
+      </c>
+      <c r="R389">
+        <v>2.05</v>
+      </c>
+      <c r="S389">
+        <v>1.8</v>
+      </c>
+      <c r="T389">
+        <v>2</v>
+      </c>
+      <c r="U389">
+        <v>1.875</v>
+      </c>
+      <c r="V389">
+        <v>1.975</v>
+      </c>
+      <c r="W389">
+        <v>0</v>
+      </c>
+      <c r="X389">
+        <v>0</v>
+      </c>
+      <c r="Y389">
+        <v>0</v>
+      </c>
+      <c r="Z389">
+        <v>0</v>
+      </c>
+      <c r="AA389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:27">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>7658957</v>
+      </c>
+      <c r="C390" t="s">
+        <v>28</v>
+      </c>
+      <c r="D390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45389.84027777778</v>
+      </c>
+      <c r="F390" t="s">
+        <v>46</v>
+      </c>
+      <c r="G390" t="s">
+        <v>31</v>
+      </c>
+      <c r="K390">
+        <v>2.625</v>
+      </c>
+      <c r="L390">
+        <v>3</v>
+      </c>
+      <c r="M390">
+        <v>2.875</v>
+      </c>
+      <c r="N390">
+        <v>2.625</v>
+      </c>
+      <c r="O390">
+        <v>3</v>
+      </c>
+      <c r="P390">
+        <v>2.875</v>
+      </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
+      <c r="R390">
+        <v>1.85</v>
+      </c>
+      <c r="S390">
+        <v>2</v>
+      </c>
+      <c r="T390">
+        <v>2.25</v>
+      </c>
+      <c r="U390">
+        <v>2.1</v>
+      </c>
+      <c r="V390">
+        <v>1.775</v>
+      </c>
+      <c r="W390">
+        <v>0</v>
+      </c>
+      <c r="X390">
+        <v>0</v>
+      </c>
+      <c r="Y390">
+        <v>0</v>
+      </c>
+      <c r="Z390">
+        <v>0</v>
+      </c>
+      <c r="AA390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:27">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>7658904</v>
+      </c>
+      <c r="C391" t="s">
+        <v>28</v>
+      </c>
+      <c r="D391" t="s">
+        <v>28</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45389.93055555555</v>
+      </c>
+      <c r="F391" t="s">
+        <v>44</v>
+      </c>
+      <c r="G391" t="s">
+        <v>35</v>
+      </c>
+      <c r="K391">
+        <v>1.8</v>
+      </c>
+      <c r="L391">
+        <v>3.4</v>
+      </c>
+      <c r="M391">
+        <v>4.75</v>
+      </c>
+      <c r="N391">
+        <v>1.8</v>
+      </c>
+      <c r="O391">
+        <v>3.4</v>
+      </c>
+      <c r="P391">
+        <v>4.75</v>
+      </c>
+      <c r="Q391">
+        <v>-0.5</v>
+      </c>
+      <c r="R391">
+        <v>1.8</v>
+      </c>
+      <c r="S391">
+        <v>2.05</v>
+      </c>
+      <c r="T391">
+        <v>2</v>
+      </c>
+      <c r="U391">
+        <v>1.8</v>
+      </c>
+      <c r="V391">
+        <v>2.05</v>
+      </c>
+      <c r="W391">
+        <v>0</v>
+      </c>
+      <c r="X391">
+        <v>0</v>
+      </c>
+      <c r="Y391">
+        <v>0</v>
+      </c>
+      <c r="Z391">
+        <v>0</v>
+      </c>
+      <c r="AA391">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,10 +18986,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19001,61 +19001,61 @@
         <v>53</v>
       </c>
       <c r="K208">
+        <v>2.6</v>
+      </c>
+      <c r="L208">
+        <v>2.875</v>
+      </c>
+      <c r="M208">
+        <v>2.8</v>
+      </c>
+      <c r="N208">
+        <v>2.8</v>
+      </c>
+      <c r="O208">
         <v>3.2</v>
       </c>
-      <c r="L208">
-        <v>3.1</v>
-      </c>
-      <c r="M208">
+      <c r="P208">
+        <v>2.625</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>2.025</v>
+      </c>
+      <c r="V208">
+        <v>1.825</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
         <v>2.2</v>
       </c>
-      <c r="N208">
-        <v>3.6</v>
-      </c>
-      <c r="O208">
-        <v>3</v>
-      </c>
-      <c r="P208">
-        <v>2.25</v>
-      </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.95</v>
-      </c>
-      <c r="S208">
-        <v>1.9</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>2</v>
-      </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N210">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.925</v>
       </c>
-      <c r="S210">
-        <v>1.875</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>1.825</v>
-      </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.925</v>
-      </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
-      <c r="AB210">
-        <v>0.825</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
         <v>1.9</v>
       </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404218</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,49 +19342,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P212">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
         <v>2.025</v>
@@ -19393,19 +19393,19 @@
         <v>1.825</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404215</v>
+        <v>7404213</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
         <v>1</v>
-      </c>
-      <c r="I213">
-        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>6.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
+        <v>1.75</v>
+      </c>
+      <c r="O215">
         <v>3.6</v>
       </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,16 +19666,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,49 +19698,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
+        <v>3.6</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
         <v>2.1</v>
       </c>
-      <c r="O216">
-        <v>3.1</v>
-      </c>
-      <c r="P216">
-        <v>3.8</v>
-      </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
         <v>1.85</v>
@@ -19749,19 +19749,19 @@
         <v>1.95</v>
       </c>
       <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
         <v>1.1</v>
       </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
-      <c r="Y216">
-        <v>-1</v>
-      </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
         <v>0.8500000000000001</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L217">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N217">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P217">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -34662,10 +34662,10 @@
         <v>-0.75</v>
       </c>
       <c r="R384">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S384">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T384">
         <v>2.25</v>
@@ -34884,10 +34884,10 @@
         <v>-0.5</v>
       </c>
       <c r="R387">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S387">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T387">
         <v>2.25</v>
@@ -34946,31 +34946,31 @@
         <v>3.8</v>
       </c>
       <c r="N388">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O388">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P388">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q388">
         <v>-0.5</v>
       </c>
       <c r="R388">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S388">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T388">
         <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V388">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -35041,10 +35041,10 @@
         <v>2</v>
       </c>
       <c r="U389">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V389">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W389">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -34582,16 +34582,16 @@
         <v>3</v>
       </c>
       <c r="P383">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q383">
         <v>0</v>
       </c>
       <c r="R383">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S383">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T383">
         <v>2.25</v>
@@ -34656,25 +34656,25 @@
         <v>3.5</v>
       </c>
       <c r="P384">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q384">
         <v>-0.75</v>
       </c>
       <c r="R384">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S384">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34730,7 +34730,7 @@
         <v>3</v>
       </c>
       <c r="P385">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q385">
         <v>-0.25</v>
@@ -34798,31 +34798,31 @@
         <v>4</v>
       </c>
       <c r="N386">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O386">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P386">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q386">
         <v>-0.5</v>
       </c>
       <c r="R386">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S386">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T386">
         <v>2</v>
       </c>
       <c r="U386">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V386">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34884,10 +34884,10 @@
         <v>-0.5</v>
       </c>
       <c r="R387">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S387">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T387">
         <v>2.25</v>
@@ -34958,10 +34958,10 @@
         <v>-0.5</v>
       </c>
       <c r="R388">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S388">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T388">
         <v>2.25</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -34576,31 +34576,31 @@
         <v>2.8</v>
       </c>
       <c r="N383">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O383">
         <v>3</v>
       </c>
       <c r="P383">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q383">
         <v>0</v>
       </c>
       <c r="R383">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S383">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V383">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34736,19 +34736,19 @@
         <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S385">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T385">
         <v>2</v>
       </c>
       <c r="U385">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V385">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34798,22 +34798,22 @@
         <v>4</v>
       </c>
       <c r="N386">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O386">
         <v>3.1</v>
       </c>
       <c r="P386">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q386">
         <v>-0.5</v>
       </c>
       <c r="R386">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S386">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T386">
         <v>2</v>
@@ -34875,7 +34875,7 @@
         <v>2</v>
       </c>
       <c r="O387">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P387">
         <v>4</v>
@@ -34946,22 +34946,22 @@
         <v>3.8</v>
       </c>
       <c r="N388">
+        <v>1.727</v>
+      </c>
+      <c r="O388">
+        <v>3.6</v>
+      </c>
+      <c r="P388">
+        <v>5</v>
+      </c>
+      <c r="Q388">
+        <v>-0.75</v>
+      </c>
+      <c r="R388">
+        <v>2</v>
+      </c>
+      <c r="S388">
         <v>1.85</v>
-      </c>
-      <c r="O388">
-        <v>3.4</v>
-      </c>
-      <c r="P388">
-        <v>4.5</v>
-      </c>
-      <c r="Q388">
-        <v>-0.5</v>
-      </c>
-      <c r="R388">
-        <v>1.85</v>
-      </c>
-      <c r="S388">
-        <v>2</v>
       </c>
       <c r="T388">
         <v>2.25</v>
@@ -35094,7 +35094,7 @@
         <v>2.875</v>
       </c>
       <c r="N390">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O390">
         <v>3</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC391"/>
+  <dimension ref="A1:AC389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404212</v>
+        <v>7404217</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K208">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
         <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X208">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N209">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.925</v>
       </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
-      </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.925</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>0.825</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L210">
         <v>3.1</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N210">
+        <v>3.6</v>
+      </c>
+      <c r="O210">
+        <v>3</v>
+      </c>
+      <c r="P210">
         <v>2.25</v>
       </c>
-      <c r="O210">
-        <v>3.2</v>
-      </c>
-      <c r="P210">
-        <v>3.3</v>
-      </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
         <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,10 +19253,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19268,61 +19268,61 @@
         <v>53</v>
       </c>
       <c r="K211">
+        <v>2.6</v>
+      </c>
+      <c r="L211">
+        <v>2.875</v>
+      </c>
+      <c r="M211">
+        <v>2.8</v>
+      </c>
+      <c r="N211">
+        <v>2.8</v>
+      </c>
+      <c r="O211">
         <v>3.2</v>
       </c>
-      <c r="L211">
-        <v>3.1</v>
-      </c>
-      <c r="M211">
+      <c r="P211">
+        <v>2.625</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.875</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
         <v>2.2</v>
       </c>
-      <c r="N211">
-        <v>3.6</v>
-      </c>
-      <c r="O211">
-        <v>3</v>
-      </c>
-      <c r="P211">
-        <v>2.25</v>
-      </c>
-      <c r="Q211">
-        <v>0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.95</v>
-      </c>
-      <c r="S211">
-        <v>1.9</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.875</v>
-      </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>2</v>
-      </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,76 +19431,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
         <v>3.1</v>
       </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
         <v>2</v>
       </c>
       <c r="U213">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,73 +19520,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,16 +19666,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
+        <v>1.444</v>
+      </c>
+      <c r="L216">
+        <v>4.5</v>
+      </c>
+      <c r="M216">
+        <v>6</v>
+      </c>
+      <c r="N216">
+        <v>1.363</v>
+      </c>
+      <c r="O216">
+        <v>5</v>
+      </c>
+      <c r="P216">
+        <v>7.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1.25</v>
+      </c>
+      <c r="R216">
+        <v>1.775</v>
+      </c>
+      <c r="S216">
+        <v>2.025</v>
+      </c>
+      <c r="T216">
         <v>3</v>
       </c>
-      <c r="L216">
-        <v>3.1</v>
-      </c>
-      <c r="M216">
-        <v>2.3</v>
-      </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
-      <c r="O216">
-        <v>3.4</v>
-      </c>
-      <c r="P216">
-        <v>2.1</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>2.025</v>
-      </c>
-      <c r="S216">
-        <v>1.775</v>
-      </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404215</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>6.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -34566,6 +34566,15 @@
       <c r="G383" t="s">
         <v>41</v>
       </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>1</v>
+      </c>
+      <c r="J383" t="s">
+        <v>53</v>
+      </c>
       <c r="K383">
         <v>2.7</v>
       </c>
@@ -34576,46 +34585,52 @@
         <v>2.8</v>
       </c>
       <c r="N383">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O383">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P383">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q383">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R383">
+        <v>1.75</v>
+      </c>
+      <c r="S383">
         <v>2.05</v>
-      </c>
-      <c r="S383">
-        <v>1.8</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V383">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X383">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA383">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB383">
+        <v>-0.5</v>
+      </c>
+      <c r="AC383">
+        <v>0.4</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34623,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7658959</v>
+        <v>7658961</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34632,49 +34647,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45387.84027777778</v>
+        <v>45388.75</v>
       </c>
       <c r="F384" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G384" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K384">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L384">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M384">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N384">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O384">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P384">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q384">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R384">
+        <v>1.975</v>
+      </c>
+      <c r="S384">
         <v>1.875</v>
       </c>
-      <c r="S384">
+      <c r="T384">
+        <v>2</v>
+      </c>
+      <c r="U384">
         <v>1.975</v>
       </c>
-      <c r="T384">
-        <v>2.25</v>
-      </c>
-      <c r="U384">
-        <v>2</v>
-      </c>
       <c r="V384">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34697,7 +34712,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7658903</v>
+        <v>7658958</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34706,49 +34721,49 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45387.93055555555</v>
+        <v>45388.84027777778</v>
       </c>
       <c r="F385" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G385" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K385">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L385">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M385">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N385">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O385">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P385">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q385">
         <v>-0.25</v>
       </c>
       <c r="R385">
+        <v>1.775</v>
+      </c>
+      <c r="S385">
+        <v>2.1</v>
+      </c>
+      <c r="T385">
+        <v>2.25</v>
+      </c>
+      <c r="U385">
         <v>2.025</v>
       </c>
-      <c r="S385">
+      <c r="V385">
         <v>1.825</v>
-      </c>
-      <c r="T385">
-        <v>2</v>
-      </c>
-      <c r="U385">
-        <v>1.85</v>
-      </c>
-      <c r="V385">
-        <v>2</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34771,7 +34786,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7658961</v>
+        <v>7658960</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34780,49 +34795,49 @@
         <v>28</v>
       </c>
       <c r="E386" s="2">
-        <v>45388.75</v>
+        <v>45388.93055555555</v>
       </c>
       <c r="F386" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G386" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K386">
         <v>2.05</v>
       </c>
       <c r="L386">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M386">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N386">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="O386">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P386">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q386">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R386">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T386">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U386">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V386">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34845,7 +34860,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7658958</v>
+        <v>7736845</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34854,31 +34869,31 @@
         <v>28</v>
       </c>
       <c r="E387" s="2">
-        <v>45388.84027777778</v>
+        <v>45389.75</v>
       </c>
       <c r="F387" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G387" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K387">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L387">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M387">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N387">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P387">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q387">
         <v>-0.5</v>
@@ -34890,13 +34905,13 @@
         <v>1.825</v>
       </c>
       <c r="T387">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U387">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V387">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34919,7 +34934,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7658960</v>
+        <v>7658957</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34928,49 +34943,49 @@
         <v>28</v>
       </c>
       <c r="E388" s="2">
-        <v>45388.93055555555</v>
+        <v>45389.84027777778</v>
       </c>
       <c r="F388" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G388" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K388">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L388">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M388">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N388">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O388">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P388">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q388">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R388">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S388">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T388">
         <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V388">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -34993,7 +35008,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7736845</v>
+        <v>7658904</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35002,49 +35017,49 @@
         <v>28</v>
       </c>
       <c r="E389" s="2">
-        <v>45389.75</v>
+        <v>45389.93055555555</v>
       </c>
       <c r="F389" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G389" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K389">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L389">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M389">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N389">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O389">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P389">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q389">
         <v>-0.5</v>
       </c>
       <c r="R389">
+        <v>1.8</v>
+      </c>
+      <c r="S389">
         <v>2.05</v>
       </c>
-      <c r="S389">
+      <c r="T389">
+        <v>2</v>
+      </c>
+      <c r="U389">
         <v>1.8</v>
       </c>
-      <c r="T389">
-        <v>2</v>
-      </c>
-      <c r="U389">
-        <v>1.85</v>
-      </c>
       <c r="V389">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W389">
         <v>0</v>
@@ -35059,154 +35074,6 @@
         <v>0</v>
       </c>
       <c r="AA389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:27">
-      <c r="A390" s="1">
-        <v>388</v>
-      </c>
-      <c r="B390">
-        <v>7658957</v>
-      </c>
-      <c r="C390" t="s">
-        <v>28</v>
-      </c>
-      <c r="D390" t="s">
-        <v>28</v>
-      </c>
-      <c r="E390" s="2">
-        <v>45389.84027777778</v>
-      </c>
-      <c r="F390" t="s">
-        <v>46</v>
-      </c>
-      <c r="G390" t="s">
-        <v>31</v>
-      </c>
-      <c r="K390">
-        <v>2.625</v>
-      </c>
-      <c r="L390">
-        <v>3</v>
-      </c>
-      <c r="M390">
-        <v>2.875</v>
-      </c>
-      <c r="N390">
-        <v>2.7</v>
-      </c>
-      <c r="O390">
-        <v>3</v>
-      </c>
-      <c r="P390">
-        <v>2.875</v>
-      </c>
-      <c r="Q390">
-        <v>0</v>
-      </c>
-      <c r="R390">
-        <v>1.85</v>
-      </c>
-      <c r="S390">
-        <v>2</v>
-      </c>
-      <c r="T390">
-        <v>2.25</v>
-      </c>
-      <c r="U390">
-        <v>2.1</v>
-      </c>
-      <c r="V390">
-        <v>1.775</v>
-      </c>
-      <c r="W390">
-        <v>0</v>
-      </c>
-      <c r="X390">
-        <v>0</v>
-      </c>
-      <c r="Y390">
-        <v>0</v>
-      </c>
-      <c r="Z390">
-        <v>0</v>
-      </c>
-      <c r="AA390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:27">
-      <c r="A391" s="1">
-        <v>389</v>
-      </c>
-      <c r="B391">
-        <v>7658904</v>
-      </c>
-      <c r="C391" t="s">
-        <v>28</v>
-      </c>
-      <c r="D391" t="s">
-        <v>28</v>
-      </c>
-      <c r="E391" s="2">
-        <v>45389.93055555555</v>
-      </c>
-      <c r="F391" t="s">
-        <v>44</v>
-      </c>
-      <c r="G391" t="s">
-        <v>35</v>
-      </c>
-      <c r="K391">
-        <v>1.8</v>
-      </c>
-      <c r="L391">
-        <v>3.4</v>
-      </c>
-      <c r="M391">
-        <v>4.75</v>
-      </c>
-      <c r="N391">
-        <v>1.8</v>
-      </c>
-      <c r="O391">
-        <v>3.4</v>
-      </c>
-      <c r="P391">
-        <v>4.75</v>
-      </c>
-      <c r="Q391">
-        <v>-0.5</v>
-      </c>
-      <c r="R391">
-        <v>1.8</v>
-      </c>
-      <c r="S391">
-        <v>2.05</v>
-      </c>
-      <c r="T391">
-        <v>2</v>
-      </c>
-      <c r="U391">
-        <v>1.8</v>
-      </c>
-      <c r="V391">
-        <v>2.05</v>
-      </c>
-      <c r="W391">
-        <v>0</v>
-      </c>
-      <c r="X391">
-        <v>0</v>
-      </c>
-      <c r="Y391">
-        <v>0</v>
-      </c>
-      <c r="Z391">
-        <v>0</v>
-      </c>
-      <c r="AA391">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -34677,19 +34677,19 @@
         <v>-0.5</v>
       </c>
       <c r="R384">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S384">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T384">
         <v>2</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34739,22 +34739,22 @@
         <v>4</v>
       </c>
       <c r="N385">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O385">
         <v>3.3</v>
       </c>
       <c r="P385">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R385">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S385">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T385">
         <v>2.25</v>
@@ -34813,31 +34813,31 @@
         <v>3.8</v>
       </c>
       <c r="N386">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O386">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P386">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T386">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V386">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34887,13 +34887,13 @@
         <v>3.8</v>
       </c>
       <c r="N387">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O387">
         <v>3.1</v>
       </c>
       <c r="P387">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q387">
         <v>-0.5</v>
@@ -35035,31 +35035,31 @@
         <v>4.75</v>
       </c>
       <c r="N389">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O389">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P389">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q389">
         <v>-0.5</v>
       </c>
       <c r="R389">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S389">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T389">
         <v>2</v>
       </c>
       <c r="U389">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V389">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W389">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M208">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
         <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
+        <v>2.025</v>
+      </c>
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.825</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M209">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R209">
         <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K210">
+        <v>1.95</v>
+      </c>
+      <c r="L210">
         <v>3.2</v>
       </c>
-      <c r="L210">
-        <v>3.1</v>
-      </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
         <v>1.9</v>
       </c>
-      <c r="S212">
-        <v>1.95</v>
-      </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,76 +19431,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,73 +19520,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N214">
+        <v>2.1</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>3.8</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
         <v>1.75</v>
       </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>4.75</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N215">
         <v>3.6</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
+        <v>2.025</v>
+      </c>
+      <c r="S216">
         <v>1.775</v>
       </c>
-      <c r="S216">
-        <v>2.025</v>
-      </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
         <v>3.25</v>
       </c>
-      <c r="L217">
-        <v>3.1</v>
-      </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N217">
+        <v>1.75</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="O217">
-        <v>3.2</v>
-      </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7658961</v>
+        <v>7658959</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34647,72 +34647,87 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45388.75</v>
+        <v>45387.84027777778</v>
       </c>
       <c r="F384" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G384" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+      <c r="I384">
+        <v>2</v>
+      </c>
+      <c r="J384" t="s">
+        <v>55</v>
       </c>
       <c r="K384">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L384">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M384">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N384">
+        <v>1.666</v>
+      </c>
+      <c r="O384">
+        <v>3.5</v>
+      </c>
+      <c r="P384">
+        <v>5.75</v>
+      </c>
+      <c r="Q384">
+        <v>-0.75</v>
+      </c>
+      <c r="R384">
+        <v>1.9</v>
+      </c>
+      <c r="S384">
         <v>1.95</v>
       </c>
-      <c r="O384">
-        <v>3.1</v>
-      </c>
-      <c r="P384">
+      <c r="T384">
+        <v>2.25</v>
+      </c>
+      <c r="U384">
+        <v>2.025</v>
+      </c>
+      <c r="V384">
+        <v>1.825</v>
+      </c>
+      <c r="W384">
+        <v>-1</v>
+      </c>
+      <c r="X384">
+        <v>-1</v>
+      </c>
+      <c r="Y384">
         <v>4.75</v>
       </c>
-      <c r="Q384">
-        <v>-0.5</v>
-      </c>
-      <c r="R384">
-        <v>2.025</v>
-      </c>
-      <c r="S384">
-        <v>1.825</v>
-      </c>
-      <c r="T384">
-        <v>2</v>
-      </c>
-      <c r="U384">
-        <v>2</v>
-      </c>
-      <c r="V384">
-        <v>1.85</v>
-      </c>
-      <c r="W384">
-        <v>0</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>0</v>
-      </c>
       <c r="Z384">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB384">
+        <v>1.025</v>
+      </c>
+      <c r="AC384">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29">
       <c r="A385" s="1">
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7658958</v>
+        <v>7658903</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34721,72 +34736,87 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45388.84027777778</v>
+        <v>45387.93055555555</v>
       </c>
       <c r="F385" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G385" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="H385">
+        <v>2</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385" t="s">
+        <v>54</v>
       </c>
       <c r="K385">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L385">
+        <v>3</v>
+      </c>
+      <c r="M385">
         <v>3.2</v>
       </c>
-      <c r="M385">
-        <v>4</v>
-      </c>
       <c r="N385">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O385">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P385">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q385">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R385">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S385">
+        <v>1.925</v>
+      </c>
+      <c r="T385">
+        <v>2</v>
+      </c>
+      <c r="U385">
+        <v>1.975</v>
+      </c>
+      <c r="V385">
+        <v>1.875</v>
+      </c>
+      <c r="W385">
         <v>1.8</v>
       </c>
-      <c r="T385">
-        <v>2.25</v>
-      </c>
-      <c r="U385">
-        <v>2.025</v>
-      </c>
-      <c r="V385">
-        <v>1.825</v>
-      </c>
-      <c r="W385">
-        <v>0</v>
-      </c>
       <c r="X385">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y385">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB385">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC385">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29">
       <c r="A386" s="1">
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7658960</v>
+        <v>7658961</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34795,72 +34825,87 @@
         <v>28</v>
       </c>
       <c r="E386" s="2">
-        <v>45388.93055555555</v>
+        <v>45388.75</v>
       </c>
       <c r="F386" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G386" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386" t="s">
+        <v>55</v>
       </c>
       <c r="K386">
         <v>2.05</v>
       </c>
       <c r="L386">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M386">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N386">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O386">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P386">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R386">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S386">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T386">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U386">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V386">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB386">
+        <v>-1</v>
+      </c>
+      <c r="AC386">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29">
       <c r="A387" s="1">
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7736845</v>
+        <v>7658958</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34869,72 +34914,87 @@
         <v>28</v>
       </c>
       <c r="E387" s="2">
-        <v>45389.75</v>
+        <v>45388.84027777778</v>
       </c>
       <c r="F387" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G387" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="H387">
+        <v>2</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387" t="s">
+        <v>54</v>
       </c>
       <c r="K387">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L387">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M387">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N387">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O387">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P387">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q387">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R387">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S387">
         <v>1.825</v>
       </c>
       <c r="T387">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U387">
+        <v>1.95</v>
+      </c>
+      <c r="V387">
         <v>1.85</v>
       </c>
-      <c r="V387">
-        <v>2</v>
-      </c>
       <c r="W387">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X387">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB387">
+        <v>0.95</v>
+      </c>
+      <c r="AC387">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29">
       <c r="A388" s="1">
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7658957</v>
+        <v>7658960</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34943,67 +35003,82 @@
         <v>28</v>
       </c>
       <c r="E388" s="2">
-        <v>45389.84027777778</v>
+        <v>45388.93055555555</v>
       </c>
       <c r="F388" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G388" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="H388">
+        <v>4</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388" t="s">
+        <v>54</v>
       </c>
       <c r="K388">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L388">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M388">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N388">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O388">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P388">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q388">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R388">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S388">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U388">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V388">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W388">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X388">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y388">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB388">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC388">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -35035,31 +35110,31 @@
         <v>4.75</v>
       </c>
       <c r="N389">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O389">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P389">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q389">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R389">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S389">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T389">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U389">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V389">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W389">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC389"/>
+  <dimension ref="A1:AC401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>54</v>
       </c>
       <c r="K209">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K210">
+        <v>3.2</v>
+      </c>
+      <c r="L210">
+        <v>3.1</v>
+      </c>
+      <c r="M210">
+        <v>2.2</v>
+      </c>
+      <c r="N210">
+        <v>3.6</v>
+      </c>
+      <c r="O210">
+        <v>3</v>
+      </c>
+      <c r="P210">
+        <v>2.25</v>
+      </c>
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
         <v>1.95</v>
       </c>
-      <c r="L210">
-        <v>3.2</v>
-      </c>
-      <c r="M210">
-        <v>3.75</v>
-      </c>
-      <c r="N210">
-        <v>1.95</v>
-      </c>
-      <c r="O210">
-        <v>3.2</v>
-      </c>
-      <c r="P210">
-        <v>4.75</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
       <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>1.825</v>
       </c>
       <c r="V210">
         <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R211">
         <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404214</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,61 +19357,61 @@
         <v>53</v>
       </c>
       <c r="K212">
+        <v>2.6</v>
+      </c>
+      <c r="L212">
+        <v>2.875</v>
+      </c>
+      <c r="M212">
+        <v>2.8</v>
+      </c>
+      <c r="N212">
+        <v>2.8</v>
+      </c>
+      <c r="O212">
         <v>3.2</v>
       </c>
-      <c r="L212">
-        <v>3.1</v>
-      </c>
-      <c r="M212">
+      <c r="P212">
+        <v>2.625</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.875</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>2.2</v>
       </c>
-      <c r="N212">
-        <v>3.6</v>
-      </c>
-      <c r="O212">
-        <v>3</v>
-      </c>
-      <c r="P212">
-        <v>2.25</v>
-      </c>
-      <c r="Q212">
-        <v>0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.95</v>
-      </c>
-      <c r="S212">
-        <v>1.9</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.875</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,76 +19431,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
         <v>1</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N213">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O213">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
         <v>1.75</v>
       </c>
-      <c r="S214">
+      <c r="V214">
         <v>2.05</v>
       </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
       <c r="W214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M215">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
+        <v>1.75</v>
+      </c>
+      <c r="O216">
         <v>3.6</v>
       </c>
-      <c r="O216">
-        <v>3.4</v>
-      </c>
       <c r="P216">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,16 +19755,16 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L217">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,16 +19844,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -35083,72 +35083,1005 @@
         <v>387</v>
       </c>
       <c r="B389">
+        <v>7736845</v>
+      </c>
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F389" t="s">
+        <v>49</v>
+      </c>
+      <c r="G389" t="s">
+        <v>52</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389" t="s">
+        <v>53</v>
+      </c>
+      <c r="K389">
+        <v>2.15</v>
+      </c>
+      <c r="L389">
+        <v>3</v>
+      </c>
+      <c r="M389">
+        <v>3.8</v>
+      </c>
+      <c r="N389">
+        <v>1.666</v>
+      </c>
+      <c r="O389">
+        <v>3.4</v>
+      </c>
+      <c r="P389">
+        <v>6</v>
+      </c>
+      <c r="Q389">
+        <v>-0.75</v>
+      </c>
+      <c r="R389">
+        <v>1.825</v>
+      </c>
+      <c r="S389">
+        <v>1.975</v>
+      </c>
+      <c r="T389">
+        <v>2</v>
+      </c>
+      <c r="U389">
+        <v>1.825</v>
+      </c>
+      <c r="V389">
+        <v>1.975</v>
+      </c>
+      <c r="W389">
+        <v>-1</v>
+      </c>
+      <c r="X389">
+        <v>2.4</v>
+      </c>
+      <c r="Y389">
+        <v>-1</v>
+      </c>
+      <c r="Z389">
+        <v>-1</v>
+      </c>
+      <c r="AA389">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB389">
+        <v>-1</v>
+      </c>
+      <c r="AC389">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>7658957</v>
+      </c>
+      <c r="C390" t="s">
+        <v>28</v>
+      </c>
+      <c r="D390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45389.84027777778</v>
+      </c>
+      <c r="F390" t="s">
+        <v>46</v>
+      </c>
+      <c r="G390" t="s">
+        <v>31</v>
+      </c>
+      <c r="H390">
+        <v>2</v>
+      </c>
+      <c r="I390">
+        <v>2</v>
+      </c>
+      <c r="J390" t="s">
+        <v>53</v>
+      </c>
+      <c r="K390">
+        <v>2.625</v>
+      </c>
+      <c r="L390">
+        <v>3</v>
+      </c>
+      <c r="M390">
+        <v>2.875</v>
+      </c>
+      <c r="N390">
+        <v>2.55</v>
+      </c>
+      <c r="O390">
+        <v>3.1</v>
+      </c>
+      <c r="P390">
+        <v>3.1</v>
+      </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
+      <c r="R390">
+        <v>1.725</v>
+      </c>
+      <c r="S390">
+        <v>2.075</v>
+      </c>
+      <c r="T390">
+        <v>2.25</v>
+      </c>
+      <c r="U390">
+        <v>2.05</v>
+      </c>
+      <c r="V390">
+        <v>1.8</v>
+      </c>
+      <c r="W390">
+        <v>-1</v>
+      </c>
+      <c r="X390">
+        <v>2.1</v>
+      </c>
+      <c r="Y390">
+        <v>-1</v>
+      </c>
+      <c r="Z390">
+        <v>0</v>
+      </c>
+      <c r="AA390">
+        <v>-0</v>
+      </c>
+      <c r="AB390">
+        <v>1.05</v>
+      </c>
+      <c r="AC390">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
         <v>7658904</v>
       </c>
-      <c r="C389" t="s">
-        <v>28</v>
-      </c>
-      <c r="D389" t="s">
-        <v>28</v>
-      </c>
-      <c r="E389" s="2">
+      <c r="C391" t="s">
+        <v>28</v>
+      </c>
+      <c r="D391" t="s">
+        <v>28</v>
+      </c>
+      <c r="E391" s="2">
         <v>45389.93055555555</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F391" t="s">
         <v>44</v>
       </c>
-      <c r="G389" t="s">
+      <c r="G391" t="s">
         <v>35</v>
       </c>
-      <c r="K389">
+      <c r="H391">
+        <v>4</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391" t="s">
+        <v>54</v>
+      </c>
+      <c r="K391">
         <v>1.8</v>
       </c>
-      <c r="L389">
+      <c r="L391">
         <v>3.4</v>
       </c>
-      <c r="M389">
+      <c r="M391">
         <v>4.75</v>
       </c>
-      <c r="N389">
-        <v>1.571</v>
-      </c>
-      <c r="O389">
+      <c r="N391">
+        <v>1.666</v>
+      </c>
+      <c r="O391">
         <v>3.75</v>
       </c>
-      <c r="P389">
+      <c r="P391">
+        <v>5.5</v>
+      </c>
+      <c r="Q391">
+        <v>-0.75</v>
+      </c>
+      <c r="R391">
+        <v>1.775</v>
+      </c>
+      <c r="S391">
+        <v>2.025</v>
+      </c>
+      <c r="T391">
+        <v>2.75</v>
+      </c>
+      <c r="U391">
+        <v>1.825</v>
+      </c>
+      <c r="V391">
+        <v>1.975</v>
+      </c>
+      <c r="W391">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X391">
+        <v>-1</v>
+      </c>
+      <c r="Y391">
+        <v>-1</v>
+      </c>
+      <c r="Z391">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA391">
+        <v>-1</v>
+      </c>
+      <c r="AB391">
+        <v>0.825</v>
+      </c>
+      <c r="AC391">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>7658967</v>
+      </c>
+      <c r="C392" t="s">
+        <v>28</v>
+      </c>
+      <c r="D392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" s="2">
+        <v>45394.83680555555</v>
+      </c>
+      <c r="F392" t="s">
+        <v>43</v>
+      </c>
+      <c r="G392" t="s">
+        <v>33</v>
+      </c>
+      <c r="K392">
+        <v>1.8</v>
+      </c>
+      <c r="L392">
+        <v>3.4</v>
+      </c>
+      <c r="M392">
+        <v>4.75</v>
+      </c>
+      <c r="N392">
+        <v>1.8</v>
+      </c>
+      <c r="O392">
+        <v>3.4</v>
+      </c>
+      <c r="P392">
+        <v>4.75</v>
+      </c>
+      <c r="Q392">
+        <v>-0.75</v>
+      </c>
+      <c r="R392">
+        <v>2.05</v>
+      </c>
+      <c r="S392">
+        <v>1.8</v>
+      </c>
+      <c r="T392">
+        <v>2.25</v>
+      </c>
+      <c r="U392">
+        <v>1.975</v>
+      </c>
+      <c r="V392">
+        <v>1.875</v>
+      </c>
+      <c r="W392">
+        <v>0</v>
+      </c>
+      <c r="X392">
+        <v>0</v>
+      </c>
+      <c r="Y392">
+        <v>0</v>
+      </c>
+      <c r="Z392">
+        <v>0</v>
+      </c>
+      <c r="AA392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>7658969</v>
+      </c>
+      <c r="C393" t="s">
+        <v>28</v>
+      </c>
+      <c r="D393" t="s">
+        <v>28</v>
+      </c>
+      <c r="E393" s="2">
+        <v>45394.92708333334</v>
+      </c>
+      <c r="F393" t="s">
+        <v>48</v>
+      </c>
+      <c r="G393" t="s">
+        <v>36</v>
+      </c>
+      <c r="K393">
+        <v>3</v>
+      </c>
+      <c r="L393">
+        <v>3.2</v>
+      </c>
+      <c r="M393">
+        <v>2.4</v>
+      </c>
+      <c r="N393">
+        <v>3</v>
+      </c>
+      <c r="O393">
+        <v>3.2</v>
+      </c>
+      <c r="P393">
+        <v>2.4</v>
+      </c>
+      <c r="Q393">
+        <v>0.25</v>
+      </c>
+      <c r="R393">
+        <v>1.8</v>
+      </c>
+      <c r="S393">
+        <v>2.05</v>
+      </c>
+      <c r="T393">
+        <v>2.25</v>
+      </c>
+      <c r="U393">
+        <v>1.8</v>
+      </c>
+      <c r="V393">
+        <v>2.05</v>
+      </c>
+      <c r="W393">
+        <v>0</v>
+      </c>
+      <c r="X393">
+        <v>0</v>
+      </c>
+      <c r="Y393">
+        <v>0</v>
+      </c>
+      <c r="Z393">
+        <v>0</v>
+      </c>
+      <c r="AA393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>7658906</v>
+      </c>
+      <c r="C394" t="s">
+        <v>28</v>
+      </c>
+      <c r="D394" t="s">
+        <v>28</v>
+      </c>
+      <c r="E394" s="2">
+        <v>45395.66666666666</v>
+      </c>
+      <c r="F394" t="s">
+        <v>50</v>
+      </c>
+      <c r="G394" t="s">
+        <v>40</v>
+      </c>
+      <c r="K394">
+        <v>2.1</v>
+      </c>
+      <c r="L394">
+        <v>3.1</v>
+      </c>
+      <c r="M394">
+        <v>3.8</v>
+      </c>
+      <c r="N394">
+        <v>2.1</v>
+      </c>
+      <c r="O394">
+        <v>3.1</v>
+      </c>
+      <c r="P394">
+        <v>3.8</v>
+      </c>
+      <c r="Q394">
+        <v>-0.25</v>
+      </c>
+      <c r="R394">
+        <v>1.8</v>
+      </c>
+      <c r="S394">
+        <v>2.05</v>
+      </c>
+      <c r="T394">
+        <v>2</v>
+      </c>
+      <c r="U394">
+        <v>1.825</v>
+      </c>
+      <c r="V394">
+        <v>2.025</v>
+      </c>
+      <c r="W394">
+        <v>0</v>
+      </c>
+      <c r="X394">
+        <v>0</v>
+      </c>
+      <c r="Y394">
+        <v>0</v>
+      </c>
+      <c r="Z394">
+        <v>0</v>
+      </c>
+      <c r="AA394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>7658964</v>
+      </c>
+      <c r="C395" t="s">
+        <v>28</v>
+      </c>
+      <c r="D395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" s="2">
+        <v>45395.75694444445</v>
+      </c>
+      <c r="F395" t="s">
+        <v>42</v>
+      </c>
+      <c r="G395" t="s">
+        <v>30</v>
+      </c>
+      <c r="K395">
+        <v>2.2</v>
+      </c>
+      <c r="L395">
+        <v>3.1</v>
+      </c>
+      <c r="M395">
+        <v>3.5</v>
+      </c>
+      <c r="N395">
+        <v>2.2</v>
+      </c>
+      <c r="O395">
+        <v>3.1</v>
+      </c>
+      <c r="P395">
+        <v>3.5</v>
+      </c>
+      <c r="Q395">
+        <v>-0.25</v>
+      </c>
+      <c r="R395">
+        <v>1.85</v>
+      </c>
+      <c r="S395">
+        <v>2</v>
+      </c>
+      <c r="T395">
+        <v>2</v>
+      </c>
+      <c r="U395">
+        <v>1.9</v>
+      </c>
+      <c r="V395">
+        <v>1.95</v>
+      </c>
+      <c r="W395">
+        <v>0</v>
+      </c>
+      <c r="X395">
+        <v>0</v>
+      </c>
+      <c r="Y395">
+        <v>0</v>
+      </c>
+      <c r="Z395">
+        <v>0</v>
+      </c>
+      <c r="AA395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>7658966</v>
+      </c>
+      <c r="C396" t="s">
+        <v>28</v>
+      </c>
+      <c r="D396" t="s">
+        <v>28</v>
+      </c>
+      <c r="E396" s="2">
+        <v>45395.84722222222</v>
+      </c>
+      <c r="F396" t="s">
+        <v>39</v>
+      </c>
+      <c r="G396" t="s">
+        <v>37</v>
+      </c>
+      <c r="K396">
+        <v>1.4</v>
+      </c>
+      <c r="L396">
+        <v>4.75</v>
+      </c>
+      <c r="M396">
         <v>7</v>
       </c>
-      <c r="Q389">
-        <v>-1</v>
-      </c>
-      <c r="R389">
-        <v>1.975</v>
-      </c>
-      <c r="S389">
-        <v>1.875</v>
-      </c>
-      <c r="T389">
+      <c r="N396">
+        <v>1.4</v>
+      </c>
+      <c r="O396">
+        <v>4.75</v>
+      </c>
+      <c r="P396">
+        <v>7</v>
+      </c>
+      <c r="Q396">
+        <v>-1.25</v>
+      </c>
+      <c r="R396">
+        <v>1.9</v>
+      </c>
+      <c r="S396">
+        <v>1.95</v>
+      </c>
+      <c r="T396">
         <v>2.5</v>
       </c>
-      <c r="U389">
-        <v>1.775</v>
-      </c>
-      <c r="V389">
-        <v>2.1</v>
-      </c>
-      <c r="W389">
-        <v>0</v>
-      </c>
-      <c r="X389">
-        <v>0</v>
-      </c>
-      <c r="Y389">
-        <v>0</v>
-      </c>
-      <c r="Z389">
-        <v>0</v>
-      </c>
-      <c r="AA389">
+      <c r="U396">
+        <v>1.85</v>
+      </c>
+      <c r="V396">
+        <v>2</v>
+      </c>
+      <c r="W396">
+        <v>0</v>
+      </c>
+      <c r="X396">
+        <v>0</v>
+      </c>
+      <c r="Y396">
+        <v>0</v>
+      </c>
+      <c r="Z396">
+        <v>0</v>
+      </c>
+      <c r="AA396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>7658965</v>
+      </c>
+      <c r="C397" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45395.9375</v>
+      </c>
+      <c r="F397" t="s">
+        <v>41</v>
+      </c>
+      <c r="G397" t="s">
+        <v>46</v>
+      </c>
+      <c r="K397">
+        <v>1.615</v>
+      </c>
+      <c r="L397">
+        <v>3.6</v>
+      </c>
+      <c r="M397">
+        <v>5.75</v>
+      </c>
+      <c r="N397">
+        <v>1.615</v>
+      </c>
+      <c r="O397">
+        <v>3.6</v>
+      </c>
+      <c r="P397">
+        <v>5.75</v>
+      </c>
+      <c r="Q397">
+        <v>-0.75</v>
+      </c>
+      <c r="R397">
+        <v>1.825</v>
+      </c>
+      <c r="S397">
+        <v>2.025</v>
+      </c>
+      <c r="T397">
+        <v>2.25</v>
+      </c>
+      <c r="U397">
+        <v>2</v>
+      </c>
+      <c r="V397">
+        <v>1.85</v>
+      </c>
+      <c r="W397">
+        <v>0</v>
+      </c>
+      <c r="X397">
+        <v>0</v>
+      </c>
+      <c r="Y397">
+        <v>0</v>
+      </c>
+      <c r="Z397">
+        <v>0</v>
+      </c>
+      <c r="AA397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>7658970</v>
+      </c>
+      <c r="C398" t="s">
+        <v>28</v>
+      </c>
+      <c r="D398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="2">
+        <v>45396.66666666666</v>
+      </c>
+      <c r="F398" t="s">
+        <v>35</v>
+      </c>
+      <c r="G398" t="s">
+        <v>49</v>
+      </c>
+      <c r="K398">
+        <v>1.909</v>
+      </c>
+      <c r="L398">
+        <v>3.2</v>
+      </c>
+      <c r="M398">
+        <v>4.333</v>
+      </c>
+      <c r="N398">
+        <v>1.909</v>
+      </c>
+      <c r="O398">
+        <v>3.2</v>
+      </c>
+      <c r="P398">
+        <v>4.333</v>
+      </c>
+      <c r="Q398">
+        <v>-0.5</v>
+      </c>
+      <c r="R398">
+        <v>1.925</v>
+      </c>
+      <c r="S398">
+        <v>1.925</v>
+      </c>
+      <c r="T398">
+        <v>2</v>
+      </c>
+      <c r="U398">
+        <v>1.85</v>
+      </c>
+      <c r="V398">
+        <v>2</v>
+      </c>
+      <c r="W398">
+        <v>0</v>
+      </c>
+      <c r="X398">
+        <v>0</v>
+      </c>
+      <c r="Y398">
+        <v>0</v>
+      </c>
+      <c r="Z398">
+        <v>0</v>
+      </c>
+      <c r="AA398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>7658963</v>
+      </c>
+      <c r="C399" t="s">
+        <v>28</v>
+      </c>
+      <c r="D399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45396.75694444445</v>
+      </c>
+      <c r="F399" t="s">
+        <v>31</v>
+      </c>
+      <c r="G399" t="s">
+        <v>45</v>
+      </c>
+      <c r="K399">
+        <v>1.909</v>
+      </c>
+      <c r="L399">
+        <v>3.2</v>
+      </c>
+      <c r="M399">
+        <v>4.333</v>
+      </c>
+      <c r="N399">
+        <v>1.909</v>
+      </c>
+      <c r="O399">
+        <v>3.2</v>
+      </c>
+      <c r="P399">
+        <v>4.333</v>
+      </c>
+      <c r="Q399">
+        <v>-0.5</v>
+      </c>
+      <c r="R399">
+        <v>1.925</v>
+      </c>
+      <c r="S399">
+        <v>1.925</v>
+      </c>
+      <c r="T399">
+        <v>2.25</v>
+      </c>
+      <c r="U399">
+        <v>1.95</v>
+      </c>
+      <c r="V399">
+        <v>1.9</v>
+      </c>
+      <c r="W399">
+        <v>0</v>
+      </c>
+      <c r="X399">
+        <v>0</v>
+      </c>
+      <c r="Y399">
+        <v>0</v>
+      </c>
+      <c r="Z399">
+        <v>0</v>
+      </c>
+      <c r="AA399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>7658968</v>
+      </c>
+      <c r="C400" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400" s="2">
+        <v>45396.84722222222</v>
+      </c>
+      <c r="F400" t="s">
+        <v>29</v>
+      </c>
+      <c r="G400" t="s">
+        <v>32</v>
+      </c>
+      <c r="K400">
+        <v>3.1</v>
+      </c>
+      <c r="L400">
+        <v>2.9</v>
+      </c>
+      <c r="M400">
+        <v>2.5</v>
+      </c>
+      <c r="N400">
+        <v>3.1</v>
+      </c>
+      <c r="O400">
+        <v>3.2</v>
+      </c>
+      <c r="P400">
+        <v>2.3</v>
+      </c>
+      <c r="Q400">
+        <v>0.25</v>
+      </c>
+      <c r="R400">
+        <v>1.825</v>
+      </c>
+      <c r="S400">
+        <v>2.025</v>
+      </c>
+      <c r="T400">
+        <v>2.25</v>
+      </c>
+      <c r="U400">
+        <v>1.825</v>
+      </c>
+      <c r="V400">
+        <v>2.025</v>
+      </c>
+      <c r="W400">
+        <v>0</v>
+      </c>
+      <c r="X400">
+        <v>0</v>
+      </c>
+      <c r="Y400">
+        <v>0</v>
+      </c>
+      <c r="Z400">
+        <v>0</v>
+      </c>
+      <c r="AA400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>7736844</v>
+      </c>
+      <c r="C401" t="s">
+        <v>28</v>
+      </c>
+      <c r="D401" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45396.9375</v>
+      </c>
+      <c r="F401" t="s">
+        <v>52</v>
+      </c>
+      <c r="G401" t="s">
+        <v>44</v>
+      </c>
+      <c r="K401">
+        <v>2.6</v>
+      </c>
+      <c r="L401">
+        <v>3.1</v>
+      </c>
+      <c r="M401">
+        <v>2.8</v>
+      </c>
+      <c r="N401">
+        <v>2.6</v>
+      </c>
+      <c r="O401">
+        <v>3.1</v>
+      </c>
+      <c r="P401">
+        <v>2.8</v>
+      </c>
+      <c r="Q401">
+        <v>0</v>
+      </c>
+      <c r="R401">
+        <v>1.825</v>
+      </c>
+      <c r="S401">
+        <v>2.025</v>
+      </c>
+      <c r="T401">
+        <v>2</v>
+      </c>
+      <c r="U401">
+        <v>1.85</v>
+      </c>
+      <c r="V401">
+        <v>2</v>
+      </c>
+      <c r="W401">
+        <v>0</v>
+      </c>
+      <c r="X401">
+        <v>0</v>
+      </c>
+      <c r="Y401">
+        <v>0</v>
+      </c>
+      <c r="Z401">
+        <v>0</v>
+      </c>
+      <c r="AA401">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
         <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
+        <v>2.025</v>
+      </c>
+      <c r="V209">
         <v>1.825</v>
       </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.825</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K210">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="S210">
-        <v>1.9</v>
-      </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
         <v>1.9</v>
       </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
         <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
         <v>1.775</v>
       </c>
-      <c r="S215">
-        <v>2.025</v>
-      </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L216">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P216">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N217">
+        <v>1.75</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="O217">
-        <v>3.4</v>
-      </c>
       <c r="P217">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,16 +19844,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -35525,31 +35525,31 @@
         <v>3.8</v>
       </c>
       <c r="N394">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O394">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P394">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q394">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
+        <v>1.925</v>
+      </c>
+      <c r="S394">
+        <v>1.925</v>
+      </c>
+      <c r="T394">
+        <v>2</v>
+      </c>
+      <c r="U394">
         <v>1.8</v>
       </c>
-      <c r="S394">
+      <c r="V394">
         <v>2.05</v>
-      </c>
-      <c r="T394">
-        <v>2</v>
-      </c>
-      <c r="U394">
-        <v>1.825</v>
-      </c>
-      <c r="V394">
-        <v>2.025</v>
       </c>
       <c r="W394">
         <v>0</v>
@@ -35620,10 +35620,10 @@
         <v>2</v>
       </c>
       <c r="U395">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V395">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W395">
         <v>0</v>
@@ -35685,10 +35685,10 @@
         <v>-1.25</v>
       </c>
       <c r="R396">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S396">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T396">
         <v>2.5</v>
@@ -35759,19 +35759,19 @@
         <v>-0.75</v>
       </c>
       <c r="R397">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S397">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T397">
         <v>2.25</v>
       </c>
       <c r="U397">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V397">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W397">
         <v>0</v>
@@ -35842,10 +35842,10 @@
         <v>2</v>
       </c>
       <c r="U398">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V398">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>2.5</v>
       </c>
       <c r="N400">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O400">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P400">
         <v>2.3</v>
@@ -35987,13 +35987,13 @@
         <v>2.025</v>
       </c>
       <c r="T400">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U400">
+        <v>2.025</v>
+      </c>
+      <c r="V400">
         <v>1.825</v>
-      </c>
-      <c r="V400">
-        <v>2.025</v>
       </c>
       <c r="W400">
         <v>0</v>
@@ -36064,10 +36064,10 @@
         <v>2</v>
       </c>
       <c r="U401">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V401">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W401">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -35611,10 +35611,10 @@
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S395">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T395">
         <v>2</v>
@@ -35833,19 +35833,19 @@
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S398">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V398">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35907,10 +35907,10 @@
         <v>-0.5</v>
       </c>
       <c r="R399">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S399">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T399">
         <v>2.25</v>
@@ -35969,31 +35969,31 @@
         <v>2.5</v>
       </c>
       <c r="N400">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O400">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P400">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q400">
         <v>0.25</v>
       </c>
       <c r="R400">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S400">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T400">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U400">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V400">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W400">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L208">
         <v>3.1</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N208">
+        <v>3.6</v>
+      </c>
+      <c r="O208">
+        <v>3</v>
+      </c>
+      <c r="P208">
         <v>2.25</v>
       </c>
-      <c r="O208">
-        <v>3.2</v>
-      </c>
-      <c r="P208">
-        <v>3.3</v>
-      </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
         <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K211">
+        <v>1.95</v>
+      </c>
+      <c r="L211">
         <v>3.2</v>
       </c>
-      <c r="L211">
-        <v>3.1</v>
-      </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
         <v>1.975</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N212">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.925</v>
       </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.925</v>
-      </c>
-      <c r="AA212">
-        <v>-1</v>
-      </c>
-      <c r="AB212">
-        <v>0.825</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,19 +19577,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
+        <v>3.6</v>
+      </c>
+      <c r="O217">
+        <v>3.2</v>
+      </c>
+      <c r="P217">
+        <v>2.15</v>
+      </c>
+      <c r="Q217">
+        <v>0.25</v>
+      </c>
+      <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.825</v>
+      </c>
+      <c r="T217">
+        <v>2</v>
+      </c>
+      <c r="U217">
         <v>1.75</v>
       </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>4.75</v>
-      </c>
-      <c r="Q217">
-        <v>-0.75</v>
-      </c>
-      <c r="R217">
-        <v>2</v>
-      </c>
-      <c r="S217">
-        <v>1.8</v>
-      </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
-      <c r="U217">
-        <v>2</v>
-      </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -35389,19 +35389,19 @@
         <v>-0.75</v>
       </c>
       <c r="R392">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S392">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V392">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W392">
         <v>0</v>
@@ -35451,31 +35451,31 @@
         <v>2.4</v>
       </c>
       <c r="N393">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O393">
         <v>3.2</v>
       </c>
       <c r="P393">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q393">
         <v>0.25</v>
       </c>
       <c r="R393">
+        <v>1.825</v>
+      </c>
+      <c r="S393">
+        <v>2.025</v>
+      </c>
+      <c r="T393">
+        <v>2.5</v>
+      </c>
+      <c r="U393">
+        <v>2.05</v>
+      </c>
+      <c r="V393">
         <v>1.8</v>
-      </c>
-      <c r="S393">
-        <v>2.05</v>
-      </c>
-      <c r="T393">
-        <v>2.25</v>
-      </c>
-      <c r="U393">
-        <v>1.8</v>
-      </c>
-      <c r="V393">
-        <v>2.05</v>
       </c>
       <c r="W393">
         <v>0</v>
@@ -35537,10 +35537,10 @@
         <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S394">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T394">
         <v>2</v>
@@ -35611,10 +35611,10 @@
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S395">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T395">
         <v>2</v>
@@ -35685,10 +35685,10 @@
         <v>-1.25</v>
       </c>
       <c r="R396">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S396">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T396">
         <v>2.5</v>
@@ -35821,31 +35821,31 @@
         <v>4.333</v>
       </c>
       <c r="N398">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O398">
         <v>3.2</v>
       </c>
       <c r="P398">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S398">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V398">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35981,19 +35981,19 @@
         <v>0.25</v>
       </c>
       <c r="R400">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S400">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T400">
         <v>2.25</v>
       </c>
       <c r="U400">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V400">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W400">
         <v>0</v>
@@ -36064,10 +36064,10 @@
         <v>2</v>
       </c>
       <c r="U401">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V401">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W401">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N209">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>54</v>
       </c>
       <c r="K210">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L210">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404217</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,58 +19253,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>54</v>
       </c>
       <c r="K211">
+        <v>1.363</v>
+      </c>
+      <c r="L211">
+        <v>4.5</v>
+      </c>
+      <c r="M211">
+        <v>7</v>
+      </c>
+      <c r="N211">
+        <v>1.3</v>
+      </c>
+      <c r="O211">
+        <v>5</v>
+      </c>
+      <c r="P211">
+        <v>12</v>
+      </c>
+      <c r="Q211">
+        <v>-1.5</v>
+      </c>
+      <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
         <v>1.95</v>
       </c>
-      <c r="L211">
-        <v>3.2</v>
-      </c>
-      <c r="M211">
-        <v>3.75</v>
-      </c>
-      <c r="N211">
-        <v>1.95</v>
-      </c>
-      <c r="O211">
-        <v>3.2</v>
-      </c>
-      <c r="P211">
-        <v>4.75</v>
-      </c>
-      <c r="Q211">
-        <v>-0.5</v>
-      </c>
-      <c r="R211">
-        <v>1.925</v>
-      </c>
-      <c r="S211">
-        <v>1.875</v>
-      </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19313,16 +19313,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
         <v>0.825</v>
-      </c>
-      <c r="AC211">
-        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,73 +19431,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>55</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>3.25</v>
+      </c>
+      <c r="M213">
+        <v>3.5</v>
+      </c>
+      <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
+        <v>3.6</v>
+      </c>
+      <c r="P213">
+        <v>4.75</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>3.75</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.8</v>
+      </c>
+      <c r="AB213">
         <v>1</v>
-      </c>
-      <c r="J213" t="s">
-        <v>54</v>
-      </c>
-      <c r="K213">
-        <v>2.4</v>
-      </c>
-      <c r="L213">
-        <v>3.1</v>
-      </c>
-      <c r="M213">
-        <v>2.875</v>
-      </c>
-      <c r="N213">
-        <v>2.1</v>
-      </c>
-      <c r="O213">
-        <v>3.1</v>
-      </c>
-      <c r="P213">
-        <v>3.8</v>
-      </c>
-      <c r="Q213">
-        <v>-0.25</v>
-      </c>
-      <c r="R213">
-        <v>1.75</v>
-      </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
-      <c r="U213">
-        <v>1.85</v>
-      </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
-      <c r="W213">
-        <v>1.1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>0.75</v>
-      </c>
-      <c r="AA213">
-        <v>-1</v>
-      </c>
-      <c r="AB213">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,49 +19609,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
         <v>1.85</v>
@@ -19660,19 +19660,19 @@
         <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>0.8500000000000001</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L216">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,16 +19755,16 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -35377,22 +35377,22 @@
         <v>4.75</v>
       </c>
       <c r="N392">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O392">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P392">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q392">
         <v>-0.75</v>
       </c>
       <c r="R392">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S392">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T392">
         <v>2.25</v>
@@ -35451,31 +35451,31 @@
         <v>2.4</v>
       </c>
       <c r="N393">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O393">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P393">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q393">
         <v>0.25</v>
       </c>
       <c r="R393">
+        <v>2</v>
+      </c>
+      <c r="S393">
+        <v>1.85</v>
+      </c>
+      <c r="T393">
+        <v>2.25</v>
+      </c>
+      <c r="U393">
         <v>1.825</v>
       </c>
-      <c r="S393">
+      <c r="V393">
         <v>2.025</v>
-      </c>
-      <c r="T393">
-        <v>2.5</v>
-      </c>
-      <c r="U393">
-        <v>2.05</v>
-      </c>
-      <c r="V393">
-        <v>1.8</v>
       </c>
       <c r="W393">
         <v>0</v>
@@ -35525,7 +35525,7 @@
         <v>3.8</v>
       </c>
       <c r="N394">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O394">
         <v>3.2</v>
@@ -35537,19 +35537,19 @@
         <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S394">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T394">
         <v>2</v>
       </c>
       <c r="U394">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V394">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W394">
         <v>0</v>
@@ -35605,25 +35605,25 @@
         <v>3.1</v>
       </c>
       <c r="P395">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q395">
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S395">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T395">
         <v>2</v>
       </c>
       <c r="U395">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V395">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W395">
         <v>0</v>
@@ -35679,7 +35679,7 @@
         <v>4.75</v>
       </c>
       <c r="P396">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q396">
         <v>-1.25</v>
@@ -35747,22 +35747,22 @@
         <v>5.75</v>
       </c>
       <c r="N397">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O397">
         <v>3.6</v>
       </c>
       <c r="P397">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q397">
         <v>-0.75</v>
       </c>
       <c r="R397">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S397">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T397">
         <v>2.25</v>
@@ -35821,13 +35821,13 @@
         <v>4.333</v>
       </c>
       <c r="N398">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O398">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P398">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
@@ -35842,10 +35842,10 @@
         <v>2</v>
       </c>
       <c r="U398">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V398">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35895,10 +35895,10 @@
         <v>4.333</v>
       </c>
       <c r="N399">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O399">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P399">
         <v>4.333</v>
@@ -35969,22 +35969,22 @@
         <v>2.5</v>
       </c>
       <c r="N400">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O400">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P400">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q400">
         <v>0.25</v>
       </c>
       <c r="R400">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S400">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T400">
         <v>2.25</v>
@@ -36043,22 +36043,22 @@
         <v>2.8</v>
       </c>
       <c r="N401">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O401">
         <v>3.1</v>
       </c>
       <c r="P401">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q401">
         <v>0</v>
       </c>
       <c r="R401">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S401">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T401">
         <v>2</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC401"/>
+  <dimension ref="A1:AC399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L208">
         <v>3.1</v>
       </c>
       <c r="M208">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
         <v>1.9</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z208">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404212</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O209">
         <v>3.2</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,61 +19357,61 @@
         <v>53</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.875</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,73 +19431,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N213">
+        <v>2.1</v>
+      </c>
+      <c r="O213">
+        <v>3.1</v>
+      </c>
+      <c r="P213">
+        <v>3.8</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>4.75</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O214">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,19 +19577,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,76 +19609,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M215">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P215">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z215">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N216">
         <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
         <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -35350,7 +35350,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7658967</v>
+        <v>7658906</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,49 +35359,49 @@
         <v>28</v>
       </c>
       <c r="E392" s="2">
-        <v>45394.83680555555</v>
+        <v>45395.66666666666</v>
       </c>
       <c r="F392" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G392" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K392">
+        <v>2.1</v>
+      </c>
+      <c r="L392">
+        <v>3.1</v>
+      </c>
+      <c r="M392">
+        <v>3.8</v>
+      </c>
+      <c r="N392">
+        <v>1.85</v>
+      </c>
+      <c r="O392">
+        <v>3.3</v>
+      </c>
+      <c r="P392">
+        <v>4.75</v>
+      </c>
+      <c r="Q392">
+        <v>-0.5</v>
+      </c>
+      <c r="R392">
+        <v>1.925</v>
+      </c>
+      <c r="S392">
+        <v>1.925</v>
+      </c>
+      <c r="T392">
+        <v>2</v>
+      </c>
+      <c r="U392">
         <v>1.8</v>
       </c>
-      <c r="L392">
-        <v>3.4</v>
-      </c>
-      <c r="M392">
-        <v>4.75</v>
-      </c>
-      <c r="N392">
-        <v>1.615</v>
-      </c>
-      <c r="O392">
-        <v>3.6</v>
-      </c>
-      <c r="P392">
-        <v>6.5</v>
-      </c>
-      <c r="Q392">
-        <v>-0.75</v>
-      </c>
-      <c r="R392">
-        <v>1.825</v>
-      </c>
-      <c r="S392">
-        <v>2.025</v>
-      </c>
-      <c r="T392">
-        <v>2.25</v>
-      </c>
-      <c r="U392">
-        <v>1.95</v>
-      </c>
       <c r="V392">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W392">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7658969</v>
+        <v>7658964</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,49 +35433,49 @@
         <v>28</v>
       </c>
       <c r="E393" s="2">
-        <v>45394.92708333334</v>
+        <v>45395.75694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K393">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L393">
+        <v>3.1</v>
+      </c>
+      <c r="M393">
+        <v>3.5</v>
+      </c>
+      <c r="N393">
+        <v>2.05</v>
+      </c>
+      <c r="O393">
         <v>3.2</v>
       </c>
-      <c r="M393">
-        <v>2.4</v>
-      </c>
-      <c r="N393">
-        <v>3.5</v>
-      </c>
-      <c r="O393">
-        <v>3.25</v>
-      </c>
       <c r="P393">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q393">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S393">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T393">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U393">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V393">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W393">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7658906</v>
+        <v>7658966</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35507,49 +35507,49 @@
         <v>28</v>
       </c>
       <c r="E394" s="2">
-        <v>45395.66666666666</v>
+        <v>45395.84722222222</v>
       </c>
       <c r="F394" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G394" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L394">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M394">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N394">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O394">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P394">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q394">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R394">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S394">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T394">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
+        <v>2.025</v>
+      </c>
+      <c r="V394">
         <v>1.825</v>
-      </c>
-      <c r="V394">
-        <v>2.025</v>
       </c>
       <c r="W394">
         <v>0</v>
@@ -35572,7 +35572,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7658964</v>
+        <v>7658965</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35581,49 +35581,49 @@
         <v>28</v>
       </c>
       <c r="E395" s="2">
-        <v>45395.75694444445</v>
+        <v>45395.9375</v>
       </c>
       <c r="F395" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G395" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K395">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L395">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M395">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N395">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O395">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P395">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q395">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R395">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S395">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T395">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U395">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V395">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W395">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7658966</v>
+        <v>7658970</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35655,49 +35655,49 @@
         <v>28</v>
       </c>
       <c r="E396" s="2">
-        <v>45395.84722222222</v>
+        <v>45396.66666666666</v>
       </c>
       <c r="F396" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G396" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K396">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L396">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M396">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N396">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O396">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P396">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q396">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R396">
+        <v>2.025</v>
+      </c>
+      <c r="S396">
+        <v>1.825</v>
+      </c>
+      <c r="T396">
+        <v>2</v>
+      </c>
+      <c r="U396">
         <v>1.9</v>
       </c>
-      <c r="S396">
+      <c r="V396">
         <v>1.95</v>
-      </c>
-      <c r="T396">
-        <v>2.5</v>
-      </c>
-      <c r="U396">
-        <v>1.85</v>
-      </c>
-      <c r="V396">
-        <v>2</v>
       </c>
       <c r="W396">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7658965</v>
+        <v>7658963</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35729,40 +35729,40 @@
         <v>28</v>
       </c>
       <c r="E397" s="2">
-        <v>45395.9375</v>
+        <v>45396.75694444445</v>
       </c>
       <c r="F397" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G397" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K397">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L397">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M397">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="N397">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O397">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P397">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q397">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R397">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S397">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T397">
         <v>2.25</v>
@@ -35794,7 +35794,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7658970</v>
+        <v>7658968</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35803,49 +35803,49 @@
         <v>28</v>
       </c>
       <c r="E398" s="2">
-        <v>45396.66666666666</v>
+        <v>45396.84722222222</v>
       </c>
       <c r="F398" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G398" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K398">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L398">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M398">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N398">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O398">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P398">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q398">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R398">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S398">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T398">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U398">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V398">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35868,7 +35868,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7658963</v>
+        <v>7736844</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35877,49 +35877,49 @@
         <v>28</v>
       </c>
       <c r="E399" s="2">
-        <v>45396.75694444445</v>
+        <v>45396.9375</v>
       </c>
       <c r="F399" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G399" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K399">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L399">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M399">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N399">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O399">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P399">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q399">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R399">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S399">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T399">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U399">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V399">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W399">
         <v>0</v>
@@ -35934,154 +35934,6 @@
         <v>0</v>
       </c>
       <c r="AA399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:29">
-      <c r="A400" s="1">
-        <v>398</v>
-      </c>
-      <c r="B400">
-        <v>7658968</v>
-      </c>
-      <c r="C400" t="s">
-        <v>28</v>
-      </c>
-      <c r="D400" t="s">
-        <v>28</v>
-      </c>
-      <c r="E400" s="2">
-        <v>45396.84722222222</v>
-      </c>
-      <c r="F400" t="s">
-        <v>29</v>
-      </c>
-      <c r="G400" t="s">
-        <v>32</v>
-      </c>
-      <c r="K400">
-        <v>3.1</v>
-      </c>
-      <c r="L400">
-        <v>2.9</v>
-      </c>
-      <c r="M400">
-        <v>2.5</v>
-      </c>
-      <c r="N400">
-        <v>3.2</v>
-      </c>
-      <c r="O400">
-        <v>3.25</v>
-      </c>
-      <c r="P400">
-        <v>2.3</v>
-      </c>
-      <c r="Q400">
-        <v>0.25</v>
-      </c>
-      <c r="R400">
-        <v>1.8</v>
-      </c>
-      <c r="S400">
-        <v>2.05</v>
-      </c>
-      <c r="T400">
-        <v>2.25</v>
-      </c>
-      <c r="U400">
-        <v>1.975</v>
-      </c>
-      <c r="V400">
-        <v>1.875</v>
-      </c>
-      <c r="W400">
-        <v>0</v>
-      </c>
-      <c r="X400">
-        <v>0</v>
-      </c>
-      <c r="Y400">
-        <v>0</v>
-      </c>
-      <c r="Z400">
-        <v>0</v>
-      </c>
-      <c r="AA400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:27">
-      <c r="A401" s="1">
-        <v>399</v>
-      </c>
-      <c r="B401">
-        <v>7736844</v>
-      </c>
-      <c r="C401" t="s">
-        <v>28</v>
-      </c>
-      <c r="D401" t="s">
-        <v>28</v>
-      </c>
-      <c r="E401" s="2">
-        <v>45396.9375</v>
-      </c>
-      <c r="F401" t="s">
-        <v>52</v>
-      </c>
-      <c r="G401" t="s">
-        <v>44</v>
-      </c>
-      <c r="K401">
-        <v>2.6</v>
-      </c>
-      <c r="L401">
-        <v>3.1</v>
-      </c>
-      <c r="M401">
-        <v>2.8</v>
-      </c>
-      <c r="N401">
-        <v>2.625</v>
-      </c>
-      <c r="O401">
-        <v>3.1</v>
-      </c>
-      <c r="P401">
-        <v>2.875</v>
-      </c>
-      <c r="Q401">
-        <v>0</v>
-      </c>
-      <c r="R401">
-        <v>1.875</v>
-      </c>
-      <c r="S401">
-        <v>1.975</v>
-      </c>
-      <c r="T401">
-        <v>2</v>
-      </c>
-      <c r="U401">
-        <v>1.8</v>
-      </c>
-      <c r="V401">
-        <v>2.05</v>
-      </c>
-      <c r="W401">
-        <v>0</v>
-      </c>
-      <c r="X401">
-        <v>0</v>
-      </c>
-      <c r="Y401">
-        <v>0</v>
-      </c>
-      <c r="Z401">
-        <v>0</v>
-      </c>
-      <c r="AA401">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC399"/>
+  <dimension ref="A1:AC396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K208">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L208">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O208">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P208">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R208">
         <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N210">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.925</v>
       </c>
-      <c r="S210">
-        <v>1.875</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>1.825</v>
-      </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.925</v>
-      </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
-      <c r="AB210">
-        <v>0.825</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,58 +19253,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>54</v>
       </c>
       <c r="K211">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19313,16 +19313,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,73 +19431,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
+        <v>3.6</v>
+      </c>
+      <c r="O214">
+        <v>3.2</v>
+      </c>
+      <c r="P214">
+        <v>2.15</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
         <v>1.75</v>
       </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>4.75</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>2</v>
-      </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,19 +19577,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
         <v>2</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -35350,7 +35350,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7658906</v>
+        <v>7658967</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,64 +35359,79 @@
         <v>28</v>
       </c>
       <c r="E392" s="2">
-        <v>45395.66666666666</v>
+        <v>45394.83680555555</v>
       </c>
       <c r="F392" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G392" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H392">
+        <v>2</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392" t="s">
+        <v>54</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L392">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M392">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N392">
+        <v>1.75</v>
+      </c>
+      <c r="O392">
+        <v>3.4</v>
+      </c>
+      <c r="P392">
+        <v>5.25</v>
+      </c>
+      <c r="Q392">
+        <v>-0.75</v>
+      </c>
+      <c r="R392">
+        <v>1.95</v>
+      </c>
+      <c r="S392">
         <v>1.85</v>
       </c>
-      <c r="O392">
-        <v>3.3</v>
-      </c>
-      <c r="P392">
-        <v>4.75</v>
-      </c>
-      <c r="Q392">
+      <c r="T392">
+        <v>2.25</v>
+      </c>
+      <c r="U392">
+        <v>1.95</v>
+      </c>
+      <c r="V392">
+        <v>1.85</v>
+      </c>
+      <c r="W392">
+        <v>0.75</v>
+      </c>
+      <c r="X392">
+        <v>-1</v>
+      </c>
+      <c r="Y392">
+        <v>-1</v>
+      </c>
+      <c r="Z392">
+        <v>0.475</v>
+      </c>
+      <c r="AA392">
         <v>-0.5</v>
       </c>
-      <c r="R392">
-        <v>1.925</v>
-      </c>
-      <c r="S392">
-        <v>1.925</v>
-      </c>
-      <c r="T392">
-        <v>2</v>
-      </c>
-      <c r="U392">
-        <v>1.8</v>
-      </c>
-      <c r="V392">
-        <v>2.05</v>
-      </c>
-      <c r="W392">
-        <v>0</v>
-      </c>
-      <c r="X392">
-        <v>0</v>
-      </c>
-      <c r="Y392">
-        <v>0</v>
-      </c>
-      <c r="Z392">
-        <v>0</v>
-      </c>
-      <c r="AA392">
-        <v>0</v>
+      <c r="AB392">
+        <v>0.95</v>
+      </c>
+      <c r="AC392">
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35424,7 +35439,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7658964</v>
+        <v>7658969</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,64 +35448,79 @@
         <v>28</v>
       </c>
       <c r="E393" s="2">
-        <v>45395.75694444445</v>
+        <v>45394.92708333334</v>
       </c>
       <c r="F393" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G393" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+      <c r="I393">
+        <v>1</v>
+      </c>
+      <c r="J393" t="s">
+        <v>53</v>
       </c>
       <c r="K393">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L393">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M393">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N393">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O393">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P393">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q393">
+        <v>0.25</v>
+      </c>
+      <c r="R393">
+        <v>2</v>
+      </c>
+      <c r="S393">
+        <v>1.85</v>
+      </c>
+      <c r="T393">
+        <v>2.25</v>
+      </c>
+      <c r="U393">
+        <v>1.825</v>
+      </c>
+      <c r="V393">
+        <v>2.025</v>
+      </c>
+      <c r="W393">
+        <v>-1</v>
+      </c>
+      <c r="X393">
+        <v>2.25</v>
+      </c>
+      <c r="Y393">
+        <v>-1</v>
+      </c>
+      <c r="Z393">
+        <v>0.5</v>
+      </c>
+      <c r="AA393">
         <v>-0.5</v>
       </c>
-      <c r="R393">
-        <v>2.1</v>
-      </c>
-      <c r="S393">
-        <v>1.775</v>
-      </c>
-      <c r="T393">
-        <v>2</v>
-      </c>
-      <c r="U393">
-        <v>1.9</v>
-      </c>
-      <c r="V393">
-        <v>1.95</v>
-      </c>
-      <c r="W393">
-        <v>0</v>
-      </c>
-      <c r="X393">
-        <v>0</v>
-      </c>
-      <c r="Y393">
-        <v>0</v>
-      </c>
-      <c r="Z393">
-        <v>0</v>
-      </c>
-      <c r="AA393">
-        <v>0</v>
+      <c r="AB393">
+        <v>-0.5</v>
+      </c>
+      <c r="AC393">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35498,7 +35528,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7658966</v>
+        <v>7658963</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35507,49 +35537,49 @@
         <v>28</v>
       </c>
       <c r="E394" s="2">
-        <v>45395.84722222222</v>
+        <v>45396.75694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K394">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L394">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M394">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N394">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O394">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P394">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q394">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S394">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U394">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V394">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W394">
         <v>0</v>
@@ -35572,7 +35602,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7658965</v>
+        <v>7658968</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35581,49 +35611,49 @@
         <v>28</v>
       </c>
       <c r="E395" s="2">
-        <v>45395.9375</v>
+        <v>45396.84722222222</v>
       </c>
       <c r="F395" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G395" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K395">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L395">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M395">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N395">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="O395">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P395">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q395">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R395">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S395">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T395">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U395">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V395">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W395">
         <v>0</v>
@@ -35646,7 +35676,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7658970</v>
+        <v>7736844</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35655,49 +35685,49 @@
         <v>28</v>
       </c>
       <c r="E396" s="2">
-        <v>45396.66666666666</v>
+        <v>45396.9375</v>
       </c>
       <c r="F396" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G396" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K396">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L396">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M396">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N396">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O396">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P396">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q396">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R396">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S396">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
         <v>2</v>
       </c>
       <c r="U396">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V396">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W396">
         <v>0</v>
@@ -35712,228 +35742,6 @@
         <v>0</v>
       </c>
       <c r="AA396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:29">
-      <c r="A397" s="1">
-        <v>395</v>
-      </c>
-      <c r="B397">
-        <v>7658963</v>
-      </c>
-      <c r="C397" t="s">
-        <v>28</v>
-      </c>
-      <c r="D397" t="s">
-        <v>28</v>
-      </c>
-      <c r="E397" s="2">
-        <v>45396.75694444445</v>
-      </c>
-      <c r="F397" t="s">
-        <v>31</v>
-      </c>
-      <c r="G397" t="s">
-        <v>45</v>
-      </c>
-      <c r="K397">
-        <v>1.909</v>
-      </c>
-      <c r="L397">
-        <v>3.2</v>
-      </c>
-      <c r="M397">
-        <v>4.333</v>
-      </c>
-      <c r="N397">
-        <v>2.3</v>
-      </c>
-      <c r="O397">
-        <v>3.1</v>
-      </c>
-      <c r="P397">
-        <v>3.5</v>
-      </c>
-      <c r="Q397">
-        <v>-0.25</v>
-      </c>
-      <c r="R397">
-        <v>1.95</v>
-      </c>
-      <c r="S397">
-        <v>1.9</v>
-      </c>
-      <c r="T397">
-        <v>2.25</v>
-      </c>
-      <c r="U397">
-        <v>1.975</v>
-      </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
-      <c r="W397">
-        <v>0</v>
-      </c>
-      <c r="X397">
-        <v>0</v>
-      </c>
-      <c r="Y397">
-        <v>0</v>
-      </c>
-      <c r="Z397">
-        <v>0</v>
-      </c>
-      <c r="AA397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:29">
-      <c r="A398" s="1">
-        <v>396</v>
-      </c>
-      <c r="B398">
-        <v>7658968</v>
-      </c>
-      <c r="C398" t="s">
-        <v>28</v>
-      </c>
-      <c r="D398" t="s">
-        <v>28</v>
-      </c>
-      <c r="E398" s="2">
-        <v>45396.84722222222</v>
-      </c>
-      <c r="F398" t="s">
-        <v>29</v>
-      </c>
-      <c r="G398" t="s">
-        <v>32</v>
-      </c>
-      <c r="K398">
-        <v>3.1</v>
-      </c>
-      <c r="L398">
-        <v>2.9</v>
-      </c>
-      <c r="M398">
-        <v>2.5</v>
-      </c>
-      <c r="N398">
-        <v>4</v>
-      </c>
-      <c r="O398">
-        <v>3.4</v>
-      </c>
-      <c r="P398">
-        <v>1.95</v>
-      </c>
-      <c r="Q398">
-        <v>0.5</v>
-      </c>
-      <c r="R398">
-        <v>1.875</v>
-      </c>
-      <c r="S398">
-        <v>1.975</v>
-      </c>
-      <c r="T398">
-        <v>2.25</v>
-      </c>
-      <c r="U398">
-        <v>2.1</v>
-      </c>
-      <c r="V398">
-        <v>1.775</v>
-      </c>
-      <c r="W398">
-        <v>0</v>
-      </c>
-      <c r="X398">
-        <v>0</v>
-      </c>
-      <c r="Y398">
-        <v>0</v>
-      </c>
-      <c r="Z398">
-        <v>0</v>
-      </c>
-      <c r="AA398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:29">
-      <c r="A399" s="1">
-        <v>397</v>
-      </c>
-      <c r="B399">
-        <v>7736844</v>
-      </c>
-      <c r="C399" t="s">
-        <v>28</v>
-      </c>
-      <c r="D399" t="s">
-        <v>28</v>
-      </c>
-      <c r="E399" s="2">
-        <v>45396.9375</v>
-      </c>
-      <c r="F399" t="s">
-        <v>52</v>
-      </c>
-      <c r="G399" t="s">
-        <v>44</v>
-      </c>
-      <c r="K399">
-        <v>2.6</v>
-      </c>
-      <c r="L399">
-        <v>3.1</v>
-      </c>
-      <c r="M399">
-        <v>2.8</v>
-      </c>
-      <c r="N399">
-        <v>2.625</v>
-      </c>
-      <c r="O399">
-        <v>3.1</v>
-      </c>
-      <c r="P399">
-        <v>2.875</v>
-      </c>
-      <c r="Q399">
-        <v>0</v>
-      </c>
-      <c r="R399">
-        <v>1.875</v>
-      </c>
-      <c r="S399">
-        <v>1.975</v>
-      </c>
-      <c r="T399">
-        <v>2</v>
-      </c>
-      <c r="U399">
-        <v>1.8</v>
-      </c>
-      <c r="V399">
-        <v>2.05</v>
-      </c>
-      <c r="W399">
-        <v>0</v>
-      </c>
-      <c r="X399">
-        <v>0</v>
-      </c>
-      <c r="Y399">
-        <v>0</v>
-      </c>
-      <c r="Z399">
-        <v>0</v>
-      </c>
-      <c r="AA399">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC396"/>
+  <dimension ref="A1:AC407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
         <v>54</v>
       </c>
       <c r="K208">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N208">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,10 +19075,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19090,61 +19090,61 @@
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N209">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P209">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
         <v>1.975</v>
       </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
-      <c r="U209">
-        <v>2.025</v>
-      </c>
-      <c r="V209">
-        <v>1.825</v>
-      </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N211">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
         <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
         <v>0.825</v>
-      </c>
-      <c r="AC211">
-        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M212">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N212">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P212">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
         <v>1.95</v>
       </c>
-      <c r="S212">
-        <v>1.9</v>
-      </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X212">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,73 +19431,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N213">
+        <v>2.1</v>
+      </c>
+      <c r="O213">
+        <v>3.1</v>
+      </c>
+      <c r="P213">
+        <v>3.8</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>4.75</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
         <v>3.25</v>
       </c>
-      <c r="L214">
-        <v>3.1</v>
-      </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
         <v>3.6</v>
       </c>
-      <c r="O214">
-        <v>3.2</v>
-      </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,19 +19577,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
         <v>1.775</v>
       </c>
-      <c r="S215">
-        <v>2.025</v>
-      </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,76 +19698,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O216">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P216">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
         <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -35528,7 +35528,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7658963</v>
+        <v>7658906</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35537,64 +35537,79 @@
         <v>28</v>
       </c>
       <c r="E394" s="2">
-        <v>45396.75694444445</v>
+        <v>45395.66666666666</v>
       </c>
       <c r="F394" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G394" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="H394">
+        <v>2</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394" t="s">
+        <v>54</v>
       </c>
       <c r="K394">
+        <v>2.1</v>
+      </c>
+      <c r="L394">
+        <v>3.1</v>
+      </c>
+      <c r="M394">
+        <v>3.8</v>
+      </c>
+      <c r="N394">
         <v>1.909</v>
       </c>
-      <c r="L394">
-        <v>3.2</v>
-      </c>
-      <c r="M394">
-        <v>4.333</v>
-      </c>
-      <c r="N394">
-        <v>2.05</v>
-      </c>
       <c r="O394">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P394">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q394">
         <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T394">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U394">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V394">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W394">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X394">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA394">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB394">
+        <v>0</v>
+      </c>
+      <c r="AC394">
+        <v>-0</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35602,7 +35617,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7658968</v>
+        <v>7658964</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35611,64 +35626,79 @@
         <v>28</v>
       </c>
       <c r="E395" s="2">
-        <v>45396.84722222222</v>
+        <v>45395.75694444445</v>
       </c>
       <c r="F395" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G395" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395" t="s">
+        <v>53</v>
       </c>
       <c r="K395">
+        <v>2.2</v>
+      </c>
+      <c r="L395">
         <v>3.1</v>
       </c>
-      <c r="L395">
-        <v>2.9</v>
-      </c>
       <c r="M395">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N395">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O395">
         <v>3.2</v>
       </c>
       <c r="P395">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q395">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R395">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S395">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T395">
         <v>2</v>
       </c>
       <c r="U395">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V395">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W395">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X395">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y395">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB395">
+        <v>-1</v>
+      </c>
+      <c r="AC395">
+        <v>0.95</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35676,7 +35706,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7736844</v>
+        <v>7658966</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35685,63 +35715,907 @@
         <v>28</v>
       </c>
       <c r="E396" s="2">
-        <v>45396.9375</v>
+        <v>45395.84722222222</v>
       </c>
       <c r="F396" t="s">
+        <v>39</v>
+      </c>
+      <c r="G396" t="s">
+        <v>37</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396" t="s">
+        <v>53</v>
+      </c>
+      <c r="K396">
+        <v>1.4</v>
+      </c>
+      <c r="L396">
+        <v>4.75</v>
+      </c>
+      <c r="M396">
+        <v>7</v>
+      </c>
+      <c r="N396">
+        <v>1.333</v>
+      </c>
+      <c r="O396">
+        <v>5.25</v>
+      </c>
+      <c r="P396">
+        <v>10</v>
+      </c>
+      <c r="Q396">
+        <v>-1.5</v>
+      </c>
+      <c r="R396">
+        <v>1.9</v>
+      </c>
+      <c r="S396">
+        <v>1.9</v>
+      </c>
+      <c r="T396">
+        <v>2.75</v>
+      </c>
+      <c r="U396">
+        <v>1.95</v>
+      </c>
+      <c r="V396">
+        <v>1.85</v>
+      </c>
+      <c r="W396">
+        <v>-1</v>
+      </c>
+      <c r="X396">
+        <v>4.25</v>
+      </c>
+      <c r="Y396">
+        <v>-1</v>
+      </c>
+      <c r="Z396">
+        <v>-1</v>
+      </c>
+      <c r="AA396">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB396">
+        <v>-1</v>
+      </c>
+      <c r="AC396">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>7658965</v>
+      </c>
+      <c r="C397" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45395.9375</v>
+      </c>
+      <c r="F397" t="s">
+        <v>41</v>
+      </c>
+      <c r="G397" t="s">
+        <v>46</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397" t="s">
+        <v>53</v>
+      </c>
+      <c r="K397">
+        <v>1.615</v>
+      </c>
+      <c r="L397">
+        <v>3.6</v>
+      </c>
+      <c r="M397">
+        <v>5.75</v>
+      </c>
+      <c r="N397">
+        <v>1.65</v>
+      </c>
+      <c r="O397">
+        <v>3.5</v>
+      </c>
+      <c r="P397">
+        <v>6.5</v>
+      </c>
+      <c r="Q397">
+        <v>-0.75</v>
+      </c>
+      <c r="R397">
+        <v>1.875</v>
+      </c>
+      <c r="S397">
+        <v>1.975</v>
+      </c>
+      <c r="T397">
+        <v>2.25</v>
+      </c>
+      <c r="U397">
+        <v>1.975</v>
+      </c>
+      <c r="V397">
+        <v>1.825</v>
+      </c>
+      <c r="W397">
+        <v>-1</v>
+      </c>
+      <c r="X397">
+        <v>2.5</v>
+      </c>
+      <c r="Y397">
+        <v>-1</v>
+      </c>
+      <c r="Z397">
+        <v>-1</v>
+      </c>
+      <c r="AA397">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>7658977</v>
+      </c>
+      <c r="C398" t="s">
+        <v>28</v>
+      </c>
+      <c r="D398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="2">
+        <v>45398.75</v>
+      </c>
+      <c r="F398" t="s">
+        <v>37</v>
+      </c>
+      <c r="G398" t="s">
+        <v>43</v>
+      </c>
+      <c r="K398">
+        <v>3.8</v>
+      </c>
+      <c r="L398">
+        <v>3.25</v>
+      </c>
+      <c r="M398">
+        <v>2.05</v>
+      </c>
+      <c r="N398">
+        <v>5.25</v>
+      </c>
+      <c r="O398">
+        <v>3.6</v>
+      </c>
+      <c r="P398">
+        <v>1.666</v>
+      </c>
+      <c r="Q398">
+        <v>0.75</v>
+      </c>
+      <c r="R398">
+        <v>1.9</v>
+      </c>
+      <c r="S398">
+        <v>1.95</v>
+      </c>
+      <c r="T398">
+        <v>2.25</v>
+      </c>
+      <c r="U398">
+        <v>1.875</v>
+      </c>
+      <c r="V398">
+        <v>1.975</v>
+      </c>
+      <c r="W398">
+        <v>0</v>
+      </c>
+      <c r="X398">
+        <v>0</v>
+      </c>
+      <c r="Y398">
+        <v>0</v>
+      </c>
+      <c r="Z398">
+        <v>0</v>
+      </c>
+      <c r="AA398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>7658973</v>
+      </c>
+      <c r="C399" t="s">
+        <v>28</v>
+      </c>
+      <c r="D399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45398.84027777778</v>
+      </c>
+      <c r="F399" t="s">
+        <v>46</v>
+      </c>
+      <c r="G399" t="s">
+        <v>48</v>
+      </c>
+      <c r="K399">
+        <v>2.3</v>
+      </c>
+      <c r="L399">
+        <v>2.8</v>
+      </c>
+      <c r="M399">
+        <v>3.3</v>
+      </c>
+      <c r="N399">
+        <v>2.2</v>
+      </c>
+      <c r="O399">
+        <v>2.875</v>
+      </c>
+      <c r="P399">
+        <v>3.6</v>
+      </c>
+      <c r="Q399">
+        <v>-0.25</v>
+      </c>
+      <c r="R399">
+        <v>1.875</v>
+      </c>
+      <c r="S399">
+        <v>1.975</v>
+      </c>
+      <c r="T399">
+        <v>2.25</v>
+      </c>
+      <c r="U399">
+        <v>2.05</v>
+      </c>
+      <c r="V399">
+        <v>1.8</v>
+      </c>
+      <c r="W399">
+        <v>0</v>
+      </c>
+      <c r="X399">
+        <v>0</v>
+      </c>
+      <c r="Y399">
+        <v>0</v>
+      </c>
+      <c r="Z399">
+        <v>0</v>
+      </c>
+      <c r="AA399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>7658907</v>
+      </c>
+      <c r="C400" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400" s="2">
+        <v>45398.93055555555</v>
+      </c>
+      <c r="F400" t="s">
+        <v>40</v>
+      </c>
+      <c r="G400" t="s">
+        <v>42</v>
+      </c>
+      <c r="K400">
+        <v>2.5</v>
+      </c>
+      <c r="L400">
+        <v>2.875</v>
+      </c>
+      <c r="M400">
+        <v>2.9</v>
+      </c>
+      <c r="N400">
+        <v>3.4</v>
+      </c>
+      <c r="O400">
+        <v>2.875</v>
+      </c>
+      <c r="P400">
+        <v>2.25</v>
+      </c>
+      <c r="Q400">
+        <v>0.25</v>
+      </c>
+      <c r="R400">
+        <v>1.9</v>
+      </c>
+      <c r="S400">
+        <v>1.95</v>
+      </c>
+      <c r="T400">
+        <v>2</v>
+      </c>
+      <c r="U400">
+        <v>1.925</v>
+      </c>
+      <c r="V400">
+        <v>1.925</v>
+      </c>
+      <c r="W400">
+        <v>0</v>
+      </c>
+      <c r="X400">
+        <v>0</v>
+      </c>
+      <c r="Y400">
+        <v>0</v>
+      </c>
+      <c r="Z400">
+        <v>0</v>
+      </c>
+      <c r="AA400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>7736843</v>
+      </c>
+      <c r="C401" t="s">
+        <v>28</v>
+      </c>
+      <c r="D401" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45399.75</v>
+      </c>
+      <c r="F401" t="s">
+        <v>33</v>
+      </c>
+      <c r="G401" t="s">
         <v>52</v>
       </c>
-      <c r="G396" t="s">
+      <c r="K401">
+        <v>1.727</v>
+      </c>
+      <c r="L401">
+        <v>3.4</v>
+      </c>
+      <c r="M401">
+        <v>4.75</v>
+      </c>
+      <c r="N401">
+        <v>1.666</v>
+      </c>
+      <c r="O401">
+        <v>3.4</v>
+      </c>
+      <c r="P401">
+        <v>5</v>
+      </c>
+      <c r="Q401">
+        <v>-0.75</v>
+      </c>
+      <c r="R401">
+        <v>2</v>
+      </c>
+      <c r="S401">
+        <v>1.85</v>
+      </c>
+      <c r="T401">
+        <v>2.25</v>
+      </c>
+      <c r="U401">
+        <v>2.05</v>
+      </c>
+      <c r="V401">
+        <v>1.8</v>
+      </c>
+      <c r="W401">
+        <v>0</v>
+      </c>
+      <c r="X401">
+        <v>0</v>
+      </c>
+      <c r="Y401">
+        <v>0</v>
+      </c>
+      <c r="Z401">
+        <v>0</v>
+      </c>
+      <c r="AA401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:27">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>7658971</v>
+      </c>
+      <c r="C402" t="s">
+        <v>28</v>
+      </c>
+      <c r="D402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="2">
+        <v>45399.84027777778</v>
+      </c>
+      <c r="F402" t="s">
+        <v>32</v>
+      </c>
+      <c r="G402" t="s">
+        <v>39</v>
+      </c>
+      <c r="K402">
+        <v>2</v>
+      </c>
+      <c r="L402">
+        <v>3.2</v>
+      </c>
+      <c r="M402">
+        <v>3.75</v>
+      </c>
+      <c r="N402">
+        <v>2</v>
+      </c>
+      <c r="O402">
+        <v>3.2</v>
+      </c>
+      <c r="P402">
+        <v>3.75</v>
+      </c>
+      <c r="Q402">
+        <v>-0.5</v>
+      </c>
+      <c r="R402">
+        <v>2.025</v>
+      </c>
+      <c r="S402">
+        <v>1.825</v>
+      </c>
+      <c r="T402">
+        <v>2.25</v>
+      </c>
+      <c r="U402">
+        <v>1.95</v>
+      </c>
+      <c r="V402">
+        <v>1.9</v>
+      </c>
+      <c r="W402">
+        <v>0</v>
+      </c>
+      <c r="X402">
+        <v>0</v>
+      </c>
+      <c r="Y402">
+        <v>0</v>
+      </c>
+      <c r="Z402">
+        <v>0</v>
+      </c>
+      <c r="AA402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:27">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>7658975</v>
+      </c>
+      <c r="C403" t="s">
+        <v>28</v>
+      </c>
+      <c r="D403" t="s">
+        <v>28</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45399.93055555555</v>
+      </c>
+      <c r="F403" t="s">
+        <v>30</v>
+      </c>
+      <c r="G403" t="s">
+        <v>41</v>
+      </c>
+      <c r="K403">
+        <v>1.75</v>
+      </c>
+      <c r="L403">
+        <v>3.5</v>
+      </c>
+      <c r="M403">
+        <v>4.5</v>
+      </c>
+      <c r="N403">
+        <v>1.75</v>
+      </c>
+      <c r="O403">
+        <v>3.5</v>
+      </c>
+      <c r="P403">
+        <v>4.5</v>
+      </c>
+      <c r="Q403">
+        <v>-0.75</v>
+      </c>
+      <c r="R403">
+        <v>2.05</v>
+      </c>
+      <c r="S403">
+        <v>1.8</v>
+      </c>
+      <c r="T403">
+        <v>2.25</v>
+      </c>
+      <c r="U403">
+        <v>1.975</v>
+      </c>
+      <c r="V403">
+        <v>1.875</v>
+      </c>
+      <c r="W403">
+        <v>0</v>
+      </c>
+      <c r="X403">
+        <v>0</v>
+      </c>
+      <c r="Y403">
+        <v>0</v>
+      </c>
+      <c r="Z403">
+        <v>0</v>
+      </c>
+      <c r="AA403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:27">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>7658908</v>
+      </c>
+      <c r="C404" t="s">
+        <v>28</v>
+      </c>
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" s="2">
+        <v>45400.75</v>
+      </c>
+      <c r="F404" t="s">
         <v>44</v>
       </c>
-      <c r="K396">
-        <v>2.6</v>
-      </c>
-      <c r="L396">
+      <c r="G404" t="s">
+        <v>50</v>
+      </c>
+      <c r="K404">
+        <v>1.833</v>
+      </c>
+      <c r="L404">
+        <v>3.25</v>
+      </c>
+      <c r="M404">
+        <v>4.333</v>
+      </c>
+      <c r="N404">
+        <v>1.833</v>
+      </c>
+      <c r="O404">
+        <v>3.25</v>
+      </c>
+      <c r="P404">
+        <v>4.333</v>
+      </c>
+      <c r="Q404">
+        <v>-0.5</v>
+      </c>
+      <c r="R404">
+        <v>1.85</v>
+      </c>
+      <c r="S404">
+        <v>2</v>
+      </c>
+      <c r="T404">
+        <v>2.25</v>
+      </c>
+      <c r="U404">
+        <v>2</v>
+      </c>
+      <c r="V404">
+        <v>1.85</v>
+      </c>
+      <c r="W404">
+        <v>0</v>
+      </c>
+      <c r="X404">
+        <v>0</v>
+      </c>
+      <c r="Y404">
+        <v>0</v>
+      </c>
+      <c r="Z404">
+        <v>0</v>
+      </c>
+      <c r="AA404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:27">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>7658972</v>
+      </c>
+      <c r="C405" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" s="2">
+        <v>45400.84027777778</v>
+      </c>
+      <c r="F405" t="s">
+        <v>49</v>
+      </c>
+      <c r="G405" t="s">
+        <v>31</v>
+      </c>
+      <c r="K405">
+        <v>2.625</v>
+      </c>
+      <c r="L405">
         <v>3.1</v>
       </c>
-      <c r="M396">
-        <v>2.8</v>
-      </c>
-      <c r="N396">
+      <c r="M405">
+        <v>2.625</v>
+      </c>
+      <c r="N405">
+        <v>2.625</v>
+      </c>
+      <c r="O405">
+        <v>3.1</v>
+      </c>
+      <c r="P405">
+        <v>2.625</v>
+      </c>
+      <c r="Q405">
+        <v>0</v>
+      </c>
+      <c r="R405">
+        <v>1.875</v>
+      </c>
+      <c r="S405">
+        <v>1.975</v>
+      </c>
+      <c r="T405">
+        <v>2.25</v>
+      </c>
+      <c r="U405">
+        <v>2.05</v>
+      </c>
+      <c r="V405">
+        <v>1.8</v>
+      </c>
+      <c r="W405">
+        <v>0</v>
+      </c>
+      <c r="X405">
+        <v>0</v>
+      </c>
+      <c r="Y405">
+        <v>0</v>
+      </c>
+      <c r="Z405">
+        <v>0</v>
+      </c>
+      <c r="AA405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:27">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>7658976</v>
+      </c>
+      <c r="C406" t="s">
+        <v>28</v>
+      </c>
+      <c r="D406" t="s">
+        <v>28</v>
+      </c>
+      <c r="E406" s="2">
+        <v>45400.93055555555</v>
+      </c>
+      <c r="F406" t="s">
+        <v>36</v>
+      </c>
+      <c r="G406" t="s">
+        <v>29</v>
+      </c>
+      <c r="K406">
+        <v>1.533</v>
+      </c>
+      <c r="L406">
+        <v>3.6</v>
+      </c>
+      <c r="M406">
+        <v>6.5</v>
+      </c>
+      <c r="N406">
+        <v>1.5</v>
+      </c>
+      <c r="O406">
         <v>3.75</v>
       </c>
-      <c r="O396">
-        <v>3</v>
-      </c>
-      <c r="P396">
-        <v>2.2</v>
-      </c>
-      <c r="Q396">
-        <v>0.25</v>
-      </c>
-      <c r="R396">
-        <v>2</v>
-      </c>
-      <c r="S396">
+      <c r="P406">
+        <v>7</v>
+      </c>
+      <c r="Q406">
+        <v>-1</v>
+      </c>
+      <c r="R406">
+        <v>1.9</v>
+      </c>
+      <c r="S406">
+        <v>1.95</v>
+      </c>
+      <c r="T406">
+        <v>2.25</v>
+      </c>
+      <c r="U406">
         <v>1.85</v>
       </c>
-      <c r="T396">
-        <v>2</v>
-      </c>
-      <c r="U396">
-        <v>1.85</v>
-      </c>
-      <c r="V396">
-        <v>2</v>
-      </c>
-      <c r="W396">
-        <v>0</v>
-      </c>
-      <c r="X396">
-        <v>0</v>
-      </c>
-      <c r="Y396">
-        <v>0</v>
-      </c>
-      <c r="Z396">
-        <v>0</v>
-      </c>
-      <c r="AA396">
+      <c r="V406">
+        <v>2</v>
+      </c>
+      <c r="W406">
+        <v>0</v>
+      </c>
+      <c r="X406">
+        <v>0</v>
+      </c>
+      <c r="Y406">
+        <v>0</v>
+      </c>
+      <c r="Z406">
+        <v>0</v>
+      </c>
+      <c r="AA406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:27">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>7658974</v>
+      </c>
+      <c r="C407" t="s">
+        <v>28</v>
+      </c>
+      <c r="D407" t="s">
+        <v>28</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45401.92361111111</v>
+      </c>
+      <c r="F407" t="s">
+        <v>45</v>
+      </c>
+      <c r="G407" t="s">
+        <v>35</v>
+      </c>
+      <c r="K407">
+        <v>1.65</v>
+      </c>
+      <c r="L407">
+        <v>3.6</v>
+      </c>
+      <c r="M407">
+        <v>5</v>
+      </c>
+      <c r="N407">
+        <v>1.666</v>
+      </c>
+      <c r="O407">
+        <v>3.6</v>
+      </c>
+      <c r="P407">
+        <v>5</v>
+      </c>
+      <c r="Q407">
+        <v>-0.75</v>
+      </c>
+      <c r="R407">
+        <v>1.875</v>
+      </c>
+      <c r="S407">
+        <v>1.975</v>
+      </c>
+      <c r="T407">
+        <v>2.25</v>
+      </c>
+      <c r="U407">
+        <v>1.925</v>
+      </c>
+      <c r="V407">
+        <v>1.925</v>
+      </c>
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407">
+        <v>0</v>
+      </c>
+      <c r="Y407">
+        <v>0</v>
+      </c>
+      <c r="Z407">
+        <v>0</v>
+      </c>
+      <c r="AA407">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC407"/>
+  <dimension ref="A1:AC406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M208">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
         <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
+        <v>2.025</v>
+      </c>
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.825</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K209">
+        <v>1.95</v>
+      </c>
+      <c r="L209">
         <v>3.2</v>
       </c>
-      <c r="L209">
-        <v>3.1</v>
-      </c>
       <c r="M209">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,10 +19253,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19268,61 +19268,61 @@
         <v>53</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
         <v>1.975</v>
       </c>
-      <c r="S211">
-        <v>1.875</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>2.025</v>
-      </c>
-      <c r="V211">
-        <v>1.825</v>
-      </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,73 +19431,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
+        <v>1.444</v>
+      </c>
+      <c r="L215">
+        <v>4.5</v>
+      </c>
+      <c r="M215">
+        <v>6</v>
+      </c>
+      <c r="N215">
+        <v>1.363</v>
+      </c>
+      <c r="O215">
+        <v>5</v>
+      </c>
+      <c r="P215">
+        <v>7.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1.25</v>
+      </c>
+      <c r="R215">
+        <v>1.775</v>
+      </c>
+      <c r="S215">
+        <v>2.025</v>
+      </c>
+      <c r="T215">
         <v>3</v>
       </c>
-      <c r="L215">
-        <v>3.1</v>
-      </c>
-      <c r="M215">
-        <v>2.3</v>
-      </c>
-      <c r="N215">
-        <v>3.6</v>
-      </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
-      <c r="P215">
-        <v>2.1</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>2.025</v>
-      </c>
-      <c r="S215">
-        <v>1.775</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,76 +19787,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -35884,7 +35884,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7658977</v>
+        <v>7658970</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35893,64 +35893,79 @@
         <v>28</v>
       </c>
       <c r="E398" s="2">
-        <v>45398.75</v>
+        <v>45396.66666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G398" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+      <c r="I398">
+        <v>2</v>
+      </c>
+      <c r="J398" t="s">
+        <v>55</v>
       </c>
       <c r="K398">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L398">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M398">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N398">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O398">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P398">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q398">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R398">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S398">
+        <v>2</v>
+      </c>
+      <c r="T398">
+        <v>2</v>
+      </c>
+      <c r="U398">
         <v>1.95</v>
       </c>
-      <c r="T398">
-        <v>2.25</v>
-      </c>
-      <c r="U398">
-        <v>1.875</v>
-      </c>
       <c r="V398">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB398">
+        <v>0.95</v>
+      </c>
+      <c r="AC398">
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35958,7 +35973,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7658973</v>
+        <v>7658963</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35967,64 +35982,79 @@
         <v>28</v>
       </c>
       <c r="E399" s="2">
-        <v>45398.84027777778</v>
+        <v>45396.75694444445</v>
       </c>
       <c r="F399" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G399" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399" t="s">
+        <v>54</v>
       </c>
       <c r="K399">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L399">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M399">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N399">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O399">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P399">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q399">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R399">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S399">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T399">
         <v>2.25</v>
       </c>
       <c r="U399">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V399">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W399">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X399">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y399">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA399">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB399">
+        <v>-1</v>
+      </c>
+      <c r="AC399">
+        <v>0.825</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36032,7 +36062,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7658907</v>
+        <v>7658968</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36041,72 +36071,87 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45398.93055555555</v>
+        <v>45396.84722222222</v>
       </c>
       <c r="F400" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G400" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="H400">
+        <v>2</v>
+      </c>
+      <c r="I400">
+        <v>3</v>
+      </c>
+      <c r="J400" t="s">
+        <v>55</v>
       </c>
       <c r="K400">
+        <v>3.1</v>
+      </c>
+      <c r="L400">
+        <v>2.9</v>
+      </c>
+      <c r="M400">
         <v>2.5</v>
       </c>
-      <c r="L400">
-        <v>2.875</v>
-      </c>
-      <c r="M400">
-        <v>2.9</v>
-      </c>
       <c r="N400">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O400">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P400">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q400">
         <v>0.25</v>
       </c>
       <c r="R400">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S400">
+        <v>1.875</v>
+      </c>
+      <c r="T400">
+        <v>2</v>
+      </c>
+      <c r="U400">
+        <v>1.85</v>
+      </c>
+      <c r="V400">
         <v>1.95</v>
       </c>
-      <c r="T400">
-        <v>2</v>
-      </c>
-      <c r="U400">
-        <v>1.925</v>
-      </c>
-      <c r="V400">
-        <v>1.925</v>
-      </c>
       <c r="W400">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X400">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y400">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z400">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB400">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC400">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7736843</v>
+        <v>7736844</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36115,72 +36160,87 @@
         <v>28</v>
       </c>
       <c r="E401" s="2">
-        <v>45399.75</v>
+        <v>45396.9375</v>
       </c>
       <c r="F401" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G401" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+      <c r="I401">
+        <v>3</v>
+      </c>
+      <c r="J401" t="s">
+        <v>55</v>
       </c>
       <c r="K401">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L401">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M401">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N401">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O401">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P401">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q401">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R401">
         <v>2</v>
       </c>
       <c r="S401">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U401">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V401">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z401">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB401">
+        <v>0.875</v>
+      </c>
+      <c r="AC401">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7658971</v>
+        <v>7658977</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36189,72 +36249,87 @@
         <v>28</v>
       </c>
       <c r="E402" s="2">
-        <v>45399.84027777778</v>
+        <v>45398.75</v>
       </c>
       <c r="F402" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G402" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>2</v>
+      </c>
+      <c r="J402" t="s">
+        <v>55</v>
       </c>
       <c r="K402">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L402">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M402">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N402">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O402">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P402">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q402">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R402">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S402">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T402">
         <v>2.25</v>
       </c>
       <c r="U402">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V402">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W402">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X402">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z402">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB402">
+        <v>-0.5</v>
+      </c>
+      <c r="AC402">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29">
       <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403">
-        <v>7658975</v>
+        <v>7658908</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36263,49 +36338,49 @@
         <v>28</v>
       </c>
       <c r="E403" s="2">
-        <v>45399.93055555555</v>
+        <v>45400.75</v>
       </c>
       <c r="F403" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G403" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K403">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L403">
+        <v>3.25</v>
+      </c>
+      <c r="M403">
+        <v>4.333</v>
+      </c>
+      <c r="N403">
+        <v>2.2</v>
+      </c>
+      <c r="O403">
+        <v>3.2</v>
+      </c>
+      <c r="P403">
         <v>3.5</v>
       </c>
-      <c r="M403">
-        <v>4.5</v>
-      </c>
-      <c r="N403">
-        <v>1.75</v>
-      </c>
-      <c r="O403">
-        <v>3.5</v>
-      </c>
-      <c r="P403">
-        <v>4.5</v>
-      </c>
       <c r="Q403">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R403">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S403">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T403">
         <v>2.25</v>
       </c>
       <c r="U403">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V403">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W403">
         <v>0</v>
@@ -36323,12 +36398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:27">
+    <row r="404" spans="1:29">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7658908</v>
+        <v>7658972</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36337,49 +36412,49 @@
         <v>28</v>
       </c>
       <c r="E404" s="2">
-        <v>45400.75</v>
+        <v>45400.84027777778</v>
       </c>
       <c r="F404" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G404" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K404">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L404">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M404">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N404">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O404">
         <v>3.25</v>
       </c>
       <c r="P404">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q404">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S404">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T404">
         <v>2.25</v>
       </c>
       <c r="U404">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V404">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W404">
         <v>0</v>
@@ -36397,12 +36472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:27">
+    <row r="405" spans="1:29">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7658972</v>
+        <v>7658976</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36411,34 +36486,34 @@
         <v>28</v>
       </c>
       <c r="E405" s="2">
-        <v>45400.84027777778</v>
+        <v>45400.93055555555</v>
       </c>
       <c r="F405" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G405" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K405">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L405">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M405">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="N405">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="O405">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P405">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q405">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R405">
         <v>1.875</v>
@@ -36450,10 +36525,10 @@
         <v>2.25</v>
       </c>
       <c r="U405">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V405">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W405">
         <v>0</v>
@@ -36471,12 +36546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:27">
+    <row r="406" spans="1:29">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7658976</v>
+        <v>7658974</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36485,49 +36560,49 @@
         <v>28</v>
       </c>
       <c r="E406" s="2">
-        <v>45400.93055555555</v>
+        <v>45401.92361111111</v>
       </c>
       <c r="F406" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G406" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K406">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L406">
         <v>3.6</v>
       </c>
       <c r="M406">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N406">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O406">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P406">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="Q406">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R406">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S406">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V406">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W406">
         <v>0</v>
@@ -36542,80 +36617,6 @@
         <v>0</v>
       </c>
       <c r="AA406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:27">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="B407">
-        <v>7658974</v>
-      </c>
-      <c r="C407" t="s">
-        <v>28</v>
-      </c>
-      <c r="D407" t="s">
-        <v>28</v>
-      </c>
-      <c r="E407" s="2">
-        <v>45401.92361111111</v>
-      </c>
-      <c r="F407" t="s">
-        <v>45</v>
-      </c>
-      <c r="G407" t="s">
-        <v>35</v>
-      </c>
-      <c r="K407">
-        <v>1.65</v>
-      </c>
-      <c r="L407">
-        <v>3.6</v>
-      </c>
-      <c r="M407">
-        <v>5</v>
-      </c>
-      <c r="N407">
-        <v>1.666</v>
-      </c>
-      <c r="O407">
-        <v>3.6</v>
-      </c>
-      <c r="P407">
-        <v>5</v>
-      </c>
-      <c r="Q407">
-        <v>-0.75</v>
-      </c>
-      <c r="R407">
-        <v>1.875</v>
-      </c>
-      <c r="S407">
-        <v>1.975</v>
-      </c>
-      <c r="T407">
-        <v>2.25</v>
-      </c>
-      <c r="U407">
-        <v>1.925</v>
-      </c>
-      <c r="V407">
-        <v>1.925</v>
-      </c>
-      <c r="W407">
-        <v>0</v>
-      </c>
-      <c r="X407">
-        <v>0</v>
-      </c>
-      <c r="Y407">
-        <v>0</v>
-      </c>
-      <c r="Z407">
-        <v>0</v>
-      </c>
-      <c r="AA407">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC406"/>
+  <dimension ref="A1:AC414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
+        <v>3.2</v>
+      </c>
+      <c r="L209">
+        <v>3.1</v>
+      </c>
+      <c r="M209">
+        <v>2.2</v>
+      </c>
+      <c r="N209">
+        <v>3.6</v>
+      </c>
+      <c r="O209">
+        <v>3</v>
+      </c>
+      <c r="P209">
+        <v>2.25</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
         <v>1.95</v>
       </c>
-      <c r="L209">
-        <v>3.2</v>
-      </c>
-      <c r="M209">
-        <v>3.75</v>
-      </c>
-      <c r="N209">
-        <v>1.95</v>
-      </c>
-      <c r="O209">
-        <v>3.2</v>
-      </c>
-      <c r="P209">
-        <v>4.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.5</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
       <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
         <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
       </c>
       <c r="V209">
         <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404216</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K210">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K211">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L211">
         <v>3.1</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
         <v>1.9</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z211">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
+        <v>3.6</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>2.15</v>
+      </c>
+      <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.825</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>4.75</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
         <v>3.6</v>
       </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
       <c r="P214">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,76 +19609,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="I215">
         <v>1</v>
       </c>
-      <c r="I215">
-        <v>2</v>
-      </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA215">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P216">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,49 +19787,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
+        <v>3.6</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
         <v>2.1</v>
       </c>
-      <c r="O217">
-        <v>3.1</v>
-      </c>
-      <c r="P217">
-        <v>3.8</v>
-      </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
         <v>1.85</v>
@@ -19838,19 +19838,19 @@
         <v>1.95</v>
       </c>
       <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
         <v>1.1</v>
       </c>
-      <c r="X217">
-        <v>-1</v>
-      </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
         <v>0.8500000000000001</v>
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -36329,7 +36329,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>7658908</v>
+        <v>7658973</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36338,64 +36338,79 @@
         <v>28</v>
       </c>
       <c r="E403" s="2">
-        <v>45400.75</v>
+        <v>45398.84027777778</v>
       </c>
       <c r="F403" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G403" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403" t="s">
+        <v>53</v>
       </c>
       <c r="K403">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L403">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M403">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N403">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O403">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P403">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q403">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R403">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S403">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T403">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U403">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V403">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W403">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X403">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y403">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z403">
         <v>0</v>
       </c>
       <c r="AA403">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB403">
+        <v>0</v>
+      </c>
+      <c r="AC403">
+        <v>-0</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36403,7 +36418,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7658972</v>
+        <v>7658907</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36412,64 +36427,79 @@
         <v>28</v>
       </c>
       <c r="E404" s="2">
-        <v>45400.84027777778</v>
+        <v>45398.93055555555</v>
       </c>
       <c r="F404" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G404" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404" t="s">
+        <v>55</v>
       </c>
       <c r="K404">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L404">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M404">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="O404">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P404">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q404">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R404">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S404">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="T404">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U404">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V404">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y404">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>0</v>
+        <v>1.125</v>
+      </c>
+      <c r="AB404">
+        <v>-1</v>
+      </c>
+      <c r="AC404">
+        <v>0.925</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36477,7 +36507,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7658976</v>
+        <v>7736843</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36486,64 +36516,79 @@
         <v>28</v>
       </c>
       <c r="E405" s="2">
-        <v>45400.93055555555</v>
+        <v>45399.75</v>
       </c>
       <c r="F405" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G405" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="H405">
+        <v>4</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405" t="s">
+        <v>54</v>
       </c>
       <c r="K405">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L405">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M405">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N405">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O405">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P405">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q405">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R405">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S405">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T405">
         <v>2.25</v>
       </c>
       <c r="U405">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V405">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W405">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z405">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA405">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB405">
+        <v>1.1</v>
+      </c>
+      <c r="AC405">
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36551,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7658974</v>
+        <v>7658971</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36560,22 +36605,31 @@
         <v>28</v>
       </c>
       <c r="E406" s="2">
-        <v>45401.92361111111</v>
+        <v>45399.84027777778</v>
       </c>
       <c r="F406" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G406" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H406">
+        <v>3</v>
+      </c>
+      <c r="I406">
+        <v>2</v>
+      </c>
+      <c r="J406" t="s">
+        <v>54</v>
       </c>
       <c r="K406">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L406">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M406">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N406">
         <v>1.7</v>
@@ -36584,39 +36638,637 @@
         <v>3.5</v>
       </c>
       <c r="P406">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q406">
         <v>-0.75</v>
       </c>
       <c r="R406">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S406">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
+        <v>1.825</v>
+      </c>
+      <c r="V406">
+        <v>1.975</v>
+      </c>
+      <c r="W406">
+        <v>0.7</v>
+      </c>
+      <c r="X406">
+        <v>-1</v>
+      </c>
+      <c r="Y406">
+        <v>-1</v>
+      </c>
+      <c r="Z406">
+        <v>0.425</v>
+      </c>
+      <c r="AA406">
+        <v>-0.5</v>
+      </c>
+      <c r="AB406">
+        <v>0.825</v>
+      </c>
+      <c r="AC406">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>7658974</v>
+      </c>
+      <c r="C407" t="s">
+        <v>28</v>
+      </c>
+      <c r="D407" t="s">
+        <v>28</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45401.92361111111</v>
+      </c>
+      <c r="F407" t="s">
+        <v>45</v>
+      </c>
+      <c r="G407" t="s">
+        <v>35</v>
+      </c>
+      <c r="K407">
+        <v>1.65</v>
+      </c>
+      <c r="L407">
+        <v>3.6</v>
+      </c>
+      <c r="M407">
+        <v>5</v>
+      </c>
+      <c r="N407">
+        <v>1.7</v>
+      </c>
+      <c r="O407">
+        <v>3.5</v>
+      </c>
+      <c r="P407">
+        <v>5.75</v>
+      </c>
+      <c r="Q407">
+        <v>-0.75</v>
+      </c>
+      <c r="R407">
+        <v>1.925</v>
+      </c>
+      <c r="S407">
+        <v>1.925</v>
+      </c>
+      <c r="T407">
+        <v>2.25</v>
+      </c>
+      <c r="U407">
+        <v>1.975</v>
+      </c>
+      <c r="V407">
+        <v>1.875</v>
+      </c>
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407">
+        <v>0</v>
+      </c>
+      <c r="Y407">
+        <v>0</v>
+      </c>
+      <c r="Z407">
+        <v>0</v>
+      </c>
+      <c r="AA407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>7658978</v>
+      </c>
+      <c r="C408" t="s">
+        <v>28</v>
+      </c>
+      <c r="D408" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45402.75</v>
+      </c>
+      <c r="F408" t="s">
+        <v>41</v>
+      </c>
+      <c r="G408" t="s">
+        <v>32</v>
+      </c>
+      <c r="K408">
+        <v>2.4</v>
+      </c>
+      <c r="L408">
+        <v>3.1</v>
+      </c>
+      <c r="M408">
+        <v>3</v>
+      </c>
+      <c r="N408">
+        <v>2.55</v>
+      </c>
+      <c r="O408">
+        <v>3.1</v>
+      </c>
+      <c r="P408">
+        <v>2.8</v>
+      </c>
+      <c r="Q408">
+        <v>0</v>
+      </c>
+      <c r="R408">
+        <v>1.825</v>
+      </c>
+      <c r="S408">
+        <v>2.025</v>
+      </c>
+      <c r="T408">
+        <v>2</v>
+      </c>
+      <c r="U408">
+        <v>1.85</v>
+      </c>
+      <c r="V408">
+        <v>2</v>
+      </c>
+      <c r="W408">
+        <v>0</v>
+      </c>
+      <c r="X408">
+        <v>0</v>
+      </c>
+      <c r="Y408">
+        <v>0</v>
+      </c>
+      <c r="Z408">
+        <v>0</v>
+      </c>
+      <c r="AA408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>7658911</v>
+      </c>
+      <c r="C409" t="s">
+        <v>28</v>
+      </c>
+      <c r="D409" t="s">
+        <v>28</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45402.84027777778</v>
+      </c>
+      <c r="F409" t="s">
+        <v>39</v>
+      </c>
+      <c r="G409" t="s">
+        <v>40</v>
+      </c>
+      <c r="K409">
+        <v>1.727</v>
+      </c>
+      <c r="L409">
+        <v>3.4</v>
+      </c>
+      <c r="M409">
+        <v>4.75</v>
+      </c>
+      <c r="N409">
+        <v>1.727</v>
+      </c>
+      <c r="O409">
+        <v>3.4</v>
+      </c>
+      <c r="P409">
+        <v>4.75</v>
+      </c>
+      <c r="Q409">
+        <v>-0.75</v>
+      </c>
+      <c r="R409">
+        <v>2.025</v>
+      </c>
+      <c r="S409">
+        <v>1.825</v>
+      </c>
+      <c r="T409">
+        <v>2.25</v>
+      </c>
+      <c r="U409">
         <v>1.95</v>
       </c>
-      <c r="V406">
+      <c r="V409">
         <v>1.9</v>
       </c>
-      <c r="W406">
-        <v>0</v>
-      </c>
-      <c r="X406">
-        <v>0</v>
-      </c>
-      <c r="Y406">
-        <v>0</v>
-      </c>
-      <c r="Z406">
-        <v>0</v>
-      </c>
-      <c r="AA406">
+      <c r="W409">
+        <v>0</v>
+      </c>
+      <c r="X409">
+        <v>0</v>
+      </c>
+      <c r="Y409">
+        <v>0</v>
+      </c>
+      <c r="Z409">
+        <v>0</v>
+      </c>
+      <c r="AA409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>7736842</v>
+      </c>
+      <c r="C410" t="s">
+        <v>28</v>
+      </c>
+      <c r="D410" t="s">
+        <v>28</v>
+      </c>
+      <c r="E410" s="2">
+        <v>45402.9375</v>
+      </c>
+      <c r="F410" t="s">
+        <v>52</v>
+      </c>
+      <c r="G410" t="s">
+        <v>46</v>
+      </c>
+      <c r="K410">
+        <v>2.15</v>
+      </c>
+      <c r="L410">
+        <v>3</v>
+      </c>
+      <c r="M410">
+        <v>3.6</v>
+      </c>
+      <c r="N410">
+        <v>2.1</v>
+      </c>
+      <c r="O410">
+        <v>3</v>
+      </c>
+      <c r="P410">
+        <v>3.8</v>
+      </c>
+      <c r="Q410">
+        <v>-0.25</v>
+      </c>
+      <c r="R410">
+        <v>1.8</v>
+      </c>
+      <c r="S410">
+        <v>2.05</v>
+      </c>
+      <c r="T410">
+        <v>2</v>
+      </c>
+      <c r="U410">
+        <v>1.8</v>
+      </c>
+      <c r="V410">
+        <v>2.05</v>
+      </c>
+      <c r="W410">
+        <v>0</v>
+      </c>
+      <c r="X410">
+        <v>0</v>
+      </c>
+      <c r="Y410">
+        <v>0</v>
+      </c>
+      <c r="Z410">
+        <v>0</v>
+      </c>
+      <c r="AA410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>7658979</v>
+      </c>
+      <c r="C411" t="s">
+        <v>28</v>
+      </c>
+      <c r="D411" t="s">
+        <v>28</v>
+      </c>
+      <c r="E411" s="2">
+        <v>45403.66666666666</v>
+      </c>
+      <c r="F411" t="s">
+        <v>42</v>
+      </c>
+      <c r="G411" t="s">
+        <v>36</v>
+      </c>
+      <c r="K411">
+        <v>1.95</v>
+      </c>
+      <c r="L411">
+        <v>3.25</v>
+      </c>
+      <c r="M411">
+        <v>4</v>
+      </c>
+      <c r="N411">
+        <v>2.2</v>
+      </c>
+      <c r="O411">
+        <v>3.1</v>
+      </c>
+      <c r="P411">
+        <v>3.3</v>
+      </c>
+      <c r="Q411">
+        <v>-0.25</v>
+      </c>
+      <c r="R411">
+        <v>1.95</v>
+      </c>
+      <c r="S411">
+        <v>1.9</v>
+      </c>
+      <c r="T411">
+        <v>2.25</v>
+      </c>
+      <c r="U411">
+        <v>2</v>
+      </c>
+      <c r="V411">
+        <v>1.85</v>
+      </c>
+      <c r="W411">
+        <v>0</v>
+      </c>
+      <c r="X411">
+        <v>0</v>
+      </c>
+      <c r="Y411">
+        <v>0</v>
+      </c>
+      <c r="Z411">
+        <v>0</v>
+      </c>
+      <c r="AA411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>7658983</v>
+      </c>
+      <c r="C412" t="s">
+        <v>28</v>
+      </c>
+      <c r="D412" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" s="2">
+        <v>45403.75694444445</v>
+      </c>
+      <c r="F412" t="s">
+        <v>48</v>
+      </c>
+      <c r="G412" t="s">
+        <v>37</v>
+      </c>
+      <c r="K412">
+        <v>1.727</v>
+      </c>
+      <c r="L412">
+        <v>3.4</v>
+      </c>
+      <c r="M412">
+        <v>5</v>
+      </c>
+      <c r="N412">
+        <v>1.7</v>
+      </c>
+      <c r="O412">
+        <v>3.4</v>
+      </c>
+      <c r="P412">
+        <v>5.25</v>
+      </c>
+      <c r="Q412">
+        <v>-0.75</v>
+      </c>
+      <c r="R412">
+        <v>1.95</v>
+      </c>
+      <c r="S412">
+        <v>1.9</v>
+      </c>
+      <c r="T412">
+        <v>2.5</v>
+      </c>
+      <c r="U412">
+        <v>2.05</v>
+      </c>
+      <c r="V412">
+        <v>1.8</v>
+      </c>
+      <c r="W412">
+        <v>0</v>
+      </c>
+      <c r="X412">
+        <v>0</v>
+      </c>
+      <c r="Y412">
+        <v>0</v>
+      </c>
+      <c r="Z412">
+        <v>0</v>
+      </c>
+      <c r="AA412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>7658980</v>
+      </c>
+      <c r="C413" t="s">
+        <v>28</v>
+      </c>
+      <c r="D413" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" s="2">
+        <v>45403.84722222222</v>
+      </c>
+      <c r="F413" t="s">
+        <v>31</v>
+      </c>
+      <c r="G413" t="s">
+        <v>30</v>
+      </c>
+      <c r="K413">
+        <v>1.909</v>
+      </c>
+      <c r="L413">
+        <v>3.25</v>
+      </c>
+      <c r="M413">
+        <v>4.2</v>
+      </c>
+      <c r="N413">
+        <v>2.2</v>
+      </c>
+      <c r="O413">
+        <v>3.2</v>
+      </c>
+      <c r="P413">
+        <v>3.25</v>
+      </c>
+      <c r="Q413">
+        <v>-0.25</v>
+      </c>
+      <c r="R413">
+        <v>1.95</v>
+      </c>
+      <c r="S413">
+        <v>1.9</v>
+      </c>
+      <c r="T413">
+        <v>2.25</v>
+      </c>
+      <c r="U413">
+        <v>1.975</v>
+      </c>
+      <c r="V413">
+        <v>1.875</v>
+      </c>
+      <c r="W413">
+        <v>0</v>
+      </c>
+      <c r="X413">
+        <v>0</v>
+      </c>
+      <c r="Y413">
+        <v>0</v>
+      </c>
+      <c r="Z413">
+        <v>0</v>
+      </c>
+      <c r="AA413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>7658982</v>
+      </c>
+      <c r="C414" t="s">
+        <v>28</v>
+      </c>
+      <c r="D414" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45403.9375</v>
+      </c>
+      <c r="F414" t="s">
+        <v>43</v>
+      </c>
+      <c r="G414" t="s">
+        <v>49</v>
+      </c>
+      <c r="K414">
+        <v>1.444</v>
+      </c>
+      <c r="L414">
+        <v>4</v>
+      </c>
+      <c r="M414">
+        <v>7.5</v>
+      </c>
+      <c r="N414">
+        <v>1.571</v>
+      </c>
+      <c r="O414">
+        <v>3.75</v>
+      </c>
+      <c r="P414">
+        <v>5.75</v>
+      </c>
+      <c r="Q414">
+        <v>-0.75</v>
+      </c>
+      <c r="R414">
+        <v>1.775</v>
+      </c>
+      <c r="S414">
+        <v>2.1</v>
+      </c>
+      <c r="T414">
+        <v>2.25</v>
+      </c>
+      <c r="U414">
+        <v>1.925</v>
+      </c>
+      <c r="V414">
+        <v>1.925</v>
+      </c>
+      <c r="W414">
+        <v>0</v>
+      </c>
+      <c r="X414">
+        <v>0</v>
+      </c>
+      <c r="Y414">
+        <v>0</v>
+      </c>
+      <c r="Z414">
+        <v>0</v>
+      </c>
+      <c r="AA414">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC414"/>
+  <dimension ref="A1:AC417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N210">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.925</v>
       </c>
-      <c r="S210">
-        <v>1.875</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>1.825</v>
-      </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.925</v>
-      </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
-      <c r="AB210">
-        <v>0.825</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R211">
         <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,58 +19342,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H212">
         <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>54</v>
       </c>
       <c r="K212">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19402,16 +19402,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L213">
         <v>3.1</v>
       </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N213">
         <v>3.6</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q213">
         <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,55 +19520,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>55</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N214">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19577,19 +19577,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404522</v>
+        <v>7404213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,76 +19609,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N215">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
+        <v>1.825</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
         <v>1.75</v>
       </c>
-      <c r="S215">
+      <c r="V215">
         <v>2.05</v>
       </c>
-      <c r="T215">
-        <v>2</v>
-      </c>
-      <c r="U215">
-        <v>1.85</v>
-      </c>
-      <c r="V215">
-        <v>1.95</v>
-      </c>
       <c r="W215">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z215">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,49 +19787,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
         <v>1.85</v>
@@ -19838,19 +19838,19 @@
         <v>1.95</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
         <v>0.8500000000000001</v>
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7658974</v>
+        <v>7658975</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,37 +36694,46 @@
         <v>28</v>
       </c>
       <c r="E407" s="2">
-        <v>45401.92361111111</v>
+        <v>45399.93055555555</v>
       </c>
       <c r="F407" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G407" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>1</v>
+      </c>
+      <c r="J407" t="s">
+        <v>55</v>
       </c>
       <c r="K407">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L407">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M407">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N407">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O407">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P407">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q407">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R407">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S407">
         <v>1.925</v>
@@ -36733,25 +36742,31 @@
         <v>2.25</v>
       </c>
       <c r="U407">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V407">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W407">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X407">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB407">
+        <v>-1</v>
+      </c>
+      <c r="AC407">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36759,7 +36774,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7658978</v>
+        <v>7658908</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36768,64 +36783,79 @@
         <v>28</v>
       </c>
       <c r="E408" s="2">
-        <v>45402.75</v>
+        <v>45400.75</v>
       </c>
       <c r="F408" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G408" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408" t="s">
+        <v>53</v>
       </c>
       <c r="K408">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L408">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M408">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N408">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O408">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P408">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q408">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S408">
+        <v>1.9</v>
+      </c>
+      <c r="T408">
+        <v>2</v>
+      </c>
+      <c r="U408">
+        <v>1.775</v>
+      </c>
+      <c r="V408">
         <v>2.025</v>
       </c>
-      <c r="T408">
-        <v>2</v>
-      </c>
-      <c r="U408">
-        <v>1.85</v>
-      </c>
-      <c r="V408">
-        <v>2</v>
-      </c>
       <c r="W408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X408">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA408">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="AB408">
+        <v>-1</v>
+      </c>
+      <c r="AC408">
+        <v>1.025</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36863,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7658911</v>
+        <v>7658972</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36842,64 +36872,79 @@
         <v>28</v>
       </c>
       <c r="E409" s="2">
-        <v>45402.84027777778</v>
+        <v>45400.84027777778</v>
       </c>
       <c r="F409" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G409" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="H409">
+        <v>2</v>
+      </c>
+      <c r="I409">
+        <v>3</v>
+      </c>
+      <c r="J409" t="s">
+        <v>55</v>
       </c>
       <c r="K409">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L409">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M409">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N409">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O409">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P409">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q409">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R409">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S409">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T409">
         <v>2.25</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V409">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y409">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB409">
+        <v>0.825</v>
+      </c>
+      <c r="AC409">
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36907,7 +36952,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7736842</v>
+        <v>7658974</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36916,34 +36961,34 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45402.9375</v>
+        <v>45401.92361111111</v>
       </c>
       <c r="F410" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G410" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K410">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L410">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M410">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N410">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O410">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P410">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q410">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R410">
         <v>1.8</v>
@@ -36952,13 +36997,13 @@
         <v>2.05</v>
       </c>
       <c r="T410">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U410">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V410">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W410">
         <v>0</v>
@@ -36981,7 +37026,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7658979</v>
+        <v>7658978</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -36990,49 +37035,49 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45403.66666666666</v>
+        <v>45402.75</v>
       </c>
       <c r="F411" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G411" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K411">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L411">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M411">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N411">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O411">
         <v>3.1</v>
       </c>
       <c r="P411">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q411">
         <v>-0.25</v>
       </c>
       <c r="R411">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S411">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T411">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U411">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V411">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W411">
         <v>0</v>
@@ -37055,7 +37100,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7658983</v>
+        <v>7658911</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37064,13 +37109,13 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45403.75694444445</v>
+        <v>45402.84027777778</v>
       </c>
       <c r="F412" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G412" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K412">
         <v>1.727</v>
@@ -37079,34 +37124,34 @@
         <v>3.4</v>
       </c>
       <c r="M412">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N412">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O412">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P412">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q412">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R412">
+        <v>2.1</v>
+      </c>
+      <c r="S412">
+        <v>1.775</v>
+      </c>
+      <c r="T412">
+        <v>2.25</v>
+      </c>
+      <c r="U412">
+        <v>1.9</v>
+      </c>
+      <c r="V412">
         <v>1.95</v>
-      </c>
-      <c r="S412">
-        <v>1.9</v>
-      </c>
-      <c r="T412">
-        <v>2.5</v>
-      </c>
-      <c r="U412">
-        <v>2.05</v>
-      </c>
-      <c r="V412">
-        <v>1.8</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37129,7 +37174,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7658980</v>
+        <v>7736842</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37138,49 +37183,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45403.84722222222</v>
+        <v>45402.9375</v>
       </c>
       <c r="F413" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G413" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K413">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L413">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M413">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N413">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O413">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P413">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q413">
         <v>-0.25</v>
       </c>
       <c r="R413">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S413">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T413">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U413">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V413">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37203,72 +37248,294 @@
         <v>412</v>
       </c>
       <c r="B414">
+        <v>7658979</v>
+      </c>
+      <c r="C414" t="s">
+        <v>28</v>
+      </c>
+      <c r="D414" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45403.66666666666</v>
+      </c>
+      <c r="F414" t="s">
+        <v>42</v>
+      </c>
+      <c r="G414" t="s">
+        <v>36</v>
+      </c>
+      <c r="K414">
+        <v>1.95</v>
+      </c>
+      <c r="L414">
+        <v>3.25</v>
+      </c>
+      <c r="M414">
+        <v>4</v>
+      </c>
+      <c r="N414">
+        <v>2.3</v>
+      </c>
+      <c r="O414">
+        <v>3.2</v>
+      </c>
+      <c r="P414">
+        <v>3.3</v>
+      </c>
+      <c r="Q414">
+        <v>-0.25</v>
+      </c>
+      <c r="R414">
+        <v>1.975</v>
+      </c>
+      <c r="S414">
+        <v>1.875</v>
+      </c>
+      <c r="T414">
+        <v>2</v>
+      </c>
+      <c r="U414">
+        <v>1.775</v>
+      </c>
+      <c r="V414">
+        <v>2.1</v>
+      </c>
+      <c r="W414">
+        <v>0</v>
+      </c>
+      <c r="X414">
+        <v>0</v>
+      </c>
+      <c r="Y414">
+        <v>0</v>
+      </c>
+      <c r="Z414">
+        <v>0</v>
+      </c>
+      <c r="AA414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>7658983</v>
+      </c>
+      <c r="C415" t="s">
+        <v>28</v>
+      </c>
+      <c r="D415" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" s="2">
+        <v>45403.75694444445</v>
+      </c>
+      <c r="F415" t="s">
+        <v>48</v>
+      </c>
+      <c r="G415" t="s">
+        <v>37</v>
+      </c>
+      <c r="K415">
+        <v>1.727</v>
+      </c>
+      <c r="L415">
+        <v>3.4</v>
+      </c>
+      <c r="M415">
+        <v>5</v>
+      </c>
+      <c r="N415">
+        <v>1.7</v>
+      </c>
+      <c r="O415">
+        <v>3.5</v>
+      </c>
+      <c r="P415">
+        <v>5.5</v>
+      </c>
+      <c r="Q415">
+        <v>-0.75</v>
+      </c>
+      <c r="R415">
+        <v>1.925</v>
+      </c>
+      <c r="S415">
+        <v>1.925</v>
+      </c>
+      <c r="T415">
+        <v>2.25</v>
+      </c>
+      <c r="U415">
+        <v>1.8</v>
+      </c>
+      <c r="V415">
+        <v>2.05</v>
+      </c>
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415">
+        <v>0</v>
+      </c>
+      <c r="Y415">
+        <v>0</v>
+      </c>
+      <c r="Z415">
+        <v>0</v>
+      </c>
+      <c r="AA415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>7658980</v>
+      </c>
+      <c r="C416" t="s">
+        <v>28</v>
+      </c>
+      <c r="D416" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45403.84722222222</v>
+      </c>
+      <c r="F416" t="s">
+        <v>31</v>
+      </c>
+      <c r="G416" t="s">
+        <v>30</v>
+      </c>
+      <c r="K416">
+        <v>1.909</v>
+      </c>
+      <c r="L416">
+        <v>3.25</v>
+      </c>
+      <c r="M416">
+        <v>4.2</v>
+      </c>
+      <c r="N416">
+        <v>2.25</v>
+      </c>
+      <c r="O416">
+        <v>3.2</v>
+      </c>
+      <c r="P416">
+        <v>3.4</v>
+      </c>
+      <c r="Q416">
+        <v>-0.25</v>
+      </c>
+      <c r="R416">
+        <v>1.925</v>
+      </c>
+      <c r="S416">
+        <v>1.925</v>
+      </c>
+      <c r="T416">
+        <v>2.25</v>
+      </c>
+      <c r="U416">
+        <v>2.025</v>
+      </c>
+      <c r="V416">
+        <v>1.825</v>
+      </c>
+      <c r="W416">
+        <v>0</v>
+      </c>
+      <c r="X416">
+        <v>0</v>
+      </c>
+      <c r="Y416">
+        <v>0</v>
+      </c>
+      <c r="Z416">
+        <v>0</v>
+      </c>
+      <c r="AA416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
         <v>7658982</v>
       </c>
-      <c r="C414" t="s">
-        <v>28</v>
-      </c>
-      <c r="D414" t="s">
-        <v>28</v>
-      </c>
-      <c r="E414" s="2">
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="2">
         <v>45403.9375</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F417" t="s">
         <v>43</v>
       </c>
-      <c r="G414" t="s">
+      <c r="G417" t="s">
         <v>49</v>
       </c>
-      <c r="K414">
+      <c r="K417">
         <v>1.444</v>
       </c>
-      <c r="L414">
+      <c r="L417">
         <v>4</v>
       </c>
-      <c r="M414">
+      <c r="M417">
         <v>7.5</v>
       </c>
-      <c r="N414">
-        <v>1.571</v>
-      </c>
-      <c r="O414">
-        <v>3.75</v>
-      </c>
-      <c r="P414">
-        <v>5.75</v>
-      </c>
-      <c r="Q414">
-        <v>-0.75</v>
-      </c>
-      <c r="R414">
-        <v>1.775</v>
-      </c>
-      <c r="S414">
-        <v>2.1</v>
-      </c>
-      <c r="T414">
+      <c r="N417">
+        <v>1.5</v>
+      </c>
+      <c r="O417">
+        <v>4</v>
+      </c>
+      <c r="P417">
+        <v>7</v>
+      </c>
+      <c r="Q417">
+        <v>-1</v>
+      </c>
+      <c r="R417">
+        <v>1.925</v>
+      </c>
+      <c r="S417">
+        <v>1.925</v>
+      </c>
+      <c r="T417">
         <v>2.25</v>
       </c>
-      <c r="U414">
-        <v>1.925</v>
-      </c>
-      <c r="V414">
-        <v>1.925</v>
-      </c>
-      <c r="W414">
-        <v>0</v>
-      </c>
-      <c r="X414">
-        <v>0</v>
-      </c>
-      <c r="Y414">
-        <v>0</v>
-      </c>
-      <c r="Z414">
-        <v>0</v>
-      </c>
-      <c r="AA414">
+      <c r="U417">
+        <v>1.9</v>
+      </c>
+      <c r="V417">
+        <v>1.95</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>3.8</v>
-      </c>
-      <c r="P13">
-        <v>5.25</v>
-      </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K209">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M209">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P209">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
         <v>1.95</v>
       </c>
-      <c r="S209">
-        <v>1.9</v>
-      </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404216</v>
+        <v>7404214</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="L210">
         <v>3.1</v>
       </c>
       <c r="M210">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N210">
+        <v>3.6</v>
+      </c>
+      <c r="O210">
+        <v>3</v>
+      </c>
+      <c r="P210">
         <v>2.25</v>
       </c>
-      <c r="O210">
-        <v>3.2</v>
-      </c>
-      <c r="P210">
-        <v>3.3</v>
-      </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
         <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,58 +19253,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>54</v>
       </c>
       <c r="K211">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19313,16 +19313,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,76 +19342,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O212">
         <v>3.2</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
         <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
         <v>1.825</v>
       </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
       <c r="W212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>0.825</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
         <v>3.1</v>
       </c>
       <c r="M213">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
         <v>3.6</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q213">
         <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
         <v>1</v>
       </c>
-      <c r="I214">
-        <v>2</v>
-      </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
         <v>3.25</v>
       </c>
-      <c r="L215">
-        <v>3.1</v>
-      </c>
       <c r="M215">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N215">
+        <v>1.75</v>
+      </c>
+      <c r="O215">
         <v>3.6</v>
       </c>
-      <c r="O215">
-        <v>3.2</v>
-      </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC215">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L216">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P216">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,49 +19787,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
+        <v>3.6</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
         <v>2.1</v>
       </c>
-      <c r="O217">
-        <v>3.1</v>
-      </c>
-      <c r="P217">
-        <v>3.8</v>
-      </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
         <v>1.85</v>
@@ -19838,19 +19838,19 @@
         <v>1.95</v>
       </c>
       <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
         <v>1.1</v>
       </c>
-      <c r="X217">
-        <v>-1</v>
-      </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
         <v>0.8500000000000001</v>
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -36952,7 +36952,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7658974</v>
+        <v>7658976</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36961,64 +36961,79 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45401.92361111111</v>
+        <v>45400.93055555555</v>
       </c>
       <c r="F410" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G410" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410" t="s">
+        <v>53</v>
       </c>
       <c r="K410">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="L410">
         <v>3.6</v>
       </c>
       <c r="M410">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N410">
+        <v>1.45</v>
+      </c>
+      <c r="O410">
+        <v>4</v>
+      </c>
+      <c r="P410">
+        <v>8</v>
+      </c>
+      <c r="Q410">
+        <v>-1.25</v>
+      </c>
+      <c r="R410">
+        <v>2.025</v>
+      </c>
+      <c r="S410">
+        <v>1.775</v>
+      </c>
+      <c r="T410">
+        <v>2.5</v>
+      </c>
+      <c r="U410">
+        <v>2</v>
+      </c>
+      <c r="V410">
         <v>1.8</v>
       </c>
-      <c r="O410">
-        <v>3.4</v>
-      </c>
-      <c r="P410">
-        <v>5</v>
-      </c>
-      <c r="Q410">
-        <v>-0.5</v>
-      </c>
-      <c r="R410">
-        <v>1.8</v>
-      </c>
-      <c r="S410">
-        <v>2.05</v>
-      </c>
-      <c r="T410">
-        <v>2.25</v>
-      </c>
-      <c r="U410">
-        <v>2</v>
-      </c>
-      <c r="V410">
-        <v>1.85</v>
-      </c>
       <c r="W410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X410">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB410">
+        <v>-1</v>
+      </c>
+      <c r="AC410">
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37148,10 +37163,10 @@
         <v>2.25</v>
       </c>
       <c r="U412">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V412">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W412">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="AA14">
-        <v>0.45</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404213</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
         <v>3.25</v>
       </c>
-      <c r="L213">
-        <v>3.1</v>
-      </c>
       <c r="M213">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
         <v>3.6</v>
       </c>
-      <c r="O213">
-        <v>3.2</v>
-      </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404219</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,16 +19666,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
         <v>1</v>
-      </c>
-      <c r="I216">
-        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N216">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>6.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
+        <v>1.444</v>
+      </c>
+      <c r="L217">
+        <v>4.5</v>
+      </c>
+      <c r="M217">
+        <v>6</v>
+      </c>
+      <c r="N217">
+        <v>1.363</v>
+      </c>
+      <c r="O217">
+        <v>5</v>
+      </c>
+      <c r="P217">
+        <v>7.5</v>
+      </c>
+      <c r="Q217">
+        <v>-1.25</v>
+      </c>
+      <c r="R217">
+        <v>1.775</v>
+      </c>
+      <c r="S217">
+        <v>2.025</v>
+      </c>
+      <c r="T217">
         <v>3</v>
       </c>
-      <c r="L217">
-        <v>3.1</v>
-      </c>
-      <c r="M217">
-        <v>2.3</v>
-      </c>
-      <c r="N217">
-        <v>3.6</v>
-      </c>
-      <c r="O217">
-        <v>3.4</v>
-      </c>
-      <c r="P217">
-        <v>2.1</v>
-      </c>
-      <c r="Q217">
-        <v>0.25</v>
-      </c>
-      <c r="R217">
-        <v>2.025</v>
-      </c>
-      <c r="S217">
-        <v>1.775</v>
-      </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -37041,7 +37041,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7658978</v>
+        <v>7658979</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37050,49 +37050,49 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45402.75</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F411" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G411" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K411">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L411">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N411">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P411">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q411">
         <v>-0.25</v>
       </c>
       <c r="R411">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S411">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T411">
         <v>2</v>
       </c>
       <c r="U411">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V411">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W411">
         <v>0</v>
@@ -37115,7 +37115,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7658911</v>
+        <v>7658983</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37124,13 +37124,13 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45402.84027777778</v>
+        <v>45403.75694444445</v>
       </c>
       <c r="F412" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G412" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K412">
         <v>1.727</v>
@@ -37139,34 +37139,34 @@
         <v>3.4</v>
       </c>
       <c r="M412">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N412">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O412">
         <v>3.75</v>
       </c>
       <c r="P412">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q412">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R412">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S412">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T412">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U412">
+        <v>1.975</v>
+      </c>
+      <c r="V412">
         <v>1.875</v>
-      </c>
-      <c r="V412">
-        <v>1.975</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37189,7 +37189,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7736842</v>
+        <v>7658980</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37198,49 +37198,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45402.9375</v>
+        <v>45403.84722222222</v>
       </c>
       <c r="F413" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G413" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K413">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L413">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M413">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N413">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O413">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P413">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q413">
         <v>-0.25</v>
       </c>
       <c r="R413">
+        <v>1.95</v>
+      </c>
+      <c r="S413">
+        <v>1.9</v>
+      </c>
+      <c r="T413">
+        <v>2.25</v>
+      </c>
+      <c r="U413">
+        <v>2.05</v>
+      </c>
+      <c r="V413">
         <v>1.8</v>
-      </c>
-      <c r="S413">
-        <v>2.05</v>
-      </c>
-      <c r="T413">
-        <v>2</v>
-      </c>
-      <c r="U413">
-        <v>1.8</v>
-      </c>
-      <c r="V413">
-        <v>2.05</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37263,7 +37263,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7658979</v>
+        <v>7658982</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37272,49 +37272,49 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45403.66666666666</v>
+        <v>45403.9375</v>
       </c>
       <c r="F414" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G414" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="K414">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L414">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M414">
+        <v>7.5</v>
+      </c>
+      <c r="N414">
+        <v>1.45</v>
+      </c>
+      <c r="O414">
         <v>4</v>
       </c>
-      <c r="N414">
-        <v>2.3</v>
-      </c>
-      <c r="O414">
-        <v>3.2</v>
-      </c>
       <c r="P414">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R414">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S414">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T414">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U414">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V414">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37337,7 +37337,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7658983</v>
+        <v>7658981</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37346,43 +37346,43 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45403.75694444445</v>
+        <v>45404.75</v>
       </c>
       <c r="F415" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G415" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K415">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L415">
+        <v>3.2</v>
+      </c>
+      <c r="M415">
+        <v>3.8</v>
+      </c>
+      <c r="N415">
+        <v>1.8</v>
+      </c>
+      <c r="O415">
         <v>3.4</v>
       </c>
-      <c r="M415">
+      <c r="P415">
         <v>5</v>
       </c>
-      <c r="N415">
-        <v>1.7</v>
-      </c>
-      <c r="O415">
-        <v>3.5</v>
-      </c>
-      <c r="P415">
-        <v>5.5</v>
-      </c>
       <c r="Q415">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R415">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S415">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U415">
         <v>1.8</v>
@@ -37411,7 +37411,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7658980</v>
+        <v>7658984</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37420,49 +37420,49 @@
         <v>28</v>
       </c>
       <c r="E416" s="2">
-        <v>45403.84722222222</v>
+        <v>45404.84027777778</v>
       </c>
       <c r="F416" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G416" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K416">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L416">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M416">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N416">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P416">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R416">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S416">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U416">
+        <v>1.825</v>
+      </c>
+      <c r="V416">
         <v>2.025</v>
-      </c>
-      <c r="V416">
-        <v>1.825</v>
       </c>
       <c r="W416">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7658982</v>
+        <v>7658912</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37494,49 +37494,49 @@
         <v>28</v>
       </c>
       <c r="E417" s="2">
-        <v>45403.9375</v>
+        <v>45404.93055555555</v>
       </c>
       <c r="F417" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G417" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K417">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="L417">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M417">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N417">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O417">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P417">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q417">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R417">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S417">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="T417">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U417">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V417">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W417">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC417"/>
+  <dimension ref="A1:AC421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,58 +1542,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>5.5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.8</v>
-      </c>
-      <c r="P12">
-        <v>5.25</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1602,13 +1602,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,58 +1631,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,76 +1720,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,76 +1809,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K208">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L208">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O208">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P208">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R208">
         <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>54</v>
       </c>
       <c r="K209">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L210">
         <v>3.1</v>
       </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
         <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,76 +19253,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N211">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
         <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
         <v>0.825</v>
-      </c>
-      <c r="AC211">
-        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,10 +19342,10 @@
         <v>45237.89583333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19357,61 +19357,61 @@
         <v>53</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.875</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,55 +19431,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>55</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19488,19 +19488,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,55 +19609,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>55</v>
       </c>
       <c r="K215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
         <v>3.1</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N215">
         <v>3.6</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19666,19 +19666,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19686,7 +19686,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,55 +19698,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>55</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L216">
         <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N216">
         <v>3.6</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19755,19 +19755,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,55 +19787,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
         <v>55</v>
       </c>
       <c r="K217">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N217">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O217">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19844,19 +19844,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
         <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21822,7 +21822,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21834,58 +21834,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>54</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21894,13 +21894,13 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,58 +21923,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>54</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21983,13 +21983,13 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -37041,7 +37041,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7658979</v>
+        <v>7658974</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37050,64 +37050,79 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45403.66666666666</v>
+        <v>45401.92361111111</v>
       </c>
       <c r="F411" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G411" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H411">
+        <v>2</v>
+      </c>
+      <c r="I411">
+        <v>3</v>
+      </c>
+      <c r="J411" t="s">
+        <v>55</v>
       </c>
       <c r="K411">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="L411">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M411">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N411">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O411">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P411">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q411">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R411">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S411">
         <v>1.9</v>
       </c>
       <c r="T411">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V411">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y411">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA411">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB411">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC411">
+        <v>-1</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37115,7 +37130,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7658983</v>
+        <v>7658978</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37124,64 +37139,79 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45403.75694444445</v>
+        <v>45402.75</v>
       </c>
       <c r="F412" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G412" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H412">
+        <v>1</v>
+      </c>
+      <c r="I412">
+        <v>2</v>
+      </c>
+      <c r="J412" t="s">
+        <v>55</v>
       </c>
       <c r="K412">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L412">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M412">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N412">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O412">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q412">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R412">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S412">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T412">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U412">
         <v>1.975</v>
       </c>
       <c r="V412">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y412">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA412">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB412">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC412">
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37189,7 +37219,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7658980</v>
+        <v>7658911</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37198,64 +37228,79 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45403.84722222222</v>
+        <v>45402.84027777778</v>
       </c>
       <c r="F413" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G413" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H413">
+        <v>1</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413" t="s">
+        <v>54</v>
       </c>
       <c r="K413">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L413">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M413">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N413">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O413">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P413">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R413">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S413">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T413">
         <v>2.25</v>
       </c>
       <c r="U413">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V413">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W413">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X413">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y413">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA413">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB413">
+        <v>-1</v>
+      </c>
+      <c r="AC413">
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37263,7 +37308,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7658982</v>
+        <v>7736842</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37272,64 +37317,79 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45403.9375</v>
+        <v>45402.9375</v>
       </c>
       <c r="F414" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G414" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="H414">
+        <v>2</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+      <c r="J414" t="s">
+        <v>54</v>
       </c>
       <c r="K414">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L414">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M414">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N414">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O414">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P414">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q414">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R414">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S414">
+        <v>2.05</v>
+      </c>
+      <c r="T414">
+        <v>2</v>
+      </c>
+      <c r="U414">
         <v>1.775</v>
       </c>
-      <c r="T414">
-        <v>2.25</v>
-      </c>
-      <c r="U414">
-        <v>1.85</v>
-      </c>
       <c r="V414">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W414">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X414">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y414">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z414">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA414">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB414">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC414">
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37337,7 +37397,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7658981</v>
+        <v>7658979</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37346,40 +37406,40 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45404.75</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F415" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G415" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K415">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L415">
+        <v>3.25</v>
+      </c>
+      <c r="M415">
+        <v>4</v>
+      </c>
+      <c r="N415">
+        <v>2.3</v>
+      </c>
+      <c r="O415">
         <v>3.2</v>
       </c>
-      <c r="M415">
-        <v>3.8</v>
-      </c>
-      <c r="N415">
-        <v>1.8</v>
-      </c>
-      <c r="O415">
-        <v>3.4</v>
-      </c>
       <c r="P415">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q415">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T415">
         <v>2</v>
@@ -37411,7 +37471,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7658984</v>
+        <v>7658983</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37420,49 +37480,49 @@
         <v>28</v>
       </c>
       <c r="E416" s="2">
-        <v>45404.84027777778</v>
+        <v>45403.75694444445</v>
       </c>
       <c r="F416" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G416" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K416">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L416">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M416">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N416">
+        <v>1.65</v>
+      </c>
+      <c r="O416">
+        <v>3.75</v>
+      </c>
+      <c r="P416">
+        <v>5.75</v>
+      </c>
+      <c r="Q416">
+        <v>-0.75</v>
+      </c>
+      <c r="R416">
+        <v>1.825</v>
+      </c>
+      <c r="S416">
+        <v>2.025</v>
+      </c>
+      <c r="T416">
         <v>2.5</v>
       </c>
-      <c r="O416">
-        <v>3.1</v>
-      </c>
-      <c r="P416">
-        <v>3.1</v>
-      </c>
-      <c r="Q416">
-        <v>0</v>
-      </c>
-      <c r="R416">
-        <v>1.775</v>
-      </c>
-      <c r="S416">
-        <v>2.1</v>
-      </c>
-      <c r="T416">
-        <v>2</v>
-      </c>
       <c r="U416">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V416">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W416">
         <v>0</v>
@@ -37485,72 +37545,368 @@
         <v>415</v>
       </c>
       <c r="B417">
+        <v>7658980</v>
+      </c>
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45403.84722222222</v>
+      </c>
+      <c r="F417" t="s">
+        <v>31</v>
+      </c>
+      <c r="G417" t="s">
+        <v>30</v>
+      </c>
+      <c r="K417">
+        <v>1.909</v>
+      </c>
+      <c r="L417">
+        <v>3.25</v>
+      </c>
+      <c r="M417">
+        <v>4.2</v>
+      </c>
+      <c r="N417">
+        <v>2.25</v>
+      </c>
+      <c r="O417">
+        <v>3.2</v>
+      </c>
+      <c r="P417">
+        <v>3.4</v>
+      </c>
+      <c r="Q417">
+        <v>-0.25</v>
+      </c>
+      <c r="R417">
+        <v>1.95</v>
+      </c>
+      <c r="S417">
+        <v>1.9</v>
+      </c>
+      <c r="T417">
+        <v>2.25</v>
+      </c>
+      <c r="U417">
+        <v>2.05</v>
+      </c>
+      <c r="V417">
+        <v>1.8</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>7658982</v>
+      </c>
+      <c r="C418" t="s">
+        <v>28</v>
+      </c>
+      <c r="D418" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" s="2">
+        <v>45403.9375</v>
+      </c>
+      <c r="F418" t="s">
+        <v>43</v>
+      </c>
+      <c r="G418" t="s">
+        <v>49</v>
+      </c>
+      <c r="K418">
+        <v>1.444</v>
+      </c>
+      <c r="L418">
+        <v>4</v>
+      </c>
+      <c r="M418">
+        <v>7.5</v>
+      </c>
+      <c r="N418">
+        <v>1.45</v>
+      </c>
+      <c r="O418">
+        <v>4</v>
+      </c>
+      <c r="P418">
+        <v>8</v>
+      </c>
+      <c r="Q418">
+        <v>-1.25</v>
+      </c>
+      <c r="R418">
+        <v>2.1</v>
+      </c>
+      <c r="S418">
+        <v>1.775</v>
+      </c>
+      <c r="T418">
+        <v>2.25</v>
+      </c>
+      <c r="U418">
+        <v>1.85</v>
+      </c>
+      <c r="V418">
+        <v>2</v>
+      </c>
+      <c r="W418">
+        <v>0</v>
+      </c>
+      <c r="X418">
+        <v>0</v>
+      </c>
+      <c r="Y418">
+        <v>0</v>
+      </c>
+      <c r="Z418">
+        <v>0</v>
+      </c>
+      <c r="AA418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>7658981</v>
+      </c>
+      <c r="C419" t="s">
+        <v>28</v>
+      </c>
+      <c r="D419" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" s="2">
+        <v>45404.75</v>
+      </c>
+      <c r="F419" t="s">
+        <v>50</v>
+      </c>
+      <c r="G419" t="s">
+        <v>45</v>
+      </c>
+      <c r="K419">
+        <v>2.05</v>
+      </c>
+      <c r="L419">
+        <v>3.2</v>
+      </c>
+      <c r="M419">
+        <v>3.8</v>
+      </c>
+      <c r="N419">
+        <v>1.8</v>
+      </c>
+      <c r="O419">
+        <v>3.4</v>
+      </c>
+      <c r="P419">
+        <v>5</v>
+      </c>
+      <c r="Q419">
+        <v>-0.5</v>
+      </c>
+      <c r="R419">
+        <v>1.825</v>
+      </c>
+      <c r="S419">
+        <v>2.025</v>
+      </c>
+      <c r="T419">
+        <v>2</v>
+      </c>
+      <c r="U419">
+        <v>1.8</v>
+      </c>
+      <c r="V419">
+        <v>2.05</v>
+      </c>
+      <c r="W419">
+        <v>0</v>
+      </c>
+      <c r="X419">
+        <v>0</v>
+      </c>
+      <c r="Y419">
+        <v>0</v>
+      </c>
+      <c r="Z419">
+        <v>0</v>
+      </c>
+      <c r="AA419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:27">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>7658984</v>
+      </c>
+      <c r="C420" t="s">
+        <v>28</v>
+      </c>
+      <c r="D420" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="2">
+        <v>45404.84027777778</v>
+      </c>
+      <c r="F420" t="s">
+        <v>35</v>
+      </c>
+      <c r="G420" t="s">
+        <v>33</v>
+      </c>
+      <c r="K420">
+        <v>2.6</v>
+      </c>
+      <c r="L420">
+        <v>3</v>
+      </c>
+      <c r="M420">
+        <v>3</v>
+      </c>
+      <c r="N420">
+        <v>2.5</v>
+      </c>
+      <c r="O420">
+        <v>3.1</v>
+      </c>
+      <c r="P420">
+        <v>3.1</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>1.775</v>
+      </c>
+      <c r="S420">
+        <v>2.1</v>
+      </c>
+      <c r="T420">
+        <v>2</v>
+      </c>
+      <c r="U420">
+        <v>1.825</v>
+      </c>
+      <c r="V420">
+        <v>2.025</v>
+      </c>
+      <c r="W420">
+        <v>0</v>
+      </c>
+      <c r="X420">
+        <v>0</v>
+      </c>
+      <c r="Y420">
+        <v>0</v>
+      </c>
+      <c r="Z420">
+        <v>0</v>
+      </c>
+      <c r="AA420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
         <v>7658912</v>
       </c>
-      <c r="C417" t="s">
-        <v>28</v>
-      </c>
-      <c r="D417" t="s">
-        <v>28</v>
-      </c>
-      <c r="E417" s="2">
+      <c r="C421" t="s">
+        <v>28</v>
+      </c>
+      <c r="D421" t="s">
+        <v>28</v>
+      </c>
+      <c r="E421" s="2">
         <v>45404.93055555555</v>
       </c>
-      <c r="F417" t="s">
+      <c r="F421" t="s">
         <v>29</v>
       </c>
-      <c r="G417" t="s">
+      <c r="G421" t="s">
         <v>44</v>
       </c>
-      <c r="K417">
+      <c r="K421">
         <v>3.2</v>
       </c>
-      <c r="L417">
+      <c r="L421">
         <v>2.875</v>
       </c>
-      <c r="M417">
+      <c r="M421">
         <v>2.5</v>
       </c>
-      <c r="N417">
+      <c r="N421">
         <v>3.2</v>
       </c>
-      <c r="O417">
+      <c r="O421">
         <v>3</v>
       </c>
-      <c r="P417">
+      <c r="P421">
         <v>2.5</v>
       </c>
-      <c r="Q417">
+      <c r="Q421">
         <v>0.25</v>
       </c>
-      <c r="R417">
+      <c r="R421">
         <v>1.75</v>
       </c>
-      <c r="S417">
+      <c r="S421">
         <v>2.125</v>
       </c>
-      <c r="T417">
-        <v>2</v>
-      </c>
-      <c r="U417">
+      <c r="T421">
+        <v>2</v>
+      </c>
+      <c r="U421">
         <v>1.975</v>
       </c>
-      <c r="V417">
+      <c r="V421">
         <v>1.875</v>
       </c>
-      <c r="W417">
-        <v>0</v>
-      </c>
-      <c r="X417">
-        <v>0</v>
-      </c>
-      <c r="Y417">
-        <v>0</v>
-      </c>
-      <c r="Z417">
-        <v>0</v>
-      </c>
-      <c r="AA417">
+      <c r="W421">
+        <v>0</v>
+      </c>
+      <c r="X421">
+        <v>0</v>
+      </c>
+      <c r="Y421">
+        <v>0</v>
+      </c>
+      <c r="Z421">
+        <v>0</v>
+      </c>
+      <c r="AA421">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB418"/>
+  <dimension ref="A1:AB419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,10 +789,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -961,10 +961,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>0.8999999999999999</v>
@@ -1047,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1133,10 +1133,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1219,10 +1219,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0.925</v>
@@ -1391,10 +1391,10 @@
         <v>1.8</v>
       </c>
       <c r="Y10">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1503,58 +1503,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>53</v>
       </c>
       <c r="J12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1563,13 +1563,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1589,58 +1589,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>53</v>
       </c>
       <c r="J13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="K13">
+        <v>3.5</v>
+      </c>
+      <c r="L13">
+        <v>4.2</v>
+      </c>
+      <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
+        <v>3.3</v>
+      </c>
+      <c r="O13">
         <v>3.75</v>
       </c>
-      <c r="L13">
-        <v>5.5</v>
-      </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
-      <c r="N13">
-        <v>3.8</v>
-      </c>
-      <c r="O13">
-        <v>5.25</v>
-      </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1649,13 +1649,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1675,76 +1675,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
+        <v>0.5</v>
+      </c>
+      <c r="Z14">
         <v>-0.5</v>
       </c>
-      <c r="Z14">
-        <v>0.45</v>
-      </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1761,76 +1761,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
+        <v>1.95</v>
+      </c>
+      <c r="U15">
         <v>1.85</v>
       </c>
-      <c r="S15">
-        <v>2.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
       <c r="V15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z15">
+        <v>0.45</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1993,10 +1993,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>0.75</v>
@@ -2079,10 +2079,10 @@
         <v>2.4</v>
       </c>
       <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
       </c>
       <c r="AA18">
         <v>0.8500000000000001</v>
@@ -2165,10 +2165,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.8999999999999999</v>
@@ -2337,10 +2337,10 @@
         <v>2.8</v>
       </c>
       <c r="Y21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2509,10 +2509,10 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2681,10 +2681,10 @@
         <v>2.5</v>
       </c>
       <c r="Y25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
         <v>-0.5</v>
@@ -2767,10 +2767,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2853,10 +2853,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>0.875</v>
@@ -3197,10 +3197,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3283,10 +3283,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3369,10 +3369,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>1.025</v>
@@ -3541,10 +3541,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3627,10 +3627,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
         <v>0.825</v>
@@ -3713,10 +3713,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>0.95</v>
@@ -3885,10 +3885,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
@@ -4057,10 +4057,10 @@
         <v>1.8</v>
       </c>
       <c r="Y41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -4229,10 +4229,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4401,10 +4401,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.8999999999999999</v>
@@ -4659,10 +4659,10 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4917,10 +4917,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.9750000000000001</v>
@@ -5089,10 +5089,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z53">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5175,10 +5175,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.8999999999999999</v>
@@ -5261,10 +5261,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5347,10 +5347,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5605,10 +5605,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5691,10 +5691,10 @@
         <v>3.2</v>
       </c>
       <c r="Y60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
         <v>0.8</v>
@@ -5777,10 +5777,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -5863,10 +5863,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
         <v>0.825</v>
@@ -6035,10 +6035,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.925</v>
@@ -6379,10 +6379,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -6465,10 +6465,10 @@
         <v>1.2</v>
       </c>
       <c r="Y69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6637,10 +6637,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
         <v>0.825</v>
@@ -6723,10 +6723,10 @@
         <v>2.1</v>
       </c>
       <c r="Y72">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6809,10 +6809,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6895,10 +6895,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-0.5</v>
@@ -6981,10 +6981,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>1.025</v>
@@ -7153,10 +7153,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>-0.5</v>
@@ -7325,10 +7325,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7497,10 +7497,10 @@
         <v>1.4</v>
       </c>
       <c r="Y81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>0.9750000000000001</v>
@@ -7583,10 +7583,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0</v>
@@ -7755,10 +7755,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7841,10 +7841,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>-0.5</v>
@@ -8099,10 +8099,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8185,10 +8185,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8357,10 +8357,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>-0.5</v>
@@ -8443,10 +8443,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8701,10 +8701,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -8787,10 +8787,10 @@
         <v>1.625</v>
       </c>
       <c r="Y96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
         <v>0.9750000000000001</v>
@@ -8873,10 +8873,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
         <v>-0.5</v>
@@ -8959,10 +8959,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>0</v>
@@ -9045,10 +9045,10 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
         <v>1</v>
@@ -9131,10 +9131,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z100">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9217,10 +9217,10 @@
         <v>5.5</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>1</v>
@@ -9475,10 +9475,10 @@
         <v>3</v>
       </c>
       <c r="Y104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>0.9750000000000001</v>
@@ -9647,10 +9647,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z106">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9819,10 +9819,10 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
         <v>0.875</v>
@@ -9905,10 +9905,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -9991,10 +9991,10 @@
         <v>2.75</v>
       </c>
       <c r="Y110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA110">
         <v>0.925</v>
@@ -10077,10 +10077,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>0.8500000000000001</v>
@@ -10163,10 +10163,10 @@
         <v>2.75</v>
       </c>
       <c r="Y112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA112">
         <v>0.875</v>
@@ -10335,10 +10335,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0.875</v>
@@ -10421,10 +10421,10 @@
         <v>2.8</v>
       </c>
       <c r="Y115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10507,10 +10507,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
         <v>0.9750000000000001</v>
@@ -10679,10 +10679,10 @@
         <v>1.2</v>
       </c>
       <c r="Y118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -10765,10 +10765,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>0.7749999999999999</v>
@@ -10937,10 +10937,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA121">
         <v>0.925</v>
@@ -11023,10 +11023,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11109,10 +11109,10 @@
         <v>1.6</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA123">
         <v>0.825</v>
@@ -11281,10 +11281,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>0.8999999999999999</v>
@@ -11367,10 +11367,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>0.8500000000000001</v>
@@ -11453,10 +11453,10 @@
         <v>7</v>
       </c>
       <c r="Y127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
@@ -11711,10 +11711,10 @@
         <v>2</v>
       </c>
       <c r="Y130">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
         <v>0.8500000000000001</v>
@@ -11797,10 +11797,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12227,10 +12227,10 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z136">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
         <v>1.025</v>
@@ -12399,10 +12399,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.8500000000000001</v>
@@ -12485,10 +12485,10 @@
         <v>4.25</v>
       </c>
       <c r="Y139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
         <v>0.75</v>
@@ -12571,10 +12571,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-0.5</v>
@@ -12657,10 +12657,10 @@
         <v>3.2</v>
       </c>
       <c r="Y141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>-0.5</v>
@@ -12743,10 +12743,10 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA142">
         <v>0.95</v>
@@ -13087,10 +13087,10 @@
         <v>3.5</v>
       </c>
       <c r="Y146">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13173,10 +13173,10 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>0.8</v>
@@ -13259,10 +13259,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13345,10 +13345,10 @@
         <v>3</v>
       </c>
       <c r="Y149">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13431,10 +13431,10 @@
         <v>1</v>
       </c>
       <c r="Y150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
         <v>0.925</v>
@@ -13517,10 +13517,10 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
         <v>0</v>
@@ -13603,10 +13603,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z152">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>0.9750000000000001</v>
@@ -13689,10 +13689,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -13775,10 +13775,10 @@
         <v>2.5</v>
       </c>
       <c r="Y154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
         <v>1</v>
@@ -13861,10 +13861,10 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14033,10 +14033,10 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-0.5</v>
@@ -14205,10 +14205,10 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z159">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>0.875</v>
@@ -14291,10 +14291,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>0.7749999999999999</v>
@@ -14377,10 +14377,10 @@
         <v>1.75</v>
       </c>
       <c r="Y161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA161">
         <v>0.8500000000000001</v>
@@ -14549,10 +14549,10 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -14721,10 +14721,10 @@
         <v>1.3</v>
       </c>
       <c r="Y165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA165">
         <v>-1</v>
@@ -14807,10 +14807,10 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
         <v>0.8999999999999999</v>
@@ -14893,10 +14893,10 @@
         <v>1.5</v>
       </c>
       <c r="Y167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA167">
         <v>0.8</v>
@@ -14979,10 +14979,10 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
         <v>0.8</v>
@@ -15065,10 +15065,10 @@
         <v>2.5</v>
       </c>
       <c r="Y169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
         <v>0.8999999999999999</v>
@@ -15151,10 +15151,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
         <v>-1</v>
@@ -15237,10 +15237,10 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15323,10 +15323,10 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
         <v>0.9750000000000001</v>
@@ -15409,10 +15409,10 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15495,10 +15495,10 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
         <v>-0.5</v>
@@ -15667,10 +15667,10 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
         <v>0.825</v>
@@ -15839,10 +15839,10 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z178">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>-1</v>
@@ -15925,10 +15925,10 @@
         <v>1.75</v>
       </c>
       <c r="Y179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
         <v>0.9750000000000001</v>
@@ -16011,10 +16011,10 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -16097,10 +16097,10 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
         <v>0.825</v>
@@ -16269,10 +16269,10 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
         <v>-1</v>
@@ -16441,10 +16441,10 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
         <v>-1</v>
@@ -16613,10 +16613,10 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
         <v>0.825</v>
@@ -16699,10 +16699,10 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -16871,10 +16871,10 @@
         <v>1.625</v>
       </c>
       <c r="Y190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA190">
         <v>0.8500000000000001</v>
@@ -16957,10 +16957,10 @@
         <v>3.75</v>
       </c>
       <c r="Y191">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA191">
         <v>0.925</v>
@@ -17043,10 +17043,10 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
         <v>-1</v>
@@ -17129,10 +17129,10 @@
         <v>1.875</v>
       </c>
       <c r="Y193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA193">
         <v>0.875</v>
@@ -17215,10 +17215,10 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z194">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA194">
         <v>-1</v>
@@ -17301,10 +17301,10 @@
         <v>1.625</v>
       </c>
       <c r="Y195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
         <v>-1</v>
@@ -17387,10 +17387,10 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17473,10 +17473,10 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>0.925</v>
@@ -17559,10 +17559,10 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
         <v>-0.5</v>
@@ -17645,10 +17645,10 @@
         <v>1.8</v>
       </c>
       <c r="Y199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA199">
         <v>0.8999999999999999</v>
@@ -17731,10 +17731,10 @@
         <v>1.8</v>
       </c>
       <c r="Y200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA200">
         <v>0</v>
@@ -18075,10 +18075,10 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18247,10 +18247,10 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z206">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA206">
         <v>0.875</v>
@@ -18333,10 +18333,10 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
         <v>-1</v>
@@ -18522,7 +18522,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404217</v>
+        <v>7404218</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18531,58 +18531,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G210">
         <v>2</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="s">
         <v>53</v>
       </c>
       <c r="J210">
+        <v>1.363</v>
+      </c>
+      <c r="K210">
+        <v>4.5</v>
+      </c>
+      <c r="L210">
+        <v>7</v>
+      </c>
+      <c r="M210">
+        <v>1.3</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210">
+        <v>12</v>
+      </c>
+      <c r="P210">
+        <v>-1.5</v>
+      </c>
+      <c r="Q210">
+        <v>1.9</v>
+      </c>
+      <c r="R210">
         <v>1.95</v>
       </c>
-      <c r="K210">
-        <v>3.2</v>
-      </c>
-      <c r="L210">
-        <v>3.75</v>
-      </c>
-      <c r="M210">
-        <v>1.95</v>
-      </c>
-      <c r="N210">
-        <v>3.2</v>
-      </c>
-      <c r="O210">
-        <v>4.75</v>
-      </c>
-      <c r="P210">
-        <v>-0.5</v>
-      </c>
-      <c r="Q210">
-        <v>1.925</v>
-      </c>
-      <c r="R210">
-        <v>1.875</v>
-      </c>
       <c r="S210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T210">
+        <v>2.025</v>
+      </c>
+      <c r="U210">
         <v>1.825</v>
       </c>
-      <c r="U210">
-        <v>1.975</v>
-      </c>
       <c r="V210">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="W210">
         <v>-1</v>
@@ -18591,16 +18591,16 @@
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
         <v>0.825</v>
-      </c>
-      <c r="AB210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18608,7 +18608,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404216</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18617,76 +18617,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J211">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="K211">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L211">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M211">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="N211">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="P211">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
         <v>1.9</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18694,7 +18694,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404216</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18703,76 +18703,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J212">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K212">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N212">
         <v>3.2</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18780,7 +18780,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18789,55 +18789,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I213" t="s">
         <v>54</v>
       </c>
       <c r="J213">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K213">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="N213">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q213">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
         <v>-1</v>
@@ -18846,19 +18846,19 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18866,7 +18866,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404219</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18875,49 +18875,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J214">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K214">
         <v>3.1</v>
       </c>
       <c r="L214">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="M214">
+        <v>3.6</v>
+      </c>
+      <c r="N214">
+        <v>3.4</v>
+      </c>
+      <c r="O214">
         <v>2.1</v>
       </c>
-      <c r="N214">
-        <v>3.1</v>
-      </c>
-      <c r="O214">
-        <v>3.8</v>
-      </c>
       <c r="P214">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R214">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
         <v>1.85</v>
@@ -18926,19 +18926,19 @@
         <v>1.95</v>
       </c>
       <c r="V214">
+        <v>-1</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
         <v>1.1</v>
       </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>-1</v>
-      </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA214">
         <v>0.8500000000000001</v>
@@ -18952,7 +18952,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18961,55 +18961,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215" t="s">
         <v>54</v>
       </c>
       <c r="J215">
+        <v>1.444</v>
+      </c>
+      <c r="K215">
+        <v>4.5</v>
+      </c>
+      <c r="L215">
+        <v>6</v>
+      </c>
+      <c r="M215">
+        <v>1.363</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215">
+        <v>7.5</v>
+      </c>
+      <c r="P215">
+        <v>-1.25</v>
+      </c>
+      <c r="Q215">
+        <v>1.775</v>
+      </c>
+      <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
         <v>3</v>
       </c>
-      <c r="K215">
-        <v>3.1</v>
-      </c>
-      <c r="L215">
-        <v>2.3</v>
-      </c>
-      <c r="M215">
-        <v>3.6</v>
-      </c>
-      <c r="N215">
-        <v>3.4</v>
-      </c>
-      <c r="O215">
-        <v>2.1</v>
-      </c>
-      <c r="P215">
-        <v>0.25</v>
-      </c>
-      <c r="Q215">
-        <v>2.025</v>
-      </c>
-      <c r="R215">
-        <v>1.775</v>
-      </c>
-      <c r="S215">
-        <v>2.5</v>
-      </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
         <v>-1</v>
@@ -19018,19 +19018,19 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
         <v>1.025</v>
       </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
       <c r="AA215">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19038,7 +19038,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19047,55 +19047,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I216" t="s">
         <v>54</v>
       </c>
       <c r="J216">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="M216">
+        <v>3.6</v>
+      </c>
+      <c r="N216">
+        <v>3.2</v>
+      </c>
+      <c r="O216">
+        <v>2.15</v>
+      </c>
+      <c r="P216">
+        <v>0.25</v>
+      </c>
+      <c r="Q216">
+        <v>1.975</v>
+      </c>
+      <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
+        <v>2</v>
+      </c>
+      <c r="T216">
         <v>1.75</v>
       </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
-      <c r="O216">
-        <v>4.75</v>
-      </c>
-      <c r="P216">
-        <v>-0.75</v>
-      </c>
-      <c r="Q216">
-        <v>2</v>
-      </c>
-      <c r="R216">
-        <v>1.8</v>
-      </c>
-      <c r="S216">
-        <v>2.5</v>
-      </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19104,19 +19104,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Y216">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19124,7 +19124,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19133,76 +19133,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J217">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="K217">
         <v>3.1</v>
       </c>
       <c r="L217">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="M217">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O217">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S217">
         <v>2</v>
       </c>
       <c r="T217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19279,10 +19279,10 @@
         <v>1.875</v>
       </c>
       <c r="Y218">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA218">
         <v>-1</v>
@@ -19365,10 +19365,10 @@
         <v>2.8</v>
       </c>
       <c r="Y219">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA219">
         <v>1.025</v>
@@ -19537,10 +19537,10 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
         <v>0.875</v>
@@ -19623,10 +19623,10 @@
         <v>3.5</v>
       </c>
       <c r="Y222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA222">
         <v>1.125</v>
@@ -19709,10 +19709,10 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
         <v>1</v>
@@ -19795,10 +19795,10 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
         <v>0.95</v>
@@ -19881,10 +19881,10 @@
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
         <v>1.05</v>
@@ -19967,10 +19967,10 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
         <v>0.8500000000000001</v>
@@ -20053,10 +20053,10 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z227">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
         <v>0.925</v>
@@ -20139,10 +20139,10 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z228">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
@@ -20225,10 +20225,10 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
@@ -20397,10 +20397,10 @@
         <v>1.15</v>
       </c>
       <c r="Y231">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA231">
         <v>-0.5</v>
@@ -20483,10 +20483,10 @@
         <v>2.8</v>
       </c>
       <c r="Y232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
@@ -20569,10 +20569,10 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z233">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
         <v>0.8500000000000001</v>
@@ -20655,10 +20655,10 @@
         <v>4</v>
       </c>
       <c r="Y234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -20741,10 +20741,10 @@
         <v>1.2</v>
       </c>
       <c r="Y235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA235">
         <v>-0.5</v>
@@ -20827,10 +20827,10 @@
         <v>1.375</v>
       </c>
       <c r="Y236">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA236">
         <v>0.8999999999999999</v>
@@ -20913,10 +20913,10 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -20930,7 +20930,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C238" t="s">
         <v>27</v>
@@ -20939,64 +20939,64 @@
         <v>45266.83333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F238" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J238">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M238">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="N238">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O238">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R238">
         <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -21005,10 +21005,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21016,7 +21016,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C239" t="s">
         <v>27</v>
@@ -21025,76 +21025,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J239">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="K239">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M239">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="N239">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O239">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P239">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q239">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R239">
         <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21171,10 +21171,10 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
         <v>0.8500000000000001</v>
@@ -21257,10 +21257,10 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
         <v>0.9750000000000001</v>
@@ -21343,10 +21343,10 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z242">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
         <v>1</v>
@@ -21429,10 +21429,10 @@
         <v>3.75</v>
       </c>
       <c r="Y243">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA243">
         <v>1.05</v>
@@ -21515,10 +21515,10 @@
         <v>3.5</v>
       </c>
       <c r="Y244">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA244">
         <v>-1</v>
@@ -21687,10 +21687,10 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z246">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
         <v>0.7749999999999999</v>
@@ -21773,10 +21773,10 @@
         <v>5.5</v>
       </c>
       <c r="Y247">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA247">
         <v>0.9750000000000001</v>
@@ -21859,10 +21859,10 @@
         <v>2.8</v>
       </c>
       <c r="Y248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA248">
         <v>-1</v>
@@ -21945,10 +21945,10 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z249">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
         <v>0.825</v>
@@ -22031,10 +22031,10 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z250">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
         <v>-1</v>
@@ -22117,10 +22117,10 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z251">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
         <v>0.825</v>
@@ -22289,10 +22289,10 @@
         <v>1.8</v>
       </c>
       <c r="Y253">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA253">
         <v>-1</v>
@@ -22375,10 +22375,10 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z254">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
         <v>0</v>
@@ -22461,10 +22461,10 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z255">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA255">
         <v>-1</v>
@@ -22547,10 +22547,10 @@
         <v>1.7</v>
       </c>
       <c r="Y256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA256">
         <v>0.875</v>
@@ -22719,10 +22719,10 @@
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
         <v>0.875</v>
@@ -22891,10 +22891,10 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z260">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
         <v>-1</v>
@@ -23063,10 +23063,10 @@
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z262">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
         <v>0.875</v>
@@ -23321,10 +23321,10 @@
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z265">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
         <v>-1</v>
@@ -23407,10 +23407,10 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
         <v>-1</v>
@@ -23493,10 +23493,10 @@
         <v>4.25</v>
       </c>
       <c r="Y267">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA267">
         <v>-1</v>
@@ -23579,10 +23579,10 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z268">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
         <v>0.9750000000000001</v>
@@ -23665,10 +23665,10 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
         <v>0</v>
@@ -23837,10 +23837,10 @@
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z271">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
         <v>0.925</v>
@@ -23923,10 +23923,10 @@
         <v>2.1</v>
       </c>
       <c r="Y272">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA272">
         <v>-1</v>
@@ -24009,10 +24009,10 @@
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z273">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
         <v>-0.5</v>
@@ -24095,10 +24095,10 @@
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z274">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA274">
         <v>-1</v>
@@ -24267,10 +24267,10 @@
         <v>2.25</v>
       </c>
       <c r="Y276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA276">
         <v>0.8999999999999999</v>
@@ -24353,10 +24353,10 @@
         <v>2.25</v>
       </c>
       <c r="Y277">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA277">
         <v>0.9750000000000001</v>
@@ -24525,10 +24525,10 @@
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z279">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA279">
         <v>-1</v>
@@ -24697,10 +24697,10 @@
         <v>5</v>
       </c>
       <c r="Y281">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA281">
         <v>-1</v>
@@ -24783,10 +24783,10 @@
         <v>2.8</v>
       </c>
       <c r="Y282">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA282">
         <v>0.875</v>
@@ -24869,10 +24869,10 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z283">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
         <v>-1</v>
@@ -24955,10 +24955,10 @@
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z284">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z285">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
         <v>-1</v>
@@ -25213,10 +25213,10 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z287">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
         <v>-1</v>
@@ -25299,10 +25299,10 @@
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z288">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
         <v>0.8999999999999999</v>
@@ -25643,10 +25643,10 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z292">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
         <v>0</v>
@@ -25729,10 +25729,10 @@
         <v>2.25</v>
       </c>
       <c r="Y293">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA293">
         <v>-1</v>
@@ -25815,10 +25815,10 @@
         <v>2.2</v>
       </c>
       <c r="Y294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA294">
         <v>0.9750000000000001</v>
@@ -25901,10 +25901,10 @@
         <v>3.333</v>
       </c>
       <c r="Y295">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA295">
         <v>-1</v>
@@ -26073,10 +26073,10 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z297">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA297">
         <v>-1</v>
@@ -26159,10 +26159,10 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z298">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
         <v>-1</v>
@@ -26245,10 +26245,10 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z299">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
         <v>0.9750000000000001</v>
@@ -26331,10 +26331,10 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
         <v>-1</v>
@@ -26503,10 +26503,10 @@
         <v>5</v>
       </c>
       <c r="Y302">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA302">
         <v>-1</v>
@@ -26589,10 +26589,10 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z303">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
         <v>0.8</v>
@@ -26761,10 +26761,10 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z305">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
         <v>-1</v>
@@ -26847,10 +26847,10 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z306">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA306">
         <v>-1</v>
@@ -27019,10 +27019,10 @@
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z308">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
         <v>0.7749999999999999</v>
@@ -27105,10 +27105,10 @@
         <v>3.333</v>
       </c>
       <c r="Y309">
+        <v>-1</v>
+      </c>
+      <c r="Z309">
         <v>0.925</v>
-      </c>
-      <c r="Z309">
-        <v>-1</v>
       </c>
       <c r="AA309">
         <v>-1</v>
@@ -27191,10 +27191,10 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z310">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
         <v>-1</v>
@@ -27277,10 +27277,10 @@
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z311">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
         <v>-1</v>
@@ -27363,10 +27363,10 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z312">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
         <v>0.8500000000000001</v>
@@ -27535,10 +27535,10 @@
         <v>4.5</v>
       </c>
       <c r="Y314">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA314">
         <v>-1</v>
@@ -27621,10 +27621,10 @@
         <v>2.3</v>
       </c>
       <c r="Y315">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA315">
         <v>0.8500000000000001</v>
@@ -27793,10 +27793,10 @@
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z317">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
         <v>-0.5</v>
@@ -27879,10 +27879,10 @@
         <v>2.6</v>
       </c>
       <c r="Y318">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA318">
         <v>-1</v>
@@ -27965,10 +27965,10 @@
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z319">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
         <v>0</v>
@@ -28051,10 +28051,10 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
         <v>-1</v>
@@ -28223,10 +28223,10 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z322">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
         <v>0</v>
@@ -28395,10 +28395,10 @@
         <v>1.5</v>
       </c>
       <c r="Y324">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA324">
         <v>0.8999999999999999</v>
@@ -28481,10 +28481,10 @@
         <v>1.3</v>
       </c>
       <c r="Y325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA325">
         <v>0.8</v>
@@ -28567,10 +28567,10 @@
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z326">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
         <v>-1</v>
@@ -28653,10 +28653,10 @@
         <v>4.25</v>
       </c>
       <c r="Y327">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA327">
         <v>0</v>
@@ -28739,10 +28739,10 @@
         <v>3.75</v>
       </c>
       <c r="Y328">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA328">
         <v>0.9750000000000001</v>
@@ -28825,10 +28825,10 @@
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z329">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA329">
         <v>-1</v>
@@ -29083,10 +29083,10 @@
         <v>2.8</v>
       </c>
       <c r="Y332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA332">
         <v>-1</v>
@@ -29169,10 +29169,10 @@
         <v>3</v>
       </c>
       <c r="Y333">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA333">
         <v>0.8999999999999999</v>
@@ -29255,10 +29255,10 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z334">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
         <v>-0.5</v>
@@ -29427,10 +29427,10 @@
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z336">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
         <v>0.95</v>
@@ -29513,10 +29513,10 @@
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z337">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
         <v>-1</v>
@@ -29599,10 +29599,10 @@
         <v>1.625</v>
       </c>
       <c r="Y338">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA338">
         <v>-1</v>
@@ -29685,10 +29685,10 @@
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z339">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
         <v>-1</v>
@@ -29771,10 +29771,10 @@
         <v>1.375</v>
       </c>
       <c r="Y340">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA340">
         <v>0</v>
@@ -29857,10 +29857,10 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z341">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
         <v>-0.5</v>
@@ -29943,10 +29943,10 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z342">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
         <v>0.825</v>
@@ -30029,10 +30029,10 @@
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z343">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
         <v>0</v>
@@ -30115,10 +30115,10 @@
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z344">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
         <v>-0.5</v>
@@ -30287,10 +30287,10 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
         <v>0.875</v>
@@ -30459,10 +30459,10 @@
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z348">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
         <v>0.8</v>
@@ -30545,10 +30545,10 @@
         <v>2.2</v>
       </c>
       <c r="Y349">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA349">
         <v>0</v>
@@ -30717,10 +30717,10 @@
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z351">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
         <v>1.025</v>
@@ -30889,10 +30889,10 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z353">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
         <v>0.7749999999999999</v>
@@ -30975,10 +30975,10 @@
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z354">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
         <v>0.825</v>
@@ -31061,10 +31061,10 @@
         <v>2.75</v>
       </c>
       <c r="Y355">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA355">
         <v>1</v>
@@ -31233,10 +31233,10 @@
         <v>4.75</v>
       </c>
       <c r="Y357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA357">
         <v>-1</v>
@@ -31405,10 +31405,10 @@
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z359">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA359">
         <v>0.925</v>
@@ -31491,10 +31491,10 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
         <v>-1</v>
@@ -31577,10 +31577,10 @@
         <v>3.5</v>
       </c>
       <c r="Y361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA361">
         <v>0.9750000000000001</v>
@@ -31749,10 +31749,10 @@
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z363">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
         <v>1</v>
@@ -31835,10 +31835,10 @@
         <v>2.75</v>
       </c>
       <c r="Y364">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA364">
         <v>-1</v>
@@ -31921,10 +31921,10 @@
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z365">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA365">
         <v>0.9750000000000001</v>
@@ -32007,10 +32007,10 @@
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z366">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
         <v>1</v>
@@ -32093,10 +32093,10 @@
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z367">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA367">
         <v>-1</v>
@@ -32265,10 +32265,10 @@
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z369">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA369">
         <v>-1</v>
@@ -32351,10 +32351,10 @@
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z370">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
         <v>-1</v>
@@ -32437,10 +32437,10 @@
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
         <v>-0.5</v>
@@ -32523,10 +32523,10 @@
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z372">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
         <v>0.925</v>
@@ -32609,10 +32609,10 @@
         <v>1.625</v>
       </c>
       <c r="Y373">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA373">
         <v>-0.5</v>
@@ -32695,10 +32695,10 @@
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z374">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA374">
         <v>-1</v>
@@ -32781,10 +32781,10 @@
         <v>0.95</v>
       </c>
       <c r="Y375">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA375">
         <v>-1</v>
@@ -32953,10 +32953,10 @@
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z377">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA377">
         <v>-1</v>
@@ -33039,10 +33039,10 @@
         <v>2.4</v>
       </c>
       <c r="Y378">
+        <v>-1</v>
+      </c>
+      <c r="Z378">
         <v>0.925</v>
-      </c>
-      <c r="Z378">
-        <v>-1</v>
       </c>
       <c r="AA378">
         <v>0.95</v>
@@ -33125,10 +33125,10 @@
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z379">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
         <v>0.8</v>
@@ -33211,10 +33211,10 @@
         <v>3</v>
       </c>
       <c r="Y380">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA380">
         <v>0.95</v>
@@ -33297,10 +33297,10 @@
         <v>2.1</v>
       </c>
       <c r="Y381">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA381">
         <v>0.95</v>
@@ -33383,10 +33383,10 @@
         <v>3.2</v>
       </c>
       <c r="Y382">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z382">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA382">
         <v>1</v>
@@ -33555,10 +33555,10 @@
         <v>4.75</v>
       </c>
       <c r="Y384">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA384">
         <v>1.025</v>
@@ -33641,10 +33641,10 @@
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z385">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
         <v>0.9750000000000001</v>
@@ -33727,10 +33727,10 @@
         <v>3.75</v>
       </c>
       <c r="Y386">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z386">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA386">
         <v>-1</v>
@@ -33813,10 +33813,10 @@
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z387">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA387">
         <v>0.95</v>
@@ -33899,10 +33899,10 @@
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z388">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA388">
         <v>0.8999999999999999</v>
@@ -34157,10 +34157,10 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z391">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA391">
         <v>0.825</v>
@@ -34243,10 +34243,10 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z392">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA392">
         <v>0.95</v>
@@ -34415,10 +34415,10 @@
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z394">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
         <v>0</v>
@@ -34759,10 +34759,10 @@
         <v>3</v>
       </c>
       <c r="Y398">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA398">
         <v>0.95</v>
@@ -34845,10 +34845,10 @@
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z399">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA399">
         <v>-1</v>
@@ -34931,10 +34931,10 @@
         <v>1.2</v>
       </c>
       <c r="Y400">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z400">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA400">
         <v>0.8500000000000001</v>
@@ -35017,10 +35017,10 @@
         <v>1.2</v>
       </c>
       <c r="Y401">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA401">
         <v>0.875</v>
@@ -35103,10 +35103,10 @@
         <v>1.25</v>
       </c>
       <c r="Y402">
+        <v>-1</v>
+      </c>
+      <c r="Z402">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z402">
-        <v>-1</v>
       </c>
       <c r="AA402">
         <v>-0.5</v>
@@ -35275,10 +35275,10 @@
         <v>1.55</v>
       </c>
       <c r="Y404">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA404">
         <v>-1</v>
@@ -35361,10 +35361,10 @@
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z405">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA405">
         <v>1.1</v>
@@ -35447,10 +35447,10 @@
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z406">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA406">
         <v>0.825</v>
@@ -35533,10 +35533,10 @@
         <v>3.333</v>
       </c>
       <c r="Y407">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA407">
         <v>-1</v>
@@ -35705,10 +35705,10 @@
         <v>1.25</v>
       </c>
       <c r="Y409">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA409">
         <v>0.825</v>
@@ -35877,10 +35877,10 @@
         <v>4.75</v>
       </c>
       <c r="Y411">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z411">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA411">
         <v>0.9750000000000001</v>
@@ -35963,10 +35963,10 @@
         <v>1.4</v>
       </c>
       <c r="Y412">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z412">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA412">
         <v>0.9750000000000001</v>
@@ -36049,10 +36049,10 @@
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z413">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA413">
         <v>-1</v>
@@ -36135,10 +36135,10 @@
         <v>-1</v>
       </c>
       <c r="Y414">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z414">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA414">
         <v>0.7749999999999999</v>
@@ -36152,64 +36152,85 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7658982</v>
+        <v>7658979</v>
       </c>
       <c r="C415" t="s">
         <v>27</v>
       </c>
       <c r="D415" s="2">
-        <v>45403.9375</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="E415" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F415" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+      <c r="I415" t="s">
+        <v>53</v>
       </c>
       <c r="J415">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="K415">
+        <v>3.25</v>
+      </c>
+      <c r="L415">
         <v>4</v>
       </c>
-      <c r="L415">
-        <v>7.5</v>
-      </c>
       <c r="M415">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="N415">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O415">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="P415">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q415">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R415">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T415">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U415">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V415">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W415">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X415">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y415">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z415">
+        <v>-1</v>
+      </c>
+      <c r="AA415">
+        <v>-1</v>
+      </c>
+      <c r="AB415">
+        <v>1.05</v>
       </c>
     </row>
     <row r="416" spans="1:28">
@@ -36217,193 +36238,342 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7658981</v>
+        <v>7658983</v>
       </c>
       <c r="C416" t="s">
         <v>27</v>
       </c>
       <c r="D416" s="2">
-        <v>45404.75</v>
+        <v>45403.75694444445</v>
       </c>
       <c r="E416" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F416" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="G416">
+        <v>2</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416" t="s">
+        <v>53</v>
       </c>
       <c r="J416">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="K416">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L416">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M416">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N416">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O416">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P416">
         <v>-0.5</v>
       </c>
       <c r="Q416">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R416">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S416">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T416">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U416">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V416">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="W416">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y416">
+        <v>0.925</v>
+      </c>
+      <c r="Z416">
+        <v>-1</v>
+      </c>
+      <c r="AA416">
+        <v>-1</v>
+      </c>
+      <c r="AB416">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:28">
       <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7658984</v>
+        <v>7658980</v>
       </c>
       <c r="C417" t="s">
         <v>27</v>
       </c>
       <c r="D417" s="2">
-        <v>45404.84027777778</v>
+        <v>45403.84722222222</v>
       </c>
       <c r="E417" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F417" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G417">
+        <v>2</v>
+      </c>
+      <c r="H417">
+        <v>2</v>
+      </c>
+      <c r="I417" t="s">
+        <v>52</v>
       </c>
       <c r="J417">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="K417">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L417">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M417">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N417">
         <v>3.1</v>
       </c>
       <c r="O417">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P417">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q417">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R417">
+        <v>1.825</v>
+      </c>
+      <c r="S417">
+        <v>2</v>
+      </c>
+      <c r="T417">
+        <v>1.8</v>
+      </c>
+      <c r="U417">
+        <v>2</v>
+      </c>
+      <c r="V417">
+        <v>-1</v>
+      </c>
+      <c r="W417">
         <v>2.1</v>
       </c>
-      <c r="S417">
-        <v>2</v>
-      </c>
-      <c r="T417">
-        <v>1.825</v>
-      </c>
-      <c r="U417">
-        <v>2.025</v>
-      </c>
-      <c r="V417">
-        <v>0</v>
-      </c>
-      <c r="W417">
-        <v>0</v>
-      </c>
       <c r="X417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y417">
+        <v>-0.5</v>
+      </c>
+      <c r="Z417">
+        <v>0.4125</v>
+      </c>
+      <c r="AA417">
+        <v>0.8</v>
+      </c>
+      <c r="AB417">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:28">
       <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7658912</v>
+        <v>7658982</v>
       </c>
       <c r="C418" t="s">
         <v>27</v>
       </c>
       <c r="D418" s="2">
-        <v>45404.93055555555</v>
+        <v>45403.9375</v>
       </c>
       <c r="E418" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F418" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="G418">
+        <v>2</v>
+      </c>
+      <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418" t="s">
+        <v>53</v>
       </c>
       <c r="J418">
+        <v>1.444</v>
+      </c>
+      <c r="K418">
+        <v>4</v>
+      </c>
+      <c r="L418">
+        <v>7.5</v>
+      </c>
+      <c r="M418">
+        <v>1.45</v>
+      </c>
+      <c r="N418">
+        <v>4</v>
+      </c>
+      <c r="O418">
+        <v>8</v>
+      </c>
+      <c r="P418">
+        <v>-1</v>
+      </c>
+      <c r="Q418">
+        <v>1.75</v>
+      </c>
+      <c r="R418">
+        <v>2.05</v>
+      </c>
+      <c r="S418">
+        <v>2.25</v>
+      </c>
+      <c r="T418">
+        <v>1.8</v>
+      </c>
+      <c r="U418">
+        <v>2</v>
+      </c>
+      <c r="V418">
+        <v>0.45</v>
+      </c>
+      <c r="W418">
+        <v>-1</v>
+      </c>
+      <c r="X418">
+        <v>-1</v>
+      </c>
+      <c r="Y418">
+        <v>0</v>
+      </c>
+      <c r="Z418">
+        <v>0</v>
+      </c>
+      <c r="AA418">
+        <v>0.8</v>
+      </c>
+      <c r="AB418">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:28">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>7658981</v>
+      </c>
+      <c r="C419" t="s">
+        <v>27</v>
+      </c>
+      <c r="D419" s="2">
+        <v>45404.75</v>
+      </c>
+      <c r="E419" t="s">
+        <v>49</v>
+      </c>
+      <c r="F419" t="s">
+        <v>44</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>2</v>
+      </c>
+      <c r="I419" t="s">
+        <v>54</v>
+      </c>
+      <c r="J419">
+        <v>2.05</v>
+      </c>
+      <c r="K419">
         <v>3.2</v>
       </c>
-      <c r="K418">
-        <v>2.875</v>
-      </c>
-      <c r="L418">
-        <v>2.5</v>
-      </c>
-      <c r="M418">
-        <v>3.1</v>
-      </c>
-      <c r="N418">
-        <v>3</v>
-      </c>
-      <c r="O418">
-        <v>2.6</v>
-      </c>
-      <c r="P418">
-        <v>0</v>
-      </c>
-      <c r="Q418">
-        <v>2.1</v>
-      </c>
-      <c r="R418">
-        <v>1.775</v>
-      </c>
-      <c r="S418">
-        <v>2</v>
-      </c>
-      <c r="T418">
-        <v>1.975</v>
-      </c>
-      <c r="U418">
-        <v>1.875</v>
-      </c>
-      <c r="V418">
-        <v>0</v>
-      </c>
-      <c r="W418">
-        <v>0</v>
-      </c>
-      <c r="X418">
+      <c r="L419">
+        <v>3.8</v>
+      </c>
+      <c r="M419">
+        <v>1.666</v>
+      </c>
+      <c r="N419">
+        <v>3.5</v>
+      </c>
+      <c r="O419">
+        <v>6</v>
+      </c>
+      <c r="P419">
+        <v>-0.75</v>
+      </c>
+      <c r="Q419">
+        <v>2.025</v>
+      </c>
+      <c r="R419">
+        <v>1.825</v>
+      </c>
+      <c r="S419">
+        <v>2</v>
+      </c>
+      <c r="T419">
+        <v>1.85</v>
+      </c>
+      <c r="U419">
+        <v>2</v>
+      </c>
+      <c r="V419">
+        <v>-1</v>
+      </c>
+      <c r="W419">
+        <v>-1</v>
+      </c>
+      <c r="X419">
+        <v>5</v>
+      </c>
+      <c r="Y419">
+        <v>-1</v>
+      </c>
+      <c r="Z419">
+        <v>0.825</v>
+      </c>
+      <c r="AA419">
+        <v>0</v>
+      </c>
+      <c r="AB419">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,12 @@
     <t>7736841</t>
   </si>
   <si>
+    <t>7658915</t>
+  </si>
+  <si>
+    <t>7658990</t>
+  </si>
+  <si>
     <t>7658989</t>
   </si>
   <si>
@@ -118,13 +124,7 @@
     <t>7658985</t>
   </si>
   <si>
-    <t>7658915</t>
-  </si>
-  <si>
     <t>7658914</t>
-  </si>
-  <si>
-    <t>7658990</t>
   </si>
   <si>
     <t>Colombia Primera A</t>
@@ -570,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB431"/>
+  <dimension ref="A1:AB429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1533,58 +1533,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>63</v>
       </c>
       <c r="J12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1593,13 +1593,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1619,58 +1619,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
       </c>
       <c r="J13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="K13">
+        <v>3.5</v>
+      </c>
+      <c r="L13">
+        <v>4.2</v>
+      </c>
+      <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
+        <v>3.3</v>
+      </c>
+      <c r="O13">
         <v>3.75</v>
       </c>
-      <c r="L13">
-        <v>5.5</v>
-      </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
-      <c r="N13">
-        <v>3.8</v>
-      </c>
-      <c r="O13">
-        <v>5.25</v>
-      </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1679,13 +1679,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1705,76 +1705,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
+        <v>0.5</v>
+      </c>
+      <c r="Z14">
         <v>-0.5</v>
       </c>
-      <c r="Z14">
-        <v>0.45</v>
-      </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1791,76 +1791,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
+        <v>1.95</v>
+      </c>
+      <c r="U15">
         <v>1.85</v>
       </c>
-      <c r="S15">
-        <v>2.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
       <c r="V15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -18380,7 +18380,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404212</v>
+        <v>7404217</v>
       </c>
       <c r="C208" t="s">
         <v>37</v>
@@ -18389,76 +18389,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J208">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="K208">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L208">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="N208">
         <v>3.2</v>
       </c>
       <c r="O208">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="P208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q208">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R208">
         <v>1.875</v>
       </c>
       <c r="S208">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U208">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W208">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18466,7 +18466,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -18475,76 +18475,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J209">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L209">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M209">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="N209">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="P209">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q209">
         <v>1.9</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18552,7 +18552,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>37</v>
@@ -18561,76 +18561,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J210">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="K210">
         <v>3.1</v>
       </c>
       <c r="L210">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O210">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q210">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R210">
         <v>1.9</v>
       </c>
       <c r="S210">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T210">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y210">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18638,7 +18638,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18647,76 +18647,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J211">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="K211">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L211">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="M211">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="N211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O211">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="P211">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q211">
+        <v>1.95</v>
+      </c>
+      <c r="R211">
         <v>1.9</v>
       </c>
-      <c r="R211">
-        <v>1.95</v>
-      </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T211">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18724,7 +18724,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>37</v>
@@ -18733,76 +18733,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J212">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="K212">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M212">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
         <v>3.2</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R212">
         <v>1.875</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
+        <v>2.025</v>
+      </c>
+      <c r="U212">
         <v>1.825</v>
       </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
       <c r="V212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0.825</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18810,7 +18810,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404215</v>
+        <v>7404260</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
@@ -18819,55 +18819,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F213" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I213" t="s">
         <v>64</v>
       </c>
       <c r="J213">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K213">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="N213">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q213">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
         <v>-1</v>
@@ -18876,19 +18876,19 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18896,7 +18896,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C214" t="s">
         <v>37</v>
@@ -18905,55 +18905,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214" t="s">
         <v>64</v>
       </c>
       <c r="J214">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K214">
         <v>3.1</v>
       </c>
       <c r="L214">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M214">
         <v>3.6</v>
       </c>
       <c r="N214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O214">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P214">
         <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18962,19 +18962,19 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18982,7 +18982,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C215" t="s">
         <v>37</v>
@@ -18991,76 +18991,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J215">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K215">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L215">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="M215">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O215">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P215">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q215">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y215">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19068,7 +19068,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>37</v>
@@ -19077,55 +19077,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F216" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I216" t="s">
         <v>64</v>
       </c>
       <c r="J216">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K216">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="M216">
+        <v>3.6</v>
+      </c>
+      <c r="N216">
+        <v>3.2</v>
+      </c>
+      <c r="O216">
+        <v>2.15</v>
+      </c>
+      <c r="P216">
+        <v>0.25</v>
+      </c>
+      <c r="Q216">
+        <v>1.975</v>
+      </c>
+      <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
+        <v>2</v>
+      </c>
+      <c r="T216">
         <v>1.75</v>
       </c>
-      <c r="N216">
-        <v>3.6</v>
-      </c>
-      <c r="O216">
-        <v>4.75</v>
-      </c>
-      <c r="P216">
-        <v>-0.75</v>
-      </c>
-      <c r="Q216">
-        <v>2</v>
-      </c>
-      <c r="R216">
-        <v>1.8</v>
-      </c>
-      <c r="S216">
-        <v>2.5</v>
-      </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19134,19 +19134,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19154,7 +19154,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404219</v>
+        <v>7404522</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -19163,49 +19163,49 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J217">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K217">
         <v>3.1</v>
       </c>
       <c r="L217">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="M217">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N217">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O217">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T217">
         <v>1.85</v>
@@ -19214,19 +19214,19 @@
         <v>1.95</v>
       </c>
       <c r="V217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z217">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
         <v>0.8500000000000001</v>
@@ -20960,7 +20960,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>37</v>
@@ -20969,76 +20969,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="K238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="N238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R238">
         <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21046,7 +21046,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>37</v>
@@ -21055,76 +21055,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="N239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R239">
         <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -36611,172 +36611,130 @@
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420">
-        <v>7658984</v>
+      <c r="B420" t="s">
+        <v>27</v>
       </c>
       <c r="C420" t="s">
         <v>37</v>
       </c>
       <c r="D420" s="2">
-        <v>45404.84027777778</v>
+        <v>45409.875</v>
       </c>
       <c r="E420" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F420" t="s">
-        <v>42</v>
-      </c>
-      <c r="G420">
-        <v>1</v>
-      </c>
-      <c r="H420">
-        <v>2</v>
-      </c>
-      <c r="I420" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J420">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K420">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L420">
         <v>3</v>
       </c>
       <c r="M420">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N420">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O420">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P420">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q420">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R420">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S420">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T420">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V420">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W420">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X420">
-        <v>1.75</v>
-      </c>
-      <c r="Y420">
-        <v>-1</v>
-      </c>
-      <c r="Z420">
-        <v>1</v>
-      </c>
-      <c r="AA420">
-        <v>0.925</v>
-      </c>
-      <c r="AB420">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:28">
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421">
-        <v>7658912</v>
+      <c r="B421" t="s">
+        <v>28</v>
       </c>
       <c r="C421" t="s">
         <v>37</v>
       </c>
       <c r="D421" s="2">
-        <v>45404.93055555555</v>
+        <v>45410.70833333334</v>
       </c>
       <c r="E421" t="s">
+        <v>58</v>
+      </c>
+      <c r="F421" t="s">
         <v>38</v>
       </c>
-      <c r="F421" t="s">
-        <v>53</v>
-      </c>
-      <c r="G421">
-        <v>2</v>
-      </c>
-      <c r="H421">
-        <v>3</v>
-      </c>
-      <c r="I421" t="s">
-        <v>64</v>
-      </c>
       <c r="J421">
+        <v>2.3</v>
+      </c>
+      <c r="K421">
+        <v>3.1</v>
+      </c>
+      <c r="L421">
         <v>3.2</v>
       </c>
-      <c r="K421">
-        <v>2.875</v>
-      </c>
-      <c r="L421">
-        <v>2.5</v>
-      </c>
       <c r="M421">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N421">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O421">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P421">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q421">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R421">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S421">
         <v>2</v>
       </c>
       <c r="T421">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="U421">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V421">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X421">
-        <v>1.8</v>
-      </c>
-      <c r="Y421">
-        <v>-1</v>
-      </c>
-      <c r="Z421">
-        <v>1.025</v>
-      </c>
-      <c r="AA421">
-        <v>0.75</v>
-      </c>
-      <c r="AB421">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -36784,55 +36742,55 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C422" t="s">
         <v>37</v>
       </c>
       <c r="D422" s="2">
-        <v>45409.875</v>
+        <v>45410.79166666666</v>
       </c>
       <c r="E422" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F422" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J422">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K422">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L422">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M422">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="N422">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P422">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q422">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R422">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S422">
         <v>2.25</v>
       </c>
       <c r="T422">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U422">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V422">
         <v>0</v>
@@ -36849,55 +36807,55 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C423" t="s">
         <v>37</v>
       </c>
       <c r="D423" s="2">
-        <v>45410.70833333334</v>
+        <v>45410.79166666666</v>
       </c>
       <c r="E423" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F423" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J423">
         <v>2.3</v>
       </c>
       <c r="K423">
+        <v>3</v>
+      </c>
+      <c r="L423">
         <v>3.1</v>
-      </c>
-      <c r="L423">
-        <v>3.2</v>
       </c>
       <c r="M423">
         <v>2.25</v>
       </c>
       <c r="N423">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O423">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P423">
         <v>-0.25</v>
       </c>
       <c r="Q423">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R423">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S423">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T423">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="U423">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V423">
         <v>0</v>
@@ -36914,7 +36872,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C424" t="s">
         <v>37</v>
@@ -36923,40 +36881,40 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F424" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J424">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="K424">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L424">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M424">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O424">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="P424">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q424">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R424">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S424">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T424">
         <v>1.975</v>
@@ -36979,7 +36937,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C425" t="s">
         <v>37</v>
@@ -37003,7 +36961,7 @@
         <v>2.3</v>
       </c>
       <c r="M425">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N425">
         <v>3.3</v>
@@ -37044,7 +37002,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C426" t="s">
         <v>37</v>
@@ -37068,31 +37026,31 @@
         <v>1.8</v>
       </c>
       <c r="M426">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N426">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O426">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="P426">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q426">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R426">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S426">
         <v>2.5</v>
       </c>
       <c r="T426">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U426">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V426">
         <v>0</v>
@@ -37109,7 +37067,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C427" t="s">
         <v>37</v>
@@ -37136,19 +37094,19 @@
         <v>2.55</v>
       </c>
       <c r="N427">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O427">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P427">
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R427">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S427">
         <v>2.25</v>
@@ -37174,7 +37132,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C428" t="s">
         <v>37</v>
@@ -37201,10 +37159,10 @@
         <v>1.95</v>
       </c>
       <c r="N428">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O428">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P428">
         <v>-0.5</v>
@@ -37219,10 +37177,10 @@
         <v>2</v>
       </c>
       <c r="T428">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U428">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V428">
         <v>0</v>
@@ -37239,7 +37197,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C429" t="s">
         <v>37</v>
@@ -37248,47 +37206,47 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E429" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F429" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J429">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K429">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L429">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M429">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N429">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O429">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P429">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q429">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R429">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S429">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T429">
+        <v>1.775</v>
+      </c>
+      <c r="U429">
         <v>2.1</v>
       </c>
-      <c r="U429">
-        <v>1.775</v>
-      </c>
       <c r="V429">
         <v>0</v>
       </c>
@@ -37296,136 +37254,6 @@
         <v>0</v>
       </c>
       <c r="X429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:28">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430" t="s">
-        <v>35</v>
-      </c>
-      <c r="C430" t="s">
-        <v>37</v>
-      </c>
-      <c r="D430" s="2">
-        <v>45410.79166666666</v>
-      </c>
-      <c r="E430" t="s">
-        <v>53</v>
-      </c>
-      <c r="F430" t="s">
-        <v>50</v>
-      </c>
-      <c r="J430">
-        <v>2</v>
-      </c>
-      <c r="K430">
-        <v>3.1</v>
-      </c>
-      <c r="L430">
-        <v>3.75</v>
-      </c>
-      <c r="M430">
-        <v>1.85</v>
-      </c>
-      <c r="N430">
-        <v>3.2</v>
-      </c>
-      <c r="O430">
-        <v>4.2</v>
-      </c>
-      <c r="P430">
-        <v>-0.5</v>
-      </c>
-      <c r="Q430">
-        <v>1.925</v>
-      </c>
-      <c r="R430">
-        <v>1.925</v>
-      </c>
-      <c r="S430">
-        <v>2.25</v>
-      </c>
-      <c r="T430">
-        <v>2.05</v>
-      </c>
-      <c r="U430">
-        <v>1.8</v>
-      </c>
-      <c r="V430">
-        <v>0</v>
-      </c>
-      <c r="W430">
-        <v>0</v>
-      </c>
-      <c r="X430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:28">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="B431" t="s">
-        <v>36</v>
-      </c>
-      <c r="C431" t="s">
-        <v>37</v>
-      </c>
-      <c r="D431" s="2">
-        <v>45410.79166666666</v>
-      </c>
-      <c r="E431" t="s">
-        <v>41</v>
-      </c>
-      <c r="F431" t="s">
-        <v>44</v>
-      </c>
-      <c r="J431">
-        <v>1.4</v>
-      </c>
-      <c r="K431">
-        <v>4.2</v>
-      </c>
-      <c r="L431">
-        <v>7</v>
-      </c>
-      <c r="M431">
-        <v>1.4</v>
-      </c>
-      <c r="N431">
-        <v>4.333</v>
-      </c>
-      <c r="O431">
-        <v>7.5</v>
-      </c>
-      <c r="P431">
-        <v>-1.25</v>
-      </c>
-      <c r="Q431">
-        <v>2</v>
-      </c>
-      <c r="R431">
-        <v>1.85</v>
-      </c>
-      <c r="S431">
-        <v>2.5</v>
-      </c>
-      <c r="T431">
-        <v>2.025</v>
-      </c>
-      <c r="U431">
-        <v>1.825</v>
-      </c>
-      <c r="V431">
-        <v>0</v>
-      </c>
-      <c r="W431">
-        <v>0</v>
-      </c>
-      <c r="X431">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -106,12 +106,6 @@
     <t>7736841</t>
   </si>
   <si>
-    <t>7658915</t>
-  </si>
-  <si>
-    <t>7658990</t>
-  </si>
-  <si>
     <t>7658989</t>
   </si>
   <si>
@@ -124,7 +118,13 @@
     <t>7658985</t>
   </si>
   <si>
+    <t>7658915</t>
+  </si>
+  <si>
     <t>7658914</t>
+  </si>
+  <si>
+    <t>7658990</t>
   </si>
   <si>
     <t>Colombia Primera A</t>
@@ -570,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB429"/>
+  <dimension ref="A1:AB431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1533,58 +1533,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>63</v>
       </c>
       <c r="J12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="K12">
+        <v>3.5</v>
+      </c>
+      <c r="L12">
+        <v>4.2</v>
+      </c>
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
+        <v>3.3</v>
+      </c>
+      <c r="O12">
         <v>3.75</v>
       </c>
-      <c r="L12">
-        <v>5.5</v>
-      </c>
-      <c r="M12">
-        <v>1.7</v>
-      </c>
-      <c r="N12">
-        <v>3.8</v>
-      </c>
-      <c r="O12">
-        <v>5.25</v>
-      </c>
       <c r="P12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1593,13 +1593,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1619,58 +1619,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
       </c>
       <c r="J13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1679,13 +1679,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -18380,7 +18380,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404212</v>
       </c>
       <c r="C208" t="s">
         <v>37</v>
@@ -18389,76 +18389,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J208">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="K208">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M208">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
         <v>3.2</v>
       </c>
       <c r="O208">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="P208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R208">
         <v>1.875</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T208">
+        <v>2.025</v>
+      </c>
+      <c r="U208">
         <v>1.825</v>
       </c>
-      <c r="U208">
-        <v>1.975</v>
-      </c>
       <c r="V208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
         <v>0.825</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18466,7 +18466,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404218</v>
+        <v>7404214</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -18475,76 +18475,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J209">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="K209">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="M209">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O209">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="P209">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q209">
+        <v>1.95</v>
+      </c>
+      <c r="R209">
         <v>1.9</v>
       </c>
-      <c r="R209">
-        <v>1.95</v>
-      </c>
       <c r="S209">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T209">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V209">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18638,7 +18638,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18647,76 +18647,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F211" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J211">
+        <v>1.95</v>
+      </c>
+      <c r="K211">
         <v>3.2</v>
       </c>
-      <c r="K211">
-        <v>3.1</v>
-      </c>
       <c r="L211">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N211">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P211">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U211">
         <v>1.975</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB211">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18724,7 +18724,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404212</v>
+        <v>7404218</v>
       </c>
       <c r="C212" t="s">
         <v>37</v>
@@ -18733,49 +18733,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J212">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="K212">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L212">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="N212">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O212">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="P212">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
         <v>2.025</v>
@@ -18784,19 +18784,19 @@
         <v>1.825</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -18810,7 +18810,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404260</v>
+        <v>7404213</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
@@ -18819,55 +18819,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F213" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213" t="s">
         <v>64</v>
       </c>
       <c r="J213">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K213">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="M213">
+        <v>3.6</v>
+      </c>
+      <c r="N213">
+        <v>3.2</v>
+      </c>
+      <c r="O213">
+        <v>2.15</v>
+      </c>
+      <c r="P213">
+        <v>0.25</v>
+      </c>
+      <c r="Q213">
+        <v>1.975</v>
+      </c>
+      <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>2</v>
+      </c>
+      <c r="T213">
         <v>1.75</v>
       </c>
-      <c r="N213">
-        <v>3.6</v>
-      </c>
-      <c r="O213">
-        <v>4.75</v>
-      </c>
-      <c r="P213">
-        <v>-0.75</v>
-      </c>
-      <c r="Q213">
-        <v>2</v>
-      </c>
-      <c r="R213">
-        <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>2.5</v>
-      </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
         <v>-1</v>
@@ -18876,19 +18876,19 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18896,7 +18896,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404219</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>37</v>
@@ -18905,55 +18905,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="s">
         <v>64</v>
       </c>
       <c r="J214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K214">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
+        <v>1.75</v>
+      </c>
+      <c r="N214">
         <v>3.6</v>
       </c>
-      <c r="N214">
-        <v>3.4</v>
-      </c>
       <c r="O214">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
         <v>2.5</v>
       </c>
       <c r="T214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18962,16 +18962,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -18982,7 +18982,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404215</v>
+        <v>7404522</v>
       </c>
       <c r="C215" t="s">
         <v>37</v>
@@ -18991,76 +18991,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F215" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J215">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="K215">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L215">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="M215">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N215">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O215">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P215">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q215">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19068,7 +19068,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C216" t="s">
         <v>37</v>
@@ -19077,55 +19077,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216" t="s">
         <v>64</v>
       </c>
       <c r="J216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K216">
         <v>3.1</v>
       </c>
       <c r="L216">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M216">
         <v>3.6</v>
       </c>
       <c r="N216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P216">
         <v>0.25</v>
       </c>
       <c r="Q216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R216">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19134,19 +19134,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19154,7 +19154,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404522</v>
+        <v>7404215</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -19163,76 +19163,76 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J217">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K217">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L217">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="M217">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N217">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O217">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P217">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q217">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="R217">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T217">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA217">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -36611,130 +36611,172 @@
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" t="s">
-        <v>27</v>
+      <c r="B420">
+        <v>7658984</v>
       </c>
       <c r="C420" t="s">
         <v>37</v>
       </c>
       <c r="D420" s="2">
-        <v>45409.875</v>
+        <v>45404.84027777778</v>
       </c>
       <c r="E420" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F420" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="G420">
+        <v>1</v>
+      </c>
+      <c r="H420">
+        <v>2</v>
+      </c>
+      <c r="I420" t="s">
+        <v>64</v>
       </c>
       <c r="J420">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K420">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L420">
         <v>3</v>
       </c>
       <c r="M420">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N420">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O420">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P420">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q420">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R420">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S420">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T420">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U420">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V420">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W420">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X420">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="Y420">
+        <v>-1</v>
+      </c>
+      <c r="Z420">
+        <v>1</v>
+      </c>
+      <c r="AA420">
+        <v>0.925</v>
+      </c>
+      <c r="AB420">
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:28">
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" t="s">
-        <v>28</v>
+      <c r="B421">
+        <v>7658912</v>
       </c>
       <c r="C421" t="s">
         <v>37</v>
       </c>
       <c r="D421" s="2">
-        <v>45410.70833333334</v>
+        <v>45404.93055555555</v>
       </c>
       <c r="E421" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F421" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="G421">
+        <v>2</v>
+      </c>
+      <c r="H421">
+        <v>3</v>
+      </c>
+      <c r="I421" t="s">
+        <v>64</v>
       </c>
       <c r="J421">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="K421">
+        <v>2.875</v>
+      </c>
+      <c r="L421">
+        <v>2.5</v>
+      </c>
+      <c r="M421">
+        <v>2.5</v>
+      </c>
+      <c r="N421">
         <v>3.1</v>
       </c>
-      <c r="L421">
-        <v>3.2</v>
-      </c>
-      <c r="M421">
-        <v>2.3</v>
-      </c>
-      <c r="N421">
-        <v>3.2</v>
-      </c>
       <c r="O421">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P421">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q421">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R421">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S421">
         <v>2</v>
       </c>
       <c r="T421">
+        <v>1.75</v>
+      </c>
+      <c r="U421">
         <v>2.05</v>
       </c>
-      <c r="U421">
+      <c r="V421">
+        <v>-1</v>
+      </c>
+      <c r="W421">
+        <v>-1</v>
+      </c>
+      <c r="X421">
         <v>1.8</v>
       </c>
-      <c r="V421">
-        <v>0</v>
-      </c>
-      <c r="W421">
-        <v>0</v>
-      </c>
-      <c r="X421">
-        <v>0</v>
+      <c r="Y421">
+        <v>-1</v>
+      </c>
+      <c r="Z421">
+        <v>1.025</v>
+      </c>
+      <c r="AA421">
+        <v>0.75</v>
+      </c>
+      <c r="AB421">
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -36742,55 +36784,55 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C422" t="s">
         <v>37</v>
       </c>
       <c r="D422" s="2">
-        <v>45410.79166666666</v>
+        <v>45409.875</v>
       </c>
       <c r="E422" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F422" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J422">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="K422">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L422">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M422">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N422">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O422">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P422">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q422">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R422">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S422">
         <v>2.25</v>
       </c>
       <c r="T422">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U422">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V422">
         <v>0</v>
@@ -36807,37 +36849,37 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C423" t="s">
         <v>37</v>
       </c>
       <c r="D423" s="2">
-        <v>45410.79166666666</v>
+        <v>45410.70833333334</v>
       </c>
       <c r="E423" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F423" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J423">
         <v>2.3</v>
       </c>
       <c r="K423">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L423">
+        <v>3.2</v>
+      </c>
+      <c r="M423">
+        <v>2.3</v>
+      </c>
+      <c r="N423">
         <v>3.1</v>
       </c>
-      <c r="M423">
-        <v>2.25</v>
-      </c>
-      <c r="N423">
-        <v>3.25</v>
-      </c>
       <c r="O423">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P423">
         <v>-0.25</v>
@@ -36849,7 +36891,7 @@
         <v>1.875</v>
       </c>
       <c r="S423">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T423">
         <v>2.1</v>
@@ -36872,7 +36914,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C424" t="s">
         <v>37</v>
@@ -36881,46 +36923,46 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F424" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J424">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="K424">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L424">
+        <v>5</v>
+      </c>
+      <c r="M424">
+        <v>1.5</v>
+      </c>
+      <c r="N424">
+        <v>4</v>
+      </c>
+      <c r="O424">
         <v>7</v>
       </c>
-      <c r="M424">
-        <v>1.4</v>
-      </c>
-      <c r="N424">
-        <v>4.5</v>
-      </c>
-      <c r="O424">
-        <v>8.5</v>
-      </c>
       <c r="P424">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q424">
+        <v>1.9</v>
+      </c>
+      <c r="R424">
+        <v>1.95</v>
+      </c>
+      <c r="S424">
+        <v>2.25</v>
+      </c>
+      <c r="T424">
         <v>1.925</v>
       </c>
-      <c r="R424">
+      <c r="U424">
         <v>1.925</v>
-      </c>
-      <c r="S424">
-        <v>2.5</v>
-      </c>
-      <c r="T424">
-        <v>1.975</v>
-      </c>
-      <c r="U424">
-        <v>1.875</v>
       </c>
       <c r="V424">
         <v>0</v>
@@ -36937,7 +36979,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C425" t="s">
         <v>37</v>
@@ -36961,10 +37003,10 @@
         <v>2.3</v>
       </c>
       <c r="M425">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N425">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O425">
         <v>2.3</v>
@@ -37002,7 +37044,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C426" t="s">
         <v>37</v>
@@ -37067,7 +37109,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C427" t="s">
         <v>37</v>
@@ -37132,7 +37174,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C428" t="s">
         <v>37</v>
@@ -37197,7 +37239,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C429" t="s">
         <v>37</v>
@@ -37206,54 +37248,184 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E429" t="s">
+        <v>49</v>
+      </c>
+      <c r="F429" t="s">
+        <v>45</v>
+      </c>
+      <c r="J429">
+        <v>2.3</v>
+      </c>
+      <c r="K429">
+        <v>3</v>
+      </c>
+      <c r="L429">
+        <v>3.1</v>
+      </c>
+      <c r="M429">
+        <v>2.1</v>
+      </c>
+      <c r="N429">
+        <v>3.3</v>
+      </c>
+      <c r="O429">
+        <v>3.6</v>
+      </c>
+      <c r="P429">
+        <v>-0.25</v>
+      </c>
+      <c r="Q429">
+        <v>1.85</v>
+      </c>
+      <c r="R429">
+        <v>2</v>
+      </c>
+      <c r="S429">
+        <v>2.25</v>
+      </c>
+      <c r="T429">
+        <v>2.025</v>
+      </c>
+      <c r="U429">
+        <v>1.825</v>
+      </c>
+      <c r="V429">
+        <v>0</v>
+      </c>
+      <c r="W429">
+        <v>0</v>
+      </c>
+      <c r="X429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:28">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430" t="s">
+        <v>37</v>
+      </c>
+      <c r="D430" s="2">
+        <v>45410.79166666666</v>
+      </c>
+      <c r="E430" t="s">
         <v>53</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F430" t="s">
         <v>50</v>
       </c>
-      <c r="J429">
-        <v>2</v>
-      </c>
-      <c r="K429">
+      <c r="J430">
+        <v>2</v>
+      </c>
+      <c r="K430">
         <v>3.1</v>
       </c>
-      <c r="L429">
+      <c r="L430">
         <v>3.75</v>
       </c>
-      <c r="M429">
+      <c r="M430">
         <v>1.909</v>
       </c>
-      <c r="N429">
+      <c r="N430">
         <v>3.4</v>
       </c>
-      <c r="O429">
+      <c r="O430">
         <v>4.2</v>
       </c>
-      <c r="P429">
+      <c r="P430">
         <v>-0.5</v>
       </c>
-      <c r="Q429">
+      <c r="Q430">
         <v>1.9</v>
       </c>
-      <c r="R429">
+      <c r="R430">
         <v>1.95</v>
       </c>
-      <c r="S429">
-        <v>2</v>
-      </c>
-      <c r="T429">
+      <c r="S430">
+        <v>2</v>
+      </c>
+      <c r="T430">
         <v>1.775</v>
       </c>
-      <c r="U429">
+      <c r="U430">
         <v>2.1</v>
       </c>
-      <c r="V429">
-        <v>0</v>
-      </c>
-      <c r="W429">
-        <v>0</v>
-      </c>
-      <c r="X429">
+      <c r="V430">
+        <v>0</v>
+      </c>
+      <c r="W430">
+        <v>0</v>
+      </c>
+      <c r="X430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:28">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>36</v>
+      </c>
+      <c r="C431" t="s">
+        <v>37</v>
+      </c>
+      <c r="D431" s="2">
+        <v>45410.79166666666</v>
+      </c>
+      <c r="E431" t="s">
+        <v>41</v>
+      </c>
+      <c r="F431" t="s">
+        <v>44</v>
+      </c>
+      <c r="J431">
+        <v>1.4</v>
+      </c>
+      <c r="K431">
+        <v>4.2</v>
+      </c>
+      <c r="L431">
+        <v>7</v>
+      </c>
+      <c r="M431">
+        <v>1.444</v>
+      </c>
+      <c r="N431">
+        <v>4.333</v>
+      </c>
+      <c r="O431">
+        <v>7.5</v>
+      </c>
+      <c r="P431">
+        <v>-1.25</v>
+      </c>
+      <c r="Q431">
+        <v>2.025</v>
+      </c>
+      <c r="R431">
+        <v>1.825</v>
+      </c>
+      <c r="S431">
+        <v>2.5</v>
+      </c>
+      <c r="T431">
+        <v>2.025</v>
+      </c>
+      <c r="U431">
+        <v>1.825</v>
+      </c>
+      <c r="V431">
+        <v>0</v>
+      </c>
+      <c r="W431">
+        <v>0</v>
+      </c>
+      <c r="X431">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1705,76 +1705,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>2.75</v>
+      </c>
+      <c r="T14">
+        <v>1.95</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
-        <v>2.25</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
       <c r="V14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1791,76 +1791,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
+        <v>0.5</v>
+      </c>
+      <c r="Z15">
         <v>-0.5</v>
       </c>
-      <c r="Z15">
-        <v>0.45</v>
-      </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -18380,7 +18380,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404212</v>
+        <v>7404218</v>
       </c>
       <c r="C208" t="s">
         <v>37</v>
@@ -18389,49 +18389,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J208">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="K208">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L208">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="N208">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O208">
-        <v>2.625</v>
+        <v>12</v>
       </c>
       <c r="P208">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q208">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R208">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T208">
         <v>2.025</v>
@@ -18440,19 +18440,19 @@
         <v>1.825</v>
       </c>
       <c r="V208">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W208">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
         <v>-1</v>
@@ -18466,7 +18466,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -18475,76 +18475,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J209">
+        <v>1.95</v>
+      </c>
+      <c r="K209">
         <v>3.2</v>
       </c>
-      <c r="K209">
-        <v>3.1</v>
-      </c>
       <c r="L209">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M209">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O209">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q209">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U209">
         <v>1.975</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB209">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18638,7 +18638,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18647,76 +18647,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J211">
+        <v>3.2</v>
+      </c>
+      <c r="K211">
+        <v>3.1</v>
+      </c>
+      <c r="L211">
+        <v>2.2</v>
+      </c>
+      <c r="M211">
+        <v>3.6</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211">
+        <v>2.25</v>
+      </c>
+      <c r="P211">
+        <v>0.25</v>
+      </c>
+      <c r="Q211">
         <v>1.95</v>
       </c>
-      <c r="K211">
-        <v>3.2</v>
-      </c>
-      <c r="L211">
-        <v>3.75</v>
-      </c>
-      <c r="M211">
-        <v>1.95</v>
-      </c>
-      <c r="N211">
-        <v>3.2</v>
-      </c>
-      <c r="O211">
-        <v>4.75</v>
-      </c>
-      <c r="P211">
-        <v>-0.5</v>
-      </c>
-      <c r="Q211">
-        <v>1.925</v>
-      </c>
       <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
+        <v>2.25</v>
+      </c>
+      <c r="T211">
         <v>1.875</v>
-      </c>
-      <c r="S211">
-        <v>2</v>
-      </c>
-      <c r="T211">
-        <v>1.825</v>
       </c>
       <c r="U211">
         <v>1.975</v>
       </c>
       <c r="V211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18724,7 +18724,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404218</v>
+        <v>7404212</v>
       </c>
       <c r="C212" t="s">
         <v>37</v>
@@ -18733,49 +18733,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J212">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="K212">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M212">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O212">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="P212">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
         <v>2.025</v>
@@ -18784,19 +18784,19 @@
         <v>1.825</v>
       </c>
       <c r="V212">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -18810,7 +18810,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404213</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
@@ -18819,55 +18819,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
         <v>64</v>
       </c>
       <c r="J213">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="K213">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L213">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="M213">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N213">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O213">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="P213">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q213">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T213">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
         <v>-1</v>
@@ -18876,19 +18876,19 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>1.15</v>
+        <v>6.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB213">
-        <v>1.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18896,7 +18896,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C214" t="s">
         <v>37</v>
@@ -18905,73 +18905,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F214" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G214">
         <v>2</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J214">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K214">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M214">
+        <v>2.1</v>
+      </c>
+      <c r="N214">
+        <v>3.1</v>
+      </c>
+      <c r="O214">
+        <v>3.8</v>
+      </c>
+      <c r="P214">
+        <v>-0.25</v>
+      </c>
+      <c r="Q214">
         <v>1.75</v>
       </c>
-      <c r="N214">
-        <v>3.6</v>
-      </c>
-      <c r="O214">
-        <v>4.75</v>
-      </c>
-      <c r="P214">
-        <v>-0.75</v>
-      </c>
-      <c r="Q214">
-        <v>2</v>
-      </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -18982,7 +18982,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C215" t="s">
         <v>37</v>
@@ -18991,73 +18991,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G215">
         <v>2</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J215">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K215">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O215">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P215">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y215">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19068,7 +19068,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404219</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>37</v>
@@ -19077,55 +19077,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216" t="s">
         <v>64</v>
       </c>
       <c r="J216">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K216">
         <v>3.1</v>
       </c>
       <c r="L216">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M216">
         <v>3.6</v>
       </c>
       <c r="N216">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O216">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P216">
         <v>0.25</v>
       </c>
       <c r="Q216">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19134,19 +19134,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19154,7 +19154,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404215</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -19163,55 +19163,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F217" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I217" t="s">
         <v>64</v>
       </c>
       <c r="J217">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="K217">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L217">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="M217">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O217">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="P217">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q217">
+        <v>2.025</v>
+      </c>
+      <c r="R217">
         <v>1.775</v>
       </c>
-      <c r="R217">
-        <v>2.025</v>
-      </c>
       <c r="S217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T217">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
         <v>-1</v>
@@ -19220,19 +19220,19 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -21132,7 +21132,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C240" t="s">
         <v>37</v>
@@ -21141,58 +21141,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="E240" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="s">
         <v>63</v>
       </c>
       <c r="J240">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="K240">
         <v>3.3</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N240">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
         <v>2.5</v>
       </c>
       <c r="T240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V240">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21201,13 +21201,13 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB240">
         <v>-1</v>
@@ -21218,7 +21218,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C241" t="s">
         <v>37</v>
@@ -21227,58 +21227,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="E241" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F241" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
         <v>63</v>
       </c>
       <c r="J241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K241">
         <v>3.3</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
         <v>2.5</v>
       </c>
       <c r="T241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21287,13 +21287,13 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB241">
         <v>-1</v>
@@ -37328,31 +37328,31 @@
         <v>3.75</v>
       </c>
       <c r="M430">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N430">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O430">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P430">
         <v>-0.5</v>
       </c>
       <c r="Q430">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R430">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S430">
         <v>2</v>
       </c>
       <c r="T430">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U430">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V430">
         <v>0</v>
@@ -37393,31 +37393,31 @@
         <v>7</v>
       </c>
       <c r="M431">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N431">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O431">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="P431">
         <v>-1.25</v>
       </c>
       <c r="Q431">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R431">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S431">
         <v>2.5</v>
       </c>
       <c r="T431">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U431">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V431">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -36938,7 +36938,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7658989</v>
+        <v>7736841</v>
       </c>
       <c r="C424" t="s">
         <v>31</v>
@@ -36947,10 +36947,10 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F424" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G424">
         <v>1</v>
@@ -36962,43 +36962,43 @@
         <v>57</v>
       </c>
       <c r="J424">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="K424">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L424">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M424">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O424">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="P424">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q424">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S424">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T424">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V424">
-        <v>2.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W424">
         <v>-1</v>
@@ -37007,16 +37007,16 @@
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37024,7 +37024,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7736841</v>
+        <v>7658989</v>
       </c>
       <c r="C425" t="s">
         <v>31</v>
@@ -37033,10 +37033,10 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E425" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F425" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -37048,43 +37048,43 @@
         <v>57</v>
       </c>
       <c r="J425">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K425">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L425">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M425">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="N425">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O425">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="P425">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q425">
+        <v>2</v>
+      </c>
+      <c r="R425">
         <v>1.8</v>
       </c>
-      <c r="R425">
-        <v>2</v>
-      </c>
       <c r="S425">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T425">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U425">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V425">
-        <v>0.6499999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="W425">
         <v>-1</v>
@@ -37093,16 +37093,16 @@
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z425">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -37110,7 +37110,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7658914</v>
+        <v>7658987</v>
       </c>
       <c r="C426" t="s">
         <v>31</v>
@@ -37119,76 +37119,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E426" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F426" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G426">
         <v>0</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J426">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K426">
+        <v>3.25</v>
+      </c>
+      <c r="L426">
+        <v>2.4</v>
+      </c>
+      <c r="M426">
+        <v>3.2</v>
+      </c>
+      <c r="N426">
         <v>3.1</v>
       </c>
-      <c r="L426">
-        <v>3.75</v>
-      </c>
-      <c r="M426">
+      <c r="O426">
+        <v>2.4</v>
+      </c>
+      <c r="P426">
+        <v>0.25</v>
+      </c>
+      <c r="Q426">
+        <v>1.8</v>
+      </c>
+      <c r="R426">
+        <v>2.05</v>
+      </c>
+      <c r="S426">
         <v>2.25</v>
       </c>
-      <c r="N426">
-        <v>3.2</v>
-      </c>
-      <c r="O426">
-        <v>3.3</v>
-      </c>
-      <c r="P426">
-        <v>-0.25</v>
-      </c>
-      <c r="Q426">
-        <v>1.925</v>
-      </c>
-      <c r="R426">
+      <c r="T426">
+        <v>1.975</v>
+      </c>
+      <c r="U426">
         <v>1.875</v>
       </c>
-      <c r="S426">
-        <v>2</v>
-      </c>
-      <c r="T426">
-        <v>1.825</v>
-      </c>
-      <c r="U426">
-        <v>1.975</v>
-      </c>
       <c r="V426">
         <v>-1</v>
       </c>
       <c r="W426">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X426">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z426">
+        <v>-0.5</v>
+      </c>
+      <c r="AA426">
+        <v>-1</v>
+      </c>
+      <c r="AB426">
         <v>0.875</v>
-      </c>
-      <c r="AA426">
-        <v>0</v>
-      </c>
-      <c r="AB426">
-        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:28">
@@ -37196,7 +37196,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7658915</v>
+        <v>7658985</v>
       </c>
       <c r="C427" t="s">
         <v>31</v>
@@ -37205,55 +37205,55 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E427" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F427" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="s">
         <v>56</v>
       </c>
       <c r="J427">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K427">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L427">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M427">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N427">
         <v>3.2</v>
       </c>
       <c r="O427">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P427">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q427">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R427">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S427">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T427">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U427">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V427">
         <v>-1</v>
@@ -37265,16 +37265,16 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA427">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB427">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37282,7 +37282,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7658985</v>
+        <v>7658915</v>
       </c>
       <c r="C428" t="s">
         <v>31</v>
@@ -37291,55 +37291,55 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E428" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F428" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="s">
         <v>56</v>
       </c>
       <c r="J428">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="K428">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L428">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M428">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N428">
         <v>3.2</v>
       </c>
       <c r="O428">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P428">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q428">
+        <v>1.975</v>
+      </c>
+      <c r="R428">
+        <v>1.875</v>
+      </c>
+      <c r="S428">
+        <v>2.25</v>
+      </c>
+      <c r="T428">
         <v>2.025</v>
       </c>
-      <c r="R428">
-        <v>1.775</v>
-      </c>
-      <c r="S428">
-        <v>2</v>
-      </c>
-      <c r="T428">
-        <v>1.8</v>
-      </c>
       <c r="U428">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V428">
         <v>-1</v>
@@ -37351,16 +37351,16 @@
         <v>-1</v>
       </c>
       <c r="Y428">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z428">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA428">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB428">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37368,7 +37368,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7658987</v>
+        <v>7658988</v>
       </c>
       <c r="C429" t="s">
         <v>31</v>
@@ -37377,76 +37377,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E429" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F429" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G429">
         <v>0</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J429">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="K429">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L429">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M429">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N429">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O429">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="P429">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q429">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R429">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S429">
         <v>2.25</v>
       </c>
       <c r="T429">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U429">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V429">
         <v>-1</v>
       </c>
       <c r="W429">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y429">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="Z429">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AA429">
         <v>-1</v>
       </c>
       <c r="AB429">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37454,7 +37454,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7658988</v>
+        <v>7658914</v>
       </c>
       <c r="C430" t="s">
         <v>31</v>
@@ -37463,40 +37463,40 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E430" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F430" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G430">
         <v>0</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="s">
         <v>58</v>
       </c>
       <c r="J430">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="K430">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L430">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M430">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N430">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O430">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="P430">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q430">
         <v>1.925</v>
@@ -37505,13 +37505,13 @@
         <v>1.875</v>
       </c>
       <c r="S430">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T430">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U430">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V430">
         <v>-1</v>
@@ -37520,19 +37520,19 @@
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="Y430">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA430">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB430">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37650,7 +37650,7 @@
         <v>3.8</v>
       </c>
       <c r="M432">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N432">
         <v>3.2</v>
@@ -37662,19 +37662,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q432">
+        <v>1.775</v>
+      </c>
+      <c r="R432">
+        <v>2.1</v>
+      </c>
+      <c r="S432">
+        <v>2.25</v>
+      </c>
+      <c r="T432">
+        <v>2.05</v>
+      </c>
+      <c r="U432">
         <v>1.8</v>
-      </c>
-      <c r="R432">
-        <v>2.05</v>
-      </c>
-      <c r="S432">
-        <v>2</v>
-      </c>
-      <c r="T432">
-        <v>1.8</v>
-      </c>
-      <c r="U432">
-        <v>2.05</v>
       </c>
       <c r="V432">
         <v>0</v>
@@ -37727,10 +37727,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q433">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R433">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S433">
         <v>2.25</v>
@@ -37792,19 +37792,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q434">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R434">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S434">
         <v>2.25</v>
       </c>
       <c r="T434">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U434">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V434">
         <v>0</v>
@@ -37866,10 +37866,10 @@
         <v>2</v>
       </c>
       <c r="T435">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U435">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V435">
         <v>0</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -37110,7 +37110,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7658987</v>
+        <v>7658914</v>
       </c>
       <c r="C426" t="s">
         <v>31</v>
@@ -37119,76 +37119,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E426" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F426" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G426">
         <v>0</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J426">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K426">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L426">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M426">
+        <v>2.25</v>
+      </c>
+      <c r="N426">
         <v>3.2</v>
       </c>
-      <c r="N426">
-        <v>3.1</v>
-      </c>
       <c r="O426">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="P426">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q426">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R426">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S426">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T426">
+        <v>1.825</v>
+      </c>
+      <c r="U426">
         <v>1.975</v>
       </c>
-      <c r="U426">
-        <v>1.875</v>
-      </c>
       <c r="V426">
         <v>-1</v>
       </c>
       <c r="W426">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X426">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y426">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z426">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA426">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB426">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:28">
@@ -37196,7 +37196,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7658985</v>
+        <v>7658915</v>
       </c>
       <c r="C427" t="s">
         <v>31</v>
@@ -37205,55 +37205,55 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E427" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F427" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="s">
         <v>56</v>
       </c>
       <c r="J427">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="K427">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L427">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M427">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N427">
         <v>3.2</v>
       </c>
       <c r="O427">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P427">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q427">
+        <v>1.975</v>
+      </c>
+      <c r="R427">
+        <v>1.875</v>
+      </c>
+      <c r="S427">
+        <v>2.25</v>
+      </c>
+      <c r="T427">
         <v>2.025</v>
       </c>
-      <c r="R427">
-        <v>1.775</v>
-      </c>
-      <c r="S427">
-        <v>2</v>
-      </c>
-      <c r="T427">
-        <v>1.8</v>
-      </c>
       <c r="U427">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V427">
         <v>-1</v>
@@ -37265,16 +37265,16 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z427">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA427">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB427">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37282,7 +37282,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7658915</v>
+        <v>7658985</v>
       </c>
       <c r="C428" t="s">
         <v>31</v>
@@ -37291,55 +37291,55 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E428" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F428" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I428" t="s">
         <v>56</v>
       </c>
       <c r="J428">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K428">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L428">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M428">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N428">
         <v>3.2</v>
       </c>
       <c r="O428">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P428">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q428">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R428">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S428">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T428">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U428">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V428">
         <v>-1</v>
@@ -37351,16 +37351,16 @@
         <v>-1</v>
       </c>
       <c r="Y428">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z428">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA428">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB428">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37368,7 +37368,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7658988</v>
+        <v>7658987</v>
       </c>
       <c r="C429" t="s">
         <v>31</v>
@@ -37377,76 +37377,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E429" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F429" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G429">
         <v>0</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J429">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="K429">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L429">
+        <v>2.4</v>
+      </c>
+      <c r="M429">
+        <v>3.2</v>
+      </c>
+      <c r="N429">
+        <v>3.1</v>
+      </c>
+      <c r="O429">
+        <v>2.4</v>
+      </c>
+      <c r="P429">
+        <v>0.25</v>
+      </c>
+      <c r="Q429">
         <v>1.8</v>
       </c>
-      <c r="M429">
-        <v>5.25</v>
-      </c>
-      <c r="N429">
-        <v>3.6</v>
-      </c>
-      <c r="O429">
-        <v>1.7</v>
-      </c>
-      <c r="P429">
-        <v>0.75</v>
-      </c>
-      <c r="Q429">
-        <v>1.925</v>
-      </c>
       <c r="R429">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S429">
         <v>2.25</v>
       </c>
       <c r="T429">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U429">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V429">
         <v>-1</v>
       </c>
       <c r="W429">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X429">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
+        <v>0.4</v>
+      </c>
+      <c r="Z429">
         <v>-0.5</v>
       </c>
-      <c r="Z429">
-        <v>0.4375</v>
-      </c>
       <c r="AA429">
         <v>-1</v>
       </c>
       <c r="AB429">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37454,7 +37454,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7658914</v>
+        <v>7658988</v>
       </c>
       <c r="C430" t="s">
         <v>31</v>
@@ -37463,40 +37463,40 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E430" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F430" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G430">
         <v>0</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="s">
         <v>58</v>
       </c>
       <c r="J430">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="K430">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L430">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M430">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N430">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O430">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="P430">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q430">
         <v>1.925</v>
@@ -37505,13 +37505,13 @@
         <v>1.875</v>
       </c>
       <c r="S430">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T430">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U430">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V430">
         <v>-1</v>
@@ -37520,19 +37520,19 @@
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y430">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z430">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA430">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB430">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37650,7 +37650,7 @@
         <v>3.8</v>
       </c>
       <c r="M432">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N432">
         <v>3.2</v>
@@ -37662,19 +37662,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q432">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R432">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S432">
         <v>2.25</v>
       </c>
       <c r="T432">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U432">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V432">
         <v>0</v>
@@ -37715,22 +37715,22 @@
         <v>3.6</v>
       </c>
       <c r="M433">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N433">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O433">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P433">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q433">
+        <v>2</v>
+      </c>
+      <c r="R433">
         <v>1.85</v>
-      </c>
-      <c r="R433">
-        <v>2</v>
       </c>
       <c r="S433">
         <v>2.25</v>
@@ -37783,7 +37783,7 @@
         <v>2</v>
       </c>
       <c r="N434">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O434">
         <v>4</v>
@@ -37845,13 +37845,13 @@
         <v>3.3</v>
       </c>
       <c r="M435">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N435">
         <v>3</v>
       </c>
       <c r="O435">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P435">
         <v>-0.25</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -97,16 +97,16 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8160923</t>
+    <t>8163533</t>
   </si>
   <si>
-    <t>8161371</t>
+    <t>8163534</t>
   </si>
   <si>
-    <t>8161564</t>
+    <t>8163885</t>
   </si>
   <si>
-    <t>8160925</t>
+    <t>8163886</t>
   </si>
   <si>
     <t>Colombia Primera A</t>
@@ -552,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB435"/>
+  <dimension ref="A1:AB439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1687,76 +1687,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>2.75</v>
+      </c>
+      <c r="T14">
+        <v>1.95</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
-        <v>2.25</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
       <c r="V14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1773,76 +1773,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
+        <v>0.5</v>
+      </c>
+      <c r="Z15">
         <v>-0.5</v>
       </c>
-      <c r="Z15">
-        <v>0.45</v>
-      </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -18362,7 +18362,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C208" t="s">
         <v>31</v>
@@ -18371,76 +18371,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J208">
+        <v>3.2</v>
+      </c>
+      <c r="K208">
+        <v>3.1</v>
+      </c>
+      <c r="L208">
+        <v>2.2</v>
+      </c>
+      <c r="M208">
+        <v>3.6</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208">
+        <v>2.25</v>
+      </c>
+      <c r="P208">
+        <v>0.25</v>
+      </c>
+      <c r="Q208">
         <v>1.95</v>
       </c>
-      <c r="K208">
-        <v>3.2</v>
-      </c>
-      <c r="L208">
-        <v>3.75</v>
-      </c>
-      <c r="M208">
-        <v>1.95</v>
-      </c>
-      <c r="N208">
-        <v>3.2</v>
-      </c>
-      <c r="O208">
-        <v>4.75</v>
-      </c>
-      <c r="P208">
-        <v>-0.5</v>
-      </c>
-      <c r="Q208">
-        <v>1.925</v>
-      </c>
       <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
+        <v>2.25</v>
+      </c>
+      <c r="T208">
         <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>1.825</v>
       </c>
       <c r="U208">
         <v>1.975</v>
       </c>
       <c r="V208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18448,7 +18448,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404214</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>31</v>
@@ -18457,76 +18457,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J209">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="K209">
         <v>3.1</v>
       </c>
       <c r="L209">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M209">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O209">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R209">
         <v>1.9</v>
       </c>
       <c r="S209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y209">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18620,7 +18620,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C211" t="s">
         <v>31</v>
@@ -18629,76 +18629,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J211">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="K211">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L211">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M211">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="N211">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="P211">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q211">
         <v>1.9</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18706,7 +18706,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404218</v>
+        <v>7404217</v>
       </c>
       <c r="C212" t="s">
         <v>31</v>
@@ -18715,58 +18715,58 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G212">
         <v>2</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
         <v>57</v>
       </c>
       <c r="J212">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="K212">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O212">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T212">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -18775,16 +18775,16 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18878,7 +18878,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7404522</v>
+        <v>7404260</v>
       </c>
       <c r="C214" t="s">
         <v>31</v>
@@ -18887,73 +18887,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G214">
         <v>2</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K214">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N214">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R214">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -18964,7 +18964,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404260</v>
+        <v>7404522</v>
       </c>
       <c r="C215" t="s">
         <v>31</v>
@@ -18973,73 +18973,73 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G215">
         <v>2</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K215">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M215">
+        <v>2.1</v>
+      </c>
+      <c r="N215">
+        <v>3.1</v>
+      </c>
+      <c r="O215">
+        <v>3.8</v>
+      </c>
+      <c r="P215">
+        <v>-0.25</v>
+      </c>
+      <c r="Q215">
         <v>1.75</v>
       </c>
-      <c r="N215">
-        <v>3.6</v>
-      </c>
-      <c r="O215">
-        <v>4.75</v>
-      </c>
-      <c r="P215">
-        <v>-0.75</v>
-      </c>
-      <c r="Q215">
-        <v>2</v>
-      </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -20942,7 +20942,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528136</v>
+        <v>7528604</v>
       </c>
       <c r="C238" t="s">
         <v>31</v>
@@ -20951,76 +20951,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J238">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="K238">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="N238">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O238">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P238">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R238">
         <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21028,7 +21028,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528604</v>
+        <v>7528136</v>
       </c>
       <c r="C239" t="s">
         <v>31</v>
@@ -21037,76 +21037,76 @@
         <v>45266.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J239">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L239">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="N239">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O239">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R239">
         <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -36938,7 +36938,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7736841</v>
+        <v>7658914</v>
       </c>
       <c r="C424" t="s">
         <v>31</v>
@@ -36947,76 +36947,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F424" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J424">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K424">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L424">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M424">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N424">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O424">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P424">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R424">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S424">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T424">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U424">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V424">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y424">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB424">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37024,7 +37024,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7658989</v>
+        <v>7736841</v>
       </c>
       <c r="C425" t="s">
         <v>31</v>
@@ -37033,10 +37033,10 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E425" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F425" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -37048,43 +37048,43 @@
         <v>57</v>
       </c>
       <c r="J425">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="K425">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L425">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M425">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="N425">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O425">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="P425">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q425">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R425">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S425">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T425">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U425">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V425">
-        <v>2.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W425">
         <v>-1</v>
@@ -37093,16 +37093,16 @@
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -37110,7 +37110,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7658914</v>
+        <v>7658915</v>
       </c>
       <c r="C426" t="s">
         <v>31</v>
@@ -37119,31 +37119,31 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E426" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F426" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G426">
         <v>0</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J426">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K426">
+        <v>3</v>
+      </c>
+      <c r="L426">
         <v>3.1</v>
       </c>
-      <c r="L426">
-        <v>3.75</v>
-      </c>
       <c r="M426">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N426">
         <v>3.2</v>
@@ -37155,40 +37155,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q426">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R426">
         <v>1.875</v>
       </c>
       <c r="S426">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T426">
+        <v>2.025</v>
+      </c>
+      <c r="U426">
         <v>1.825</v>
       </c>
-      <c r="U426">
-        <v>1.975</v>
-      </c>
       <c r="V426">
         <v>-1</v>
       </c>
       <c r="W426">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X426">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z426">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA426">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB426">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="427" spans="1:28">
@@ -37196,7 +37196,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7658915</v>
+        <v>7658985</v>
       </c>
       <c r="C427" t="s">
         <v>31</v>
@@ -37205,55 +37205,55 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E427" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F427" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="s">
         <v>56</v>
       </c>
       <c r="J427">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K427">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L427">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M427">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N427">
         <v>3.2</v>
       </c>
       <c r="O427">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P427">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q427">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R427">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S427">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T427">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U427">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V427">
         <v>-1</v>
@@ -37265,16 +37265,16 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA427">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB427">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37282,7 +37282,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7658985</v>
+        <v>7658988</v>
       </c>
       <c r="C428" t="s">
         <v>31</v>
@@ -37291,76 +37291,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E428" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F428" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H428">
         <v>1</v>
       </c>
       <c r="I428" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J428">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="K428">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L428">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="M428">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N428">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O428">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="P428">
+        <v>0.75</v>
+      </c>
+      <c r="Q428">
+        <v>1.925</v>
+      </c>
+      <c r="R428">
+        <v>1.875</v>
+      </c>
+      <c r="S428">
+        <v>2.25</v>
+      </c>
+      <c r="T428">
+        <v>1.775</v>
+      </c>
+      <c r="U428">
+        <v>2.025</v>
+      </c>
+      <c r="V428">
+        <v>-1</v>
+      </c>
+      <c r="W428">
+        <v>-1</v>
+      </c>
+      <c r="X428">
+        <v>0.7</v>
+      </c>
+      <c r="Y428">
         <v>-0.5</v>
       </c>
-      <c r="Q428">
-        <v>2.025</v>
-      </c>
-      <c r="R428">
-        <v>1.775</v>
-      </c>
-      <c r="S428">
-        <v>2</v>
-      </c>
-      <c r="T428">
-        <v>1.8</v>
-      </c>
-      <c r="U428">
-        <v>2</v>
-      </c>
-      <c r="V428">
-        <v>-1</v>
-      </c>
-      <c r="W428">
-        <v>2.2</v>
-      </c>
-      <c r="X428">
-        <v>-1</v>
-      </c>
-      <c r="Y428">
-        <v>-1</v>
-      </c>
       <c r="Z428">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA428">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB428">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37368,7 +37368,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7658987</v>
+        <v>7658989</v>
       </c>
       <c r="C429" t="s">
         <v>31</v>
@@ -37377,76 +37377,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E429" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F429" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H429">
         <v>0</v>
       </c>
       <c r="I429" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J429">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K429">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L429">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M429">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N429">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O429">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="P429">
         <v>0.25</v>
       </c>
       <c r="Q429">
+        <v>2</v>
+      </c>
+      <c r="R429">
         <v>1.8</v>
       </c>
-      <c r="R429">
-        <v>2.05</v>
-      </c>
       <c r="S429">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T429">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U429">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V429">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W429">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X429">
         <v>-1</v>
       </c>
       <c r="Y429">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z429">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA429">
         <v>-1</v>
       </c>
       <c r="AB429">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37454,7 +37454,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7658988</v>
+        <v>7658990</v>
       </c>
       <c r="C430" t="s">
         <v>31</v>
@@ -37463,76 +37463,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E430" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F430" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G430">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J430">
+        <v>1.4</v>
+      </c>
+      <c r="K430">
         <v>4.2</v>
       </c>
-      <c r="K430">
-        <v>3.4</v>
-      </c>
       <c r="L430">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="M430">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N430">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O430">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="P430">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q430">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R430">
+        <v>1.9</v>
+      </c>
+      <c r="S430">
+        <v>2.5</v>
+      </c>
+      <c r="T430">
+        <v>1.975</v>
+      </c>
+      <c r="U430">
         <v>1.875</v>
       </c>
-      <c r="S430">
-        <v>2.25</v>
-      </c>
-      <c r="T430">
-        <v>1.775</v>
-      </c>
-      <c r="U430">
-        <v>2.025</v>
-      </c>
       <c r="V430">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W430">
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z430">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA430">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB430">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37540,7 +37540,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>7658990</v>
+        <v>7658987</v>
       </c>
       <c r="C431" t="s">
         <v>31</v>
@@ -37549,49 +37549,49 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E431" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F431" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G431">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H431">
         <v>0</v>
       </c>
       <c r="I431" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J431">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="K431">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L431">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="M431">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N431">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O431">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="P431">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q431">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R431">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S431">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T431">
         <v>1.975</v>
@@ -37600,33 +37600,33 @@
         <v>1.875</v>
       </c>
       <c r="V431">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W431">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X431">
         <v>-1</v>
       </c>
       <c r="Y431">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="Z431">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA431">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB431">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="432" spans="1:28">
       <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" t="s">
-        <v>27</v>
+      <c r="B432">
+        <v>8160923</v>
       </c>
       <c r="C432" t="s">
         <v>31</v>
@@ -37640,6 +37640,15 @@
       <c r="F432" t="s">
         <v>48</v>
       </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+      <c r="I432" t="s">
+        <v>57</v>
+      </c>
       <c r="J432">
         <v>2.05</v>
       </c>
@@ -37653,45 +37662,57 @@
         <v>2.1</v>
       </c>
       <c r="N432">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O432">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P432">
         <v>-0.25</v>
       </c>
       <c r="Q432">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R432">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S432">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T432">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U432">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V432">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W432">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y432">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z432">
+        <v>-1</v>
+      </c>
+      <c r="AA432">
+        <v>-1</v>
+      </c>
+      <c r="AB432">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:28">
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="s">
-        <v>28</v>
+      <c r="B433">
+        <v>8161371</v>
       </c>
       <c r="C433" t="s">
         <v>31</v>
@@ -37705,6 +37726,15 @@
       <c r="F433" t="s">
         <v>35</v>
       </c>
+      <c r="G433">
+        <v>2</v>
+      </c>
+      <c r="H433">
+        <v>1</v>
+      </c>
+      <c r="I433" t="s">
+        <v>57</v>
+      </c>
       <c r="J433">
         <v>2.1</v>
       </c>
@@ -37715,48 +37745,60 @@
         <v>3.6</v>
       </c>
       <c r="M433">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N433">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O433">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P433">
         <v>-0.5</v>
       </c>
       <c r="Q433">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R433">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S433">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T433">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U433">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V433">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W433">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y433">
+        <v>1.025</v>
+      </c>
+      <c r="Z433">
+        <v>-1</v>
+      </c>
+      <c r="AA433">
+        <v>0.8</v>
+      </c>
+      <c r="AB433">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:28">
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="s">
-        <v>29</v>
+      <c r="B434">
+        <v>8161564</v>
       </c>
       <c r="C434" t="s">
         <v>31</v>
@@ -37770,6 +37812,15 @@
       <c r="F434" t="s">
         <v>46</v>
       </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434" t="s">
+        <v>57</v>
+      </c>
       <c r="J434">
         <v>2</v>
       </c>
@@ -37780,10 +37831,10 @@
         <v>4</v>
       </c>
       <c r="M434">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N434">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O434">
         <v>4</v>
@@ -37792,36 +37843,48 @@
         <v>-0.5</v>
       </c>
       <c r="Q434">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R434">
         <v>1.85</v>
       </c>
       <c r="S434">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T434">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U434">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V434">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="W434">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y434">
+        <v>0.95</v>
+      </c>
+      <c r="Z434">
+        <v>-1</v>
+      </c>
+      <c r="AA434">
+        <v>-1</v>
+      </c>
+      <c r="AB434">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="435" spans="1:28">
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="s">
-        <v>30</v>
+      <c r="B435">
+        <v>8160925</v>
       </c>
       <c r="C435" t="s">
         <v>31</v>
@@ -37835,6 +37898,15 @@
       <c r="F435" t="s">
         <v>47</v>
       </c>
+      <c r="G435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435" t="s">
+        <v>57</v>
+      </c>
       <c r="J435">
         <v>2.3</v>
       </c>
@@ -37845,22 +37917,22 @@
         <v>3.3</v>
       </c>
       <c r="M435">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N435">
         <v>3</v>
       </c>
       <c r="O435">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P435">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q435">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R435">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S435">
         <v>2</v>
@@ -37869,15 +37941,287 @@
         <v>1.925</v>
       </c>
       <c r="U435">
+        <v>1.875</v>
+      </c>
+      <c r="V435">
+        <v>1.6</v>
+      </c>
+      <c r="W435">
+        <v>-1</v>
+      </c>
+      <c r="X435">
+        <v>-1</v>
+      </c>
+      <c r="Y435">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z435">
+        <v>-1</v>
+      </c>
+      <c r="AA435">
+        <v>0</v>
+      </c>
+      <c r="AB435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:28">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>27</v>
+      </c>
+      <c r="C436" t="s">
+        <v>31</v>
+      </c>
+      <c r="D436" s="2">
+        <v>45423.80208333334</v>
+      </c>
+      <c r="E436" t="s">
+        <v>48</v>
+      </c>
+      <c r="F436" t="s">
+        <v>42</v>
+      </c>
+      <c r="J436">
+        <v>2.55</v>
+      </c>
+      <c r="K436">
+        <v>3</v>
+      </c>
+      <c r="L436">
+        <v>2.9</v>
+      </c>
+      <c r="M436">
+        <v>2.6</v>
+      </c>
+      <c r="N436">
+        <v>3</v>
+      </c>
+      <c r="O436">
+        <v>2.875</v>
+      </c>
+      <c r="P436">
+        <v>0</v>
+      </c>
+      <c r="Q436">
+        <v>1.85</v>
+      </c>
+      <c r="R436">
+        <v>2</v>
+      </c>
+      <c r="S436">
+        <v>2</v>
+      </c>
+      <c r="T436">
+        <v>1.775</v>
+      </c>
+      <c r="U436">
+        <v>2.1</v>
+      </c>
+      <c r="V436">
+        <v>0</v>
+      </c>
+      <c r="W436">
+        <v>0</v>
+      </c>
+      <c r="X436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:28">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>28</v>
+      </c>
+      <c r="C437" t="s">
+        <v>31</v>
+      </c>
+      <c r="D437" s="2">
+        <v>45423.89583333334</v>
+      </c>
+      <c r="E437" t="s">
+        <v>35</v>
+      </c>
+      <c r="F437" t="s">
+        <v>44</v>
+      </c>
+      <c r="J437">
+        <v>1.75</v>
+      </c>
+      <c r="K437">
+        <v>3.4</v>
+      </c>
+      <c r="L437">
+        <v>4.75</v>
+      </c>
+      <c r="M437">
+        <v>1.75</v>
+      </c>
+      <c r="N437">
+        <v>3.4</v>
+      </c>
+      <c r="O437">
+        <v>4.75</v>
+      </c>
+      <c r="P437">
+        <v>-0.75</v>
+      </c>
+      <c r="Q437">
+        <v>2.025</v>
+      </c>
+      <c r="R437">
+        <v>1.825</v>
+      </c>
+      <c r="S437">
+        <v>2.25</v>
+      </c>
+      <c r="T437">
+        <v>1.975</v>
+      </c>
+      <c r="U437">
+        <v>1.875</v>
+      </c>
+      <c r="V437">
+        <v>0</v>
+      </c>
+      <c r="W437">
+        <v>0</v>
+      </c>
+      <c r="X437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:28">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>29</v>
+      </c>
+      <c r="C438" t="s">
+        <v>31</v>
+      </c>
+      <c r="D438" s="2">
+        <v>45424.80208333334</v>
+      </c>
+      <c r="E438" t="s">
+        <v>47</v>
+      </c>
+      <c r="F438" t="s">
+        <v>45</v>
+      </c>
+      <c r="J438">
+        <v>2.8</v>
+      </c>
+      <c r="K438">
+        <v>2.875</v>
+      </c>
+      <c r="L438">
+        <v>2.75</v>
+      </c>
+      <c r="M438">
+        <v>2.8</v>
+      </c>
+      <c r="N438">
+        <v>2.875</v>
+      </c>
+      <c r="O438">
+        <v>2.75</v>
+      </c>
+      <c r="P438">
+        <v>0</v>
+      </c>
+      <c r="Q438">
+        <v>1.95</v>
+      </c>
+      <c r="R438">
+        <v>1.9</v>
+      </c>
+      <c r="S438">
+        <v>2</v>
+      </c>
+      <c r="T438">
         <v>1.925</v>
       </c>
-      <c r="V435">
-        <v>0</v>
-      </c>
-      <c r="W435">
-        <v>0</v>
-      </c>
-      <c r="X435">
+      <c r="U438">
+        <v>1.925</v>
+      </c>
+      <c r="V438">
+        <v>0</v>
+      </c>
+      <c r="W438">
+        <v>0</v>
+      </c>
+      <c r="X438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:28">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>30</v>
+      </c>
+      <c r="C439" t="s">
+        <v>31</v>
+      </c>
+      <c r="D439" s="2">
+        <v>45424.89583333334</v>
+      </c>
+      <c r="E439" t="s">
+        <v>46</v>
+      </c>
+      <c r="F439" t="s">
+        <v>43</v>
+      </c>
+      <c r="J439">
+        <v>1.75</v>
+      </c>
+      <c r="K439">
+        <v>3.4</v>
+      </c>
+      <c r="L439">
+        <v>4.75</v>
+      </c>
+      <c r="M439">
+        <v>1.75</v>
+      </c>
+      <c r="N439">
+        <v>3.4</v>
+      </c>
+      <c r="O439">
+        <v>4.75</v>
+      </c>
+      <c r="P439">
+        <v>-0.75</v>
+      </c>
+      <c r="Q439">
+        <v>2.025</v>
+      </c>
+      <c r="R439">
+        <v>1.825</v>
+      </c>
+      <c r="S439">
+        <v>2.25</v>
+      </c>
+      <c r="T439">
+        <v>2.05</v>
+      </c>
+      <c r="U439">
+        <v>1.8</v>
+      </c>
+      <c r="V439">
+        <v>0</v>
+      </c>
+      <c r="W439">
+        <v>0</v>
+      </c>
+      <c r="X439">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -38006,19 +38006,19 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R436">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S436">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T436">
+        <v>2.1</v>
+      </c>
+      <c r="U436">
         <v>1.775</v>
-      </c>
-      <c r="U436">
-        <v>2.1</v>
       </c>
       <c r="V436">
         <v>0</v>
@@ -38059,31 +38059,31 @@
         <v>4.75</v>
       </c>
       <c r="M437">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="N437">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O437">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P437">
         <v>-0.75</v>
       </c>
       <c r="Q437">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R437">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S437">
         <v>2.25</v>
       </c>
       <c r="T437">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U437">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V437">
         <v>0</v>
@@ -38136,10 +38136,10 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R438">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S438">
         <v>2</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1515,58 +1515,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
       <c r="J12">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="K12">
+        <v>3.5</v>
+      </c>
+      <c r="L12">
+        <v>4.2</v>
+      </c>
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
+        <v>3.3</v>
+      </c>
+      <c r="O12">
         <v>3.75</v>
       </c>
-      <c r="L12">
-        <v>5.5</v>
-      </c>
-      <c r="M12">
-        <v>1.7</v>
-      </c>
-      <c r="N12">
-        <v>3.8</v>
-      </c>
-      <c r="O12">
-        <v>5.25</v>
-      </c>
       <c r="P12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,13 +1575,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1601,58 +1601,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
       <c r="J13">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M13">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q13">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1661,13 +1661,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6772177</v>
+        <v>6772175</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1687,76 +1687,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
+        <v>0.5</v>
+      </c>
+      <c r="Z14">
         <v>-0.5</v>
       </c>
-      <c r="Z14">
-        <v>0.45</v>
-      </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6772175</v>
+        <v>6772177</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1773,76 +1773,76 @@
         <v>45094.91666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
+        <v>1.95</v>
+      </c>
+      <c r="U15">
         <v>1.85</v>
       </c>
-      <c r="S15">
-        <v>2.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
       <c r="V15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -18362,7 +18362,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404214</v>
+        <v>7404217</v>
       </c>
       <c r="C208" t="s">
         <v>31</v>
@@ -18371,76 +18371,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J208">
+        <v>1.95</v>
+      </c>
+      <c r="K208">
         <v>3.2</v>
       </c>
-      <c r="K208">
-        <v>3.1</v>
-      </c>
       <c r="L208">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O208">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P208">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q208">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U208">
         <v>1.975</v>
       </c>
       <c r="V208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W208">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB208">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18448,7 +18448,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404216</v>
+        <v>7404218</v>
       </c>
       <c r="C209" t="s">
         <v>31</v>
@@ -18457,76 +18457,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J209">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L209">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M209">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="N209">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="P209">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q209">
         <v>1.9</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18534,7 +18534,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404212</v>
+        <v>7404216</v>
       </c>
       <c r="C210" t="s">
         <v>31</v>
@@ -18543,76 +18543,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J210">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K210">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L210">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N210">
         <v>3.2</v>
       </c>
       <c r="O210">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
         <v>2.5</v>
       </c>
       <c r="T210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18620,7 +18620,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404218</v>
+        <v>7404212</v>
       </c>
       <c r="C211" t="s">
         <v>31</v>
@@ -18629,49 +18629,49 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J211">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="K211">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L211">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M211">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N211">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="P211">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q211">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
         <v>2.025</v>
@@ -18680,19 +18680,19 @@
         <v>1.825</v>
       </c>
       <c r="V211">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA211">
         <v>-1</v>
@@ -18706,7 +18706,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C212" t="s">
         <v>31</v>
@@ -18715,76 +18715,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J212">
+        <v>3.2</v>
+      </c>
+      <c r="K212">
+        <v>3.1</v>
+      </c>
+      <c r="L212">
+        <v>2.2</v>
+      </c>
+      <c r="M212">
+        <v>3.6</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212">
+        <v>2.25</v>
+      </c>
+      <c r="P212">
+        <v>0.25</v>
+      </c>
+      <c r="Q212">
         <v>1.95</v>
       </c>
-      <c r="K212">
-        <v>3.2</v>
-      </c>
-      <c r="L212">
-        <v>3.75</v>
-      </c>
-      <c r="M212">
-        <v>1.95</v>
-      </c>
-      <c r="N212">
-        <v>3.2</v>
-      </c>
-      <c r="O212">
-        <v>4.75</v>
-      </c>
-      <c r="P212">
-        <v>-0.5</v>
-      </c>
-      <c r="Q212">
-        <v>1.925</v>
-      </c>
       <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>2.25</v>
+      </c>
+      <c r="T212">
         <v>1.875</v>
-      </c>
-      <c r="S212">
-        <v>2</v>
-      </c>
-      <c r="T212">
-        <v>1.825</v>
       </c>
       <c r="U212">
         <v>1.975</v>
       </c>
       <c r="V212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18792,7 +18792,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404219</v>
+        <v>7404215</v>
       </c>
       <c r="C213" t="s">
         <v>31</v>
@@ -18801,55 +18801,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
         <v>58</v>
       </c>
       <c r="J213">
+        <v>1.444</v>
+      </c>
+      <c r="K213">
+        <v>4.5</v>
+      </c>
+      <c r="L213">
+        <v>6</v>
+      </c>
+      <c r="M213">
+        <v>1.363</v>
+      </c>
+      <c r="N213">
+        <v>5</v>
+      </c>
+      <c r="O213">
+        <v>7.5</v>
+      </c>
+      <c r="P213">
+        <v>-1.25</v>
+      </c>
+      <c r="Q213">
+        <v>1.775</v>
+      </c>
+      <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
         <v>3</v>
       </c>
-      <c r="K213">
-        <v>3.1</v>
-      </c>
-      <c r="L213">
-        <v>2.3</v>
-      </c>
-      <c r="M213">
-        <v>3.6</v>
-      </c>
-      <c r="N213">
-        <v>3.4</v>
-      </c>
-      <c r="O213">
-        <v>2.1</v>
-      </c>
-      <c r="P213">
-        <v>0.25</v>
-      </c>
-      <c r="Q213">
-        <v>2.025</v>
-      </c>
-      <c r="R213">
-        <v>1.775</v>
-      </c>
-      <c r="S213">
-        <v>2.5</v>
-      </c>
       <c r="T213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
         <v>-1</v>
@@ -18858,19 +18858,19 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19050,7 +19050,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404215</v>
+        <v>7404213</v>
       </c>
       <c r="C216" t="s">
         <v>31</v>
@@ -19059,55 +19059,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="s">
         <v>58</v>
       </c>
       <c r="J216">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="K216">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="M216">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O216">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="P216">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q216">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19116,19 +19116,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>6.5</v>
+        <v>1.15</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19136,7 +19136,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7404213</v>
+        <v>7404219</v>
       </c>
       <c r="C217" t="s">
         <v>31</v>
@@ -19145,55 +19145,55 @@
         <v>45238.89583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217" t="s">
         <v>58</v>
       </c>
       <c r="J217">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K217">
         <v>3.1</v>
       </c>
       <c r="L217">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M217">
         <v>3.6</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O217">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P217">
         <v>0.25</v>
       </c>
       <c r="Q217">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R217">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T217">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
         <v>-1</v>
@@ -19202,19 +19202,19 @@
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -21114,7 +21114,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528603</v>
+        <v>7528135</v>
       </c>
       <c r="C240" t="s">
         <v>31</v>
@@ -21123,58 +21123,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F240" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="s">
         <v>57</v>
       </c>
       <c r="J240">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K240">
         <v>3.3</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N240">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O240">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
         <v>2.5</v>
       </c>
       <c r="T240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21183,13 +21183,13 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB240">
         <v>-1</v>
@@ -21200,7 +21200,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528135</v>
+        <v>7528603</v>
       </c>
       <c r="C241" t="s">
         <v>31</v>
@@ -21209,58 +21209,58 @@
         <v>45266.92708333334</v>
       </c>
       <c r="E241" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="s">
         <v>57</v>
       </c>
       <c r="J241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="K241">
         <v>3.3</v>
       </c>
       <c r="L241">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M241">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N241">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
         <v>2.5</v>
       </c>
       <c r="T241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21269,13 +21269,13 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
         <v>-1</v>
@@ -36938,7 +36938,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7658914</v>
+        <v>7658988</v>
       </c>
       <c r="C424" t="s">
         <v>31</v>
@@ -36947,40 +36947,40 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F424" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G424">
         <v>0</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="s">
         <v>58</v>
       </c>
       <c r="J424">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="K424">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L424">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M424">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N424">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O424">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="P424">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q424">
         <v>1.925</v>
@@ -36989,13 +36989,13 @@
         <v>1.875</v>
       </c>
       <c r="S424">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T424">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U424">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V424">
         <v>-1</v>
@@ -37004,19 +37004,19 @@
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z424">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA424">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37024,7 +37024,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7736841</v>
+        <v>7658914</v>
       </c>
       <c r="C425" t="s">
         <v>31</v>
@@ -37033,76 +37033,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E425" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F425" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J425">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K425">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L425">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M425">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N425">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O425">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P425">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q425">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R425">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S425">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T425">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U425">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V425">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W425">
         <v>-1</v>
       </c>
       <c r="X425">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y425">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA425">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB425">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -37282,7 +37282,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7658988</v>
+        <v>7658987</v>
       </c>
       <c r="C428" t="s">
         <v>31</v>
@@ -37291,76 +37291,76 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E428" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F428" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G428">
         <v>0</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J428">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="K428">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L428">
+        <v>2.4</v>
+      </c>
+      <c r="M428">
+        <v>3.2</v>
+      </c>
+      <c r="N428">
+        <v>3.1</v>
+      </c>
+      <c r="O428">
+        <v>2.4</v>
+      </c>
+      <c r="P428">
+        <v>0.25</v>
+      </c>
+      <c r="Q428">
         <v>1.8</v>
       </c>
-      <c r="M428">
-        <v>5.25</v>
-      </c>
-      <c r="N428">
-        <v>3.6</v>
-      </c>
-      <c r="O428">
-        <v>1.7</v>
-      </c>
-      <c r="P428">
-        <v>0.75</v>
-      </c>
-      <c r="Q428">
-        <v>1.925</v>
-      </c>
       <c r="R428">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S428">
         <v>2.25</v>
       </c>
       <c r="T428">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U428">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V428">
         <v>-1</v>
       </c>
       <c r="W428">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X428">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y428">
+        <v>0.4</v>
+      </c>
+      <c r="Z428">
         <v>-0.5</v>
       </c>
-      <c r="Z428">
-        <v>0.4375</v>
-      </c>
       <c r="AA428">
         <v>-1</v>
       </c>
       <c r="AB428">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37540,7 +37540,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>7658987</v>
+        <v>7736841</v>
       </c>
       <c r="C431" t="s">
         <v>31</v>
@@ -37549,61 +37549,61 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E431" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F431" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431">
         <v>0</v>
       </c>
       <c r="I431" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J431">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="K431">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L431">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M431">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N431">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O431">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="P431">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q431">
         <v>1.8</v>
       </c>
       <c r="R431">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S431">
         <v>2.25</v>
       </c>
       <c r="T431">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U431">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V431">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W431">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X431">
         <v>-1</v>
@@ -37618,7 +37618,7 @@
         <v>-1</v>
       </c>
       <c r="AB431">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:28">
@@ -38006,10 +38006,10 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R436">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S436">
         <v>2.25</v>

--- a/Colombia Primera A/Colombia Primera A.xlsx
+++ b/Colombia Primera A/Colombia Primera A.xlsx
@@ -97,16 +97,16 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8163533</t>
+    <t>8163887</t>
   </si>
   <si>
-    <t>8163534</t>
+    <t>8163888</t>
   </si>
   <si>
-    <t>8163885</t>
+    <t>8163535</t>
   </si>
   <si>
-    <t>8163886</t>
+    <t>8163536</t>
   </si>
   <si>
     <t>Colombia Primera A</t>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6772174</v>
+        <v>6772176</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1515,58 +1515,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
       <c r="J12">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q12">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,13 +1575,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6772176</v>
+        <v>6772174</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1601,58 +1601,58 @@
         <v>45094.80208333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
       <c r="J13">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="K13">
+        <v>3.5</v>
+      </c>
+      <c r="L13">
+        <v>4.2</v>
+      </c>
+      <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
+        <v>3.3</v>
+      </c>
+      <c r="O13">
         <v>3.75</v>
       </c>
-      <c r="L13">
-        <v>5.5</v>
-      </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
-      <c r="N13">
-        <v>3.8</v>
-      </c>
-      <c r="O13">
-        <v>5.25</v>
-      </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1661,13 +1661,13 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -18362,7 +18362,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404217</v>
+        <v>7404214</v>
       </c>
       <c r="C208" t="s">
         <v>31</v>
@@ -18371,76 +18371,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J208">
+        <v>3.2</v>
+      </c>
+      <c r="K208">
+        <v>3.1</v>
+      </c>
+      <c r="L208">
+        <v>2.2</v>
+      </c>
+      <c r="M208">
+        <v>3.6</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208">
+        <v>2.25</v>
+      </c>
+      <c r="P208">
+        <v>0.25</v>
+      </c>
+      <c r="Q208">
         <v>1.95</v>
       </c>
-      <c r="K208">
-        <v>3.2</v>
-      </c>
-      <c r="L208">
-        <v>3.75</v>
-      </c>
-      <c r="M208">
-        <v>1.95</v>
-      </c>
-      <c r="N208">
-        <v>3.2</v>
-      </c>
-      <c r="O208">
-        <v>4.75</v>
-      </c>
-      <c r="P208">
-        <v>-0.5</v>
-      </c>
-      <c r="Q208">
-        <v>1.925</v>
-      </c>
       <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
+        <v>2.25</v>
+      </c>
+      <c r="T208">
         <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>1.825</v>
       </c>
       <c r="U208">
         <v>1.975</v>
       </c>
       <c r="V208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18448,7 +18448,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404218</v>
+        <v>7404216</v>
       </c>
       <c r="C209" t="s">
         <v>31</v>
@@ -18457,76 +18457,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J209">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="K209">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L209">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M209">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="N209">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O209">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
         <v>1.9</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18534,7 +18534,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404216</v>
+        <v>7404217</v>
       </c>
       <c r="C210" t="s">
         <v>31</v>
@@ -18543,76 +18543,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J210">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K210">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L210">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M210">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N210">
         <v>3.2</v>
       </c>
       <c r="O210">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P210">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T210">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18706,7 +18706,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404214</v>
+        <v>7404218</v>
       </c>
       <c r="C212" t="s">
         <v>31</v>
@@ -18715,76 +18715,76 @@
         <v>45237.89583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J212">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="K212">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L212">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="M212">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="N212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O212">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="P212">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q212">
+        <v>1.9</v>
+      </c>
+      <c r="R212">
         <v>1.95</v>
       </c>
-      <c r="R212">
-        <v>1.9</v>
-      </c>
       <c r="S212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
-        <v>